--- a/InputData/PlatformOperation.xlsx
+++ b/InputData/PlatformOperation.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HJY\Shared\North Sea System Integration (Anna P., Jiangyi H.)\Modelling\InputData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\PhD project\Products\Models\OffPlatfEner\InputData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE1B1E23-7A47-4E86-9ED8-820325325C07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F92FBCF1-4142-417A-BBC4-F8860E0BCEA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="851" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
     <sheet name="Onshore_supply_ts" sheetId="17" r:id="rId17"/>
     <sheet name="FeasibilityTest" sheetId="18" r:id="rId18"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -45,9 +45,6 @@
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -56,6 +53,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
+    <author>Peecock, Anna</author>
   </authors>
   <commentList>
     <comment ref="A9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
@@ -76,7 +74,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Use amine to absorb</t>
         </r>
@@ -100,13 +98,13 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>assume to incl. GT consumption, flaring, and venting</t>
         </r>
       </text>
     </comment>
-    <comment ref="G20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+    <comment ref="H20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -124,7 +122,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Sheet "04 Gas turb. simple cycle Sm-Me"</t>
         </r>
@@ -175,13 +173,13 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Simply flue gas condensation, no WHRU.</t>
         </r>
       </text>
     </comment>
-    <comment ref="F23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+    <comment ref="G23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -199,13 +197,37 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Assumption. Validation needed</t>
         </r>
       </text>
     </comment>
-    <comment ref="C61" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="B60" authorId="1" shapeId="0" xr:uid="{865EAA33-E2EC-4345-A5FA-9D448D60586C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Peecock, Anna:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Cessation of production</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C62" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -223,13 +245,13 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Heat loss is all counted in production</t>
         </r>
       </text>
     </comment>
-    <comment ref="B69" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="B70" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -247,13 +269,13 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Yet to be implemented in SpineOpt</t>
         </r>
       </text>
     </comment>
-    <comment ref="B75" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="B76" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -271,7 +293,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Yet to be implemented in SpineOpt</t>
         </r>
@@ -340,7 +362,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>This needs to be 0 to enable investment, see: https://spine-tools.github.io/SpineOpt.jl/latest/advanced_concepts/investment_optimization/#Creating-an-Investment-Candidate-Unit-Example</t>
         </r>
@@ -364,7 +386,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Minimum available time</t>
         </r>
@@ -388,7 +410,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Assumed available time</t>
         </r>
@@ -422,7 +444,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Entities in column G need change accordingly.</t>
         </r>
@@ -456,7 +478,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>0 capacity cannot block transmission in a direction.</t>
         </r>
@@ -480,7 +502,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Necessary to block reversing transmission</t>
         </r>
@@ -504,7 +526,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Connections need to be set as "bidirectional" to enable transimission at the moment.</t>
         </r>
@@ -515,7 +537,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="288">
   <si>
     <t>Specification document (open access)</t>
   </si>
@@ -700,21 +722,12 @@
     <t>Nominal investment (total)</t>
   </si>
   <si>
-    <t>2015-MEUR/MW_e</t>
-  </si>
-  <si>
     <t>Variable O&amp;M (total)</t>
   </si>
   <si>
-    <t>2015-EUR/MWh_e</t>
-  </si>
-  <si>
     <t>Fixed O&amp;M (total)</t>
   </si>
   <si>
-    <t>2015-EUR/MW_e/y</t>
-  </si>
-  <si>
     <t>Technical lifetime</t>
   </si>
   <si>
@@ -889,15 +902,9 @@
     <t>fom_cost</t>
   </si>
   <si>
-    <t>2015-EUR/MW_e/h</t>
-  </si>
-  <si>
     <t>unit_investment_cost</t>
   </si>
   <si>
-    <t>2015-EUR/unit</t>
-  </si>
-  <si>
     <t>fuel efficiency</t>
   </si>
   <si>
@@ -1376,6 +1383,24 @@
   </si>
   <si>
     <t>node_slack_penalty</t>
+  </si>
+  <si>
+    <t>2023-M£/MW_e</t>
+  </si>
+  <si>
+    <t>2023-M£/MWh_e</t>
+  </si>
+  <si>
+    <t>2023-£/MW_e/y</t>
+  </si>
+  <si>
+    <t>2023-£/unit</t>
+  </si>
+  <si>
+    <t>Available capacity reservoir at EOP</t>
+  </si>
+  <si>
+    <t>min_down_time</t>
   </si>
 </sst>
 </file>
@@ -1393,13 +1418,20 @@
     <numFmt numFmtId="171" formatCode="#,##0.0000"/>
     <numFmt numFmtId="172" formatCode="yyyy\-mm\-dd\Thh:mm:ss"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -1413,7 +1445,7 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -1433,6 +1465,33 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -1458,7 +1517,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1504,31 +1563,70 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1537,7 +1635,7 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1548,26 +1646,35 @@
     <xf numFmtId="170" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Hyperlink 2" xfId="4" xr:uid="{FD027DEA-9858-4DB8-8C97-D4831AA2618A}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="3" xr:uid="{AD5D44AD-B476-4A0F-AE15-B35CAD20783E}"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1948,9 +2055,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R84"/>
+  <dimension ref="A1:R76"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
+    <sheetView topLeftCell="A40" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1960,7 +2069,7 @@
     <col min="4" max="4" width="24.7109375" customWidth="1"/>
     <col min="5" max="5" width="13.7109375" customWidth="1"/>
     <col min="6" max="6" width="17.7109375" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" customWidth="1"/>
+    <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.85546875" customWidth="1"/>
     <col min="10" max="10" width="20.140625" customWidth="1"/>
     <col min="11" max="11" width="2" customWidth="1"/>
@@ -2011,7 +2120,7 @@
       <c r="J3" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" t="s">
         <v>10</v>
       </c>
       <c r="L3">
@@ -2037,7 +2146,7 @@
       <c r="J4" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" t="s">
         <v>10</v>
       </c>
       <c r="L4">
@@ -2057,7 +2166,7 @@
       <c r="C5" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <f>B5*L8*10^6</f>
         <v>172222.22222222222</v>
       </c>
@@ -2070,7 +2179,7 @@
       <c r="J5" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" t="s">
         <v>10</v>
       </c>
       <c r="L5">
@@ -2081,7 +2190,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" t="s">
         <v>21</v>
       </c>
       <c r="B6">
@@ -2097,10 +2206,10 @@
       <c r="J6" t="s">
         <v>20</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="K6" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="6">
+      <c r="L6" s="5">
         <f>1/3.6</f>
         <v>0.27777777777777779</v>
       </c>
@@ -2109,7 +2218,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" t="s">
         <v>23</v>
       </c>
       <c r="B7">
@@ -2124,7 +2233,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" t="s">
         <v>25</v>
       </c>
       <c r="B8">
@@ -2140,10 +2249,10 @@
       <c r="J8" t="s">
         <v>9</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="K8" t="s">
         <v>10</v>
       </c>
-      <c r="L8" s="7">
+      <c r="L8" s="6">
         <f>L3*L6/1000</f>
         <v>1.1111111111111112E-2</v>
       </c>
@@ -2152,7 +2261,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" t="s">
         <v>27</v>
       </c>
       <c r="B9">
@@ -2168,7 +2277,7 @@
       <c r="J9" t="s">
         <v>28</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="K9" t="s">
         <v>10</v>
       </c>
       <c r="L9">
@@ -2183,7 +2292,7 @@
       <c r="A10" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="7">
         <v>175000</v>
       </c>
       <c r="C10" t="s">
@@ -2202,7 +2311,7 @@
       <c r="J10" t="s">
         <v>19</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="K10" t="s">
         <v>10</v>
       </c>
       <c r="L10">
@@ -2214,10 +2323,10 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="A11" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="7">
         <f>B10</f>
         <v>175000</v>
       </c>
@@ -2226,10 +2335,10 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="A12" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="8">
         <v>0.9</v>
       </c>
       <c r="I12">
@@ -2238,7 +2347,7 @@
       <c r="J12" t="s">
         <v>34</v>
       </c>
-      <c r="K12" s="4" t="s">
+      <c r="K12" t="s">
         <v>10</v>
       </c>
       <c r="L12">
@@ -2252,7 +2361,7 @@
       <c r="A13" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="7">
         <v>25000</v>
       </c>
       <c r="C13" t="s">
@@ -2270,7 +2379,7 @@
       <c r="J13" t="s">
         <v>39</v>
       </c>
-      <c r="K13" s="4" t="s">
+      <c r="K13" t="s">
         <v>10</v>
       </c>
       <c r="L13">
@@ -2284,7 +2393,7 @@
       <c r="A14" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14" s="9">
         <v>31</v>
       </c>
       <c r="C14" t="s">
@@ -2295,7 +2404,7 @@
       <c r="A15" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15" s="9">
         <v>2</v>
       </c>
       <c r="C15" t="s">
@@ -2306,21 +2415,21 @@
       <c r="A16" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16" s="7">
         <v>120</v>
       </c>
       <c r="C16" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B17" s="8"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B17" s="7"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>45</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C18" t="s">
@@ -2330,11 +2439,11 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="11">
+      <c r="B19" s="10">
         <v>0.03</v>
       </c>
       <c r="C19" t="s">
@@ -2347,549 +2456,585 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="13">
+      <c r="B20" s="39">
         <v>2015</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C20" s="11">
         <v>2020</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D20" s="11">
         <v>2030</v>
       </c>
-      <c r="E20" s="12">
+      <c r="E20" s="11">
+        <v>2040</v>
+      </c>
+      <c r="F20" s="11">
         <v>2050</v>
       </c>
-      <c r="F20" s="12"/>
-      <c r="G20" s="14" t="s">
+      <c r="G20" s="11"/>
+      <c r="H20" s="12" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="9">
+      <c r="B21" s="40">
         <v>0.34</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C21">
+        <v>0.34</v>
+      </c>
+      <c r="D21" s="8">
         <v>0.35</v>
       </c>
-      <c r="D21" s="9">
+      <c r="E21" s="8">
         <v>0.37</v>
       </c>
-      <c r="E21" s="9">
+      <c r="F21" s="8">
         <v>0.38</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>54</v>
       </c>
-      <c r="B22" s="15">
+      <c r="B22" s="41">
         <v>0.71</v>
       </c>
-      <c r="C22" s="15">
+      <c r="C22">
+        <v>0.71</v>
+      </c>
+      <c r="D22" s="13">
         <v>0.73</v>
       </c>
-      <c r="D22" s="15">
+      <c r="E22" s="13">
         <v>0.8</v>
       </c>
-      <c r="E22" s="15">
+      <c r="F22" s="13">
         <v>0.8</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="H22" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="J22" s="16"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+      <c r="K22" s="14"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>56</v>
       </c>
-      <c r="B23" s="15">
+      <c r="B23" s="41">
         <v>0.6</v>
       </c>
-      <c r="C23" s="15">
+      <c r="C23">
         <v>0.6</v>
       </c>
-      <c r="D23" s="15">
+      <c r="D23" s="13">
         <v>0.6</v>
       </c>
-      <c r="E23" s="15">
+      <c r="E23" s="13">
         <v>0.6</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="13">
+        <v>0.6</v>
+      </c>
+      <c r="G23" t="s">
         <v>57</v>
       </c>
-      <c r="G23" s="2"/>
-      <c r="J23" s="16"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
+      <c r="H23" s="2"/>
+      <c r="K23" s="14"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>58</v>
       </c>
-      <c r="B24" s="15">
+      <c r="B24" s="41">
         <v>0.04</v>
       </c>
-      <c r="C24" s="15">
+      <c r="C24">
         <v>0.04</v>
       </c>
-      <c r="D24" s="15">
+      <c r="D24" s="13">
         <v>0.04</v>
       </c>
-      <c r="E24" s="15">
+      <c r="E24" s="13">
         <v>0.04</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="13">
+        <v>0.04</v>
+      </c>
+      <c r="G24" t="s">
         <v>59</v>
       </c>
-      <c r="G24" s="2"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H24" s="2"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>60</v>
       </c>
-      <c r="B25" s="15">
+      <c r="B25" s="41">
         <v>0.75</v>
       </c>
-      <c r="C25">
-        <v>0.73</v>
-      </c>
-      <c r="D25">
-        <v>0.7</v>
-      </c>
-      <c r="E25">
-        <v>0.68</v>
-      </c>
-      <c r="F25" t="s">
+      <c r="C25" s="47">
+        <v>0.77400000000000002</v>
+      </c>
+      <c r="D25" s="47">
+        <v>0.75336000000000003</v>
+      </c>
+      <c r="E25" s="47">
+        <v>0.72239999999999993</v>
+      </c>
+      <c r="F25" s="47">
+        <v>0.70176000000000005</v>
+      </c>
+      <c r="G25" t="s">
+        <v>282</v>
+      </c>
+      <c r="H25" s="2"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>61</v>
       </c>
-      <c r="G25" s="2"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
+      <c r="B26" s="41">
+        <v>5.5</v>
+      </c>
+      <c r="C26" s="49">
+        <v>5.858585858585859</v>
+      </c>
+      <c r="D26" s="49">
+        <v>5.7520661157024806</v>
+      </c>
+      <c r="E26" s="49">
+        <v>5.4325068870523419</v>
+      </c>
+      <c r="F26" s="49">
+        <v>4.8999081726354454</v>
+      </c>
+      <c r="G26" t="s">
+        <v>283</v>
+      </c>
+      <c r="H26" s="2"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>62</v>
       </c>
-      <c r="B26" s="15">
-        <v>5.5</v>
-      </c>
-      <c r="C26">
-        <v>5.4</v>
-      </c>
-      <c r="D26">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="E26">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="F26" t="s">
+      <c r="B27" s="42">
+        <v>20000</v>
+      </c>
+      <c r="C27" s="48">
+        <v>20640.000000000004</v>
+      </c>
+      <c r="D27" s="48">
+        <v>20124</v>
+      </c>
+      <c r="E27" s="48">
+        <v>19195.2</v>
+      </c>
+      <c r="F27" s="48">
+        <v>18576</v>
+      </c>
+      <c r="G27" t="s">
+        <v>284</v>
+      </c>
+      <c r="H27" s="2"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>63</v>
       </c>
-      <c r="G26" s="2"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="B28" s="43">
+        <v>25</v>
+      </c>
+      <c r="C28">
+        <v>25</v>
+      </c>
+      <c r="D28" s="7">
+        <v>25</v>
+      </c>
+      <c r="E28" s="9">
+        <v>25</v>
+      </c>
+      <c r="F28" s="7">
+        <v>25</v>
+      </c>
+      <c r="G28" t="s">
         <v>64</v>
       </c>
-      <c r="B27" s="8">
-        <v>20000</v>
-      </c>
-      <c r="C27">
-        <v>19500</v>
-      </c>
-      <c r="D27">
-        <v>18600</v>
-      </c>
-      <c r="E27">
-        <v>18000</v>
-      </c>
-      <c r="F27" t="s">
+      <c r="H28" s="2"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>65</v>
       </c>
-      <c r="G27" s="2"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="B29" s="44">
+        <v>0.02</v>
+      </c>
+      <c r="C29">
+        <v>0.02</v>
+      </c>
+      <c r="D29" s="15">
+        <v>0.02</v>
+      </c>
+      <c r="E29" s="15">
+        <v>0.02</v>
+      </c>
+      <c r="F29" s="15">
+        <v>0.02</v>
+      </c>
+      <c r="H29" s="2"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>66</v>
       </c>
-      <c r="B28" s="10">
-        <v>25</v>
-      </c>
-      <c r="C28" s="8">
-        <v>25</v>
-      </c>
-      <c r="D28" s="10">
-        <v>25</v>
-      </c>
-      <c r="E28" s="8">
-        <v>25</v>
-      </c>
-      <c r="F28" t="s">
+      <c r="B30" s="45">
+        <v>3</v>
+      </c>
+      <c r="C30">
+        <v>3</v>
+      </c>
+      <c r="D30" s="16">
+        <v>2.8</v>
+      </c>
+      <c r="E30" s="16">
+        <v>2.5</v>
+      </c>
+      <c r="F30" s="16">
+        <v>2.5</v>
+      </c>
+      <c r="G30" t="s">
         <v>67</v>
       </c>
-      <c r="G28" s="2"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>68</v>
-      </c>
-      <c r="B29" s="17">
-        <v>0.02</v>
-      </c>
-      <c r="C29" s="17">
-        <v>0.02</v>
-      </c>
-      <c r="D29" s="17">
-        <v>0.02</v>
-      </c>
-      <c r="E29" s="17">
-        <v>0.02</v>
-      </c>
-      <c r="G29" s="2"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>69</v>
-      </c>
-      <c r="B30" s="18">
-        <v>3</v>
-      </c>
-      <c r="C30" s="18">
-        <v>2.8</v>
-      </c>
-      <c r="D30" s="18">
-        <v>2.5</v>
-      </c>
-      <c r="E30" s="18">
-        <v>2.5</v>
-      </c>
-      <c r="F30" t="s">
-        <v>70</v>
-      </c>
-      <c r="G30" s="2"/>
-      <c r="K30" s="19"/>
-      <c r="L30" s="19"/>
-      <c r="M30" s="19"/>
-      <c r="N30" s="19"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H30" s="2"/>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="17"/>
+      <c r="O30" s="17"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>69</v>
-      </c>
-      <c r="B31" s="17">
+        <v>66</v>
+      </c>
+      <c r="B31" s="46">
         <f>B30*24*7/$L$12</f>
         <v>5.7534246575342465E-2</v>
       </c>
-      <c r="C31" s="17">
-        <f>C30*24*7/$L$12</f>
+      <c r="C31">
+        <v>0.06</v>
+      </c>
+      <c r="D31" s="15">
+        <f>D30*24*7/$L$12</f>
         <v>5.3698630136986295E-2</v>
       </c>
-      <c r="D31" s="17">
-        <f>D30*24*7/$L$12</f>
-        <v>4.7945205479452052E-2</v>
-      </c>
-      <c r="E31" s="17">
+      <c r="E31" s="15">
         <f>E30*24*7/$L$12</f>
         <v>4.7945205479452052E-2</v>
       </c>
-      <c r="G31" s="2"/>
+      <c r="F31" s="15">
+        <f>F30*24*7/$L$12</f>
+        <v>4.7945205479452052E-2</v>
+      </c>
+      <c r="H31" s="2"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>71</v>
-      </c>
-      <c r="B33" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B33" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
       </c>
       <c r="D33" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E33" s="3">
         <v>400000</v>
       </c>
       <c r="F33" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>75</v>
-      </c>
-      <c r="B34" s="8">
+        <v>72</v>
+      </c>
+      <c r="B34" s="7">
         <f>D10*B12/L13</f>
         <v>10434.375</v>
       </c>
       <c r="C34" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D34" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E34">
         <v>80</v>
       </c>
       <c r="F34" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>79</v>
-      </c>
-      <c r="B35" s="8">
+        <v>76</v>
+      </c>
+      <c r="B35" s="7">
         <f>D5*B12/L13</f>
         <v>6458.333333333333</v>
       </c>
       <c r="C35" t="s">
-        <v>76</v>
-      </c>
-      <c r="E35" s="20">
+        <v>73</v>
+      </c>
+      <c r="E35" s="18">
         <f>E34/L4*10^6</f>
         <v>503144654.08805031</v>
       </c>
       <c r="F35" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>80</v>
-      </c>
-      <c r="B36" s="8">
+        <v>77</v>
+      </c>
+      <c r="B36" s="7">
         <f>B35*B19</f>
         <v>193.74999999999997</v>
       </c>
       <c r="C36" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D36" t="s">
-        <v>81</v>
-      </c>
-      <c r="E36" s="21">
+        <v>78</v>
+      </c>
+      <c r="E36" s="19">
         <f>56.1*0.0036</f>
         <v>0.20196</v>
       </c>
       <c r="F36" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>84</v>
-      </c>
-      <c r="B37" s="8">
+        <v>81</v>
+      </c>
+      <c r="B37" s="7">
         <f>B49/B21</f>
         <v>89.370588235294107</v>
       </c>
       <c r="C37" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E37" s="3">
         <f>E36*L8*10^6</f>
         <v>2244</v>
       </c>
       <c r="F37" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A39" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="B39" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="C39" s="20" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="22" t="s">
+      <c r="D39" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="B39" s="22" t="s">
+      <c r="E39" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="C39" s="22" t="s">
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A40" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="D39" s="22" t="s">
+      <c r="B40" s="20"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A41" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="E39" s="22" t="s">
+      <c r="B41" s="20">
+        <v>12.5</v>
+      </c>
+      <c r="C41" s="20">
+        <v>13.9</v>
+      </c>
+      <c r="D41" s="20">
+        <v>14.6</v>
+      </c>
+      <c r="E41" s="20">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A42" s="20" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" s="22" t="s">
+      <c r="B42" s="20">
+        <v>1.7</v>
+      </c>
+      <c r="C42" s="20">
+        <v>1.9</v>
+      </c>
+      <c r="D42" s="20">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E42" s="20">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A43" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="B40" s="22"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="22" t="s">
+      <c r="B43" s="20">
+        <v>2</v>
+      </c>
+      <c r="C43" s="20">
+        <v>2</v>
+      </c>
+      <c r="D43" s="20">
+        <v>2</v>
+      </c>
+      <c r="E43" s="20"/>
+      <c r="J43" s="21"/>
+      <c r="K43" s="22"/>
+      <c r="L43" s="22"/>
+      <c r="M43" s="22"/>
+      <c r="N43" s="22"/>
+      <c r="O43" s="22"/>
+      <c r="P43" s="22"/>
+      <c r="R43" s="22"/>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A44" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="B41" s="22">
-        <v>12.5</v>
-      </c>
-      <c r="C41" s="22">
-        <v>13.9</v>
-      </c>
-      <c r="D41" s="22">
-        <v>14.6</v>
-      </c>
-      <c r="E41" s="22">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="22" t="s">
+      <c r="B44" s="20">
+        <v>16.2</v>
+      </c>
+      <c r="C44" s="20">
+        <v>17.8</v>
+      </c>
+      <c r="D44" s="20">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="E44" s="20">
+        <v>2.7</v>
+      </c>
+      <c r="K44" s="17"/>
+      <c r="L44" s="17"/>
+      <c r="M44" s="17"/>
+      <c r="N44" s="17"/>
+      <c r="O44" s="17"/>
+      <c r="P44" s="17"/>
+      <c r="R44" s="17"/>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A45" s="20"/>
+      <c r="B45" s="20"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="20"/>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A46" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="B42" s="22">
-        <v>1.7</v>
-      </c>
-      <c r="C42" s="22">
-        <v>1.9</v>
-      </c>
-      <c r="D42" s="22">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="E42" s="22">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A43" s="22" t="s">
+      <c r="B46" s="20"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="20"/>
+      <c r="E46" s="20"/>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A47" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="B47" s="23">
+        <v>27.02</v>
+      </c>
+      <c r="C47" s="23">
+        <v>31.888000000000002</v>
+      </c>
+      <c r="D47" s="23">
+        <v>33.588000000000001</v>
+      </c>
+      <c r="E47" s="20">
+        <v>6.5679999999999898</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A48" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="B48" s="23">
+        <v>3.3660000000000001</v>
+      </c>
+      <c r="C48" s="23">
+        <v>3.7559999999999998</v>
+      </c>
+      <c r="D48" s="23">
+        <v>3.8879999999999999</v>
+      </c>
+      <c r="E48" s="20">
+        <v>0.52200000000000002</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="B43" s="22">
-        <v>2</v>
-      </c>
-      <c r="C43" s="22">
-        <v>2</v>
-      </c>
-      <c r="D43" s="22">
-        <v>2</v>
-      </c>
-      <c r="E43" s="22"/>
-      <c r="J43" s="23"/>
-      <c r="K43" s="24"/>
-      <c r="L43" s="24"/>
-      <c r="M43" s="24"/>
-      <c r="N43" s="24"/>
-      <c r="O43" s="24"/>
-      <c r="P43" s="24"/>
-      <c r="R43" s="24"/>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A44" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="B44" s="22">
-        <v>16.2</v>
-      </c>
-      <c r="C44" s="22">
-        <v>17.8</v>
-      </c>
-      <c r="D44" s="22">
-        <v>18.899999999999999</v>
-      </c>
-      <c r="E44" s="22">
-        <v>2.7</v>
-      </c>
-      <c r="K44" s="19"/>
-      <c r="L44" s="19"/>
-      <c r="M44" s="19"/>
-      <c r="N44" s="19"/>
-      <c r="O44" s="19"/>
-      <c r="P44" s="19"/>
-      <c r="R44" s="19"/>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A45" s="22"/>
-      <c r="B45" s="22"/>
-      <c r="C45" s="22"/>
-      <c r="D45" s="22"/>
-      <c r="E45" s="22"/>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="B46" s="22"/>
-      <c r="C46" s="22"/>
-      <c r="D46" s="22"/>
-      <c r="E46" s="22"/>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="B47" s="25">
-        <v>27.02</v>
-      </c>
-      <c r="C47" s="25">
-        <v>31.888000000000002</v>
-      </c>
-      <c r="D47" s="25">
-        <v>33.588000000000001</v>
-      </c>
-      <c r="E47" s="22">
-        <v>6.5679999999999898</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A48" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="B48" s="25">
-        <v>3.3660000000000001</v>
-      </c>
-      <c r="C48" s="25">
-        <v>3.7559999999999998</v>
-      </c>
-      <c r="D48" s="25">
-        <v>3.8879999999999999</v>
-      </c>
-      <c r="E48" s="22">
-        <v>0.52200000000000002</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="B49" s="25">
+      <c r="B49" s="23">
         <v>30.385999999999999</v>
       </c>
-      <c r="C49" s="25">
+      <c r="C49" s="23">
         <v>35.643999999999998</v>
       </c>
-      <c r="D49" s="25">
+      <c r="D49" s="23">
         <v>37.475999999999999</v>
       </c>
-      <c r="E49" s="26">
+      <c r="E49" s="24">
         <v>7.0899999999999901</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B52" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C52" t="s">
         <v>5</v>
@@ -2898,315 +3043,319 @@
         <v>4</v>
       </c>
       <c r="E52" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F52" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B53" t="s">
-        <v>104</v>
-      </c>
-      <c r="C53" s="27">
+        <v>101</v>
+      </c>
+      <c r="C53" s="25">
         <f>B34/L10/10^6</f>
         <v>1.0434375000000001E-3</v>
       </c>
       <c r="D53" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E53" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C54" s="27">
+      <c r="C54" s="25">
         <f>B35/L8/10^6</f>
         <v>0.58125000000000004</v>
       </c>
       <c r="D54" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E54" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C55" s="28">
+      <c r="C55" s="26">
         <f>SUM(C53:C54)</f>
         <v>0.58229343750000007</v>
       </c>
       <c r="D55" t="s">
+        <v>102</v>
+      </c>
+      <c r="E55" t="s">
         <v>105</v>
-      </c>
-      <c r="E55" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>109</v>
-      </c>
-      <c r="C56" s="28">
+        <v>106</v>
+      </c>
+      <c r="C56" s="26">
         <f>C53/C55</f>
         <v>1.7919444609918002E-3</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>110</v>
-      </c>
-      <c r="C57" s="28">
+        <v>107</v>
+      </c>
+      <c r="C57" s="26">
         <f>C54/C55</f>
         <v>0.99820805553900815</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C58">
         <v>40</v>
       </c>
       <c r="D58" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>112</v>
-      </c>
-      <c r="C59" s="20">
+        <v>109</v>
+      </c>
+      <c r="C59" s="18">
         <f>C55*C58*L12</f>
         <v>204035.62050000002</v>
       </c>
       <c r="D59" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>114</v>
-      </c>
       <c r="B60" t="s">
-        <v>115</v>
-      </c>
-      <c r="C60" s="3">
+        <v>286</v>
+      </c>
+      <c r="C60" s="18">
+        <f>SUM(ProductionUnit_well_stream_ts!B8:B9)*Base!L12*10</f>
+        <v>100064.90512500002</v>
+      </c>
+      <c r="D60" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>111</v>
+      </c>
+      <c r="B61" t="s">
+        <v>112</v>
+      </c>
+      <c r="C61" s="3">
         <f>B47/C55</f>
         <v>46.402721136626234</v>
       </c>
-      <c r="D60" t="s">
-        <v>116</v>
-      </c>
-      <c r="E60" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C61" s="3">
+      <c r="D61" t="s">
+        <v>113</v>
+      </c>
+      <c r="E61" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C62" s="3">
         <f>SUM(B41,B43)/C55</f>
         <v>24.901534288715041</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D62" t="s">
+        <v>113</v>
+      </c>
+      <c r="E62" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>116</v>
       </c>
-      <c r="E61" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>119</v>
-      </c>
-      <c r="B62" t="s">
-        <v>120</v>
-      </c>
-      <c r="C62" s="3">
+      <c r="B63" t="s">
+        <v>117</v>
+      </c>
+      <c r="C63" s="3">
         <f>B48/B3</f>
         <v>3.7400000000000003E-2</v>
       </c>
-      <c r="D62" t="s">
-        <v>121</v>
-      </c>
-      <c r="E62" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C63" s="3">
+      <c r="D63" t="s">
+        <v>118</v>
+      </c>
+      <c r="E63" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C64" s="3">
         <f>B42/B3</f>
         <v>1.8888888888888889E-2</v>
       </c>
-      <c r="D63" t="s">
-        <v>121</v>
-      </c>
-      <c r="E63" t="s">
+      <c r="D64" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>122</v>
-      </c>
-      <c r="B64" t="s">
-        <v>123</v>
-      </c>
-      <c r="C64" s="3">
-        <f>B27/L12</f>
-        <v>2.2831050228310503</v>
-      </c>
-      <c r="D64" t="s">
-        <v>124</v>
+      <c r="E64" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>119</v>
+      </c>
       <c r="B65" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C65" s="3">
-        <f>B25*B14*10^6</f>
-        <v>23250000</v>
+        <f>C27/L12</f>
+        <v>2.3561643835616444</v>
       </c>
       <c r="D65" t="s">
-        <v>126</v>
+        <v>284</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C66" s="3">
+        <f>C25*B14*10^6</f>
+        <v>23994000</v>
+      </c>
+      <c r="D66" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>122</v>
+      </c>
+      <c r="C67" s="3">
         <f>B21*L8*10^6</f>
         <v>3777.7777777777783</v>
       </c>
-      <c r="D66" t="s">
-        <v>116</v>
-      </c>
-      <c r="E66" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C67" s="3">
-        <f>C66*B23</f>
+      <c r="D67" t="s">
+        <v>113</v>
+      </c>
+      <c r="E67" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C68" s="3">
+        <f>C67*B23</f>
         <v>2266.666666666667</v>
       </c>
-      <c r="D67" t="s">
-        <v>116</v>
-      </c>
-      <c r="E67" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B68" t="s">
-        <v>128</v>
-      </c>
-      <c r="C68" s="29">
+      <c r="D68" t="s">
+        <v>113</v>
+      </c>
+      <c r="E68" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>123</v>
+      </c>
+      <c r="C69" s="27">
         <f>B26</f>
         <v>5.5</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B69" t="s">
-        <v>129</v>
-      </c>
-      <c r="C69" s="30">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>124</v>
+      </c>
+      <c r="C70" s="28">
         <f>1-SUM(B31,B29)</f>
         <v>0.92246575342465753</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>130</v>
-      </c>
-      <c r="B70" t="s">
-        <v>123</v>
-      </c>
-      <c r="C70" s="3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>125</v>
+      </c>
+      <c r="B71" t="s">
+        <v>120</v>
+      </c>
+      <c r="C71" s="3">
         <f>D27/L12</f>
-        <v>2.1232876712328768</v>
-      </c>
-      <c r="D70" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B71" t="s">
-        <v>125</v>
-      </c>
-      <c r="C71" s="3">
-        <f>D25*B14*10^6</f>
-        <v>21700000</v>
+        <v>2.2972602739726029</v>
       </c>
       <c r="D71" t="s">
-        <v>126</v>
+        <v>284</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C72" s="3">
-        <f>D21*L8*10^6</f>
+        <f>D25*B14*10^6</f>
+        <v>23354160</v>
+      </c>
+      <c r="D72" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>122</v>
+      </c>
+      <c r="C73" s="3">
+        <f>E21*L8*10^6</f>
         <v>4111.1111111111113</v>
       </c>
-      <c r="D72" t="s">
-        <v>116</v>
-      </c>
-      <c r="E72" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C73" s="3">
-        <f>C72*D23</f>
+      <c r="D73" t="s">
+        <v>113</v>
+      </c>
+      <c r="E73" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C74" s="3">
+        <f>C73*E23</f>
         <v>2466.6666666666665</v>
       </c>
-      <c r="D73" t="s">
-        <v>116</v>
-      </c>
-      <c r="E73" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B74" t="s">
-        <v>128</v>
-      </c>
-      <c r="C74" s="3">
-        <f>D26</f>
-        <v>5.0999999999999996</v>
+      <c r="D74" t="s">
+        <v>113</v>
+      </c>
+      <c r="E74" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>129</v>
-      </c>
-      <c r="C75" s="30">
-        <f>1-SUM(D29,D31)</f>
+        <v>123</v>
+      </c>
+      <c r="C75" s="3">
+        <f>D26</f>
+        <v>5.7520661157024806</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>124</v>
+      </c>
+      <c r="C76" s="28">
+        <f>1-SUM(E29,E31)</f>
         <v>0.93205479452054796</v>
       </c>
     </row>
-    <row r="82" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C82" s="31"/>
-    </row>
-    <row r="83" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C83" s="31"/>
-    </row>
-    <row r="84" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C84" s="31"/>
-    </row>
   </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="I2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="D19" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="G20" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="G22" r:id="rId5" location="page=21" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="H20" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="H22" r:id="rId5" location="page=21" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
     <hyperlink ref="G33" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
     <hyperlink ref="G36" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
   </hyperlinks>
@@ -3220,7 +3369,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
+    <sheetView zoomScale="99" zoomScaleNormal="99" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3240,87 +3389,87 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C1" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="E1" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="F1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="G1" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="H1" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="I1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="J1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="K1" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="M1" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="N1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="O1" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="P1" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B2" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="E2" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="F2" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="G2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="H2" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="I2" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="J2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="K2">
         <v>-1</v>
       </c>
       <c r="M2" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="N2" t="s">
-        <v>173</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>224</v>
+        <v>168</v>
+      </c>
+      <c r="O2" t="s">
+        <v>219</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -3328,22 +3477,22 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="F3" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="G3" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="H3" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="I3" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="J3" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="K3">
         <f>Base!B19</f>
@@ -3360,7 +3509,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
+    <sheetView zoomScale="107" zoomScaleNormal="107" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3377,48 +3526,48 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B1" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C1" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="E1" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="F1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="G1" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="H1" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="I1" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="J1" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B2" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E2" t="s">
-        <v>163</v>
-      </c>
-      <c r="F2" s="33" t="s">
-        <v>208</v>
+        <v>158</v>
+      </c>
+      <c r="F2" t="s">
+        <v>203</v>
       </c>
       <c r="G2" t="b">
         <f>FALSE()</f>
@@ -3427,19 +3576,19 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C3" t="s">
         <v>152</v>
       </c>
-      <c r="B3" t="s">
-        <v>163</v>
-      </c>
-      <c r="C3" t="s">
-        <v>157</v>
-      </c>
       <c r="E3" t="s">
-        <v>167</v>
-      </c>
-      <c r="F3" s="33" t="s">
-        <v>208</v>
+        <v>162</v>
+      </c>
+      <c r="F3" t="s">
+        <v>203</v>
       </c>
       <c r="G3" t="b">
         <f>FALSE()</f>
@@ -3448,21 +3597,21 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="F4" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="H4" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E5" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="F5" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="I5" t="b">
         <f>TRUE()</f>
@@ -3475,7 +3624,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -3488,7 +3637,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
+    <sheetView zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3509,114 +3660,114 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C1" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="E1" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="F1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="G1" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="H1" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="J1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="K1" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="M1" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="N1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="O1" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B2" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G2" t="s">
+        <v>163</v>
+      </c>
+      <c r="H2" t="s">
+        <v>153</v>
+      </c>
+      <c r="I2" t="s">
+        <v>177</v>
+      </c>
+      <c r="J2" t="s">
         <v>168</v>
-      </c>
-      <c r="E2" t="s">
-        <v>179</v>
-      </c>
-      <c r="F2" t="s">
-        <v>162</v>
-      </c>
-      <c r="G2" t="s">
-        <v>168</v>
-      </c>
-      <c r="H2" t="s">
-        <v>158</v>
-      </c>
-      <c r="I2" t="s">
-        <v>182</v>
-      </c>
-      <c r="J2" t="s">
-        <v>173</v>
       </c>
       <c r="K2">
         <f>Base!E37</f>
         <v>2244</v>
       </c>
       <c r="M2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="N2" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="O2">
-        <v>100</v>
+        <v>83.03</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B3" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E3" t="s">
+        <v>174</v>
+      </c>
+      <c r="F3" t="s">
+        <v>156</v>
+      </c>
+      <c r="G3" t="s">
+        <v>163</v>
+      </c>
+      <c r="H3" t="s">
+        <v>153</v>
+      </c>
+      <c r="I3" t="s">
+        <v>177</v>
+      </c>
+      <c r="J3" t="s">
         <v>168</v>
-      </c>
-      <c r="E3" t="s">
-        <v>179</v>
-      </c>
-      <c r="F3" t="s">
-        <v>161</v>
-      </c>
-      <c r="G3" t="s">
-        <v>168</v>
-      </c>
-      <c r="H3" t="s">
-        <v>158</v>
-      </c>
-      <c r="I3" t="s">
-        <v>182</v>
-      </c>
-      <c r="J3" t="s">
-        <v>173</v>
       </c>
       <c r="K3">
         <f>Base!E37</f>
@@ -3625,31 +3776,31 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E4" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="F4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="G4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="H4" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="I4" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="J4" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="K4">
         <f>Base!E37</f>
@@ -3658,13 +3809,13 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B5" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C5" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -3676,10 +3827,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3689,634 +3840,633 @@
     <col min="3" max="4" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B1" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C1" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D2" t="s">
-        <v>168</v>
-      </c>
-      <c r="F2" s="33"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C3" t="s">
+        <v>226</v>
+      </c>
+      <c r="D3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B4" t="s">
+        <v>228</v>
+      </c>
+      <c r="C4" t="s">
+        <v>229</v>
+      </c>
+      <c r="D4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B5" s="36">
+        <v>0</v>
+      </c>
+      <c r="C5" s="36">
+        <v>0</v>
+      </c>
+      <c r="D5" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>231</v>
       </c>
-      <c r="C3" t="s">
-        <v>231</v>
-      </c>
-      <c r="D3" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>170</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="B6" s="36">
+        <v>47.96</v>
+      </c>
+      <c r="C6" s="36">
+        <v>47.96</v>
+      </c>
+      <c r="D6" s="36">
+        <v>47.96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>232</v>
+      </c>
+      <c r="B7" s="36">
+        <v>52.56</v>
+      </c>
+      <c r="C7" s="36">
+        <v>52.56</v>
+      </c>
+      <c r="D7" s="36">
+        <v>52.56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>233</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B8" s="36">
+        <v>83.03</v>
+      </c>
+      <c r="C8" s="36">
+        <v>83.03</v>
+      </c>
+      <c r="D8" s="36">
+        <v>83.03</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>234</v>
       </c>
-      <c r="D4" t="s">
+      <c r="B9" s="36">
+        <v>83.860299999999995</v>
+      </c>
+      <c r="C9" s="36">
+        <v>85.10575</v>
+      </c>
+      <c r="D9" s="36">
+        <v>87.1815</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>209</v>
+      </c>
+      <c r="B10" s="36">
+        <v>84.698899999999995</v>
+      </c>
+      <c r="C10" s="36">
+        <v>87.23339</v>
+      </c>
+      <c r="D10" s="36">
+        <v>91.540580000000006</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>189</v>
-      </c>
-      <c r="B5" s="42">
-        <v>47.96</v>
-      </c>
-      <c r="C5" s="42">
-        <v>47.96</v>
-      </c>
-      <c r="D5" s="42">
-        <v>47.96</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B11" s="36">
+        <v>85.54589</v>
+      </c>
+      <c r="C11" s="36">
+        <v>89.414230000000003</v>
+      </c>
+      <c r="D11" s="36">
+        <v>96.117599999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>236</v>
       </c>
-      <c r="B6" s="42">
-        <v>47.96</v>
-      </c>
-      <c r="C6" s="42">
-        <v>47.96</v>
-      </c>
-      <c r="D6" s="42">
-        <v>47.96</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B12" s="36">
+        <v>86.401349999999994</v>
+      </c>
+      <c r="C12" s="36">
+        <v>91.64958</v>
+      </c>
+      <c r="D12" s="36">
+        <v>100.9235</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>237</v>
       </c>
-      <c r="B7" s="42">
-        <v>52.56</v>
-      </c>
-      <c r="C7" s="42">
-        <v>52.56</v>
-      </c>
-      <c r="D7" s="42">
-        <v>52.56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B13" s="36">
+        <v>87.265360000000001</v>
+      </c>
+      <c r="C13" s="36">
+        <v>93.940820000000002</v>
+      </c>
+      <c r="D13" s="36">
+        <v>105.9697</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>238</v>
       </c>
-      <c r="B8" s="42">
-        <v>83.03</v>
-      </c>
-      <c r="C8" s="42">
-        <v>83.03</v>
-      </c>
-      <c r="D8" s="42">
-        <v>83.03</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B14" s="36">
+        <v>88.138019999999997</v>
+      </c>
+      <c r="C14" s="36">
+        <v>96.289339999999996</v>
+      </c>
+      <c r="D14" s="36">
+        <v>111.2681</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>185</v>
+      </c>
+      <c r="B15" s="36">
+        <v>89.019400000000005</v>
+      </c>
+      <c r="C15" s="36">
+        <v>98.696579999999997</v>
+      </c>
+      <c r="D15" s="36">
+        <v>116.83150000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>239</v>
       </c>
-      <c r="B9" s="42">
-        <v>83.860299999999995</v>
-      </c>
-      <c r="C9" s="42">
-        <v>85.10575</v>
-      </c>
-      <c r="D9" s="42">
-        <v>87.1815</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>214</v>
-      </c>
-      <c r="B10" s="42">
-        <v>84.698899999999995</v>
-      </c>
-      <c r="C10" s="42">
-        <v>87.23339</v>
-      </c>
-      <c r="D10" s="42">
-        <v>91.540580000000006</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>240</v>
-      </c>
-      <c r="B11" s="42">
-        <v>85.54589</v>
-      </c>
-      <c r="C11" s="42">
-        <v>89.414230000000003</v>
-      </c>
-      <c r="D11" s="42">
-        <v>96.117599999999996</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>241</v>
-      </c>
-      <c r="B12" s="42">
-        <v>86.401349999999994</v>
-      </c>
-      <c r="C12" s="42">
-        <v>91.64958</v>
-      </c>
-      <c r="D12" s="42">
-        <v>100.9235</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>242</v>
-      </c>
-      <c r="B13" s="42">
-        <v>87.265360000000001</v>
-      </c>
-      <c r="C13" s="42">
-        <v>93.940820000000002</v>
-      </c>
-      <c r="D13" s="42">
-        <v>105.9697</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>243</v>
-      </c>
-      <c r="B14" s="42">
-        <v>88.138019999999997</v>
-      </c>
-      <c r="C14" s="42">
-        <v>96.289339999999996</v>
-      </c>
-      <c r="D14" s="42">
-        <v>111.2681</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>190</v>
-      </c>
-      <c r="B15" s="42">
-        <v>89.019400000000005</v>
-      </c>
-      <c r="C15" s="42">
-        <v>98.696579999999997</v>
-      </c>
-      <c r="D15" s="42">
-        <v>116.83150000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>244</v>
-      </c>
-      <c r="B16" s="42">
+      <c r="B16" s="36">
         <v>89.909589999999994</v>
       </c>
-      <c r="C16" s="42">
+      <c r="C16" s="36">
         <v>101.164</v>
       </c>
-      <c r="D16" s="42">
+      <c r="D16" s="36">
         <v>122.67310000000001</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>245</v>
-      </c>
-      <c r="B17" s="42">
+        <v>240</v>
+      </c>
+      <c r="B17" s="36">
         <v>90.808689999999999</v>
       </c>
-      <c r="C17" s="42">
+      <c r="C17" s="36">
         <v>103.6931</v>
       </c>
-      <c r="D17" s="42">
+      <c r="D17" s="36">
         <v>128.80680000000001</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>246</v>
-      </c>
-      <c r="B18" s="42">
+        <v>241</v>
+      </c>
+      <c r="B18" s="36">
         <v>91.71678</v>
       </c>
-      <c r="C18" s="42">
+      <c r="C18" s="36">
         <v>106.2854</v>
       </c>
-      <c r="D18" s="42">
+      <c r="D18" s="36">
         <v>135.24709999999999</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>242</v>
+      </c>
+      <c r="B19" s="36">
+        <v>92.633939999999996</v>
+      </c>
+      <c r="C19" s="36">
+        <v>108.9426</v>
+      </c>
+      <c r="D19" s="36">
+        <v>142.0095</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="37" t="s">
+        <v>210</v>
+      </c>
+      <c r="B20" s="36">
+        <v>93.560280000000006</v>
+      </c>
+      <c r="C20" s="36">
+        <v>111.6661</v>
+      </c>
+      <c r="D20" s="36">
+        <v>149.11000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="37" t="s">
+        <v>243</v>
+      </c>
+      <c r="B21" s="36">
+        <v>94.495890000000003</v>
+      </c>
+      <c r="C21" s="36">
+        <v>114.45780000000001</v>
+      </c>
+      <c r="D21" s="36">
+        <v>156.56540000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="37" t="s">
+        <v>244</v>
+      </c>
+      <c r="B22" s="36">
+        <v>95.440839999999994</v>
+      </c>
+      <c r="C22" s="36">
+        <v>117.3192</v>
+      </c>
+      <c r="D22" s="36">
+        <v>164.3937</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="37" t="s">
+        <v>245</v>
+      </c>
+      <c r="B23" s="36">
+        <v>96.395250000000004</v>
+      </c>
+      <c r="C23" s="36">
+        <v>120.2522</v>
+      </c>
+      <c r="D23" s="36">
+        <v>172.61340000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="37" t="s">
+        <v>246</v>
+      </c>
+      <c r="B24" s="36">
+        <v>97.359200000000001</v>
+      </c>
+      <c r="C24" s="36">
+        <v>123.2585</v>
+      </c>
+      <c r="D24" s="36">
+        <v>181.2441</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="37" t="s">
+        <v>186</v>
+      </c>
+      <c r="B25" s="36">
+        <v>98.332800000000006</v>
+      </c>
+      <c r="C25" s="36">
+        <v>126.34</v>
+      </c>
+      <c r="D25" s="36">
+        <v>190.30629999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="37" t="s">
         <v>247</v>
       </c>
-      <c r="B19" s="42">
-        <v>92.633939999999996</v>
-      </c>
-      <c r="C19" s="42">
-        <v>108.9426</v>
-      </c>
-      <c r="D19" s="42">
-        <v>142.0095</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="43" t="s">
-        <v>215</v>
-      </c>
-      <c r="B20" s="42">
-        <v>93.560280000000006</v>
-      </c>
-      <c r="C20" s="42">
-        <v>111.6661</v>
-      </c>
-      <c r="D20" s="42">
-        <v>149.11000000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="43" t="s">
+      <c r="B26" s="36">
+        <v>99.316119999999998</v>
+      </c>
+      <c r="C26" s="36">
+        <v>129.49850000000001</v>
+      </c>
+      <c r="D26" s="36">
+        <v>199.82159999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="37" t="s">
         <v>248</v>
       </c>
-      <c r="B21" s="42">
-        <v>94.495890000000003</v>
-      </c>
-      <c r="C21" s="42">
-        <v>114.45780000000001</v>
-      </c>
-      <c r="D21" s="42">
-        <v>156.56540000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="43" t="s">
+      <c r="B27" s="36">
+        <v>100.30929999999999</v>
+      </c>
+      <c r="C27" s="36">
+        <v>132.73589999999999</v>
+      </c>
+      <c r="D27" s="36">
+        <v>209.81270000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="37" t="s">
         <v>249</v>
       </c>
-      <c r="B22" s="42">
-        <v>95.440839999999994</v>
-      </c>
-      <c r="C22" s="42">
-        <v>117.3192</v>
-      </c>
-      <c r="D22" s="42">
-        <v>164.3937</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="43" t="s">
+      <c r="B28" s="36">
+        <v>101.3124</v>
+      </c>
+      <c r="C28" s="36">
+        <v>136.05430000000001</v>
+      </c>
+      <c r="D28" s="36">
+        <v>220.30330000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="37" t="s">
         <v>250</v>
       </c>
-      <c r="B23" s="42">
-        <v>96.395250000000004</v>
-      </c>
-      <c r="C23" s="42">
-        <v>120.2522</v>
-      </c>
-      <c r="D23" s="42">
-        <v>172.61340000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="43" t="s">
+      <c r="B29" s="36">
+        <v>102.32550000000001</v>
+      </c>
+      <c r="C29" s="36">
+        <v>139.45570000000001</v>
+      </c>
+      <c r="D29" s="36">
+        <v>231.3185</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="37" t="s">
+        <v>211</v>
+      </c>
+      <c r="B30" s="36">
+        <v>103.3488</v>
+      </c>
+      <c r="C30" s="36">
+        <v>142.94210000000001</v>
+      </c>
+      <c r="D30" s="36">
+        <v>242.8844</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="37" t="s">
         <v>251</v>
       </c>
-      <c r="B24" s="42">
-        <v>97.359200000000001</v>
-      </c>
-      <c r="C24" s="42">
-        <v>123.2585</v>
-      </c>
-      <c r="D24" s="42">
-        <v>181.2441</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="43" t="s">
-        <v>191</v>
-      </c>
-      <c r="B25" s="42">
-        <v>98.332800000000006</v>
-      </c>
-      <c r="C25" s="42">
-        <v>126.34</v>
-      </c>
-      <c r="D25" s="42">
-        <v>190.30629999999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="43" t="s">
+      <c r="B31" s="36">
+        <v>104.3822</v>
+      </c>
+      <c r="C31" s="36">
+        <v>146.51560000000001</v>
+      </c>
+      <c r="D31" s="36">
+        <v>255.02860000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="37" t="s">
         <v>252</v>
       </c>
-      <c r="B26" s="42">
-        <v>99.316119999999998</v>
-      </c>
-      <c r="C26" s="42">
-        <v>129.49850000000001</v>
-      </c>
-      <c r="D26" s="42">
-        <v>199.82159999999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="43" t="s">
+      <c r="B32" s="36">
+        <v>105.42610000000001</v>
+      </c>
+      <c r="C32" s="36">
+        <v>150.17850000000001</v>
+      </c>
+      <c r="D32" s="36">
+        <v>267.77999999999997</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="37" t="s">
         <v>253</v>
       </c>
-      <c r="B27" s="42">
-        <v>100.30929999999999</v>
-      </c>
-      <c r="C27" s="42">
-        <v>132.73589999999999</v>
-      </c>
-      <c r="D27" s="42">
-        <v>209.81270000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="43" t="s">
+      <c r="B33" s="36">
+        <v>106.4803</v>
+      </c>
+      <c r="C33" s="36">
+        <v>153.93299999999999</v>
+      </c>
+      <c r="D33" s="36">
+        <v>281.16910000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="37" t="s">
         <v>254</v>
       </c>
-      <c r="B28" s="42">
-        <v>101.3124</v>
-      </c>
-      <c r="C28" s="42">
-        <v>136.05430000000001</v>
-      </c>
-      <c r="D28" s="42">
-        <v>220.30330000000001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="43" t="s">
+      <c r="B34" s="36">
+        <v>107.54510000000001</v>
+      </c>
+      <c r="C34" s="36">
+        <v>157.78129999999999</v>
+      </c>
+      <c r="D34" s="36">
+        <v>295.22750000000002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="37" t="s">
+        <v>187</v>
+      </c>
+      <c r="B35" s="36">
+        <v>108.6206</v>
+      </c>
+      <c r="C35" s="36">
+        <v>161.72579999999999</v>
+      </c>
+      <c r="D35" s="36">
+        <v>309.9889</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="37" t="s">
         <v>255</v>
       </c>
-      <c r="B29" s="42">
-        <v>102.32550000000001</v>
-      </c>
-      <c r="C29" s="42">
-        <v>139.45570000000001</v>
-      </c>
-      <c r="D29" s="42">
-        <v>231.3185</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="43" t="s">
-        <v>216</v>
-      </c>
-      <c r="B30" s="42">
-        <v>103.3488</v>
-      </c>
-      <c r="C30" s="42">
-        <v>142.94210000000001</v>
-      </c>
-      <c r="D30" s="42">
-        <v>242.8844</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="43" t="s">
+      <c r="B36" s="36">
+        <v>109.7068</v>
+      </c>
+      <c r="C36" s="36">
+        <v>165.76900000000001</v>
+      </c>
+      <c r="D36" s="36">
+        <v>325.48829999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="37" t="s">
         <v>256</v>
       </c>
-      <c r="B31" s="42">
-        <v>104.3822</v>
-      </c>
-      <c r="C31" s="42">
-        <v>146.51560000000001</v>
-      </c>
-      <c r="D31" s="42">
-        <v>255.02860000000001</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="43" t="s">
+      <c r="B37" s="36">
+        <v>110.8039</v>
+      </c>
+      <c r="C37" s="36">
+        <v>169.91319999999999</v>
+      </c>
+      <c r="D37" s="36">
+        <v>341.7627</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="37" t="s">
         <v>257</v>
       </c>
-      <c r="B32" s="42">
-        <v>105.42610000000001</v>
-      </c>
-      <c r="C32" s="42">
-        <v>150.17850000000001</v>
-      </c>
-      <c r="D32" s="42">
-        <v>267.77999999999997</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="43" t="s">
+      <c r="B38" s="36">
+        <v>111.9119</v>
+      </c>
+      <c r="C38" s="36">
+        <v>174.161</v>
+      </c>
+      <c r="D38" s="36">
+        <v>6205458</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="37" t="s">
         <v>258</v>
       </c>
-      <c r="B33" s="42">
-        <v>106.4803</v>
-      </c>
-      <c r="C33" s="42">
-        <v>153.93299999999999</v>
-      </c>
-      <c r="D33" s="42">
-        <v>281.16910000000001</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="43" t="s">
+      <c r="B39" s="36">
+        <v>113.03100000000001</v>
+      </c>
+      <c r="C39" s="36">
+        <v>178.51509999999999</v>
+      </c>
+      <c r="D39" s="36">
+        <v>376.79340000000002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="37" t="s">
+        <v>212</v>
+      </c>
+      <c r="B40" s="36">
+        <v>114.1613</v>
+      </c>
+      <c r="C40" s="36">
+        <v>182.97790000000001</v>
+      </c>
+      <c r="D40" s="36">
+        <v>395.63310000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="37" t="s">
         <v>259</v>
       </c>
-      <c r="B34" s="42">
-        <v>107.54510000000001</v>
-      </c>
-      <c r="C34" s="42">
-        <v>157.78129999999999</v>
-      </c>
-      <c r="D34" s="42">
-        <v>295.22750000000002</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="43" t="s">
-        <v>192</v>
-      </c>
-      <c r="B35" s="42">
-        <v>108.6206</v>
-      </c>
-      <c r="C35" s="42">
-        <v>161.72579999999999</v>
-      </c>
-      <c r="D35" s="42">
-        <v>309.9889</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="43" t="s">
+      <c r="B41" s="36">
+        <v>115.30289999999999</v>
+      </c>
+      <c r="C41" s="36">
+        <v>187.55240000000001</v>
+      </c>
+      <c r="D41" s="36">
+        <v>415.41469999999998</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="37" t="s">
         <v>260</v>
       </c>
-      <c r="B36" s="42">
-        <v>109.7068</v>
-      </c>
-      <c r="C36" s="42">
-        <v>165.76900000000001</v>
-      </c>
-      <c r="D36" s="42">
-        <v>325.48829999999998</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="43" t="s">
+      <c r="B42" s="36">
+        <v>116.456</v>
+      </c>
+      <c r="C42" s="36">
+        <v>192.24119999999999</v>
+      </c>
+      <c r="D42" s="36">
+        <v>436.18549999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="37" t="s">
         <v>261</v>
       </c>
-      <c r="B37" s="42">
-        <v>110.8039</v>
-      </c>
-      <c r="C37" s="42">
-        <v>169.91319999999999</v>
-      </c>
-      <c r="D37" s="42">
-        <v>341.7627</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="43" t="s">
+      <c r="B43" s="36">
+        <v>117.62050000000001</v>
+      </c>
+      <c r="C43" s="36">
+        <v>197.0472</v>
+      </c>
+      <c r="D43" s="36">
+        <v>457.9948</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="37" t="s">
         <v>262</v>
       </c>
-      <c r="B38" s="42">
-        <v>111.9119</v>
-      </c>
-      <c r="C38" s="42">
-        <v>174.161</v>
-      </c>
-      <c r="D38" s="42">
-        <v>6205458</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="43" t="s">
-        <v>263</v>
-      </c>
-      <c r="B39" s="42">
-        <v>113.03100000000001</v>
-      </c>
-      <c r="C39" s="42">
-        <v>178.51509999999999</v>
-      </c>
-      <c r="D39" s="42">
-        <v>376.79340000000002</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="43" t="s">
-        <v>217</v>
-      </c>
-      <c r="B40" s="42">
-        <v>114.1613</v>
-      </c>
-      <c r="C40" s="42">
-        <v>182.97790000000001</v>
-      </c>
-      <c r="D40" s="42">
-        <v>395.63310000000001</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="43" t="s">
-        <v>264</v>
-      </c>
-      <c r="B41" s="42">
-        <v>115.30289999999999</v>
-      </c>
-      <c r="C41" s="42">
-        <v>187.55240000000001</v>
-      </c>
-      <c r="D41" s="42">
-        <v>415.41469999999998</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="43" t="s">
-        <v>265</v>
-      </c>
-      <c r="B42" s="42">
-        <v>116.456</v>
-      </c>
-      <c r="C42" s="42">
-        <v>192.24119999999999</v>
-      </c>
-      <c r="D42" s="42">
-        <v>436.18549999999999</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="43" t="s">
-        <v>266</v>
-      </c>
-      <c r="B43" s="42">
-        <v>117.62050000000001</v>
-      </c>
-      <c r="C43" s="42">
-        <v>197.0472</v>
-      </c>
-      <c r="D43" s="42">
-        <v>457.9948</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="43" t="s">
-        <v>267</v>
-      </c>
-      <c r="B44" s="42">
+      <c r="B44" s="36">
         <v>118.7967</v>
       </c>
-      <c r="C44" s="42">
+      <c r="C44" s="36">
         <v>201.9734</v>
       </c>
-      <c r="D44" s="42">
+      <c r="D44" s="36">
         <v>480.89449999999999</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="43" t="s">
-        <v>193</v>
-      </c>
-      <c r="B45" s="42">
+      <c r="A45" s="37" t="s">
+        <v>188</v>
+      </c>
+      <c r="B45" s="36">
         <v>119.9847</v>
       </c>
-      <c r="C45" s="42">
+      <c r="C45" s="36">
         <v>207.02269999999999</v>
       </c>
-      <c r="D45" s="42">
+      <c r="D45" s="36">
         <v>504.93920000000003</v>
       </c>
     </row>
@@ -4330,7 +4480,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:Z5"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
+    <sheetView topLeftCell="N1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4359,232 +4511,232 @@
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B1" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C1" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D1" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="E1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G1" t="s">
+        <v>171</v>
+      </c>
+      <c r="I1" t="s">
+        <v>169</v>
+      </c>
+      <c r="J1" t="s">
+        <v>263</v>
+      </c>
+      <c r="K1" t="s">
+        <v>147</v>
+      </c>
+      <c r="L1" t="s">
         <v>170</v>
       </c>
-      <c r="G1" t="s">
-        <v>176</v>
-      </c>
-      <c r="I1" t="s">
-        <v>174</v>
-      </c>
-      <c r="J1" t="s">
-        <v>268</v>
-      </c>
-      <c r="K1" t="s">
-        <v>152</v>
-      </c>
-      <c r="L1" t="s">
-        <v>175</v>
-      </c>
       <c r="M1" t="s">
+        <v>165</v>
+      </c>
+      <c r="N1" t="s">
+        <v>171</v>
+      </c>
+      <c r="P1" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>263</v>
+      </c>
+      <c r="R1" t="s">
+        <v>147</v>
+      </c>
+      <c r="S1" t="s">
+        <v>213</v>
+      </c>
+      <c r="T1" t="s">
         <v>170</v>
       </c>
-      <c r="N1" t="s">
-        <v>176</v>
-      </c>
-      <c r="P1" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>268</v>
-      </c>
-      <c r="R1" t="s">
-        <v>152</v>
-      </c>
-      <c r="S1" t="s">
-        <v>218</v>
-      </c>
-      <c r="T1" t="s">
-        <v>175</v>
-      </c>
       <c r="U1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="V1" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="X1" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="Y1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="Z1" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B2" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="C2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D2" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="E2" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="F2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="J2" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="K2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="L2" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="M2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="N2">
         <v>0.6</v>
       </c>
       <c r="P2" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="Q2" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="R2" t="s">
+        <v>267</v>
+      </c>
+      <c r="S2" t="s">
         <v>272</v>
       </c>
-      <c r="S2" t="s">
-        <v>277</v>
-      </c>
       <c r="T2" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="U2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="V2">
         <v>1</v>
       </c>
       <c r="X2" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="Y2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="Z2" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B3" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="C3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D3" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="E3" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="F3" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="J3" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="K3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="L3" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="M3" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="N3">
         <v>1.1999999999999999E-3</v>
       </c>
       <c r="P3" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>275</v>
+      </c>
+      <c r="R3" t="s">
         <v>276</v>
       </c>
-      <c r="Q3" t="s">
-        <v>280</v>
-      </c>
-      <c r="R3" t="s">
-        <v>281</v>
-      </c>
       <c r="S3" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="T3" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="U3" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="V3">
         <v>1</v>
       </c>
       <c r="X3" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="Y3" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="Z3" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="I4" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="J4" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="K4" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="L4" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="M4" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="N4">
         <v>0.6</v>
@@ -4592,19 +4744,19 @@
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="I5" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="J5" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="K5" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="L5" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="M5" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="N5">
         <v>1.1999999999999999E-3</v>
@@ -4632,51 +4784,51 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B1" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C1" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B2" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="C2" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B3" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C3" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B4" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C4" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B5">
         <v>0.8</v>
@@ -4687,7 +4839,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B6">
         <v>0.8</v>
@@ -4698,7 +4850,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B7">
         <v>0.8</v>
@@ -4709,7 +4861,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B8">
         <v>0.8</v>
@@ -4720,7 +4872,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="B9">
         <v>0.8</v>
@@ -4757,33 +4909,33 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C1" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="E1" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B2" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="C2" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="D2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E2">
         <v>0.3</v>
@@ -4791,16 +4943,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B3" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C3" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="D3" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E3">
         <v>1E-3</v>
@@ -4814,9 +4966,11 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
+    <sheetView zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:B16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4825,149 +4979,220 @@
     <col min="3" max="3" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B1" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B5" t="s">
+        <v>267</v>
+      </c>
+      <c r="C5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>170</v>
+      </c>
+      <c r="B6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>165</v>
+      </c>
+      <c r="B7" t="s">
+        <v>168</v>
+      </c>
+      <c r="C7" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>184</v>
       </c>
-      <c r="B2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>185</v>
-      </c>
-      <c r="B3" t="s">
-        <v>284</v>
-      </c>
-      <c r="C3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>186</v>
-      </c>
-      <c r="B4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>187</v>
-      </c>
-      <c r="B5" t="s">
-        <v>272</v>
-      </c>
-      <c r="C5" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>175</v>
-      </c>
-      <c r="B6" t="s">
-        <v>128</v>
-      </c>
-      <c r="C6" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>170</v>
-      </c>
-      <c r="B7" t="s">
-        <v>173</v>
-      </c>
-      <c r="C7" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>189</v>
-      </c>
-      <c r="B8">
-        <f>Base!E33</f>
-        <v>400000</v>
-      </c>
-      <c r="C8" s="5">
+      <c r="B8" s="4">
+        <v>466325.30448643101</v>
+      </c>
+      <c r="C8" s="4">
         <f>Base!E35</f>
         <v>503144654.08805031</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F8" s="4">
+        <v>153235.05755748009</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>190</v>
-      </c>
-      <c r="B9">
-        <f t="shared" ref="B9:C12" si="0">B8</f>
-        <v>400000</v>
-      </c>
-      <c r="C9" s="5">
+        <v>209</v>
+      </c>
+      <c r="B9" s="4">
+        <v>466325.30448643101</v>
+      </c>
+      <c r="C9" s="4">
+        <f t="shared" ref="C9:C12" si="0">C8</f>
+        <v>503144654.08805031</v>
+      </c>
+      <c r="F9" s="4">
+        <v>466325.30448643101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>185</v>
+      </c>
+      <c r="B10" s="4">
+        <v>466325.30448643101</v>
+      </c>
+      <c r="C10" s="4">
         <f t="shared" si="0"/>
         <v>503144654.08805031</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>191</v>
-      </c>
-      <c r="B10">
-        <f t="shared" si="0"/>
-        <v>400000</v>
-      </c>
-      <c r="C10" s="5">
+      <c r="F10" s="4">
+        <v>452531.64772125217</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>210</v>
+      </c>
+      <c r="B11" s="4">
+        <v>466325.30448643101</v>
+      </c>
+      <c r="C11" s="4">
         <f t="shared" si="0"/>
         <v>503144654.08805031</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>192</v>
-      </c>
-      <c r="B11">
-        <f t="shared" si="0"/>
-        <v>400000</v>
-      </c>
-      <c r="C11" s="5">
+      <c r="F11" s="4">
+        <v>443281.91878865106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>186</v>
+      </c>
+      <c r="B12" s="4">
+        <v>466325.30448643101</v>
+      </c>
+      <c r="C12" s="4">
         <f t="shared" si="0"/>
         <v>503144654.08805031</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>193</v>
-      </c>
-      <c r="B12">
-        <f t="shared" si="0"/>
-        <v>400000</v>
-      </c>
-      <c r="C12" s="5">
-        <f t="shared" si="0"/>
+      <c r="F12" s="4">
+        <v>441949.46191361878</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>211</v>
+      </c>
+      <c r="B13" s="4">
+        <v>466325.30448643101</v>
+      </c>
+      <c r="C13" s="4">
+        <f t="shared" ref="C13" si="1">C12</f>
         <v>503144654.08805031</v>
       </c>
+      <c r="F13" s="4">
+        <v>441805.20056338521</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>187</v>
+      </c>
+      <c r="B14" s="4">
+        <v>466325.30448643101</v>
+      </c>
+      <c r="C14" s="4">
+        <f t="shared" ref="C14" si="2">C13</f>
+        <v>503144654.08805031</v>
+      </c>
+      <c r="F14" s="4">
+        <v>441797.61264709232</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>212</v>
+      </c>
+      <c r="B15" s="4">
+        <v>466325.30448643101</v>
+      </c>
+      <c r="C15" s="4">
+        <f t="shared" ref="C15" si="3">C14</f>
+        <v>503144654.08805031</v>
+      </c>
+      <c r="F15" s="4">
+        <v>441798.91599598486</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>188</v>
+      </c>
+      <c r="B16" s="4">
+        <v>466325.30448643101</v>
+      </c>
+      <c r="C16" s="4">
+        <f t="shared" ref="C16" si="4">C15</f>
+        <v>503144654.08805031</v>
+      </c>
+      <c r="F16" s="4">
+        <v>441799.42197618191</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -4987,33 +5212,33 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B1" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>155</v>
-      </c>
-      <c r="B2" s="44">
+        <v>150</v>
+      </c>
+      <c r="B2" s="38">
         <v>10000000000</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>272</v>
-      </c>
-      <c r="B3" s="44">
+        <v>267</v>
+      </c>
+      <c r="B3" s="38">
         <v>10000000000</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>281</v>
-      </c>
-      <c r="B4" s="44">
+        <v>276</v>
+      </c>
+      <c r="B4" s="38">
         <v>10000000000</v>
       </c>
     </row>
@@ -5032,7 +5257,7 @@
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="15.5703125" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" style="32" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" style="29" customWidth="1"/>
     <col min="4" max="4" width="24.42578125" customWidth="1"/>
     <col min="5" max="5" width="31.5703125" customWidth="1"/>
     <col min="6" max="6" width="14.85546875" customWidth="1"/>
@@ -5054,316 +5279,309 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C1"/>
+      <c r="D1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J1" t="s">
+        <v>130</v>
+      </c>
+      <c r="M1" t="s">
+        <v>130</v>
+      </c>
+      <c r="P1" t="s">
+        <v>130</v>
+      </c>
+      <c r="R1" t="s">
         <v>131</v>
       </c>
-      <c r="B1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C1" s="4"/>
-      <c r="D1" t="s">
-        <v>133</v>
-      </c>
-      <c r="E1" s="4"/>
-      <c r="G1" t="s">
-        <v>134</v>
-      </c>
-      <c r="H1" s="4"/>
-      <c r="J1" t="s">
-        <v>135</v>
-      </c>
-      <c r="K1" s="4"/>
-      <c r="M1" t="s">
-        <v>135</v>
-      </c>
-      <c r="N1" s="4"/>
-      <c r="P1" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q1" s="4"/>
-      <c r="R1" t="s">
-        <v>136</v>
-      </c>
-      <c r="S1" s="4"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2"/>
+      <c r="D2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G2" t="s">
+        <v>129</v>
+      </c>
+      <c r="H2" t="s">
+        <v>135</v>
+      </c>
+      <c r="J2" t="s">
+        <v>136</v>
+      </c>
+      <c r="K2" t="s">
         <v>137</v>
       </c>
-      <c r="B2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" t="s">
+      <c r="M2" t="s">
         <v>138</v>
       </c>
-      <c r="E2" t="s">
+      <c r="P2" t="s">
         <v>139</v>
       </c>
-      <c r="G2" t="s">
-        <v>134</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="R2" t="s">
+        <v>131</v>
+      </c>
+      <c r="S2" t="s">
         <v>140</v>
-      </c>
-      <c r="J2" t="s">
-        <v>141</v>
-      </c>
-      <c r="K2" t="s">
-        <v>142</v>
-      </c>
-      <c r="M2" t="s">
-        <v>143</v>
-      </c>
-      <c r="P2" t="s">
-        <v>144</v>
-      </c>
-      <c r="R2" t="s">
-        <v>136</v>
-      </c>
-      <c r="S2" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B3" t="s">
-        <v>146</v>
-      </c>
-      <c r="C3" s="32" t="s">
-        <v>147</v>
+        <v>141</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>142</v>
       </c>
       <c r="D3" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E3" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F3" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="G3" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="H3" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="I3" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="J3" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="K3" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="L3" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="M3" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="N3" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="O3" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="P3" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="Q3" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="R3" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="S3" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="T3" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C4" s="32" t="s">
-        <v>153</v>
+        <v>147</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>148</v>
       </c>
       <c r="D4" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="E4" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F4" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="G4" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="H4" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="I4" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="J4" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="K4" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="L4" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="M4" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="N4" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="O4" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="P4" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="Q4" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="R4" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="S4" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="T4" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="D5" t="s">
+        <v>152</v>
+      </c>
+      <c r="E5" t="s">
+        <v>151</v>
+      </c>
+      <c r="F5" t="s">
+        <v>153</v>
+      </c>
+      <c r="G5" t="s">
+        <v>152</v>
+      </c>
+      <c r="H5" t="s">
         <v>154</v>
       </c>
-      <c r="B5" t="s">
+      <c r="I5" t="s">
         <v>155</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="J5" t="s">
+        <v>153</v>
+      </c>
+      <c r="K5" t="s">
         <v>156</v>
       </c>
-      <c r="D5" t="s">
+      <c r="L5" t="s">
+        <v>152</v>
+      </c>
+      <c r="M5" t="s">
+        <v>151</v>
+      </c>
+      <c r="N5" t="s">
+        <v>153</v>
+      </c>
+      <c r="O5" t="s">
         <v>157</v>
       </c>
-      <c r="E5" t="s">
-        <v>156</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="P5" t="s">
         <v>158</v>
       </c>
-      <c r="G5" t="s">
+      <c r="Q5" t="s">
+        <v>152</v>
+      </c>
+      <c r="S5" t="s">
+        <v>153</v>
+      </c>
+      <c r="T5" t="s">
         <v>157</v>
-      </c>
-      <c r="H5" t="s">
-        <v>159</v>
-      </c>
-      <c r="I5" t="s">
-        <v>160</v>
-      </c>
-      <c r="J5" s="33" t="s">
-        <v>158</v>
-      </c>
-      <c r="K5" s="33" t="s">
-        <v>161</v>
-      </c>
-      <c r="L5" s="33" t="s">
-        <v>157</v>
-      </c>
-      <c r="M5" t="s">
-        <v>156</v>
-      </c>
-      <c r="N5" t="s">
-        <v>158</v>
-      </c>
-      <c r="O5" t="s">
-        <v>162</v>
-      </c>
-      <c r="P5" s="33" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q5" s="33" t="s">
-        <v>157</v>
-      </c>
-      <c r="S5" t="s">
-        <v>158</v>
-      </c>
-      <c r="T5" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="F6" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="G6" t="s">
-        <v>164</v>
-      </c>
-      <c r="K6" s="33" t="s">
-        <v>166</v>
-      </c>
-      <c r="L6" s="33" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q6" s="33" t="s">
-        <v>167</v>
+        <v>159</v>
+      </c>
+      <c r="K6" t="s">
+        <v>161</v>
+      </c>
+      <c r="L6" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>162</v>
       </c>
       <c r="T6" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
-        <v>155</v>
-      </c>
-      <c r="L7" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="L7" t="s">
+        <v>158</v>
+      </c>
+      <c r="T7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="L8" t="s">
+        <v>162</v>
+      </c>
+      <c r="R8" t="s">
+        <v>157</v>
+      </c>
+      <c r="S8" t="s">
         <v>163</v>
       </c>
-      <c r="T7" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="L8" s="33" t="s">
-        <v>167</v>
-      </c>
-      <c r="R8" t="s">
-        <v>162</v>
-      </c>
-      <c r="S8" t="s">
-        <v>168</v>
-      </c>
       <c r="T8" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="J9" s="33"/>
       <c r="R9" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="R10" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="42" ht="27" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5378,7 +5596,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5392,30 +5612,30 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C1" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D1" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C2" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <f>Base!C59</f>
         <v>204035.62050000002</v>
       </c>
@@ -5430,7 +5650,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:O6"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
+    <sheetView zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5450,147 +5672,147 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C1" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="E1" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="F1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="G1" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="H1" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="J1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="K1" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="M1" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="N1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="O1" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="E2" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="F2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="G2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="H2" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="I2" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="J2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="K2">
-        <f>Base!C60</f>
+        <f>Base!C61</f>
         <v>46.402721136626234</v>
       </c>
       <c r="M2" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="N2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="O2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B3" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C3" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E3" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="F3" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="G3" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="H3" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="I3" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="J3" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="K3">
-        <f>Base!C61</f>
+        <f>Base!C62</f>
         <v>24.901534288715041</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B4" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C4" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="E4" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="F4" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="G4" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="H4" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="I4" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="J4" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="K4">
         <f>Base!C57</f>
@@ -5599,31 +5821,31 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B5" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C5" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="E5" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="F5" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="G5" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="H5" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="I5" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="J5" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="K5">
         <f>Base!C56</f>
@@ -5632,13 +5854,13 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B6" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C6" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -5651,7 +5873,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:B12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5667,63 +5891,63 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B1" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B2" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B3" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B4" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B5" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B6" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B7" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B8">
         <f>Base!C55</f>
@@ -5732,7 +5956,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B9">
         <v>0.56000000000000005</v>
@@ -5740,7 +5964,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B10">
         <v>0.53</v>
@@ -5748,7 +5972,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B11">
         <v>0.51</v>
@@ -5756,7 +5980,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="B12">
         <v>0.5</v>
@@ -5772,7 +5996,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
+    <sheetView zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5793,82 +6019,82 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C1" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="E1" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="F1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="G1" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="H1" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="J1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="K1" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="M1" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="N1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="O1" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="E2" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="F2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="G2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="H2" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="I2" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="J2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="K2">
-        <f>Base!C62</f>
+        <f>Base!C63</f>
         <v>3.7400000000000003E-2</v>
       </c>
       <c r="M2" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="N2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="O2">
         <f>Base!B3</f>
@@ -5877,46 +6103,46 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C3" t="s">
         <v>159</v>
       </c>
-      <c r="C3" t="s">
-        <v>164</v>
-      </c>
       <c r="E3" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="F3" t="s">
+        <v>154</v>
+      </c>
+      <c r="G3" t="s">
         <v>159</v>
       </c>
-      <c r="G3" t="s">
-        <v>164</v>
-      </c>
       <c r="H3" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="I3" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="J3" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="K3">
-        <f>Base!C63</f>
+        <f>Base!C64</f>
         <v>1.8888888888888889E-2</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B4" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C4" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -5929,7 +6155,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5939,39 +6165,39 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B1" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B2" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B3" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B4" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B5">
         <v>90</v>
@@ -5979,7 +6205,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B6">
         <v>60</v>
@@ -5987,7 +6213,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="B7">
         <v>60</v>
@@ -6001,9 +6227,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:AA13"/>
+  <dimension ref="A1:AB13"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="AB2" sqref="AB2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6034,483 +6262,470 @@
     <col min="28" max="29" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="30" t="s">
+        <v>169</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>165</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>183</v>
+      </c>
+      <c r="G1" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="I1" s="30" t="s">
+        <v>169</v>
+      </c>
+      <c r="J1" s="30" t="s">
+        <v>148</v>
+      </c>
+      <c r="K1" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="L1" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="M1" s="30" t="s">
+        <v>170</v>
+      </c>
+      <c r="N1" s="30" t="s">
+        <v>165</v>
+      </c>
+      <c r="O1" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q1" s="30" t="s">
+        <v>148</v>
+      </c>
+      <c r="R1" s="30" t="s">
+        <v>165</v>
+      </c>
+      <c r="S1" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="T1" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="U1" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="V1" s="30" t="s">
+        <v>195</v>
+      </c>
+      <c r="W1" s="30" t="s">
+        <v>196</v>
+      </c>
+      <c r="X1" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y1" s="30" t="s">
+        <v>197</v>
+      </c>
+      <c r="Z1" s="30" t="s">
+        <v>198</v>
+      </c>
+      <c r="AA1" s="30" t="s">
+        <v>199</v>
+      </c>
+      <c r="AB1" s="30" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C2" t="s">
+        <v>153</v>
+      </c>
+      <c r="I2" t="s">
         <v>174</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="J2" t="s">
+        <v>156</v>
+      </c>
+      <c r="K2" t="s">
+        <v>152</v>
+      </c>
+      <c r="L2" t="s">
         <v>153</v>
       </c>
-      <c r="C1" s="34" t="s">
-        <v>152</v>
-      </c>
-      <c r="D1" s="34" t="s">
-        <v>170</v>
-      </c>
-      <c r="E1" s="34" t="s">
-        <v>198</v>
-      </c>
-      <c r="F1" s="34" t="s">
-        <v>188</v>
-      </c>
-      <c r="G1" s="34" t="s">
-        <v>128</v>
-      </c>
-      <c r="I1" s="34" t="s">
-        <v>174</v>
-      </c>
-      <c r="J1" s="34" t="s">
-        <v>153</v>
-      </c>
-      <c r="K1" s="34" t="s">
-        <v>152</v>
-      </c>
-      <c r="L1" s="34" t="s">
-        <v>152</v>
-      </c>
-      <c r="M1" s="34" t="s">
-        <v>175</v>
-      </c>
-      <c r="N1" s="34" t="s">
-        <v>170</v>
-      </c>
-      <c r="O1" s="34" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q1" s="34" t="s">
-        <v>153</v>
-      </c>
-      <c r="R1" s="34" t="s">
-        <v>170</v>
-      </c>
-      <c r="S1" s="34" t="s">
-        <v>198</v>
-      </c>
-      <c r="T1" s="34" t="s">
-        <v>199</v>
-      </c>
-      <c r="U1" s="34" t="s">
-        <v>123</v>
-      </c>
-      <c r="V1" s="34" t="s">
-        <v>200</v>
-      </c>
-      <c r="W1" s="34" t="s">
-        <v>201</v>
-      </c>
-      <c r="X1" s="34" t="s">
-        <v>125</v>
-      </c>
-      <c r="Y1" s="34" t="s">
-        <v>202</v>
-      </c>
-      <c r="Z1" s="34" t="s">
-        <v>203</v>
-      </c>
-      <c r="AA1" s="34" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
-        <v>178</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>161</v>
-      </c>
-      <c r="C2" s="33" t="s">
-        <v>158</v>
-      </c>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="I2" s="33" t="s">
-        <v>179</v>
-      </c>
-      <c r="J2" s="33" t="s">
-        <v>161</v>
-      </c>
-      <c r="K2" s="33" t="s">
-        <v>157</v>
-      </c>
-      <c r="L2" s="33" t="s">
-        <v>158</v>
-      </c>
-      <c r="M2" s="33" t="s">
-        <v>182</v>
-      </c>
-      <c r="N2" s="33" t="s">
-        <v>173</v>
-      </c>
-      <c r="O2" s="33">
-        <f>Base!C66</f>
+      <c r="M2" t="s">
+        <v>177</v>
+      </c>
+      <c r="N2" t="s">
+        <v>168</v>
+      </c>
+      <c r="O2">
+        <f>Base!C67</f>
         <v>3777.7777777777783</v>
       </c>
-      <c r="Q2" s="35" t="s">
-        <v>161</v>
-      </c>
-      <c r="R2" s="35" t="s">
-        <v>173</v>
-      </c>
-      <c r="S2" s="35"/>
-      <c r="T2" s="36">
+      <c r="Q2" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="R2" s="31" t="s">
+        <v>168</v>
+      </c>
+      <c r="S2" s="31"/>
+      <c r="T2" s="32">
         <f>Base!B15</f>
         <v>2</v>
       </c>
-      <c r="U2" s="35">
-        <f>Base!C64</f>
-        <v>2.2831050228310503</v>
-      </c>
-      <c r="V2" s="35">
+      <c r="U2" s="31">
+        <f>Base!C65</f>
+        <v>2.3561643835616444</v>
+      </c>
+      <c r="V2" s="31">
         <v>0</v>
       </c>
-      <c r="W2" s="35" t="s">
-        <v>205</v>
-      </c>
-      <c r="X2" s="35">
-        <f>Base!C65</f>
-        <v>23250000</v>
-      </c>
-      <c r="Y2" s="35" t="s">
-        <v>206</v>
-      </c>
-      <c r="Z2" s="35">
+      <c r="W2" s="31" t="s">
+        <v>200</v>
+      </c>
+      <c r="X2" s="31">
+        <f>Base!C66</f>
+        <v>23994000</v>
+      </c>
+      <c r="Y2" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="Z2" s="31">
         <f>U2*Base!B14</f>
-        <v>70.776255707762559</v>
-      </c>
-      <c r="AA2" s="35" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
-        <v>183</v>
-      </c>
-      <c r="B3" s="33" t="s">
+        <v>73.041095890410972</v>
+      </c>
+      <c r="AA2" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="AB2" s="31"/>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3" t="s">
+        <v>159</v>
+      </c>
+      <c r="I3" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="J3" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="K3" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="L3" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="M3" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="N3" s="31" t="s">
+        <v>168</v>
+      </c>
+      <c r="O3" s="31">
+        <f>Base!C68</f>
+        <v>2266.666666666667</v>
+      </c>
+      <c r="Q3" s="33" t="s">
         <v>161</v>
       </c>
-      <c r="C3" s="33" t="s">
-        <v>164</v>
-      </c>
-      <c r="I3" s="35" t="s">
-        <v>179</v>
-      </c>
-      <c r="J3" s="35" t="s">
-        <v>161</v>
-      </c>
-      <c r="K3" s="35" t="s">
-        <v>164</v>
-      </c>
-      <c r="L3" s="35" t="s">
-        <v>158</v>
-      </c>
-      <c r="M3" s="35" t="s">
-        <v>182</v>
-      </c>
-      <c r="N3" s="35" t="s">
-        <v>173</v>
-      </c>
-      <c r="O3" s="35">
-        <f>Base!C67</f>
-        <v>2266.666666666667</v>
-      </c>
-      <c r="Q3" s="37" t="s">
-        <v>166</v>
-      </c>
-      <c r="R3" s="37" t="s">
-        <v>173</v>
-      </c>
-      <c r="S3" s="37" t="b">
+      <c r="R3" s="33" t="s">
+        <v>168</v>
+      </c>
+      <c r="S3" s="33" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="T3" s="38"/>
-      <c r="U3" s="37"/>
-      <c r="V3" s="37"/>
-      <c r="W3" s="37"/>
-      <c r="X3" s="37"/>
-      <c r="Y3" s="37"/>
-      <c r="Z3" s="37"/>
-      <c r="AA3" s="37"/>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
-        <v>183</v>
-      </c>
-      <c r="B4" s="33" t="s">
-        <v>161</v>
-      </c>
-      <c r="C4" s="33" t="s">
-        <v>157</v>
-      </c>
-      <c r="D4" s="33" t="s">
-        <v>208</v>
-      </c>
-      <c r="E4" s="33"/>
-      <c r="F4" s="39">
+      <c r="T3" s="34"/>
+      <c r="U3" s="33"/>
+      <c r="V3" s="33"/>
+      <c r="W3" s="33"/>
+      <c r="X3" s="33"/>
+      <c r="Y3" s="33"/>
+      <c r="Z3" s="33"/>
+      <c r="AA3" s="33"/>
+      <c r="AB3" s="33"/>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F4" s="7">
         <f>Base!B14</f>
         <v>31</v>
       </c>
-      <c r="G4" s="40">
-        <f>Base!C68</f>
+      <c r="G4" s="19">
+        <f>Base!C69</f>
         <v>5.5</v>
       </c>
-      <c r="I4" s="37" t="s">
-        <v>179</v>
-      </c>
-      <c r="J4" s="37" t="s">
-        <v>166</v>
-      </c>
-      <c r="K4" s="37" t="s">
-        <v>157</v>
-      </c>
-      <c r="L4" s="37" t="s">
-        <v>158</v>
-      </c>
-      <c r="M4" s="37" t="s">
-        <v>182</v>
+      <c r="I4" s="33" t="s">
+        <v>174</v>
+      </c>
+      <c r="J4" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="K4" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="L4" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="M4" s="33" t="s">
+        <v>177</v>
       </c>
       <c r="N4" t="s">
-        <v>209</v>
-      </c>
-      <c r="O4" s="37">
-        <f>Base!C72</f>
+        <v>204</v>
+      </c>
+      <c r="O4" s="33">
+        <f>Base!C73</f>
         <v>4111.1111111111113</v>
       </c>
-      <c r="Q4" s="35" t="s">
-        <v>166</v>
-      </c>
-      <c r="R4" s="35" t="s">
-        <v>209</v>
-      </c>
-      <c r="S4" s="35" t="b">
+      <c r="Q4" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="R4" s="31" t="s">
+        <v>204</v>
+      </c>
+      <c r="S4" s="31" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="T4" s="36">
+      <c r="T4" s="32">
         <f>T2</f>
         <v>2</v>
       </c>
-      <c r="U4" s="35">
-        <f>Base!C70</f>
-        <v>2.1232876712328768</v>
-      </c>
-      <c r="V4" s="35">
+      <c r="U4" s="31">
+        <f>Base!C71</f>
+        <v>2.2972602739726029</v>
+      </c>
+      <c r="V4" s="31">
         <v>0</v>
       </c>
-      <c r="W4" s="35" t="s">
+      <c r="W4" s="31" t="s">
+        <v>200</v>
+      </c>
+      <c r="X4" s="31">
+        <f>Base!C72</f>
+        <v>23354160</v>
+      </c>
+      <c r="Y4" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="Z4" s="31">
+        <f>U4*Base!B14</f>
+        <v>71.215068493150696</v>
+      </c>
+      <c r="AA4" s="31" t="s">
         <v>205</v>
       </c>
-      <c r="X4" s="35">
-        <f>Base!C71</f>
-        <v>21700000</v>
-      </c>
-      <c r="Y4" s="35" t="s">
-        <v>206</v>
-      </c>
-      <c r="Z4" s="35">
-        <f>U4*Base!B14</f>
-        <v>65.821917808219183</v>
-      </c>
-      <c r="AA4" s="35" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A5" s="33" t="s">
-        <v>183</v>
-      </c>
-      <c r="B5" s="33" t="s">
-        <v>161</v>
-      </c>
-      <c r="C5" s="33" t="s">
-        <v>163</v>
-      </c>
-      <c r="D5" s="33" t="s">
-        <v>208</v>
-      </c>
-      <c r="E5" s="33" t="b">
+      <c r="AB4" s="31"/>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D5" t="s">
+        <v>203</v>
+      </c>
+      <c r="E5" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="I5" s="35" t="s">
-        <v>179</v>
-      </c>
-      <c r="J5" s="35" t="s">
-        <v>166</v>
-      </c>
-      <c r="K5" s="35" t="s">
-        <v>164</v>
-      </c>
-      <c r="L5" s="35" t="s">
-        <v>158</v>
-      </c>
-      <c r="M5" s="35" t="s">
-        <v>182</v>
-      </c>
-      <c r="N5" s="35" t="s">
-        <v>209</v>
-      </c>
-      <c r="O5" s="35">
-        <f>Base!C73</f>
+      <c r="I5" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="J5" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="K5" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="L5" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="M5" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="N5" s="31" t="s">
+        <v>204</v>
+      </c>
+      <c r="O5" s="31">
+        <f>Base!C74</f>
         <v>2466.6666666666665</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A6" s="33" t="s">
-        <v>183</v>
-      </c>
-      <c r="B6" s="33" t="s">
-        <v>161</v>
-      </c>
-      <c r="C6" s="33" t="s">
-        <v>167</v>
-      </c>
-      <c r="D6" s="33" t="s">
-        <v>208</v>
-      </c>
-      <c r="E6" s="33" t="b">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>178</v>
+      </c>
+      <c r="B6" t="s">
+        <v>156</v>
+      </c>
+      <c r="C6" t="s">
+        <v>162</v>
+      </c>
+      <c r="D6" t="s">
+        <v>203</v>
+      </c>
+      <c r="E6" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A7" s="33" t="s">
-        <v>183</v>
-      </c>
-      <c r="B7" s="33" t="s">
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>178</v>
+      </c>
+      <c r="B7" t="s">
+        <v>156</v>
+      </c>
+      <c r="C7" t="s">
+        <v>158</v>
+      </c>
+      <c r="D7" t="s">
+        <v>206</v>
+      </c>
+      <c r="F7">
+        <v>31</v>
+      </c>
+      <c r="G7" s="19">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A8" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="B8" s="33" t="s">
         <v>161</v>
       </c>
-      <c r="C7" s="33" t="s">
-        <v>163</v>
-      </c>
-      <c r="D7" s="33" t="s">
-        <v>211</v>
-      </c>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33">
-        <v>31</v>
-      </c>
-      <c r="G7" s="40">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A8" s="37" t="s">
+      <c r="C8" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>178</v>
       </c>
-      <c r="B8" s="37" t="s">
-        <v>166</v>
-      </c>
-      <c r="C8" s="37" t="s">
-        <v>158</v>
-      </c>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A9" s="33" t="s">
-        <v>183</v>
-      </c>
-      <c r="B9" s="33" t="s">
-        <v>166</v>
-      </c>
-      <c r="C9" s="33" t="s">
-        <v>164</v>
-      </c>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A10" s="33" t="s">
-        <v>183</v>
-      </c>
-      <c r="B10" s="33" t="s">
-        <v>166</v>
-      </c>
-      <c r="C10" s="33" t="s">
-        <v>157</v>
-      </c>
-      <c r="D10" s="33" t="s">
-        <v>208</v>
-      </c>
-      <c r="E10" s="33"/>
-      <c r="F10" s="39">
+      <c r="B9" t="s">
+        <v>161</v>
+      </c>
+      <c r="C9" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>178</v>
+      </c>
+      <c r="B10" t="s">
+        <v>161</v>
+      </c>
+      <c r="C10" t="s">
+        <v>152</v>
+      </c>
+      <c r="D10" t="s">
+        <v>203</v>
+      </c>
+      <c r="F10" s="7">
         <f>Base!B14</f>
         <v>31</v>
       </c>
-      <c r="G10" s="40">
-        <f>Base!C74</f>
-        <v>5.0999999999999996</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A11" s="33" t="s">
-        <v>183</v>
-      </c>
-      <c r="B11" s="33" t="s">
-        <v>166</v>
-      </c>
-      <c r="C11" s="33" t="s">
-        <v>163</v>
-      </c>
-      <c r="D11" s="33" t="s">
-        <v>208</v>
-      </c>
-      <c r="E11" s="33" t="b">
+      <c r="G10" s="19">
+        <f>Base!C75</f>
+        <v>5.7520661157024806</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>178</v>
+      </c>
+      <c r="B11" t="s">
+        <v>161</v>
+      </c>
+      <c r="C11" t="s">
+        <v>158</v>
+      </c>
+      <c r="D11" t="s">
+        <v>203</v>
+      </c>
+      <c r="E11" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A12" s="33" t="s">
-        <v>183</v>
-      </c>
-      <c r="B12" s="33" t="s">
-        <v>166</v>
-      </c>
-      <c r="C12" s="33" t="s">
-        <v>167</v>
-      </c>
-      <c r="D12" s="33" t="s">
-        <v>208</v>
-      </c>
-      <c r="E12" s="33" t="b">
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>178</v>
+      </c>
+      <c r="B12" t="s">
+        <v>161</v>
+      </c>
+      <c r="C12" t="s">
+        <v>162</v>
+      </c>
+      <c r="D12" t="s">
+        <v>203</v>
+      </c>
+      <c r="E12" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A13" s="35" t="s">
-        <v>183</v>
-      </c>
-      <c r="B13" s="35" t="s">
-        <v>166</v>
-      </c>
-      <c r="C13" s="35" t="s">
-        <v>163</v>
-      </c>
-      <c r="D13" s="35" t="s">
-        <v>211</v>
-      </c>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35">
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A13" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>158</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>206</v>
+      </c>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31">
         <v>31</v>
       </c>
-      <c r="G13" s="41">
+      <c r="G13" s="35">
         <v>5.0999999999999996</v>
       </c>
     </row>
@@ -6525,7 +6740,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6537,63 +6754,63 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D2" t="s">
         <v>161</v>
-      </c>
-      <c r="C2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D2" s="33" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B3" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C3" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D3" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B4" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C4" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D4" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B5">
         <f>UtilityUnit_generator!T2</f>
@@ -6608,7 +6825,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -6619,7 +6836,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -6630,7 +6847,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -6641,7 +6858,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -6649,7 +6866,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -6657,7 +6874,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -6665,7 +6882,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -6673,7 +6890,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C13">
         <v>0</v>

--- a/InputData/PlatformOperation.xlsx
+++ b/InputData/PlatformOperation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\PhD project\Products\Models\OffPlatfEner\InputData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F92FBCF1-4142-417A-BBC4-F8860E0BCEA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20682089-E0E6-4D24-98A8-5121C1A9628E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="851" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="851" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -536,8 +536,42 @@
 </comments>
 </file>
 
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Huang  Jiangyi</author>
+  </authors>
+  <commentList>
+    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{CDA78EC7-69C2-4D15-89E1-C9290FF9544D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Huang  Jiangyi:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Gas price. Big jump up due to RU-UK conflick.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="292">
   <si>
     <t>Specification document (open access)</t>
   </si>
@@ -776,18 +810,12 @@
     <t>CO2 emission factor</t>
   </si>
   <si>
-    <t>ton/MWh of gas</t>
-  </si>
-  <si>
     <t>IPCC 2006 default</t>
   </si>
   <si>
     <t>Est. gas consumption for operation</t>
   </si>
   <si>
-    <t>ton/M Sm3 of gas</t>
-  </si>
-  <si>
     <t>Platform energy demand [MW]</t>
   </si>
   <si>
@@ -1401,6 +1429,24 @@
   </si>
   <si>
     <t>min_down_time</t>
+  </si>
+  <si>
+    <t>TSdevelopmentCarbonPrice_4</t>
+  </si>
+  <si>
+    <t>TSdevelopmentCarbonPrice_5</t>
+  </si>
+  <si>
+    <t>TSdevelopmentCarbonPrice_6</t>
+  </si>
+  <si>
+    <t>tonne/MWh of gas</t>
+  </si>
+  <si>
+    <t>tonne/M Sm3 of gas</t>
+  </si>
+  <si>
+    <t>=0.2</t>
   </si>
 </sst>
 </file>
@@ -1610,7 +1656,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -1669,6 +1715,10 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -2057,8 +2107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R76"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2068,7 +2118,7 @@
     <col min="3" max="3" width="33.5703125" customWidth="1"/>
     <col min="4" max="4" width="24.7109375" customWidth="1"/>
     <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.85546875" customWidth="1"/>
     <col min="10" max="10" width="20.140625" customWidth="1"/>
@@ -2593,7 +2643,7 @@
         <v>0.70176000000000005</v>
       </c>
       <c r="G25" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H25" s="2"/>
     </row>
@@ -2617,7 +2667,7 @@
         <v>4.8999081726354454</v>
       </c>
       <c r="G26" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H26" s="2"/>
     </row>
@@ -2641,7 +2691,7 @@
         <v>18576</v>
       </c>
       <c r="G27" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H27" s="2"/>
     </row>
@@ -2821,19 +2871,21 @@
         <v>78</v>
       </c>
       <c r="E36" s="19">
-        <f>56.1*0.0036</f>
-        <v>0.20196</v>
+        <v>0.46</v>
       </c>
       <c r="F36" t="s">
+        <v>289</v>
+      </c>
+      <c r="I36" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="G36" s="2" t="s">
-        <v>80</v>
+      <c r="J36" s="51" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B37" s="7">
         <f>B49/B21</f>
@@ -2844,32 +2896,32 @@
       </c>
       <c r="E37" s="3">
         <f>E36*L8*10^6</f>
-        <v>2244</v>
+        <v>5111.1111111111113</v>
       </c>
       <c r="F37" t="s">
-        <v>82</v>
+        <v>290</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="B39" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="C39" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="B39" s="20" t="s">
+      <c r="D39" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="C39" s="20" t="s">
+      <c r="E39" s="20" t="s">
         <v>85</v>
-      </c>
-      <c r="D39" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="E39" s="20" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="20" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B40" s="20"/>
       <c r="C40" s="20"/>
@@ -2878,7 +2930,7 @@
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="20" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B41" s="20">
         <v>12.5</v>
@@ -2895,7 +2947,7 @@
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="20" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B42" s="20">
         <v>1.7</v>
@@ -2912,7 +2964,7 @@
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="20" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B43" s="20">
         <v>2</v>
@@ -2935,7 +2987,7 @@
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="20" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B44" s="20">
         <v>16.2</v>
@@ -2966,7 +3018,7 @@
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="20" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B46" s="20"/>
       <c r="C46" s="20"/>
@@ -2975,7 +3027,7 @@
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="20" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B47" s="23">
         <v>27.02</v>
@@ -2992,7 +3044,7 @@
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="20" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B48" s="23">
         <v>3.3660000000000001</v>
@@ -3009,7 +3061,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="20" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B49" s="23">
         <v>30.385999999999999</v>
@@ -3026,15 +3078,15 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B52" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C52" t="s">
         <v>5</v>
@@ -3043,28 +3095,28 @@
         <v>4</v>
       </c>
       <c r="E52" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F52" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B53" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C53" s="25">
         <f>B34/L10/10^6</f>
         <v>1.0434375000000001E-3</v>
       </c>
       <c r="D53" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E53" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -3073,10 +3125,10 @@
         <v>0.58125000000000004</v>
       </c>
       <c r="D54" t="s">
+        <v>100</v>
+      </c>
+      <c r="E54" t="s">
         <v>102</v>
-      </c>
-      <c r="E54" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -3085,15 +3137,15 @@
         <v>0.58229343750000007</v>
       </c>
       <c r="D55" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E55" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C56" s="26">
         <f>C53/C55</f>
@@ -3102,7 +3154,7 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C57" s="26">
         <f>C54/C55</f>
@@ -3111,7 +3163,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C58">
         <v>40</v>
@@ -3122,44 +3174,44 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C59" s="18">
         <f>C55*C58*L12</f>
         <v>204035.62050000002</v>
       </c>
       <c r="D59" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C60" s="18">
         <f>SUM(ProductionUnit_well_stream_ts!B8:B9)*Base!L12*10</f>
         <v>100064.90512500002</v>
       </c>
       <c r="D60" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B61" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C61" s="3">
         <f>B47/C55</f>
         <v>46.402721136626234</v>
       </c>
       <c r="D61" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E61" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -3168,28 +3220,28 @@
         <v>24.901534288715041</v>
       </c>
       <c r="D62" t="s">
+        <v>111</v>
+      </c>
+      <c r="E62" t="s">
         <v>113</v>
-      </c>
-      <c r="E62" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B63" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C63" s="3">
         <f>B48/B3</f>
         <v>3.7400000000000003E-2</v>
       </c>
       <c r="D63" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E63" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -3198,52 +3250,52 @@
         <v>1.8888888888888889E-2</v>
       </c>
       <c r="D64" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E64" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B65" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C65" s="3">
         <f>C27/L12</f>
         <v>2.3561643835616444</v>
       </c>
       <c r="D65" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C66" s="3">
         <f>C25*B14*10^6</f>
         <v>23994000</v>
       </c>
       <c r="D66" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C67" s="3">
         <f>B21*L8*10^6</f>
         <v>3777.7777777777783</v>
       </c>
       <c r="D67" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E67" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -3252,15 +3304,15 @@
         <v>2266.666666666667</v>
       </c>
       <c r="D68" t="s">
+        <v>111</v>
+      </c>
+      <c r="E68" t="s">
         <v>113</v>
-      </c>
-      <c r="E68" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C69" s="27">
         <f>B26</f>
@@ -3269,7 +3321,7 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C70" s="28">
         <f>1-SUM(B31,B29)</f>
@@ -3278,44 +3330,44 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B71" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C71" s="3">
         <f>D27/L12</f>
         <v>2.2972602739726029</v>
       </c>
       <c r="D71" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C72" s="3">
         <f>D25*B14*10^6</f>
         <v>23354160</v>
       </c>
       <c r="D72" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C73" s="3">
         <f>E21*L8*10^6</f>
         <v>4111.1111111111113</v>
       </c>
       <c r="D73" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E73" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -3324,15 +3376,15 @@
         <v>2466.6666666666665</v>
       </c>
       <c r="D74" t="s">
+        <v>111</v>
+      </c>
+      <c r="E74" t="s">
         <v>113</v>
-      </c>
-      <c r="E74" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C75" s="3">
         <f>D26</f>
@@ -3341,7 +3393,7 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C76" s="28">
         <f>1-SUM(E29,E31)</f>
@@ -3357,7 +3409,7 @@
     <hyperlink ref="H20" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
     <hyperlink ref="H22" r:id="rId5" location="page=21" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
     <hyperlink ref="G33" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="G36" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="I36" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -3389,87 +3441,87 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G1" t="s">
+        <v>145</v>
+      </c>
+      <c r="H1" t="s">
+        <v>211</v>
+      </c>
+      <c r="I1" t="s">
+        <v>168</v>
+      </c>
+      <c r="J1" t="s">
+        <v>163</v>
+      </c>
+      <c r="K1" t="s">
         <v>169</v>
       </c>
-      <c r="B1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C1" t="s">
-        <v>147</v>
-      </c>
-      <c r="E1" t="s">
-        <v>169</v>
-      </c>
-      <c r="F1" t="s">
-        <v>148</v>
-      </c>
-      <c r="G1" t="s">
-        <v>147</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="M1" t="s">
+        <v>211</v>
+      </c>
+      <c r="N1" t="s">
+        <v>163</v>
+      </c>
+      <c r="O1" t="s">
+        <v>212</v>
+      </c>
+      <c r="P1" t="s">
         <v>213</v>
-      </c>
-      <c r="I1" t="s">
-        <v>170</v>
-      </c>
-      <c r="J1" t="s">
-        <v>165</v>
-      </c>
-      <c r="K1" t="s">
-        <v>171</v>
-      </c>
-      <c r="M1" t="s">
-        <v>213</v>
-      </c>
-      <c r="N1" t="s">
-        <v>165</v>
-      </c>
-      <c r="O1" t="s">
-        <v>214</v>
-      </c>
-      <c r="P1" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E2" t="s">
+        <v>214</v>
+      </c>
+      <c r="F2" t="s">
+        <v>155</v>
+      </c>
+      <c r="G2" t="s">
+        <v>151</v>
+      </c>
+      <c r="H2" t="s">
+        <v>215</v>
+      </c>
+      <c r="I2" t="s">
         <v>216</v>
       </c>
-      <c r="F2" t="s">
-        <v>157</v>
-      </c>
-      <c r="G2" t="s">
-        <v>153</v>
-      </c>
-      <c r="H2" t="s">
-        <v>217</v>
-      </c>
-      <c r="I2" t="s">
-        <v>218</v>
-      </c>
       <c r="J2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K2">
         <v>-1</v>
       </c>
       <c r="M2" t="s">
+        <v>215</v>
+      </c>
+      <c r="N2" t="s">
+        <v>166</v>
+      </c>
+      <c r="O2" t="s">
         <v>217</v>
-      </c>
-      <c r="N2" t="s">
-        <v>168</v>
-      </c>
-      <c r="O2" t="s">
-        <v>219</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -3477,22 +3529,22 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F3" t="s">
+        <v>149</v>
+      </c>
+      <c r="G3" t="s">
         <v>151</v>
       </c>
-      <c r="G3" t="s">
-        <v>153</v>
-      </c>
       <c r="H3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="I3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="J3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K3">
         <f>Base!B19</f>
@@ -3526,48 +3578,48 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C1" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G1" t="s">
+        <v>191</v>
+      </c>
+      <c r="H1" t="s">
         <v>221</v>
       </c>
-      <c r="C1" t="s">
+      <c r="I1" t="s">
         <v>222</v>
       </c>
-      <c r="E1" t="s">
-        <v>147</v>
-      </c>
-      <c r="F1" t="s">
-        <v>165</v>
-      </c>
-      <c r="G1" t="s">
-        <v>193</v>
-      </c>
-      <c r="H1" t="s">
-        <v>223</v>
-      </c>
-      <c r="I1" t="s">
-        <v>224</v>
-      </c>
       <c r="J1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G2" t="b">
         <f>FALSE()</f>
@@ -3576,19 +3628,19 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G3" t="b">
         <f>FALSE()</f>
@@ -3597,21 +3649,21 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H4" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="I5" t="b">
         <f>TRUE()</f>
@@ -3624,7 +3676,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -3660,82 +3712,82 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G1" t="s">
+        <v>145</v>
+      </c>
+      <c r="H1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I1" t="s">
+        <v>168</v>
+      </c>
+      <c r="J1" t="s">
+        <v>163</v>
+      </c>
+      <c r="K1" t="s">
         <v>169</v>
       </c>
-      <c r="B1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C1" t="s">
-        <v>147</v>
-      </c>
-      <c r="E1" t="s">
-        <v>169</v>
-      </c>
-      <c r="F1" t="s">
-        <v>148</v>
-      </c>
-      <c r="G1" t="s">
-        <v>147</v>
-      </c>
-      <c r="H1" t="s">
-        <v>147</v>
-      </c>
-      <c r="I1" t="s">
-        <v>170</v>
-      </c>
-      <c r="J1" t="s">
-        <v>165</v>
-      </c>
-      <c r="K1" t="s">
-        <v>171</v>
-      </c>
       <c r="M1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="N1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="O1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="J2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K2">
         <f>Base!E37</f>
-        <v>2244</v>
+        <v>5111.1111111111113</v>
       </c>
       <c r="M2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="N2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="O2">
         <v>83.03</v>
@@ -3743,79 +3795,79 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="J3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K3">
         <f>Base!E37</f>
-        <v>2244</v>
+        <v>5111.1111111111113</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C4" t="s">
         <v>161</v>
       </c>
-      <c r="C4" t="s">
-        <v>163</v>
-      </c>
       <c r="E4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F4" t="s">
+        <v>159</v>
+      </c>
+      <c r="G4" t="s">
         <v>161</v>
       </c>
-      <c r="G4" t="s">
-        <v>163</v>
-      </c>
       <c r="H4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="J4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K4">
         <f>Base!E37</f>
-        <v>2244</v>
+        <v>5111.1111111111113</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -3827,10 +3879,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:D45"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B9" sqref="B9:G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3838,67 +3890,104 @@
     <col min="1" max="1" width="18.7109375" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
     <col min="3" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="7" width="28.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+      <c r="E1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F2" t="s">
+        <v>161</v>
+      </c>
+      <c r="G2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D3" t="s">
+        <v>224</v>
+      </c>
+      <c r="E3" t="s">
+        <v>224</v>
+      </c>
+      <c r="F3" t="s">
+        <v>224</v>
+      </c>
+      <c r="G3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>163</v>
       </c>
-      <c r="C2" t="s">
-        <v>163</v>
-      </c>
-      <c r="D2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>170</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>226</v>
       </c>
-      <c r="C3" t="s">
-        <v>226</v>
-      </c>
-      <c r="D3" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>165</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>227</v>
+      </c>
+      <c r="D4" t="s">
         <v>228</v>
       </c>
-      <c r="C4" t="s">
-        <v>229</v>
-      </c>
-      <c r="D4" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>286</v>
+      </c>
+      <c r="F4" t="s">
+        <v>287</v>
+      </c>
+      <c r="G4" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B5" s="36">
         <v>0</v>
@@ -3909,10 +3998,19 @@
       <c r="D5" s="36">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="36">
+        <v>0</v>
+      </c>
+      <c r="F5" s="36">
+        <v>0</v>
+      </c>
+      <c r="G5" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B6" s="36">
         <v>47.96</v>
@@ -3923,10 +4021,19 @@
       <c r="D6" s="36">
         <v>47.96</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" s="36">
+        <v>47.96</v>
+      </c>
+      <c r="F6" s="36">
+        <v>47.96</v>
+      </c>
+      <c r="G6" s="36">
+        <v>47.96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B7" s="36">
         <v>52.56</v>
@@ -3937,10 +4044,19 @@
       <c r="D7" s="36">
         <v>52.56</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" s="36">
+        <v>52.56</v>
+      </c>
+      <c r="F7" s="36">
+        <v>52.56</v>
+      </c>
+      <c r="G7" s="36">
+        <v>52.56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B8" s="36">
         <v>83.03</v>
@@ -3951,526 +4067,1091 @@
       <c r="D8" s="36">
         <v>83.03</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" s="36">
+        <v>83.03</v>
+      </c>
+      <c r="F8" s="36">
+        <v>83.03</v>
+      </c>
+      <c r="G8" s="36">
+        <v>83.03</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>232</v>
+      </c>
+      <c r="B9" s="50">
+        <f>B8*(1+0.01)</f>
+        <v>83.860299999999995</v>
+      </c>
+      <c r="C9" s="50">
+        <f>C8*(1+0.025)</f>
+        <v>85.10575</v>
+      </c>
+      <c r="D9" s="50">
+        <f>D8*(1+0.05)</f>
+        <v>87.1815</v>
+      </c>
+      <c r="E9" s="19">
+        <f>E8*(1+0.075)</f>
+        <v>89.257249999999999</v>
+      </c>
+      <c r="F9" s="19">
+        <f>F8*(1+0.1)</f>
+        <v>91.333000000000013</v>
+      </c>
+      <c r="G9" s="19">
+        <f>G8*(1+0.15)</f>
+        <v>95.484499999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>207</v>
+      </c>
+      <c r="B10" s="50">
+        <f t="shared" ref="B10:B45" si="0">B9*(1+0.01)</f>
+        <v>84.698903000000001</v>
+      </c>
+      <c r="C10" s="50">
+        <f t="shared" ref="C10:C45" si="1">C9*(1+0.025)</f>
+        <v>87.233393749999991</v>
+      </c>
+      <c r="D10" s="50">
+        <f t="shared" ref="D10:D45" si="2">D9*(1+0.05)</f>
+        <v>91.540575000000004</v>
+      </c>
+      <c r="E10" s="19">
+        <f t="shared" ref="E10:E45" si="3">E9*(1+0.075)</f>
+        <v>95.951543749999999</v>
+      </c>
+      <c r="F10" s="19">
+        <f t="shared" ref="F10:F45" si="4">F9*(1+0.1)</f>
+        <v>100.46630000000002</v>
+      </c>
+      <c r="G10" s="19">
+        <f t="shared" ref="G10:G45" si="5">G9*(1+0.15)</f>
+        <v>109.80717499999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>233</v>
+      </c>
+      <c r="B11" s="50">
+        <f t="shared" si="0"/>
+        <v>85.545892030000005</v>
+      </c>
+      <c r="C11" s="50">
+        <f t="shared" si="1"/>
+        <v>89.414228593749982</v>
+      </c>
+      <c r="D11" s="50">
+        <f t="shared" si="2"/>
+        <v>96.117603750000015</v>
+      </c>
+      <c r="E11" s="19">
+        <f t="shared" si="3"/>
+        <v>103.14790953124999</v>
+      </c>
+      <c r="F11" s="19">
+        <f t="shared" si="4"/>
+        <v>110.51293000000003</v>
+      </c>
+      <c r="G11" s="19">
+        <f t="shared" si="5"/>
+        <v>126.27825124999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>234</v>
       </c>
-      <c r="B9" s="36">
-        <v>83.860299999999995</v>
-      </c>
-      <c r="C9" s="36">
-        <v>85.10575</v>
-      </c>
-      <c r="D9" s="36">
-        <v>87.1815</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="B12" s="50">
+        <f t="shared" si="0"/>
+        <v>86.401350950299999</v>
+      </c>
+      <c r="C12" s="50">
+        <f t="shared" si="1"/>
+        <v>91.649584308593717</v>
+      </c>
+      <c r="D12" s="50">
+        <f t="shared" si="2"/>
+        <v>100.92348393750002</v>
+      </c>
+      <c r="E12" s="19">
+        <f t="shared" si="3"/>
+        <v>110.88400274609374</v>
+      </c>
+      <c r="F12" s="19">
+        <f t="shared" si="4"/>
+        <v>121.56422300000004</v>
+      </c>
+      <c r="G12" s="19">
+        <f t="shared" si="5"/>
+        <v>145.21998893749995</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>235</v>
+      </c>
+      <c r="B13" s="50">
+        <f t="shared" si="0"/>
+        <v>87.265364459802996</v>
+      </c>
+      <c r="C13" s="50">
+        <f t="shared" si="1"/>
+        <v>93.940823916308545</v>
+      </c>
+      <c r="D13" s="50">
+        <f t="shared" si="2"/>
+        <v>105.96965813437502</v>
+      </c>
+      <c r="E13" s="19">
+        <f t="shared" si="3"/>
+        <v>119.20030295205076</v>
+      </c>
+      <c r="F13" s="19">
+        <f t="shared" si="4"/>
+        <v>133.72064530000006</v>
+      </c>
+      <c r="G13" s="19">
+        <f t="shared" si="5"/>
+        <v>167.00298727812492</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>236</v>
+      </c>
+      <c r="B14" s="50">
+        <f t="shared" si="0"/>
+        <v>88.138018104401027</v>
+      </c>
+      <c r="C14" s="50">
+        <f t="shared" si="1"/>
+        <v>96.289344514216253</v>
+      </c>
+      <c r="D14" s="50">
+        <f t="shared" si="2"/>
+        <v>111.26814104109378</v>
+      </c>
+      <c r="E14" s="19">
+        <f t="shared" si="3"/>
+        <v>128.14032567345456</v>
+      </c>
+      <c r="F14" s="19">
+        <f t="shared" si="4"/>
+        <v>147.09270983000008</v>
+      </c>
+      <c r="G14" s="19">
+        <f t="shared" si="5"/>
+        <v>192.05343536984364</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>183</v>
+      </c>
+      <c r="B15" s="50">
+        <f t="shared" si="0"/>
+        <v>89.019398285445035</v>
+      </c>
+      <c r="C15" s="50">
+        <f t="shared" si="1"/>
+        <v>98.696578127071646</v>
+      </c>
+      <c r="D15" s="50">
+        <f t="shared" si="2"/>
+        <v>116.83154809314848</v>
+      </c>
+      <c r="E15" s="19">
+        <f t="shared" si="3"/>
+        <v>137.75085009896364</v>
+      </c>
+      <c r="F15" s="19">
+        <f t="shared" si="4"/>
+        <v>161.80198081300009</v>
+      </c>
+      <c r="G15" s="19">
+        <f t="shared" si="5"/>
+        <v>220.86145067532016</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>237</v>
+      </c>
+      <c r="B16" s="50">
+        <f t="shared" si="0"/>
+        <v>89.909592268299491</v>
+      </c>
+      <c r="C16" s="50">
+        <f t="shared" si="1"/>
+        <v>101.16399258024843</v>
+      </c>
+      <c r="D16" s="50">
+        <f t="shared" si="2"/>
+        <v>122.67312549780591</v>
+      </c>
+      <c r="E16" s="19">
+        <f t="shared" si="3"/>
+        <v>148.0821638563859</v>
+      </c>
+      <c r="F16" s="19">
+        <f t="shared" si="4"/>
+        <v>177.98217889430012</v>
+      </c>
+      <c r="G16" s="19">
+        <f t="shared" si="5"/>
+        <v>253.99066827661815</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>238</v>
+      </c>
+      <c r="B17" s="50">
+        <f t="shared" si="0"/>
+        <v>90.80868819098248</v>
+      </c>
+      <c r="C17" s="50">
+        <f t="shared" si="1"/>
+        <v>103.69309239475463</v>
+      </c>
+      <c r="D17" s="50">
+        <f t="shared" si="2"/>
+        <v>128.80678177269621</v>
+      </c>
+      <c r="E17" s="19">
+        <f t="shared" si="3"/>
+        <v>159.18832614561484</v>
+      </c>
+      <c r="F17" s="19">
+        <f t="shared" si="4"/>
+        <v>195.78039678373014</v>
+      </c>
+      <c r="G17" s="19">
+        <f t="shared" si="5"/>
+        <v>292.08926851811083</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>239</v>
+      </c>
+      <c r="B18" s="50">
+        <f t="shared" si="0"/>
+        <v>91.716775072892304</v>
+      </c>
+      <c r="C18" s="50">
+        <f t="shared" si="1"/>
+        <v>106.28541970462348</v>
+      </c>
+      <c r="D18" s="50">
+        <f t="shared" si="2"/>
+        <v>135.24712086133104</v>
+      </c>
+      <c r="E18" s="19">
+        <f t="shared" si="3"/>
+        <v>171.12745060653594</v>
+      </c>
+      <c r="F18" s="19">
+        <f t="shared" si="4"/>
+        <v>215.35843646210319</v>
+      </c>
+      <c r="G18" s="19">
+        <f t="shared" si="5"/>
+        <v>335.90265879582745</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>240</v>
+      </c>
+      <c r="B19" s="50">
+        <f t="shared" si="0"/>
+        <v>92.633942823621226</v>
+      </c>
+      <c r="C19" s="50">
+        <f t="shared" si="1"/>
+        <v>108.94255519723906</v>
+      </c>
+      <c r="D19" s="50">
+        <f t="shared" si="2"/>
+        <v>142.00947690439759</v>
+      </c>
+      <c r="E19" s="19">
+        <f t="shared" si="3"/>
+        <v>183.96200940202613</v>
+      </c>
+      <c r="F19" s="19">
+        <f t="shared" si="4"/>
+        <v>236.89428010831352</v>
+      </c>
+      <c r="G19" s="19">
+        <f t="shared" si="5"/>
+        <v>386.28805761520152</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="37" t="s">
+        <v>208</v>
+      </c>
+      <c r="B20" s="50">
+        <f t="shared" si="0"/>
+        <v>93.560282251857444</v>
+      </c>
+      <c r="C20" s="50">
+        <f t="shared" si="1"/>
+        <v>111.66611907717002</v>
+      </c>
+      <c r="D20" s="50">
+        <f t="shared" si="2"/>
+        <v>149.10995074961747</v>
+      </c>
+      <c r="E20" s="19">
+        <f t="shared" si="3"/>
+        <v>197.75916010717808</v>
+      </c>
+      <c r="F20" s="19">
+        <f t="shared" si="4"/>
+        <v>260.58370811914489</v>
+      </c>
+      <c r="G20" s="19">
+        <f t="shared" si="5"/>
+        <v>444.23126625748171</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="37" t="s">
+        <v>241</v>
+      </c>
+      <c r="B21" s="50">
+        <f t="shared" si="0"/>
+        <v>94.495885074376019</v>
+      </c>
+      <c r="C21" s="50">
+        <f t="shared" si="1"/>
+        <v>114.45777205409927</v>
+      </c>
+      <c r="D21" s="50">
+        <f t="shared" si="2"/>
+        <v>156.56544828709835</v>
+      </c>
+      <c r="E21" s="19">
+        <f t="shared" si="3"/>
+        <v>212.59109711521643</v>
+      </c>
+      <c r="F21" s="19">
+        <f t="shared" si="4"/>
+        <v>286.64207893105942</v>
+      </c>
+      <c r="G21" s="19">
+        <f t="shared" si="5"/>
+        <v>510.86595619610392</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="37" t="s">
+        <v>242</v>
+      </c>
+      <c r="B22" s="50">
+        <f t="shared" si="0"/>
+        <v>95.440843925119779</v>
+      </c>
+      <c r="C22" s="50">
+        <f t="shared" si="1"/>
+        <v>117.31921635545174</v>
+      </c>
+      <c r="D22" s="50">
+        <f t="shared" si="2"/>
+        <v>164.39372070145328</v>
+      </c>
+      <c r="E22" s="19">
+        <f t="shared" si="3"/>
+        <v>228.53542939885764</v>
+      </c>
+      <c r="F22" s="19">
+        <f t="shared" si="4"/>
+        <v>315.3062868241654</v>
+      </c>
+      <c r="G22" s="19">
+        <f t="shared" si="5"/>
+        <v>587.49584962551944</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="37" t="s">
+        <v>243</v>
+      </c>
+      <c r="B23" s="50">
+        <f t="shared" si="0"/>
+        <v>96.395252364370975</v>
+      </c>
+      <c r="C23" s="50">
+        <f t="shared" si="1"/>
+        <v>120.25219676433802</v>
+      </c>
+      <c r="D23" s="50">
+        <f t="shared" si="2"/>
+        <v>172.61340673652595</v>
+      </c>
+      <c r="E23" s="19">
+        <f t="shared" si="3"/>
+        <v>245.67558660377196</v>
+      </c>
+      <c r="F23" s="19">
+        <f t="shared" si="4"/>
+        <v>346.83691550658199</v>
+      </c>
+      <c r="G23" s="19">
+        <f t="shared" si="5"/>
+        <v>675.62022706934727</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="37" t="s">
+        <v>244</v>
+      </c>
+      <c r="B24" s="50">
+        <f t="shared" si="0"/>
+        <v>97.359204888014688</v>
+      </c>
+      <c r="C24" s="50">
+        <f t="shared" si="1"/>
+        <v>123.25850168344647</v>
+      </c>
+      <c r="D24" s="50">
+        <f t="shared" si="2"/>
+        <v>181.24407707335226</v>
+      </c>
+      <c r="E24" s="19">
+        <f t="shared" si="3"/>
+        <v>264.10125559905487</v>
+      </c>
+      <c r="F24" s="19">
+        <f t="shared" si="4"/>
+        <v>381.52060705724023</v>
+      </c>
+      <c r="G24" s="19">
+        <f t="shared" si="5"/>
+        <v>776.9632611297493</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="37" t="s">
+        <v>184</v>
+      </c>
+      <c r="B25" s="50">
+        <f t="shared" si="0"/>
+        <v>98.332796936894837</v>
+      </c>
+      <c r="C25" s="50">
+        <f t="shared" si="1"/>
+        <v>126.33996422553263</v>
+      </c>
+      <c r="D25" s="50">
+        <f t="shared" si="2"/>
+        <v>190.30628092701988</v>
+      </c>
+      <c r="E25" s="19">
+        <f t="shared" si="3"/>
+        <v>283.90884976898394</v>
+      </c>
+      <c r="F25" s="19">
+        <f t="shared" si="4"/>
+        <v>419.67266776296429</v>
+      </c>
+      <c r="G25" s="19">
+        <f t="shared" si="5"/>
+        <v>893.50775029921158</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="37" t="s">
+        <v>245</v>
+      </c>
+      <c r="B26" s="50">
+        <f t="shared" si="0"/>
+        <v>99.316124906263781</v>
+      </c>
+      <c r="C26" s="50">
+        <f t="shared" si="1"/>
+        <v>129.49846333117094</v>
+      </c>
+      <c r="D26" s="50">
+        <f t="shared" si="2"/>
+        <v>199.82159497337088</v>
+      </c>
+      <c r="E26" s="19">
+        <f t="shared" si="3"/>
+        <v>305.20201350165775</v>
+      </c>
+      <c r="F26" s="19">
+        <f t="shared" si="4"/>
+        <v>461.63993453926076</v>
+      </c>
+      <c r="G26" s="19">
+        <f t="shared" si="5"/>
+        <v>1027.5339128440933</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="37" t="s">
+        <v>246</v>
+      </c>
+      <c r="B27" s="50">
+        <f t="shared" si="0"/>
+        <v>100.30928615532642</v>
+      </c>
+      <c r="C27" s="50">
+        <f t="shared" si="1"/>
+        <v>132.73592491445021</v>
+      </c>
+      <c r="D27" s="50">
+        <f t="shared" si="2"/>
+        <v>209.81267472203942</v>
+      </c>
+      <c r="E27" s="19">
+        <f t="shared" si="3"/>
+        <v>328.09216451428205</v>
+      </c>
+      <c r="F27" s="19">
+        <f t="shared" si="4"/>
+        <v>507.8039279931869</v>
+      </c>
+      <c r="G27" s="19">
+        <f t="shared" si="5"/>
+        <v>1181.6639997707071</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="37" t="s">
+        <v>247</v>
+      </c>
+      <c r="B28" s="50">
+        <f t="shared" si="0"/>
+        <v>101.31237901687969</v>
+      </c>
+      <c r="C28" s="50">
+        <f t="shared" si="1"/>
+        <v>136.05432303731146</v>
+      </c>
+      <c r="D28" s="50">
+        <f t="shared" si="2"/>
+        <v>220.3033084581414</v>
+      </c>
+      <c r="E28" s="19">
+        <f t="shared" si="3"/>
+        <v>352.69907685285318</v>
+      </c>
+      <c r="F28" s="19">
+        <f t="shared" si="4"/>
+        <v>558.58432079250565</v>
+      </c>
+      <c r="G28" s="19">
+        <f t="shared" si="5"/>
+        <v>1358.913599736313</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="37" t="s">
+        <v>248</v>
+      </c>
+      <c r="B29" s="50">
+        <f t="shared" si="0"/>
+        <v>102.32550280704848</v>
+      </c>
+      <c r="C29" s="50">
+        <f t="shared" si="1"/>
+        <v>139.45568111324422</v>
+      </c>
+      <c r="D29" s="50">
+        <f t="shared" si="2"/>
+        <v>231.31847388104848</v>
+      </c>
+      <c r="E29" s="19">
+        <f t="shared" si="3"/>
+        <v>379.15150761681713</v>
+      </c>
+      <c r="F29" s="19">
+        <f t="shared" si="4"/>
+        <v>614.44275287175628</v>
+      </c>
+      <c r="G29" s="19">
+        <f t="shared" si="5"/>
+        <v>1562.7506396967599</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="37" t="s">
         <v>209</v>
       </c>
-      <c r="B10" s="36">
-        <v>84.698899999999995</v>
-      </c>
-      <c r="C10" s="36">
-        <v>87.23339</v>
-      </c>
-      <c r="D10" s="36">
-        <v>91.540580000000006</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>235</v>
-      </c>
-      <c r="B11" s="36">
-        <v>85.54589</v>
-      </c>
-      <c r="C11" s="36">
-        <v>89.414230000000003</v>
-      </c>
-      <c r="D11" s="36">
-        <v>96.117599999999996</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>236</v>
-      </c>
-      <c r="B12" s="36">
-        <v>86.401349999999994</v>
-      </c>
-      <c r="C12" s="36">
-        <v>91.64958</v>
-      </c>
-      <c r="D12" s="36">
-        <v>100.9235</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>237</v>
-      </c>
-      <c r="B13" s="36">
-        <v>87.265360000000001</v>
-      </c>
-      <c r="C13" s="36">
-        <v>93.940820000000002</v>
-      </c>
-      <c r="D13" s="36">
-        <v>105.9697</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>238</v>
-      </c>
-      <c r="B14" s="36">
-        <v>88.138019999999997</v>
-      </c>
-      <c r="C14" s="36">
-        <v>96.289339999999996</v>
-      </c>
-      <c r="D14" s="36">
-        <v>111.2681</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="B30" s="50">
+        <f t="shared" si="0"/>
+        <v>103.34875783511896</v>
+      </c>
+      <c r="C30" s="50">
+        <f t="shared" si="1"/>
+        <v>142.94207314107533</v>
+      </c>
+      <c r="D30" s="50">
+        <f t="shared" si="2"/>
+        <v>242.88439757510091</v>
+      </c>
+      <c r="E30" s="19">
+        <f t="shared" si="3"/>
+        <v>407.5878706880784</v>
+      </c>
+      <c r="F30" s="19">
+        <f t="shared" si="4"/>
+        <v>675.88702815893191</v>
+      </c>
+      <c r="G30" s="19">
+        <f t="shared" si="5"/>
+        <v>1797.1632356512737</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="37" t="s">
+        <v>249</v>
+      </c>
+      <c r="B31" s="50">
+        <f t="shared" si="0"/>
+        <v>104.38224541347014</v>
+      </c>
+      <c r="C31" s="50">
+        <f t="shared" si="1"/>
+        <v>146.51562496960219</v>
+      </c>
+      <c r="D31" s="50">
+        <f t="shared" si="2"/>
+        <v>255.02861745385596</v>
+      </c>
+      <c r="E31" s="19">
+        <f t="shared" si="3"/>
+        <v>438.15696098968425</v>
+      </c>
+      <c r="F31" s="19">
+        <f t="shared" si="4"/>
+        <v>743.47573097482518</v>
+      </c>
+      <c r="G31" s="19">
+        <f t="shared" si="5"/>
+        <v>2066.7377209989645</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="37" t="s">
+        <v>250</v>
+      </c>
+      <c r="B32" s="50">
+        <f t="shared" si="0"/>
+        <v>105.42606786760484</v>
+      </c>
+      <c r="C32" s="50">
+        <f t="shared" si="1"/>
+        <v>150.17851559384223</v>
+      </c>
+      <c r="D32" s="50">
+        <f t="shared" si="2"/>
+        <v>267.78004832654875</v>
+      </c>
+      <c r="E32" s="19">
+        <f t="shared" si="3"/>
+        <v>471.01873306391053</v>
+      </c>
+      <c r="F32" s="19">
+        <f t="shared" si="4"/>
+        <v>817.82330407230779</v>
+      </c>
+      <c r="G32" s="19">
+        <f t="shared" si="5"/>
+        <v>2376.7483791488089</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="37" t="s">
+        <v>251</v>
+      </c>
+      <c r="B33" s="50">
+        <f t="shared" si="0"/>
+        <v>106.48032854628089</v>
+      </c>
+      <c r="C33" s="50">
+        <f t="shared" si="1"/>
+        <v>153.93297848368829</v>
+      </c>
+      <c r="D33" s="50">
+        <f t="shared" si="2"/>
+        <v>281.16905074287621</v>
+      </c>
+      <c r="E33" s="19">
+        <f t="shared" si="3"/>
+        <v>506.3451380437038</v>
+      </c>
+      <c r="F33" s="19">
+        <f t="shared" si="4"/>
+        <v>899.60563447953859</v>
+      </c>
+      <c r="G33" s="19">
+        <f t="shared" si="5"/>
+        <v>2733.2606360211298</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="37" t="s">
+        <v>252</v>
+      </c>
+      <c r="B34" s="50">
+        <f t="shared" si="0"/>
+        <v>107.5451318317437</v>
+      </c>
+      <c r="C34" s="50">
+        <f t="shared" si="1"/>
+        <v>157.78130294578048</v>
+      </c>
+      <c r="D34" s="50">
+        <f t="shared" si="2"/>
+        <v>295.22750328002002</v>
+      </c>
+      <c r="E34" s="19">
+        <f t="shared" si="3"/>
+        <v>544.32102339698156</v>
+      </c>
+      <c r="F34" s="19">
+        <f t="shared" si="4"/>
+        <v>989.56619792749257</v>
+      </c>
+      <c r="G34" s="19">
+        <f t="shared" si="5"/>
+        <v>3143.2497314242992</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="37" t="s">
         <v>185</v>
       </c>
-      <c r="B15" s="36">
-        <v>89.019400000000005</v>
-      </c>
-      <c r="C15" s="36">
-        <v>98.696579999999997</v>
-      </c>
-      <c r="D15" s="36">
-        <v>116.83150000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>239</v>
-      </c>
-      <c r="B16" s="36">
-        <v>89.909589999999994</v>
-      </c>
-      <c r="C16" s="36">
-        <v>101.164</v>
-      </c>
-      <c r="D16" s="36">
-        <v>122.67310000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>240</v>
-      </c>
-      <c r="B17" s="36">
-        <v>90.808689999999999</v>
-      </c>
-      <c r="C17" s="36">
-        <v>103.6931</v>
-      </c>
-      <c r="D17" s="36">
-        <v>128.80680000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>241</v>
-      </c>
-      <c r="B18" s="36">
-        <v>91.71678</v>
-      </c>
-      <c r="C18" s="36">
-        <v>106.2854</v>
-      </c>
-      <c r="D18" s="36">
-        <v>135.24709999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>242</v>
-      </c>
-      <c r="B19" s="36">
-        <v>92.633939999999996</v>
-      </c>
-      <c r="C19" s="36">
-        <v>108.9426</v>
-      </c>
-      <c r="D19" s="36">
-        <v>142.0095</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="37" t="s">
+      <c r="B35" s="50">
+        <f t="shared" si="0"/>
+        <v>108.62058315006114</v>
+      </c>
+      <c r="C35" s="50">
+        <f t="shared" si="1"/>
+        <v>161.72583551942498</v>
+      </c>
+      <c r="D35" s="50">
+        <f t="shared" si="2"/>
+        <v>309.98887844402105</v>
+      </c>
+      <c r="E35" s="19">
+        <f t="shared" si="3"/>
+        <v>585.14510015175517</v>
+      </c>
+      <c r="F35" s="19">
+        <f t="shared" si="4"/>
+        <v>1088.5228177202418</v>
+      </c>
+      <c r="G35" s="19">
+        <f t="shared" si="5"/>
+        <v>3614.7371911379437</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="37" t="s">
+        <v>253</v>
+      </c>
+      <c r="B36" s="50">
+        <f t="shared" si="0"/>
+        <v>109.70678898156174</v>
+      </c>
+      <c r="C36" s="50">
+        <f t="shared" si="1"/>
+        <v>165.76898140741059</v>
+      </c>
+      <c r="D36" s="50">
+        <f t="shared" si="2"/>
+        <v>325.48832236622212</v>
+      </c>
+      <c r="E36" s="19">
+        <f t="shared" si="3"/>
+        <v>629.0309826631368</v>
+      </c>
+      <c r="F36" s="19">
+        <f t="shared" si="4"/>
+        <v>1197.3750994922661</v>
+      </c>
+      <c r="G36" s="19">
+        <f t="shared" si="5"/>
+        <v>4156.9477698086348</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="37" t="s">
+        <v>254</v>
+      </c>
+      <c r="B37" s="50">
+        <f t="shared" si="0"/>
+        <v>110.80385687137736</v>
+      </c>
+      <c r="C37" s="50">
+        <f t="shared" si="1"/>
+        <v>169.91320594259585</v>
+      </c>
+      <c r="D37" s="50">
+        <f t="shared" si="2"/>
+        <v>341.76273848453326</v>
+      </c>
+      <c r="E37" s="19">
+        <f t="shared" si="3"/>
+        <v>676.20830636287201</v>
+      </c>
+      <c r="F37" s="19">
+        <f t="shared" si="4"/>
+        <v>1317.1126094414929</v>
+      </c>
+      <c r="G37" s="19">
+        <f t="shared" si="5"/>
+        <v>4780.4899352799293</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="37" t="s">
+        <v>255</v>
+      </c>
+      <c r="B38" s="50">
+        <f t="shared" si="0"/>
+        <v>111.91189544009114</v>
+      </c>
+      <c r="C38" s="50">
+        <f t="shared" si="1"/>
+        <v>174.16103609116072</v>
+      </c>
+      <c r="D38" s="50">
+        <f t="shared" si="2"/>
+        <v>358.85087540875992</v>
+      </c>
+      <c r="E38" s="19">
+        <f t="shared" si="3"/>
+        <v>726.9239293400874</v>
+      </c>
+      <c r="F38" s="19">
+        <f t="shared" si="4"/>
+        <v>1448.8238703856423</v>
+      </c>
+      <c r="G38" s="19">
+        <f t="shared" si="5"/>
+        <v>5497.5634255719187</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="37" t="s">
+        <v>256</v>
+      </c>
+      <c r="B39" s="50">
+        <f t="shared" si="0"/>
+        <v>113.03101439449206</v>
+      </c>
+      <c r="C39" s="50">
+        <f t="shared" si="1"/>
+        <v>178.51506199343973</v>
+      </c>
+      <c r="D39" s="50">
+        <f t="shared" si="2"/>
+        <v>376.79341917919794</v>
+      </c>
+      <c r="E39" s="19">
+        <f t="shared" si="3"/>
+        <v>781.44322404059392</v>
+      </c>
+      <c r="F39" s="19">
+        <f t="shared" si="4"/>
+        <v>1593.7062574242066</v>
+      </c>
+      <c r="G39" s="19">
+        <f t="shared" si="5"/>
+        <v>6322.1979394077061</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="37" t="s">
         <v>210</v>
       </c>
-      <c r="B20" s="36">
-        <v>93.560280000000006</v>
-      </c>
-      <c r="C20" s="36">
-        <v>111.6661</v>
-      </c>
-      <c r="D20" s="36">
-        <v>149.11000000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="37" t="s">
-        <v>243</v>
-      </c>
-      <c r="B21" s="36">
-        <v>94.495890000000003</v>
-      </c>
-      <c r="C21" s="36">
-        <v>114.45780000000001</v>
-      </c>
-      <c r="D21" s="36">
-        <v>156.56540000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="37" t="s">
-        <v>244</v>
-      </c>
-      <c r="B22" s="36">
-        <v>95.440839999999994</v>
-      </c>
-      <c r="C22" s="36">
-        <v>117.3192</v>
-      </c>
-      <c r="D22" s="36">
-        <v>164.3937</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="37" t="s">
-        <v>245</v>
-      </c>
-      <c r="B23" s="36">
-        <v>96.395250000000004</v>
-      </c>
-      <c r="C23" s="36">
-        <v>120.2522</v>
-      </c>
-      <c r="D23" s="36">
-        <v>172.61340000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="37" t="s">
-        <v>246</v>
-      </c>
-      <c r="B24" s="36">
-        <v>97.359200000000001</v>
-      </c>
-      <c r="C24" s="36">
-        <v>123.2585</v>
-      </c>
-      <c r="D24" s="36">
-        <v>181.2441</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="37" t="s">
+      <c r="B40" s="50">
+        <f t="shared" si="0"/>
+        <v>114.16132453843699</v>
+      </c>
+      <c r="C40" s="50">
+        <f t="shared" si="1"/>
+        <v>182.97793854327571</v>
+      </c>
+      <c r="D40" s="50">
+        <f t="shared" si="2"/>
+        <v>395.63309013815785</v>
+      </c>
+      <c r="E40" s="19">
+        <f t="shared" si="3"/>
+        <v>840.05146584363843</v>
+      </c>
+      <c r="F40" s="19">
+        <f t="shared" si="4"/>
+        <v>1753.0768831666273</v>
+      </c>
+      <c r="G40" s="19">
+        <f t="shared" si="5"/>
+        <v>7270.5276303188612</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="37" t="s">
+        <v>257</v>
+      </c>
+      <c r="B41" s="50">
+        <f t="shared" si="0"/>
+        <v>115.30293778382136</v>
+      </c>
+      <c r="C41" s="50">
+        <f t="shared" si="1"/>
+        <v>187.5523870068576</v>
+      </c>
+      <c r="D41" s="50">
+        <f t="shared" si="2"/>
+        <v>415.41474464506575</v>
+      </c>
+      <c r="E41" s="19">
+        <f t="shared" si="3"/>
+        <v>903.05532578191128</v>
+      </c>
+      <c r="F41" s="19">
+        <f t="shared" si="4"/>
+        <v>1928.3845714832903</v>
+      </c>
+      <c r="G41" s="19">
+        <f t="shared" si="5"/>
+        <v>8361.1067748666901</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="37" t="s">
+        <v>258</v>
+      </c>
+      <c r="B42" s="50">
+        <f t="shared" si="0"/>
+        <v>116.45596716165957</v>
+      </c>
+      <c r="C42" s="50">
+        <f t="shared" si="1"/>
+        <v>192.24119668202903</v>
+      </c>
+      <c r="D42" s="50">
+        <f t="shared" si="2"/>
+        <v>436.18548187731903</v>
+      </c>
+      <c r="E42" s="19">
+        <f t="shared" si="3"/>
+        <v>970.78447521555461</v>
+      </c>
+      <c r="F42" s="19">
+        <f t="shared" si="4"/>
+        <v>2121.2230286316194</v>
+      </c>
+      <c r="G42" s="19">
+        <f t="shared" si="5"/>
+        <v>9615.2727910966933</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="37" t="s">
+        <v>259</v>
+      </c>
+      <c r="B43" s="50">
+        <f t="shared" si="0"/>
+        <v>117.62052683327617</v>
+      </c>
+      <c r="C43" s="50">
+        <f t="shared" si="1"/>
+        <v>197.04722659907975</v>
+      </c>
+      <c r="D43" s="50">
+        <f t="shared" si="2"/>
+        <v>457.99475597118499</v>
+      </c>
+      <c r="E43" s="19">
+        <f t="shared" si="3"/>
+        <v>1043.5933108567212</v>
+      </c>
+      <c r="F43" s="19">
+        <f t="shared" si="4"/>
+        <v>2333.3453314947815</v>
+      </c>
+      <c r="G43" s="19">
+        <f t="shared" si="5"/>
+        <v>11057.563709761196</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="37" t="s">
+        <v>260</v>
+      </c>
+      <c r="B44" s="50">
+        <f t="shared" si="0"/>
+        <v>118.79673210160894</v>
+      </c>
+      <c r="C44" s="50">
+        <f t="shared" si="1"/>
+        <v>201.97340726405673</v>
+      </c>
+      <c r="D44" s="50">
+        <f t="shared" si="2"/>
+        <v>480.89449376974426</v>
+      </c>
+      <c r="E44" s="19">
+        <f t="shared" si="3"/>
+        <v>1121.8628091709752</v>
+      </c>
+      <c r="F44" s="19">
+        <f t="shared" si="4"/>
+        <v>2566.6798646442599</v>
+      </c>
+      <c r="G44" s="19">
+        <f t="shared" si="5"/>
+        <v>12716.198266225374</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="37" t="s">
         <v>186</v>
       </c>
-      <c r="B25" s="36">
-        <v>98.332800000000006</v>
-      </c>
-      <c r="C25" s="36">
-        <v>126.34</v>
-      </c>
-      <c r="D25" s="36">
-        <v>190.30629999999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="37" t="s">
-        <v>247</v>
-      </c>
-      <c r="B26" s="36">
-        <v>99.316119999999998</v>
-      </c>
-      <c r="C26" s="36">
-        <v>129.49850000000001</v>
-      </c>
-      <c r="D26" s="36">
-        <v>199.82159999999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="37" t="s">
-        <v>248</v>
-      </c>
-      <c r="B27" s="36">
-        <v>100.30929999999999</v>
-      </c>
-      <c r="C27" s="36">
-        <v>132.73589999999999</v>
-      </c>
-      <c r="D27" s="36">
-        <v>209.81270000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="37" t="s">
-        <v>249</v>
-      </c>
-      <c r="B28" s="36">
-        <v>101.3124</v>
-      </c>
-      <c r="C28" s="36">
-        <v>136.05430000000001</v>
-      </c>
-      <c r="D28" s="36">
-        <v>220.30330000000001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="37" t="s">
-        <v>250</v>
-      </c>
-      <c r="B29" s="36">
-        <v>102.32550000000001</v>
-      </c>
-      <c r="C29" s="36">
-        <v>139.45570000000001</v>
-      </c>
-      <c r="D29" s="36">
-        <v>231.3185</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="37" t="s">
-        <v>211</v>
-      </c>
-      <c r="B30" s="36">
-        <v>103.3488</v>
-      </c>
-      <c r="C30" s="36">
-        <v>142.94210000000001</v>
-      </c>
-      <c r="D30" s="36">
-        <v>242.8844</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="37" t="s">
-        <v>251</v>
-      </c>
-      <c r="B31" s="36">
-        <v>104.3822</v>
-      </c>
-      <c r="C31" s="36">
-        <v>146.51560000000001</v>
-      </c>
-      <c r="D31" s="36">
-        <v>255.02860000000001</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="37" t="s">
-        <v>252</v>
-      </c>
-      <c r="B32" s="36">
-        <v>105.42610000000001</v>
-      </c>
-      <c r="C32" s="36">
-        <v>150.17850000000001</v>
-      </c>
-      <c r="D32" s="36">
-        <v>267.77999999999997</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="37" t="s">
-        <v>253</v>
-      </c>
-      <c r="B33" s="36">
-        <v>106.4803</v>
-      </c>
-      <c r="C33" s="36">
-        <v>153.93299999999999</v>
-      </c>
-      <c r="D33" s="36">
-        <v>281.16910000000001</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="37" t="s">
-        <v>254</v>
-      </c>
-      <c r="B34" s="36">
-        <v>107.54510000000001</v>
-      </c>
-      <c r="C34" s="36">
-        <v>157.78129999999999</v>
-      </c>
-      <c r="D34" s="36">
-        <v>295.22750000000002</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="37" t="s">
-        <v>187</v>
-      </c>
-      <c r="B35" s="36">
-        <v>108.6206</v>
-      </c>
-      <c r="C35" s="36">
-        <v>161.72579999999999</v>
-      </c>
-      <c r="D35" s="36">
-        <v>309.9889</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="37" t="s">
-        <v>255</v>
-      </c>
-      <c r="B36" s="36">
-        <v>109.7068</v>
-      </c>
-      <c r="C36" s="36">
-        <v>165.76900000000001</v>
-      </c>
-      <c r="D36" s="36">
-        <v>325.48829999999998</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="37" t="s">
-        <v>256</v>
-      </c>
-      <c r="B37" s="36">
-        <v>110.8039</v>
-      </c>
-      <c r="C37" s="36">
-        <v>169.91319999999999</v>
-      </c>
-      <c r="D37" s="36">
-        <v>341.7627</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="37" t="s">
-        <v>257</v>
-      </c>
-      <c r="B38" s="36">
-        <v>111.9119</v>
-      </c>
-      <c r="C38" s="36">
-        <v>174.161</v>
-      </c>
-      <c r="D38" s="36">
-        <v>6205458</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="37" t="s">
-        <v>258</v>
-      </c>
-      <c r="B39" s="36">
-        <v>113.03100000000001</v>
-      </c>
-      <c r="C39" s="36">
-        <v>178.51509999999999</v>
-      </c>
-      <c r="D39" s="36">
-        <v>376.79340000000002</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="37" t="s">
-        <v>212</v>
-      </c>
-      <c r="B40" s="36">
-        <v>114.1613</v>
-      </c>
-      <c r="C40" s="36">
-        <v>182.97790000000001</v>
-      </c>
-      <c r="D40" s="36">
-        <v>395.63310000000001</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="37" t="s">
-        <v>259</v>
-      </c>
-      <c r="B41" s="36">
-        <v>115.30289999999999</v>
-      </c>
-      <c r="C41" s="36">
-        <v>187.55240000000001</v>
-      </c>
-      <c r="D41" s="36">
-        <v>415.41469999999998</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="37" t="s">
-        <v>260</v>
-      </c>
-      <c r="B42" s="36">
-        <v>116.456</v>
-      </c>
-      <c r="C42" s="36">
-        <v>192.24119999999999</v>
-      </c>
-      <c r="D42" s="36">
-        <v>436.18549999999999</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="37" t="s">
-        <v>261</v>
-      </c>
-      <c r="B43" s="36">
-        <v>117.62050000000001</v>
-      </c>
-      <c r="C43" s="36">
-        <v>197.0472</v>
-      </c>
-      <c r="D43" s="36">
-        <v>457.9948</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="37" t="s">
-        <v>262</v>
-      </c>
-      <c r="B44" s="36">
-        <v>118.7967</v>
-      </c>
-      <c r="C44" s="36">
-        <v>201.9734</v>
-      </c>
-      <c r="D44" s="36">
-        <v>480.89449999999999</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="37" t="s">
-        <v>188</v>
-      </c>
-      <c r="B45" s="36">
-        <v>119.9847</v>
-      </c>
-      <c r="C45" s="36">
-        <v>207.02269999999999</v>
-      </c>
-      <c r="D45" s="36">
-        <v>504.93920000000003</v>
+      <c r="B45" s="50">
+        <f t="shared" si="0"/>
+        <v>119.98469942262503</v>
+      </c>
+      <c r="C45" s="50">
+        <f t="shared" si="1"/>
+        <v>207.02274244565814</v>
+      </c>
+      <c r="D45" s="50">
+        <f t="shared" si="2"/>
+        <v>504.93921845823149</v>
+      </c>
+      <c r="E45" s="19">
+        <f t="shared" si="3"/>
+        <v>1206.0025198587982</v>
+      </c>
+      <c r="F45" s="19">
+        <f t="shared" si="4"/>
+        <v>2823.347851108686</v>
+      </c>
+      <c r="G45" s="19">
+        <f t="shared" si="5"/>
+        <v>14623.628006159179</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -4480,7 +5161,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:Z5"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+    <sheetView topLeftCell="J1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
       <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
@@ -4511,232 +5192,232 @@
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G1" t="s">
         <v>169</v>
       </c>
-      <c r="B1" t="s">
-        <v>263</v>
-      </c>
-      <c r="C1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D1" t="s">
-        <v>147</v>
-      </c>
-      <c r="E1" t="s">
-        <v>170</v>
-      </c>
-      <c r="F1" t="s">
-        <v>165</v>
-      </c>
-      <c r="G1" t="s">
-        <v>171</v>
-      </c>
       <c r="I1" t="s">
+        <v>167</v>
+      </c>
+      <c r="J1" t="s">
+        <v>261</v>
+      </c>
+      <c r="K1" t="s">
+        <v>145</v>
+      </c>
+      <c r="L1" t="s">
+        <v>168</v>
+      </c>
+      <c r="M1" t="s">
+        <v>163</v>
+      </c>
+      <c r="N1" t="s">
         <v>169</v>
       </c>
-      <c r="J1" t="s">
-        <v>263</v>
-      </c>
-      <c r="K1" t="s">
-        <v>147</v>
-      </c>
-      <c r="L1" t="s">
-        <v>170</v>
-      </c>
-      <c r="M1" t="s">
-        <v>165</v>
-      </c>
-      <c r="N1" t="s">
-        <v>171</v>
-      </c>
       <c r="P1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>261</v>
+      </c>
+      <c r="R1" t="s">
+        <v>145</v>
+      </c>
+      <c r="S1" t="s">
+        <v>211</v>
+      </c>
+      <c r="T1" t="s">
+        <v>168</v>
+      </c>
+      <c r="U1" t="s">
+        <v>163</v>
+      </c>
+      <c r="V1" t="s">
         <v>169</v>
       </c>
-      <c r="Q1" t="s">
-        <v>263</v>
-      </c>
-      <c r="R1" t="s">
-        <v>147</v>
-      </c>
-      <c r="S1" t="s">
-        <v>213</v>
-      </c>
-      <c r="T1" t="s">
-        <v>170</v>
-      </c>
-      <c r="U1" t="s">
-        <v>165</v>
-      </c>
-      <c r="V1" t="s">
-        <v>171</v>
-      </c>
       <c r="X1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="Y1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="Z1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D2" t="s">
         <v>265</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E2" t="s">
         <v>266</v>
       </c>
-      <c r="C2" t="s">
-        <v>153</v>
-      </c>
-      <c r="D2" t="s">
-        <v>267</v>
-      </c>
-      <c r="E2" t="s">
-        <v>268</v>
-      </c>
       <c r="F2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="J2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="L2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="M2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="N2">
         <v>0.6</v>
       </c>
       <c r="P2" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>264</v>
+      </c>
+      <c r="R2" t="s">
+        <v>265</v>
+      </c>
+      <c r="S2" t="s">
+        <v>270</v>
+      </c>
+      <c r="T2" t="s">
         <v>271</v>
       </c>
-      <c r="Q2" t="s">
-        <v>266</v>
-      </c>
-      <c r="R2" t="s">
-        <v>267</v>
-      </c>
-      <c r="S2" t="s">
-        <v>272</v>
-      </c>
-      <c r="T2" t="s">
-        <v>273</v>
-      </c>
       <c r="U2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="V2">
         <v>1</v>
       </c>
       <c r="X2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="Y2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="Z2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="J3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="L3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="M3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="N3">
         <v>1.1999999999999999E-3</v>
       </c>
       <c r="P3" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>273</v>
+      </c>
+      <c r="R3" t="s">
+        <v>274</v>
+      </c>
+      <c r="S3" t="s">
+        <v>275</v>
+      </c>
+      <c r="T3" t="s">
         <v>271</v>
       </c>
-      <c r="Q3" t="s">
-        <v>275</v>
-      </c>
-      <c r="R3" t="s">
-        <v>276</v>
-      </c>
-      <c r="S3" t="s">
-        <v>277</v>
-      </c>
-      <c r="T3" t="s">
-        <v>273</v>
-      </c>
       <c r="U3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="V3">
         <v>1</v>
       </c>
       <c r="X3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="Y3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="Z3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="I4" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="J4" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K4" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="L4" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="M4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="N4">
         <v>0.6</v>
@@ -4744,19 +5425,19 @@
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="I5" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="J5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K5" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="L5" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="M5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="N5">
         <v>1.1999999999999999E-3</v>
@@ -4784,51 +5465,51 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B5">
         <v>0.8</v>
@@ -4839,7 +5520,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B6">
         <v>0.8</v>
@@ -4850,7 +5531,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B7">
         <v>0.8</v>
@@ -4861,7 +5542,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B8">
         <v>0.8</v>
@@ -4872,7 +5553,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B9">
         <v>0.8</v>
@@ -4909,33 +5590,33 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E2">
         <v>0.3</v>
@@ -4943,16 +5624,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E3">
         <v>1E-3</v>
@@ -4965,11 +5646,11 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
-  <dimension ref="A1:F16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:B16"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4979,101 +5660,98 @@
     <col min="3" max="3" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>178</v>
       </c>
-      <c r="C1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B3" t="s">
+        <v>277</v>
+      </c>
+      <c r="C3" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>179</v>
       </c>
-      <c r="B2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>180</v>
       </c>
-      <c r="B3" t="s">
-        <v>279</v>
-      </c>
-      <c r="C3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>181</v>
-      </c>
-      <c r="B4" t="s">
-        <v>147</v>
-      </c>
-      <c r="C4" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
+        <v>265</v>
+      </c>
+      <c r="C5" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>168</v>
+      </c>
+      <c r="B6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>163</v>
+      </c>
+      <c r="B7" t="s">
+        <v>166</v>
+      </c>
+      <c r="C7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>182</v>
       </c>
-      <c r="B5" t="s">
-        <v>267</v>
-      </c>
-      <c r="C5" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>170</v>
-      </c>
-      <c r="B6" t="s">
-        <v>123</v>
-      </c>
-      <c r="C6" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>165</v>
-      </c>
-      <c r="B7" t="s">
-        <v>168</v>
-      </c>
-      <c r="C7" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>184</v>
-      </c>
       <c r="B8" s="4">
-        <v>466325.30448643101</v>
+        <v>153235.05755748009</v>
       </c>
       <c r="C8" s="4">
         <f>Base!E35</f>
         <v>503144654.08805031</v>
       </c>
-      <c r="F8" s="4">
-        <v>153235.05755748009</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B9" s="4">
         <v>466325.30448643101</v>
@@ -5082,119 +5760,96 @@
         <f t="shared" ref="C9:C12" si="0">C8</f>
         <v>503144654.08805031</v>
       </c>
-      <c r="F9" s="4">
-        <v>466325.30448643101</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B10" s="4">
-        <v>466325.30448643101</v>
+        <v>452531.64772125217</v>
       </c>
       <c r="C10" s="4">
         <f t="shared" si="0"/>
         <v>503144654.08805031</v>
       </c>
-      <c r="F10" s="4">
-        <v>452531.64772125217</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B11" s="4">
-        <v>466325.30448643101</v>
+        <v>443281.91878865106</v>
       </c>
       <c r="C11" s="4">
         <f t="shared" si="0"/>
         <v>503144654.08805031</v>
       </c>
-      <c r="F11" s="4">
-        <v>443281.91878865106</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B12" s="4">
-        <v>466325.30448643101</v>
+        <v>441949.46191361878</v>
       </c>
       <c r="C12" s="4">
         <f t="shared" si="0"/>
         <v>503144654.08805031</v>
       </c>
-      <c r="F12" s="4">
-        <v>441949.46191361878</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B13" s="4">
-        <v>466325.30448643101</v>
+        <v>441805.20056338521</v>
       </c>
       <c r="C13" s="4">
         <f t="shared" ref="C13" si="1">C12</f>
         <v>503144654.08805031</v>
       </c>
-      <c r="F13" s="4">
-        <v>441805.20056338521</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B14" s="4">
-        <v>466325.30448643101</v>
+        <v>441797.61264709232</v>
       </c>
       <c r="C14" s="4">
         <f t="shared" ref="C14" si="2">C13</f>
         <v>503144654.08805031</v>
       </c>
-      <c r="F14" s="4">
-        <v>441797.61264709232</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B15" s="4">
-        <v>466325.30448643101</v>
+        <v>441798.91599598486</v>
       </c>
       <c r="C15" s="4">
         <f t="shared" ref="C15" si="3">C14</f>
         <v>503144654.08805031</v>
       </c>
-      <c r="F15" s="4">
-        <v>441798.91599598486</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B16" s="4">
-        <v>466325.30448643101</v>
+        <v>441799.42197618191</v>
       </c>
       <c r="C16" s="4">
         <f t="shared" ref="C16" si="4">C15</f>
         <v>503144654.08805031</v>
-      </c>
-      <c r="F16" s="4">
-        <v>441799.42197618191</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5212,15 +5867,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B2" s="38">
         <v>10000000000</v>
@@ -5228,7 +5883,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B3" s="38">
         <v>10000000000</v>
@@ -5236,7 +5891,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B4" s="38">
         <v>10000000000</v>
@@ -5279,309 +5934,309 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C1"/>
       <c r="D1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J1" t="s">
         <v>128</v>
       </c>
-      <c r="G1" t="s">
+      <c r="M1" t="s">
+        <v>128</v>
+      </c>
+      <c r="P1" t="s">
+        <v>128</v>
+      </c>
+      <c r="R1" t="s">
         <v>129</v>
-      </c>
-      <c r="J1" t="s">
-        <v>130</v>
-      </c>
-      <c r="M1" t="s">
-        <v>130</v>
-      </c>
-      <c r="P1" t="s">
-        <v>130</v>
-      </c>
-      <c r="R1" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C2"/>
       <c r="D2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H2" t="s">
         <v>133</v>
       </c>
-      <c r="E2" t="s">
+      <c r="J2" t="s">
         <v>134</v>
       </c>
-      <c r="G2" t="s">
+      <c r="K2" t="s">
+        <v>135</v>
+      </c>
+      <c r="M2" t="s">
+        <v>136</v>
+      </c>
+      <c r="P2" t="s">
+        <v>137</v>
+      </c>
+      <c r="R2" t="s">
         <v>129</v>
       </c>
-      <c r="H2" t="s">
-        <v>135</v>
-      </c>
-      <c r="J2" t="s">
-        <v>136</v>
-      </c>
-      <c r="K2" t="s">
-        <v>137</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="S2" t="s">
         <v>138</v>
-      </c>
-      <c r="P2" t="s">
-        <v>139</v>
-      </c>
-      <c r="R2" t="s">
-        <v>131</v>
-      </c>
-      <c r="S2" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="D3" t="s">
         <v>141</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="E3" t="s">
+        <v>139</v>
+      </c>
+      <c r="F3" t="s">
+        <v>140</v>
+      </c>
+      <c r="G3" t="s">
+        <v>141</v>
+      </c>
+      <c r="H3" t="s">
+        <v>139</v>
+      </c>
+      <c r="I3" t="s">
+        <v>140</v>
+      </c>
+      <c r="J3" t="s">
+        <v>141</v>
+      </c>
+      <c r="K3" t="s">
+        <v>139</v>
+      </c>
+      <c r="L3" t="s">
+        <v>140</v>
+      </c>
+      <c r="M3" t="s">
+        <v>141</v>
+      </c>
+      <c r="N3" t="s">
+        <v>139</v>
+      </c>
+      <c r="O3" t="s">
+        <v>140</v>
+      </c>
+      <c r="P3" t="s">
         <v>142</v>
       </c>
-      <c r="D3" t="s">
+      <c r="Q3" t="s">
         <v>143</v>
       </c>
-      <c r="E3" t="s">
+      <c r="R3" t="s">
         <v>141</v>
       </c>
-      <c r="F3" t="s">
-        <v>142</v>
-      </c>
-      <c r="G3" t="s">
-        <v>143</v>
-      </c>
-      <c r="H3" t="s">
-        <v>141</v>
-      </c>
-      <c r="I3" t="s">
-        <v>142</v>
-      </c>
-      <c r="J3" t="s">
-        <v>143</v>
-      </c>
-      <c r="K3" t="s">
-        <v>141</v>
-      </c>
-      <c r="L3" t="s">
-        <v>142</v>
-      </c>
-      <c r="M3" t="s">
-        <v>143</v>
-      </c>
-      <c r="N3" t="s">
-        <v>141</v>
-      </c>
-      <c r="O3" t="s">
-        <v>142</v>
-      </c>
-      <c r="P3" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>145</v>
-      </c>
-      <c r="R3" t="s">
-        <v>143</v>
-      </c>
       <c r="S3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="T3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C4" s="29" t="s">
         <v>146</v>
       </c>
-      <c r="B4" t="s">
-        <v>147</v>
-      </c>
-      <c r="C4" s="29" t="s">
-        <v>148</v>
-      </c>
       <c r="D4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="I4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="J4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="K4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="L4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="M4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="N4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="O4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="P4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="Q4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="R4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="S4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="T4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C5" s="29" t="s">
         <v>149</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" t="s">
         <v>150</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="E5" t="s">
+        <v>149</v>
+      </c>
+      <c r="F5" t="s">
         <v>151</v>
       </c>
-      <c r="D5" t="s">
+      <c r="G5" t="s">
+        <v>150</v>
+      </c>
+      <c r="H5" t="s">
         <v>152</v>
       </c>
-      <c r="E5" t="s">
+      <c r="I5" t="s">
+        <v>153</v>
+      </c>
+      <c r="J5" t="s">
         <v>151</v>
       </c>
-      <c r="F5" t="s">
-        <v>153</v>
-      </c>
-      <c r="G5" t="s">
-        <v>152</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="K5" t="s">
         <v>154</v>
       </c>
-      <c r="I5" t="s">
+      <c r="L5" t="s">
+        <v>150</v>
+      </c>
+      <c r="M5" t="s">
+        <v>149</v>
+      </c>
+      <c r="N5" t="s">
+        <v>151</v>
+      </c>
+      <c r="O5" t="s">
         <v>155</v>
       </c>
-      <c r="J5" t="s">
-        <v>153</v>
-      </c>
-      <c r="K5" t="s">
+      <c r="P5" t="s">
         <v>156</v>
       </c>
-      <c r="L5" t="s">
-        <v>152</v>
-      </c>
-      <c r="M5" t="s">
+      <c r="Q5" t="s">
+        <v>150</v>
+      </c>
+      <c r="S5" t="s">
         <v>151</v>
       </c>
-      <c r="N5" t="s">
-        <v>153</v>
-      </c>
-      <c r="O5" t="s">
-        <v>157</v>
-      </c>
-      <c r="P5" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>152</v>
-      </c>
-      <c r="S5" t="s">
-        <v>153</v>
-      </c>
       <c r="T5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
+        <v>157</v>
+      </c>
+      <c r="F6" t="s">
+        <v>158</v>
+      </c>
+      <c r="G6" t="s">
+        <v>157</v>
+      </c>
+      <c r="K6" t="s">
         <v>159</v>
       </c>
-      <c r="F6" t="s">
+      <c r="L6" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q6" t="s">
         <v>160</v>
       </c>
-      <c r="G6" t="s">
-        <v>159</v>
-      </c>
-      <c r="K6" t="s">
-        <v>161</v>
-      </c>
-      <c r="L6" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>162</v>
-      </c>
       <c r="T6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="L7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="T7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="L8" t="s">
+        <v>160</v>
+      </c>
+      <c r="R8" t="s">
+        <v>155</v>
+      </c>
+      <c r="S8" t="s">
+        <v>161</v>
+      </c>
+      <c r="T8" t="s">
         <v>162</v>
-      </c>
-      <c r="R8" t="s">
-        <v>157</v>
-      </c>
-      <c r="S8" t="s">
-        <v>163</v>
-      </c>
-      <c r="T8" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="R9" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="R10" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="42" ht="27" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5612,24 +6267,24 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D1" t="s">
         <v>165</v>
-      </c>
-      <c r="C1" t="s">
-        <v>166</v>
-      </c>
-      <c r="D1" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C2" t="b">
         <f>TRUE()</f>
@@ -5672,114 +6327,114 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G1" t="s">
+        <v>145</v>
+      </c>
+      <c r="H1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I1" t="s">
+        <v>168</v>
+      </c>
+      <c r="J1" t="s">
+        <v>163</v>
+      </c>
+      <c r="K1" t="s">
         <v>169</v>
       </c>
-      <c r="B1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C1" t="s">
-        <v>147</v>
-      </c>
-      <c r="E1" t="s">
-        <v>169</v>
-      </c>
-      <c r="F1" t="s">
-        <v>148</v>
-      </c>
-      <c r="G1" t="s">
-        <v>147</v>
-      </c>
-      <c r="H1" t="s">
-        <v>147</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="M1" t="s">
+        <v>145</v>
+      </c>
+      <c r="N1" t="s">
+        <v>163</v>
+      </c>
+      <c r="O1" t="s">
         <v>170</v>
-      </c>
-      <c r="J1" t="s">
-        <v>165</v>
-      </c>
-      <c r="K1" t="s">
-        <v>171</v>
-      </c>
-      <c r="M1" t="s">
-        <v>147</v>
-      </c>
-      <c r="N1" t="s">
-        <v>165</v>
-      </c>
-      <c r="O1" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F2" t="s">
+        <v>149</v>
+      </c>
+      <c r="G2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I2" t="s">
         <v>173</v>
       </c>
-      <c r="B2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E2" t="s">
-        <v>174</v>
-      </c>
-      <c r="F2" t="s">
-        <v>151</v>
-      </c>
-      <c r="G2" t="s">
-        <v>152</v>
-      </c>
-      <c r="H2" t="s">
-        <v>150</v>
-      </c>
-      <c r="I2" t="s">
-        <v>175</v>
-      </c>
       <c r="J2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K2">
         <f>Base!C61</f>
         <v>46.402721136626234</v>
       </c>
       <c r="M2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="N2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="O2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F3" t="s">
+        <v>149</v>
+      </c>
+      <c r="G3" t="s">
+        <v>157</v>
+      </c>
+      <c r="H3" t="s">
+        <v>148</v>
+      </c>
+      <c r="I3" t="s">
         <v>173</v>
       </c>
-      <c r="B3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C3" t="s">
-        <v>159</v>
-      </c>
-      <c r="E3" t="s">
-        <v>174</v>
-      </c>
-      <c r="F3" t="s">
-        <v>151</v>
-      </c>
-      <c r="G3" t="s">
-        <v>159</v>
-      </c>
-      <c r="H3" t="s">
-        <v>150</v>
-      </c>
-      <c r="I3" t="s">
-        <v>175</v>
-      </c>
       <c r="J3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K3">
         <f>Base!C62</f>
@@ -5788,31 +6443,31 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C4" t="s">
+        <v>148</v>
+      </c>
+      <c r="E4" t="s">
+        <v>172</v>
+      </c>
+      <c r="F4" t="s">
+        <v>149</v>
+      </c>
+      <c r="G4" t="s">
         <v>151</v>
       </c>
-      <c r="C4" t="s">
-        <v>150</v>
-      </c>
-      <c r="E4" t="s">
-        <v>174</v>
-      </c>
-      <c r="F4" t="s">
-        <v>151</v>
-      </c>
-      <c r="G4" t="s">
-        <v>153</v>
-      </c>
       <c r="H4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="I4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="J4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K4">
         <f>Base!C57</f>
@@ -5821,31 +6476,31 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C5" t="s">
         <v>151</v>
       </c>
-      <c r="C5" t="s">
-        <v>153</v>
-      </c>
       <c r="E5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="I5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="J5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K5">
         <f>Base!C56</f>
@@ -5854,13 +6509,13 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -5891,63 +6546,63 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B8">
         <f>Base!C55</f>
@@ -5956,7 +6611,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B9">
         <v>0.56000000000000005</v>
@@ -5964,7 +6619,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B10">
         <v>0.53</v>
@@ -5972,7 +6627,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B11">
         <v>0.51</v>
@@ -5980,7 +6635,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B12">
         <v>0.5</v>
@@ -6019,82 +6674,82 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G1" t="s">
+        <v>145</v>
+      </c>
+      <c r="H1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I1" t="s">
+        <v>168</v>
+      </c>
+      <c r="J1" t="s">
+        <v>163</v>
+      </c>
+      <c r="K1" t="s">
         <v>169</v>
       </c>
-      <c r="B1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C1" t="s">
-        <v>147</v>
-      </c>
-      <c r="E1" t="s">
-        <v>169</v>
-      </c>
-      <c r="F1" t="s">
-        <v>148</v>
-      </c>
-      <c r="G1" t="s">
-        <v>147</v>
-      </c>
-      <c r="H1" t="s">
-        <v>147</v>
-      </c>
-      <c r="I1" t="s">
-        <v>170</v>
-      </c>
-      <c r="J1" t="s">
-        <v>165</v>
-      </c>
-      <c r="K1" t="s">
-        <v>171</v>
-      </c>
       <c r="M1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="N1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="O1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F2" t="s">
         <v>152</v>
       </c>
-      <c r="E2" t="s">
-        <v>174</v>
-      </c>
-      <c r="F2" t="s">
-        <v>154</v>
-      </c>
       <c r="G2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="J2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K2">
         <f>Base!C63</f>
         <v>3.7400000000000003E-2</v>
       </c>
       <c r="M2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="N2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="O2">
         <f>Base!B3</f>
@@ -6103,31 +6758,31 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="J3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K3">
         <f>Base!C64</f>
@@ -6136,13 +6791,13 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -6165,39 +6820,39 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B5">
         <v>90</v>
@@ -6205,7 +6860,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B6">
         <v>60</v>
@@ -6213,7 +6868,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B7">
         <v>60</v>
@@ -6229,7 +6884,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:AB13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+    <sheetView topLeftCell="M1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
       <selection activeCell="AB2" sqref="AB2"/>
     </sheetView>
   </sheetViews>
@@ -6264,121 +6919,121 @@
   <sheetData>
     <row r="1" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="30" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>163</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="G1" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="I1" s="30" t="s">
+        <v>167</v>
+      </c>
+      <c r="J1" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="K1" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="L1" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="M1" s="30" t="s">
+        <v>168</v>
+      </c>
+      <c r="N1" s="30" t="s">
+        <v>163</v>
+      </c>
+      <c r="O1" s="30" t="s">
         <v>169</v>
       </c>
-      <c r="B1" s="30" t="s">
-        <v>148</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>147</v>
-      </c>
-      <c r="D1" s="30" t="s">
-        <v>165</v>
-      </c>
-      <c r="E1" s="30" t="s">
+      <c r="Q1" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="R1" s="30" t="s">
+        <v>163</v>
+      </c>
+      <c r="S1" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="T1" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="U1" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="V1" s="30" t="s">
         <v>193</v>
       </c>
-      <c r="F1" s="30" t="s">
-        <v>183</v>
-      </c>
-      <c r="G1" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="I1" s="30" t="s">
-        <v>169</v>
-      </c>
-      <c r="J1" s="30" t="s">
-        <v>148</v>
-      </c>
-      <c r="K1" s="30" t="s">
-        <v>147</v>
-      </c>
-      <c r="L1" s="30" t="s">
-        <v>147</v>
-      </c>
-      <c r="M1" s="30" t="s">
-        <v>170</v>
-      </c>
-      <c r="N1" s="30" t="s">
-        <v>165</v>
-      </c>
-      <c r="O1" s="30" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q1" s="30" t="s">
-        <v>148</v>
-      </c>
-      <c r="R1" s="30" t="s">
-        <v>165</v>
-      </c>
-      <c r="S1" s="30" t="s">
-        <v>193</v>
-      </c>
-      <c r="T1" s="30" t="s">
+      <c r="W1" s="30" t="s">
         <v>194</v>
       </c>
-      <c r="U1" s="30" t="s">
-        <v>120</v>
-      </c>
-      <c r="V1" s="30" t="s">
+      <c r="X1" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y1" s="30" t="s">
         <v>195</v>
       </c>
-      <c r="W1" s="30" t="s">
+      <c r="Z1" s="30" t="s">
         <v>196</v>
       </c>
-      <c r="X1" s="30" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y1" s="30" t="s">
+      <c r="AA1" s="30" t="s">
         <v>197</v>
       </c>
-      <c r="Z1" s="30" t="s">
-        <v>198</v>
-      </c>
-      <c r="AA1" s="30" t="s">
-        <v>199</v>
-      </c>
       <c r="AB1" s="30" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="J2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="L2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="M2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="N2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="O2">
         <f>Base!C67</f>
         <v>3777.7777777777783</v>
       </c>
       <c r="Q2" s="31" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="R2" s="31" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="S2" s="31"/>
       <c r="T2" s="32">
@@ -6393,61 +7048,61 @@
         <v>0</v>
       </c>
       <c r="W2" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="X2" s="31">
         <f>Base!C66</f>
         <v>23994000</v>
       </c>
       <c r="Y2" s="31" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="Z2" s="31">
         <f>U2*Base!B14</f>
         <v>73.041095890410972</v>
       </c>
       <c r="AA2" s="31" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="AB2" s="31"/>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I3" s="31" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="J3" s="31" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K3" s="31" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="L3" s="31" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="M3" s="31" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="N3" s="31" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="O3" s="31">
         <f>Base!C68</f>
         <v>2266.666666666667</v>
       </c>
       <c r="Q3" s="33" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="R3" s="33" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="S3" s="33" t="b">
         <f>FALSE()</f>
@@ -6465,16 +7120,16 @@
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F4" s="7">
         <f>Base!B14</f>
@@ -6485,32 +7140,32 @@
         <v>5.5</v>
       </c>
       <c r="I4" s="33" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="J4" s="33" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K4" s="33" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="L4" s="33" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="M4" s="33" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="N4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="O4" s="33">
         <f>Base!C73</f>
         <v>4111.1111111111113</v>
       </c>
       <c r="Q4" s="31" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="R4" s="31" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="S4" s="31" t="b">
         <f>TRUE()</f>
@@ -6528,58 +7183,58 @@
         <v>0</v>
       </c>
       <c r="W4" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="X4" s="31">
         <f>Base!C72</f>
         <v>23354160</v>
       </c>
       <c r="Y4" s="31" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="Z4" s="31">
         <f>U4*Base!B14</f>
         <v>71.215068493150696</v>
       </c>
       <c r="AA4" s="31" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AB4" s="31"/>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C5" t="s">
         <v>156</v>
       </c>
-      <c r="C5" t="s">
-        <v>158</v>
-      </c>
       <c r="D5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E5" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="I5" s="31" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="J5" s="31" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K5" s="31" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="L5" s="31" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="M5" s="31" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="N5" s="31" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="O5" s="31">
         <f>Base!C74</f>
@@ -6588,16 +7243,16 @@
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E6" t="b">
         <f>FALSE()</f>
@@ -6606,16 +7261,16 @@
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B7" t="s">
+        <v>154</v>
+      </c>
+      <c r="C7" t="s">
         <v>156</v>
       </c>
-      <c r="C7" t="s">
-        <v>158</v>
-      </c>
       <c r="D7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F7">
         <v>31</v>
@@ -6626,13 +7281,13 @@
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="33" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D8" s="33"/>
       <c r="E8" s="33"/>
@@ -6641,27 +7296,27 @@
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B9" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C9" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B10" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D10" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F10" s="7">
         <f>Base!B14</f>
@@ -6674,16 +7329,16 @@
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B11" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C11" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D11" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E11" t="b">
         <f>FALSE()</f>
@@ -6692,16 +7347,16 @@
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B12" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C12" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D12" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E12" t="b">
         <f>FALSE()</f>
@@ -6710,16 +7365,16 @@
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="31" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B13" s="31" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D13" s="31" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E13" s="31"/>
       <c r="F13" s="31">
@@ -6754,63 +7409,63 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B1" t="s">
         <v>146</v>
       </c>
-      <c r="B1" t="s">
-        <v>148</v>
-      </c>
       <c r="C1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B5">
         <f>UtilityUnit_generator!T2</f>
@@ -6825,7 +7480,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -6836,7 +7491,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -6847,7 +7502,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -6858,7 +7513,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -6866,7 +7521,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -6874,7 +7529,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -6882,7 +7537,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -6890,7 +7545,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C13">
         <v>0</v>

--- a/InputData/PlatformOperation.xlsx
+++ b/InputData/PlatformOperation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\PhD project\Products\Models\OffPlatfEner\InputData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20682089-E0E6-4D24-98A8-5121C1A9628E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26CDB6EB-5C14-446D-B7BF-DFA9E5B3FC91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="851" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="661" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
     <sheet name="Onshore_supply_ts" sheetId="17" r:id="rId17"/>
     <sheet name="FeasibilityTest" sheetId="18" r:id="rId18"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -45,6 +45,9 @@
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
@@ -53,7 +56,6 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
-    <author>Peecock, Anna</author>
   </authors>
   <commentList>
     <comment ref="A9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
@@ -75,6 +77,7 @@
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t>Use amine to absorb</t>
         </r>
@@ -99,12 +102,13 @@
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t>assume to incl. GT consumption, flaring, and venting</t>
         </r>
       </text>
     </comment>
-    <comment ref="H20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+    <comment ref="H20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -123,6 +127,7 @@
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t>Sheet "04 Gas turb. simple cycle Sm-Me"</t>
         </r>
@@ -174,12 +179,13 @@
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t>Simply flue gas condensation, no WHRU.</t>
         </r>
       </text>
     </comment>
-    <comment ref="G23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+    <comment ref="G23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -198,36 +204,85 @@
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t>Assumption. Validation needed</t>
         </r>
       </text>
     </comment>
-    <comment ref="B60" authorId="1" shapeId="0" xr:uid="{865EAA33-E2EC-4345-A5FA-9D448D60586C}">
+    <comment ref="E39" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Peecock, Anna:</t>
+          <t xml:space="preserve">Huang  Jiangyi:
+</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">
-Cessation of production</t>
+          <t>For variations during operation, counted in average production.</t>
         </r>
       </text>
     </comment>
-    <comment ref="C62" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="F39" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Huang  Jiangyi:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>For contingency, requiring extra supply</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B60" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Peecock, Anna:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Cessation of production</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C62" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -246,12 +301,13 @@
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t>Heat loss is all counted in production</t>
         </r>
       </text>
     </comment>
-    <comment ref="B70" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="B70" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -270,12 +326,13 @@
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t>Yet to be implemented in SpineOpt</t>
         </r>
       </text>
     </comment>
-    <comment ref="B76" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="B76" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -294,6 +351,7 @@
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t>Yet to be implemented in SpineOpt</t>
         </r>
@@ -363,6 +421,7 @@
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t>This needs to be 0 to enable investment, see: https://spine-tools.github.io/SpineOpt.jl/latest/advanced_concepts/investment_optimization/#Creating-an-Investment-Candidate-Unit-Example</t>
         </r>
@@ -387,32 +446,9 @@
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
-          </rPr>
-          <t>Minimum available time</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AA2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000003000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Huang  Jiangyi:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Assumed available time</t>
+          <t>Minimum available time. This parmeter current leads to some weird investment performances of the new OCGT.</t>
         </r>
       </text>
     </comment>
@@ -445,6 +481,7 @@
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t>Entities in column G need change accordingly.</t>
         </r>
@@ -479,12 +516,13 @@
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t>0 capacity cannot block transmission in a direction.</t>
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0D00-000002000000}">
+    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0D00-000002000000}">
       <text>
         <r>
           <rPr>
@@ -503,12 +541,23 @@
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
-          <t>Necessary to block reversing transmission</t>
+          <t>Connections need to be set as "bidirectional" to enable transimission at the moment.</t>
         </r>
       </text>
     </comment>
-    <comment ref="Z1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0D00-000003000000}">
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -526,43 +575,9 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Connections need to be set as "bidirectional" to enable transimission at the moment.</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Huang  Jiangyi</author>
-  </authors>
-  <commentList>
-    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{CDA78EC7-69C2-4D15-89E1-C9290FF9544D}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>Huang  Jiangyi:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Gas price. Big jump up due to RU-UK conflick.</t>
+          <t>Gas price. Big jump up due to RU-UK conflick.</t>
         </r>
       </text>
     </comment>
@@ -571,7 +586,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="303">
   <si>
     <t>Specification document (open access)</t>
   </si>
@@ -756,12 +771,21 @@
     <t>Nominal investment (total)</t>
   </si>
   <si>
+    <t>2023-M£/MW_e</t>
+  </si>
+  <si>
     <t>Variable O&amp;M (total)</t>
   </si>
   <si>
+    <t>2023-M£/MWh_e</t>
+  </si>
+  <si>
     <t>Fixed O&amp;M (total)</t>
   </si>
   <si>
+    <t>2023-£/MW_e/y</t>
+  </si>
+  <si>
     <t>Technical lifetime</t>
   </si>
   <si>
@@ -810,12 +834,24 @@
     <t>CO2 emission factor</t>
   </si>
   <si>
+    <t>tonne/MWh of gas</t>
+  </si>
+  <si>
+    <t>NSTA</t>
+  </si>
+  <si>
     <t>IPCC 2006 default</t>
   </si>
   <si>
+    <t>=0.2</t>
+  </si>
+  <si>
     <t>Est. gas consumption for operation</t>
   </si>
   <si>
+    <t>tonne/M Sm3 of gas</t>
+  </si>
+  <si>
     <t>Platform energy demand [MW]</t>
   </si>
   <si>
@@ -828,7 +864,13 @@
     <t>Design (+contingency)</t>
   </si>
   <si>
-    <t>Gap</t>
+    <t>spinning upward reserves</t>
+  </si>
+  <si>
+    <t>non-spinning reserves</t>
+  </si>
+  <si>
+    <t>Total reserves</t>
   </si>
   <si>
     <t>Heating Duty</t>
@@ -900,6 +942,9 @@
     <t>M Sm3</t>
   </si>
   <si>
+    <t>Available capacity reservoir at EOP</t>
+  </si>
+  <si>
     <t>Well head</t>
   </si>
   <si>
@@ -933,6 +978,9 @@
     <t>unit_investment_cost</t>
   </si>
   <si>
+    <t>2023-£/unit</t>
+  </si>
+  <si>
     <t>fuel efficiency</t>
   </si>
   <si>
@@ -945,7 +993,7 @@
     <t>Gas turbine 2030 (for future investment)</t>
   </si>
   <si>
-    <t>PlatformModule</t>
+    <t>||</t>
   </si>
   <si>
     <t>Reservoir</t>
@@ -1071,6 +1119,9 @@
     <t>initial_node_state</t>
   </si>
   <si>
+    <t>node_state_cap</t>
+  </si>
+  <si>
     <t>Base</t>
   </si>
   <si>
@@ -1134,6 +1185,9 @@
     <t>2060-01-01T00:00:00</t>
   </si>
   <si>
+    <t>2070-01-01T00:00:00</t>
+  </si>
+  <si>
     <t>demand</t>
   </si>
   <si>
@@ -1167,24 +1221,21 @@
     <t>unit_investment_lifetime</t>
   </si>
   <si>
+    <t>min_down_time</t>
+  </si>
+  <si>
     <t>unit_online_variable_type_integer</t>
   </si>
   <si>
     <t>unit_investment_variable_type_integer</t>
   </si>
   <si>
-    <t>20Y</t>
-  </si>
-  <si>
     <t>ContingencyExcl</t>
   </si>
   <si>
     <t>LimitLifetimeGenerator</t>
   </si>
   <si>
-    <t>25Y</t>
-  </si>
-  <si>
     <t>ContingencyReserves</t>
   </si>
   <si>
@@ -1206,6 +1257,12 @@
     <t>2055-01-01T00:00:00</t>
   </si>
   <si>
+    <t>2065-01-01T00:00:00</t>
+  </si>
+  <si>
+    <t>2075-01-01T00:00:00</t>
+  </si>
+  <si>
     <t>user_constraint</t>
   </si>
   <si>
@@ -1260,6 +1317,21 @@
     <t>TSdevelopmentCarbonPrice_3</t>
   </si>
   <si>
+    <t>TSdevelopmentCarbonPrice_4</t>
+  </si>
+  <si>
+    <t>TSdevelopmentCarbonPrice_5</t>
+  </si>
+  <si>
+    <t>TSdevelopmentCarbonPrice_6</t>
+  </si>
+  <si>
+    <t>TSdevelopmentCarbonPrice_7</t>
+  </si>
+  <si>
+    <t>TSdevelopmentCarbonPrice_8</t>
+  </si>
+  <si>
     <t>2021-01-01T00:00:00</t>
   </si>
   <si>
@@ -1356,6 +1428,30 @@
     <t>2059-01-01T00:00:00</t>
   </si>
   <si>
+    <t>2061-01-01T00:00:00</t>
+  </si>
+  <si>
+    <t>2062-01-01T00:00:00</t>
+  </si>
+  <si>
+    <t>2063-01-01T00:00:00</t>
+  </si>
+  <si>
+    <t>2064-01-01T00:00:00</t>
+  </si>
+  <si>
+    <t>2066-01-01T00:00:00</t>
+  </si>
+  <si>
+    <t>2067-01-01T00:00:00</t>
+  </si>
+  <si>
+    <t>2068-01-01T00:00:00</t>
+  </si>
+  <si>
+    <t>2069-01-01T00:00:00</t>
+  </si>
+  <si>
     <t>connection</t>
   </si>
   <si>
@@ -1380,15 +1476,6 @@
     <t>connection_capacity</t>
   </si>
   <si>
-    <t>connection__from_node__user_constraint</t>
-  </si>
-  <si>
-    <t>PlatformA1_GasPipeline_direction</t>
-  </si>
-  <si>
-    <t>connection_flow_coefficient</t>
-  </si>
-  <si>
     <t>connection_type_lossless_bidirectional</t>
   </si>
   <si>
@@ -1398,9 +1485,6 @@
     <t>OnshoreOil</t>
   </si>
   <si>
-    <t>PlatformA1_OilPipeline_direction</t>
-  </si>
-  <si>
     <t>connection__to_node</t>
   </si>
   <si>
@@ -1411,42 +1495,6 @@
   </si>
   <si>
     <t>node_slack_penalty</t>
-  </si>
-  <si>
-    <t>2023-M£/MW_e</t>
-  </si>
-  <si>
-    <t>2023-M£/MWh_e</t>
-  </si>
-  <si>
-    <t>2023-£/MW_e/y</t>
-  </si>
-  <si>
-    <t>2023-£/unit</t>
-  </si>
-  <si>
-    <t>Available capacity reservoir at EOP</t>
-  </si>
-  <si>
-    <t>min_down_time</t>
-  </si>
-  <si>
-    <t>TSdevelopmentCarbonPrice_4</t>
-  </si>
-  <si>
-    <t>TSdevelopmentCarbonPrice_5</t>
-  </si>
-  <si>
-    <t>TSdevelopmentCarbonPrice_6</t>
-  </si>
-  <si>
-    <t>tonne/MWh of gas</t>
-  </si>
-  <si>
-    <t>tonne/M Sm3 of gas</t>
-  </si>
-  <si>
-    <t>=0.2</t>
   </si>
 </sst>
 </file>
@@ -1464,20 +1512,13 @@
     <numFmt numFmtId="171" formatCode="#,##0.0000"/>
     <numFmt numFmtId="172" formatCode="yyyy\-mm\-dd\Thh:mm:ss"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -1492,12 +1533,12 @@
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
-      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
@@ -1509,35 +1550,15 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="8"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -1552,14 +1573,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFE2F0D9"/>
+        <bgColor rgb="FFE7E6E6"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFE7E6E6"/>
-        <bgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFE2F0D9"/>
       </patternFill>
     </fill>
   </fills>
@@ -1589,24 +1610,6 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1648,20 +1651,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1670,61 +1691,67 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="4" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="169" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="170" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Hyperlink 2" xfId="4" xr:uid="{FD027DEA-9858-4DB8-8C97-D4831AA2618A}"/>
+    <cellStyle name="Hyperlink 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="3" xr:uid="{AD5D44AD-B476-4A0F-AE15-B35CAD20783E}"/>
+    <cellStyle name="Normal 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1765,7 +1792,7 @@
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFE2F0D9"/>
       <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
@@ -2107,23 +2134,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37" customWidth="1"/>
-    <col min="2" max="2" width="37.28515625" customWidth="1"/>
-    <col min="3" max="3" width="33.5703125" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" customWidth="1"/>
-    <col min="10" max="10" width="20.140625" customWidth="1"/>
-    <col min="11" max="11" width="2" customWidth="1"/>
-    <col min="16" max="16" width="18.7109375" customWidth="1"/>
+    <col min="1" max="1" width="38.42578125" customWidth="1"/>
+    <col min="2" max="2" width="38.7109375" customWidth="1"/>
+    <col min="3" max="3" width="34.85546875" customWidth="1"/>
+    <col min="4" max="4" width="25.5703125" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" customWidth="1"/>
+    <col min="9" max="9" width="17" customWidth="1"/>
+    <col min="10" max="10" width="20.85546875" customWidth="1"/>
+    <col min="11" max="11" width="2.140625" customWidth="1"/>
+    <col min="16" max="16" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -2502,7 +2529,7 @@
       <c r="D19" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2510,13 +2537,13 @@
       <c r="A20" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="39">
+      <c r="B20" s="12">
         <v>2015</v>
       </c>
       <c r="C20" s="11">
         <v>2020</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D20" s="12">
         <v>2030</v>
       </c>
       <c r="E20" s="11">
@@ -2526,7 +2553,7 @@
         <v>2050</v>
       </c>
       <c r="G20" s="11"/>
-      <c r="H20" s="12" t="s">
+      <c r="H20" s="13" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2534,13 +2561,13 @@
       <c r="A21" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="40">
+      <c r="B21" s="14">
         <v>0.34</v>
       </c>
       <c r="C21">
         <v>0.34</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="14">
         <v>0.35</v>
       </c>
       <c r="E21" s="8">
@@ -2554,68 +2581,68 @@
       <c r="A22" t="s">
         <v>54</v>
       </c>
-      <c r="B22" s="41">
+      <c r="B22" s="15">
         <v>0.71</v>
       </c>
       <c r="C22">
         <v>0.71</v>
       </c>
-      <c r="D22" s="13">
+      <c r="D22" s="15">
         <v>0.73</v>
       </c>
-      <c r="E22" s="13">
+      <c r="E22" s="16">
         <v>0.8</v>
       </c>
-      <c r="F22" s="13">
+      <c r="F22" s="16">
         <v>0.8</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="K22" s="14"/>
+      <c r="K22" s="17"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>56</v>
       </c>
-      <c r="B23" s="41">
+      <c r="B23" s="15">
         <v>0.6</v>
       </c>
       <c r="C23">
         <v>0.6</v>
       </c>
-      <c r="D23" s="13">
+      <c r="D23" s="15">
         <v>0.6</v>
       </c>
-      <c r="E23" s="13">
+      <c r="E23" s="16">
         <v>0.6</v>
       </c>
-      <c r="F23" s="13">
+      <c r="F23" s="16">
         <v>0.6</v>
       </c>
       <c r="G23" t="s">
         <v>57</v>
       </c>
       <c r="H23" s="2"/>
-      <c r="K23" s="14"/>
+      <c r="K23" s="17"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>58</v>
       </c>
-      <c r="B24" s="41">
+      <c r="B24" s="15">
         <v>0.04</v>
       </c>
       <c r="C24">
         <v>0.04</v>
       </c>
-      <c r="D24" s="13">
+      <c r="D24" s="15">
         <v>0.04</v>
       </c>
-      <c r="E24" s="13">
+      <c r="E24" s="16">
         <v>0.04</v>
       </c>
-      <c r="F24" s="13">
+      <c r="F24" s="16">
         <v>0.04</v>
       </c>
       <c r="G24" t="s">
@@ -2627,167 +2654,167 @@
       <c r="A25" t="s">
         <v>60</v>
       </c>
-      <c r="B25" s="41">
+      <c r="B25" s="15">
         <v>0.75</v>
       </c>
-      <c r="C25" s="47">
+      <c r="C25" s="18">
         <v>0.77400000000000002</v>
       </c>
-      <c r="D25" s="47">
+      <c r="D25" s="15">
         <v>0.75336000000000003</v>
       </c>
-      <c r="E25" s="47">
-        <v>0.72239999999999993</v>
-      </c>
-      <c r="F25" s="47">
+      <c r="E25" s="18">
+        <v>0.72240000000000004</v>
+      </c>
+      <c r="F25" s="18">
         <v>0.70176000000000005</v>
       </c>
       <c r="G25" t="s">
-        <v>280</v>
+        <v>61</v>
       </c>
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>61</v>
-      </c>
-      <c r="B26" s="41">
+        <v>62</v>
+      </c>
+      <c r="B26" s="15">
         <v>5.5</v>
       </c>
-      <c r="C26" s="49">
-        <v>5.858585858585859</v>
-      </c>
-      <c r="D26" s="49">
-        <v>5.7520661157024806</v>
-      </c>
-      <c r="E26" s="49">
-        <v>5.4325068870523419</v>
-      </c>
-      <c r="F26" s="49">
-        <v>4.8999081726354454</v>
+      <c r="C26" s="18">
+        <v>5.8585858585858599</v>
+      </c>
+      <c r="D26" s="15">
+        <v>5.7520661157024797</v>
+      </c>
+      <c r="E26" s="18">
+        <v>5.4325068870523401</v>
+      </c>
+      <c r="F26" s="18">
+        <v>4.8999081726354499</v>
       </c>
       <c r="G26" t="s">
-        <v>281</v>
+        <v>63</v>
       </c>
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>62</v>
-      </c>
-      <c r="B27" s="42">
+        <v>64</v>
+      </c>
+      <c r="B27" s="19">
         <v>20000</v>
       </c>
-      <c r="C27" s="48">
-        <v>20640.000000000004</v>
-      </c>
-      <c r="D27" s="48">
+      <c r="C27" s="20">
+        <v>20640</v>
+      </c>
+      <c r="D27" s="19">
         <v>20124</v>
       </c>
-      <c r="E27" s="48">
+      <c r="E27" s="20">
         <v>19195.2</v>
       </c>
-      <c r="F27" s="48">
+      <c r="F27" s="20">
         <v>18576</v>
       </c>
       <c r="G27" t="s">
-        <v>282</v>
+        <v>65</v>
       </c>
       <c r="H27" s="2"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>63</v>
-      </c>
-      <c r="B28" s="43">
+        <v>66</v>
+      </c>
+      <c r="B28" s="19">
         <v>25</v>
       </c>
       <c r="C28">
         <v>25</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28" s="19">
         <v>25</v>
       </c>
-      <c r="E28" s="9">
+      <c r="E28" s="7">
         <v>25</v>
       </c>
       <c r="F28" s="7">
         <v>25</v>
       </c>
       <c r="G28" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H28" s="2"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>65</v>
-      </c>
-      <c r="B29" s="44">
+        <v>68</v>
+      </c>
+      <c r="B29" s="21">
         <v>0.02</v>
       </c>
       <c r="C29">
         <v>0.02</v>
       </c>
-      <c r="D29" s="15">
+      <c r="D29" s="21">
         <v>0.02</v>
       </c>
-      <c r="E29" s="15">
+      <c r="E29" s="22">
         <v>0.02</v>
       </c>
-      <c r="F29" s="15">
+      <c r="F29" s="22">
         <v>0.02</v>
       </c>
       <c r="H29" s="2"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>66</v>
-      </c>
-      <c r="B30" s="45">
+        <v>69</v>
+      </c>
+      <c r="B30" s="23">
         <v>3</v>
       </c>
       <c r="C30">
         <v>3</v>
       </c>
-      <c r="D30" s="16">
+      <c r="D30" s="23">
         <v>2.8</v>
       </c>
-      <c r="E30" s="16">
+      <c r="E30" s="24">
         <v>2.5</v>
       </c>
-      <c r="F30" s="16">
+      <c r="F30" s="24">
         <v>2.5</v>
       </c>
       <c r="G30" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H30" s="2"/>
-      <c r="L30" s="17"/>
-      <c r="M30" s="17"/>
-      <c r="N30" s="17"/>
-      <c r="O30" s="17"/>
+      <c r="L30" s="25"/>
+      <c r="M30" s="25"/>
+      <c r="N30" s="25"/>
+      <c r="O30" s="25"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>66</v>
-      </c>
-      <c r="B31" s="46">
+        <v>69</v>
+      </c>
+      <c r="B31" s="26">
         <f>B30*24*7/$L$12</f>
         <v>5.7534246575342465E-2</v>
       </c>
       <c r="C31">
         <v>0.06</v>
       </c>
-      <c r="D31" s="15">
+      <c r="D31" s="26">
         <f>D30*24*7/$L$12</f>
         <v>5.3698630136986295E-2</v>
       </c>
-      <c r="E31" s="15">
+      <c r="E31" s="22">
         <f>E30*24*7/$L$12</f>
         <v>4.7945205479452052E-2</v>
       </c>
-      <c r="F31" s="15">
+      <c r="F31" s="22">
         <f>F30*24*7/$L$12</f>
         <v>4.7945205479452052E-2</v>
       </c>
@@ -2795,7 +2822,7 @@
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>5</v>
@@ -2804,289 +2831,360 @@
         <v>4</v>
       </c>
       <c r="D33" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E33" s="3">
         <v>400000</v>
       </c>
       <c r="F33" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B34" s="7">
         <f>D10*B12/L13</f>
         <v>10434.375</v>
       </c>
       <c r="C34" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D34" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E34">
         <v>80</v>
       </c>
       <c r="F34" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B35" s="7">
         <f>D5*B12/L13</f>
         <v>6458.333333333333</v>
       </c>
       <c r="C35" t="s">
-        <v>73</v>
-      </c>
-      <c r="E35" s="18">
+        <v>76</v>
+      </c>
+      <c r="E35" s="27">
         <f>E34/L4*10^6</f>
         <v>503144654.08805031</v>
       </c>
       <c r="F35" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B36" s="7">
         <f>B35*B19</f>
         <v>193.74999999999997</v>
       </c>
       <c r="C36" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D36" t="s">
-        <v>78</v>
-      </c>
-      <c r="E36" s="19">
+        <v>81</v>
+      </c>
+      <c r="E36" s="28">
         <v>0.46</v>
       </c>
       <c r="F36" t="s">
-        <v>289</v>
+        <v>82</v>
+      </c>
+      <c r="G36" s="29" t="s">
+        <v>83</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="J36" s="51" t="s">
-        <v>291</v>
+        <v>84</v>
+      </c>
+      <c r="J36" s="30" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B37" s="7">
         <f>B49/B21</f>
         <v>89.370588235294107</v>
       </c>
       <c r="C37" t="s">
-        <v>73</v>
-      </c>
-      <c r="E37" s="3">
+        <v>76</v>
+      </c>
+      <c r="E37" s="27">
         <f>E36*L8*10^6</f>
         <v>5111.1111111111113</v>
       </c>
       <c r="F37" t="s">
-        <v>290</v>
+        <v>87</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="B39" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="C39" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="D39" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="E39" s="20" t="s">
-        <v>85</v>
+      <c r="A39" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="B39" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="C39" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="D39" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="E39" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="F39" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="G39" s="31" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="B40" s="20"/>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
+      <c r="A40" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="B40" s="31"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="31"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="31"/>
+      <c r="G40" s="31"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="B41" s="20">
+      <c r="A41" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="B41" s="31">
         <v>12.5</v>
       </c>
-      <c r="C41" s="20">
+      <c r="C41" s="31">
         <v>13.9</v>
       </c>
-      <c r="D41" s="20">
+      <c r="D41" s="31">
         <v>14.6</v>
       </c>
-      <c r="E41" s="20">
-        <v>2.1</v>
+      <c r="E41" s="32">
+        <f>C41-B41</f>
+        <v>1.4000000000000004</v>
+      </c>
+      <c r="F41" s="32">
+        <f>D41-C41</f>
+        <v>0.69999999999999929</v>
+      </c>
+      <c r="G41" s="32">
+        <f>D41-B41</f>
+        <v>2.0999999999999996</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="B42" s="20">
+      <c r="A42" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="B42" s="31">
         <v>1.7</v>
       </c>
-      <c r="C42" s="20">
+      <c r="C42" s="31">
         <v>1.9</v>
       </c>
-      <c r="D42" s="20">
+      <c r="D42" s="31">
         <v>2.2999999999999998</v>
       </c>
-      <c r="E42" s="20">
-        <v>0.6</v>
+      <c r="E42" s="32">
+        <f>C42-B42</f>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="F42" s="32">
+        <f>D42-C42</f>
+        <v>0.39999999999999991</v>
+      </c>
+      <c r="G42" s="32">
+        <f>D42-B42</f>
+        <v>0.59999999999999987</v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A43" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="B43" s="20">
+      <c r="A43" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="B43" s="31">
         <v>2</v>
       </c>
-      <c r="C43" s="20">
+      <c r="C43" s="31">
         <v>2</v>
       </c>
-      <c r="D43" s="20">
+      <c r="D43" s="31">
         <v>2</v>
       </c>
-      <c r="E43" s="20"/>
-      <c r="J43" s="21"/>
-      <c r="K43" s="22"/>
-      <c r="L43" s="22"/>
-      <c r="M43" s="22"/>
-      <c r="N43" s="22"/>
-      <c r="O43" s="22"/>
-      <c r="P43" s="22"/>
-      <c r="R43" s="22"/>
+      <c r="E43" s="32"/>
+      <c r="F43" s="32"/>
+      <c r="G43" s="32"/>
+      <c r="J43" s="33"/>
+      <c r="K43" s="34"/>
+      <c r="L43" s="34"/>
+      <c r="M43" s="34"/>
+      <c r="N43" s="34"/>
+      <c r="O43" s="34"/>
+      <c r="P43" s="34"/>
+      <c r="R43" s="34"/>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A44" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="B44" s="20">
+      <c r="A44" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="B44" s="31">
         <v>16.2</v>
       </c>
-      <c r="C44" s="20">
+      <c r="C44" s="31">
         <v>17.8</v>
       </c>
-      <c r="D44" s="20">
+      <c r="D44" s="31">
         <v>18.899999999999999</v>
       </c>
-      <c r="E44" s="20">
-        <v>2.7</v>
-      </c>
-      <c r="K44" s="17"/>
-      <c r="L44" s="17"/>
-      <c r="M44" s="17"/>
-      <c r="N44" s="17"/>
-      <c r="O44" s="17"/>
-      <c r="P44" s="17"/>
-      <c r="R44" s="17"/>
+      <c r="E44" s="32">
+        <f>C44-B44</f>
+        <v>1.6000000000000014</v>
+      </c>
+      <c r="F44" s="32">
+        <f>D44-C44</f>
+        <v>1.0999999999999979</v>
+      </c>
+      <c r="G44" s="32">
+        <f>D44-B44</f>
+        <v>2.6999999999999993</v>
+      </c>
+      <c r="K44" s="25"/>
+      <c r="L44" s="25"/>
+      <c r="M44" s="25"/>
+      <c r="N44" s="25"/>
+      <c r="O44" s="25"/>
+      <c r="P44" s="25"/>
+      <c r="R44" s="25"/>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A45" s="20"/>
-      <c r="B45" s="20"/>
-      <c r="C45" s="20"/>
-      <c r="D45" s="20"/>
-      <c r="E45" s="20"/>
+      <c r="A45" s="31"/>
+      <c r="B45" s="31"/>
+      <c r="C45" s="31"/>
+      <c r="D45" s="31"/>
+      <c r="E45" s="32"/>
+      <c r="F45" s="32"/>
+      <c r="G45" s="32"/>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="B46" s="20"/>
-      <c r="C46" s="20"/>
-      <c r="D46" s="20"/>
-      <c r="E46" s="20"/>
+      <c r="A46" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="B46" s="31"/>
+      <c r="C46" s="31"/>
+      <c r="D46" s="31"/>
+      <c r="E46" s="32"/>
+      <c r="F46" s="32"/>
+      <c r="G46" s="32"/>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="B47" s="23">
+      <c r="A47" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="B47" s="32">
         <v>27.02</v>
       </c>
-      <c r="C47" s="23">
+      <c r="C47" s="32">
         <v>31.888000000000002</v>
       </c>
-      <c r="D47" s="23">
+      <c r="D47" s="32">
         <v>33.588000000000001</v>
       </c>
-      <c r="E47" s="20">
-        <v>6.5679999999999898</v>
+      <c r="E47" s="32">
+        <f t="shared" ref="E47:F49" si="0">C47-B47</f>
+        <v>4.8680000000000021</v>
+      </c>
+      <c r="F47" s="32">
+        <f t="shared" si="0"/>
+        <v>1.6999999999999993</v>
+      </c>
+      <c r="G47" s="32">
+        <f>D47-B47</f>
+        <v>6.5680000000000014</v>
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A48" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="B48" s="23">
+      <c r="A48" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="B48" s="32">
         <v>3.3660000000000001</v>
       </c>
-      <c r="C48" s="23">
+      <c r="C48" s="32">
         <v>3.7559999999999998</v>
       </c>
-      <c r="D48" s="23">
+      <c r="D48" s="32">
         <v>3.8879999999999999</v>
       </c>
-      <c r="E48" s="20">
-        <v>0.52200000000000002</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="B49" s="23">
+      <c r="E48" s="32">
+        <f t="shared" si="0"/>
+        <v>0.38999999999999968</v>
+      </c>
+      <c r="F48" s="32">
+        <f t="shared" si="0"/>
+        <v>0.13200000000000012</v>
+      </c>
+      <c r="G48" s="32">
+        <f>D48-B48</f>
+        <v>0.5219999999999998</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="B49" s="32">
         <v>30.385999999999999</v>
       </c>
-      <c r="C49" s="23">
+      <c r="C49" s="32">
         <v>35.643999999999998</v>
       </c>
-      <c r="D49" s="23">
+      <c r="D49" s="32">
         <v>37.475999999999999</v>
       </c>
-      <c r="E49" s="24">
-        <v>7.0899999999999901</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E49" s="32">
+        <f t="shared" si="0"/>
+        <v>5.2579999999999991</v>
+      </c>
+      <c r="F49" s="32">
+        <f t="shared" si="0"/>
+        <v>1.8320000000000007</v>
+      </c>
+      <c r="G49" s="35">
+        <f>D49-B49</f>
+        <v>7.09</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="B52" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="C52" t="s">
         <v>5</v>
@@ -3095,313 +3193,313 @@
         <v>4</v>
       </c>
       <c r="E52" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="F52" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="B53" t="s">
-        <v>99</v>
-      </c>
-      <c r="C53" s="25">
+        <v>108</v>
+      </c>
+      <c r="C53" s="36">
         <f>B34/L10/10^6</f>
         <v>1.0434375000000001E-3</v>
       </c>
       <c r="D53" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="E53" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C54" s="25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C54" s="36">
         <f>B35/L8/10^6</f>
         <v>0.58125000000000004</v>
       </c>
       <c r="D54" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="E54" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C55" s="26">
+        <v>111</v>
+      </c>
+      <c r="G54" s="4"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C55" s="37">
         <f>SUM(C53:C54)</f>
         <v>0.58229343750000007</v>
       </c>
       <c r="D55" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="E55" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>104</v>
-      </c>
-      <c r="C56" s="26">
+        <v>113</v>
+      </c>
+      <c r="C56" s="37">
         <f>C53/C55</f>
         <v>1.7919444609918002E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>105</v>
-      </c>
-      <c r="C57" s="26">
+        <v>114</v>
+      </c>
+      <c r="C57" s="37">
         <f>C54/C55</f>
         <v>0.99820805553900815</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="C58">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D58" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>107</v>
-      </c>
-      <c r="C59" s="18">
+        <v>116</v>
+      </c>
+      <c r="C59" s="27">
         <f>C55*C58*L12</f>
-        <v>204035.62050000002</v>
+        <v>255044.52562500001</v>
       </c>
       <c r="D59" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>284</v>
-      </c>
-      <c r="C60" s="18">
-        <f>SUM(ProductionUnit_well_stream_ts!B8:B9)*Base!L12*10</f>
-        <v>100064.90512500002</v>
+        <v>118</v>
+      </c>
+      <c r="C60" s="27">
+        <f>SUM(ProductionUnit_well_stream_ts!B8:B8)*Base!L12*10</f>
+        <v>51008.905125000012</v>
       </c>
       <c r="D60" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="B61" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="C61" s="3">
         <f>B47/C55</f>
         <v>46.402721136626234</v>
       </c>
       <c r="D61" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="E61" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C62" s="3">
         <f>SUM(B41,B43)/C55</f>
         <v>24.901534288715041</v>
       </c>
       <c r="D62" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="E62" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="B63" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="C63" s="3">
         <f>B48/B3</f>
         <v>3.7400000000000003E-2</v>
       </c>
       <c r="D63" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="E63" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C64" s="3">
         <f>B42/B3</f>
         <v>1.8888888888888889E-2</v>
       </c>
       <c r="D64" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="E64" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="B65" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="C65" s="3">
         <f>C27/L12</f>
-        <v>2.3561643835616444</v>
+        <v>2.3561643835616439</v>
       </c>
       <c r="D65" t="s">
-        <v>282</v>
+        <v>65</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="C66" s="3">
         <f>C25*B14*10^6</f>
         <v>23994000</v>
       </c>
       <c r="D66" t="s">
-        <v>283</v>
+        <v>130</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>120</v>
-      </c>
-      <c r="C67" s="3">
+        <v>131</v>
+      </c>
+      <c r="C67" s="27">
         <f>B21*L8*10^6</f>
         <v>3777.7777777777783</v>
       </c>
       <c r="D67" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="E67" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C68" s="3">
+      <c r="C68" s="27">
         <f>C67*B23</f>
         <v>2266.666666666667</v>
       </c>
       <c r="D68" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="E68" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>121</v>
-      </c>
-      <c r="C69" s="27">
+        <v>132</v>
+      </c>
+      <c r="C69" s="38">
         <f>B26</f>
         <v>5.5</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>122</v>
-      </c>
-      <c r="C70" s="28">
+        <v>133</v>
+      </c>
+      <c r="C70" s="39">
         <f>1-SUM(B31,B29)</f>
         <v>0.92246575342465753</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="B71" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="C71" s="3">
         <f>D27/L12</f>
         <v>2.2972602739726029</v>
       </c>
       <c r="D71" t="s">
-        <v>282</v>
+        <v>65</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="C72" s="3">
         <f>D25*B14*10^6</f>
         <v>23354160</v>
       </c>
       <c r="D72" t="s">
-        <v>283</v>
+        <v>130</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>120</v>
-      </c>
-      <c r="C73" s="3">
+        <v>131</v>
+      </c>
+      <c r="C73" s="27">
         <f>E21*L8*10^6</f>
         <v>4111.1111111111113</v>
       </c>
       <c r="D73" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="E73" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C74" s="3">
+      <c r="C74" s="27">
         <f>C73*E23</f>
         <v>2466.6666666666665</v>
       </c>
       <c r="D74" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="E74" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>121</v>
-      </c>
-      <c r="C75" s="3">
+        <v>132</v>
+      </c>
+      <c r="C75" s="38">
         <f>D26</f>
-        <v>5.7520661157024806</v>
+        <v>5.7520661157024797</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
-        <v>122</v>
-      </c>
-      <c r="C76" s="28">
+        <v>133</v>
+      </c>
+      <c r="C76" s="39">
         <f>1-SUM(E29,E31)</f>
         <v>0.93205479452054796</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="I2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
@@ -3409,11 +3507,12 @@
     <hyperlink ref="H20" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
     <hyperlink ref="H22" r:id="rId5" location="page=21" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
     <hyperlink ref="G33" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="I36" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="G36" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="I36" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <legacyDrawing r:id="rId8"/>
+  <legacyDrawing r:id="rId9"/>
 </worksheet>
 </file>
 
@@ -3421,107 +3520,107 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView zoomScale="99" zoomScaleNormal="99" workbookViewId="0"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" customWidth="1"/>
-    <col min="2" max="2" width="24.140625" customWidth="1"/>
-    <col min="3" max="3" width="21.140625" customWidth="1"/>
-    <col min="5" max="5" width="32.5703125" customWidth="1"/>
-    <col min="6" max="6" width="24.140625" customWidth="1"/>
-    <col min="7" max="7" width="21.140625" customWidth="1"/>
-    <col min="8" max="8" width="22.42578125" customWidth="1"/>
-    <col min="9" max="9" width="20.140625" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" customWidth="1"/>
-    <col min="11" max="11" width="5.85546875" customWidth="1"/>
-    <col min="13" max="13" width="17.85546875" customWidth="1"/>
-    <col min="16" max="16" width="15.28515625" customWidth="1"/>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="25" customWidth="1"/>
+    <col min="3" max="3" width="22" customWidth="1"/>
+    <col min="5" max="5" width="33.85546875" customWidth="1"/>
+    <col min="6" max="6" width="25" customWidth="1"/>
+    <col min="7" max="7" width="22" customWidth="1"/>
+    <col min="8" max="8" width="23.28515625" customWidth="1"/>
+    <col min="9" max="9" width="20.85546875" customWidth="1"/>
+    <col min="10" max="10" width="11" customWidth="1"/>
+    <col min="11" max="11" width="6.140625" customWidth="1"/>
+    <col min="13" max="13" width="18.5703125" customWidth="1"/>
+    <col min="16" max="16" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="B1" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="C1" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="E1" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="F1" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="G1" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="H1" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="I1" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="J1" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="K1" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="M1" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="N1" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="O1" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
       <c r="P1" t="s">
-        <v>213</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="B2" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="C2" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="E2" t="s">
-        <v>214</v>
+        <v>228</v>
       </c>
       <c r="F2" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="G2" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="H2" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="I2" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="J2" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="K2">
         <v>-1</v>
       </c>
       <c r="M2" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="N2" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="O2" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -3529,22 +3628,22 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="F3" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="G3" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="H3" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="I3" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="J3" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="K3">
         <f>Base!B19</f>
@@ -3559,124 +3658,143 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:AC6"/>
   <sheetViews>
-    <sheetView zoomScale="107" zoomScaleNormal="107" workbookViewId="0"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:R8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="23.5703125" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" customWidth="1"/>
-    <col min="5" max="5" width="23.5703125" customWidth="1"/>
-    <col min="6" max="6" width="20.140625" customWidth="1"/>
-    <col min="8" max="8" width="18.5703125" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" customWidth="1"/>
-    <col min="10" max="10" width="8.140625" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="5" max="5" width="24.42578125" customWidth="1"/>
+    <col min="6" max="6" width="20.85546875" customWidth="1"/>
+    <col min="8" max="8" width="19.28515625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" customWidth="1"/>
+    <col min="10" max="10" width="8.42578125" customWidth="1"/>
+    <col min="11" max="11" width="7.7109375" customWidth="1"/>
+    <col min="12" max="12" width="31.5703125" customWidth="1"/>
+    <col min="13" max="13" width="23" customWidth="1"/>
+    <col min="14" max="14" width="24.7109375" customWidth="1"/>
+    <col min="15" max="15" width="27.28515625" customWidth="1"/>
+    <col min="16" max="16" width="20.85546875" customWidth="1"/>
+    <col min="17" max="17" width="21" customWidth="1"/>
+    <col min="18" max="18" width="6.140625" customWidth="1"/>
+    <col min="20" max="20" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="23" customWidth="1"/>
+    <col min="22" max="22" width="27.28515625" customWidth="1"/>
+    <col min="23" max="23" width="35.85546875" customWidth="1"/>
+    <col min="24" max="24" width="21" customWidth="1"/>
+    <col min="27" max="27" width="25.85546875" customWidth="1"/>
+    <col min="31" max="31" width="15.85546875" customWidth="1"/>
+    <col min="32" max="32" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="B1" t="s">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="C1" t="s">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="E1" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="F1" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="G1" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="H1" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="I1" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="J1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+      <c r="AC1" s="50"/>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="B2" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="C2" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="E2" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="F2" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="G2" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="B3" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="C3" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="E3" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="F3" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="G3" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="F4" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="H4" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="E5" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="F5" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="I5" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="J5">
-        <f>Base!E49</f>
-        <v>7.0899999999999901</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <f>Base!G49</f>
+        <v>7.09</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -3689,105 +3807,105 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" customWidth="1"/>
-    <col min="6" max="6" width="24.140625" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" customWidth="1"/>
-    <col min="8" max="9" width="14.85546875" customWidth="1"/>
-    <col min="10" max="10" width="14" customWidth="1"/>
-    <col min="11" max="11" width="5.85546875" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" customWidth="1"/>
-    <col min="14" max="14" width="16.28515625" customWidth="1"/>
-    <col min="15" max="15" width="16" customWidth="1"/>
-    <col min="16" max="16" width="18.5703125" customWidth="1"/>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" customWidth="1"/>
+    <col min="6" max="6" width="25" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" customWidth="1"/>
+    <col min="8" max="9" width="15.42578125" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" customWidth="1"/>
+    <col min="11" max="11" width="6.140625" customWidth="1"/>
+    <col min="13" max="13" width="15.7109375" customWidth="1"/>
+    <col min="14" max="14" width="16.85546875" customWidth="1"/>
+    <col min="15" max="15" width="16.5703125" customWidth="1"/>
+    <col min="16" max="16" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="B1" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="C1" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="E1" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="F1" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="G1" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="H1" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="I1" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="J1" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="K1" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="M1" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="N1" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="O1" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="B2" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="C2" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="E2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F2" t="s">
+        <v>166</v>
+      </c>
+      <c r="G2" t="s">
         <v>172</v>
       </c>
-      <c r="F2" t="s">
-        <v>155</v>
-      </c>
-      <c r="G2" t="s">
-        <v>161</v>
-      </c>
       <c r="H2" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="I2" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="J2" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="K2">
         <f>Base!E37</f>
         <v>5111.1111111111113</v>
       </c>
       <c r="M2" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="N2" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="O2">
         <v>83.03</v>
@@ -3795,31 +3913,31 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="B3" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="C3" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="E3" t="s">
+        <v>184</v>
+      </c>
+      <c r="F3" t="s">
+        <v>165</v>
+      </c>
+      <c r="G3" t="s">
         <v>172</v>
       </c>
-      <c r="F3" t="s">
-        <v>154</v>
-      </c>
-      <c r="G3" t="s">
-        <v>161</v>
-      </c>
       <c r="H3" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="I3" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="J3" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="K3">
         <f>Base!E37</f>
@@ -3828,31 +3946,31 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="B4" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="C4" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="E4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F4" t="s">
+        <v>170</v>
+      </c>
+      <c r="G4" t="s">
         <v>172</v>
       </c>
-      <c r="F4" t="s">
-        <v>159</v>
-      </c>
-      <c r="G4" t="s">
-        <v>161</v>
-      </c>
       <c r="H4" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="I4" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="J4" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="K4">
         <f>Base!E37</f>
@@ -3861,13 +3979,13 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="B5" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="C5" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -3879,1279 +3997,2081 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:I63"/>
   <sheetViews>
-    <sheetView zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:G45"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" customWidth="1"/>
-    <col min="2" max="2" width="28" customWidth="1"/>
-    <col min="3" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="7" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="2" max="3" width="29.28515625" customWidth="1"/>
+    <col min="4" max="4" width="29" customWidth="1"/>
+    <col min="5" max="6" width="26.7109375" customWidth="1"/>
+    <col min="7" max="9" width="29.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="B1" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="C1" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="D1" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="E1" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="F1" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="G1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+      <c r="H1" t="s">
+        <v>156</v>
+      </c>
+      <c r="I1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="B2" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="C2" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="D2" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="E2" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="F2" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="G2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+      <c r="H2" t="s">
+        <v>172</v>
+      </c>
+      <c r="I2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="B3" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="C3" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="D3" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="E3" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="F3" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="G3" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+      <c r="H3" t="s">
+        <v>238</v>
+      </c>
+      <c r="I3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="B4" t="s">
-        <v>226</v>
+        <v>240</v>
       </c>
       <c r="C4" t="s">
-        <v>227</v>
+        <v>241</v>
       </c>
       <c r="D4" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="E4" t="s">
-        <v>286</v>
+        <v>243</v>
       </c>
       <c r="F4" t="s">
-        <v>287</v>
+        <v>244</v>
       </c>
       <c r="G4" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+      <c r="H4" t="s">
+        <v>246</v>
+      </c>
+      <c r="I4" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>182</v>
-      </c>
-      <c r="B5" s="36">
+        <v>194</v>
+      </c>
+      <c r="B5" s="51">
         <v>0</v>
       </c>
-      <c r="C5" s="36">
+      <c r="C5" s="51">
         <v>0</v>
       </c>
-      <c r="D5" s="36">
+      <c r="D5" s="51">
         <v>0</v>
       </c>
-      <c r="E5" s="36">
+      <c r="E5" s="51">
         <v>0</v>
       </c>
-      <c r="F5" s="36">
+      <c r="F5" s="51">
         <v>0</v>
       </c>
-      <c r="G5" s="36">
+      <c r="G5" s="51">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" s="51">
+        <v>0</v>
+      </c>
+      <c r="I5" s="51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>229</v>
-      </c>
-      <c r="B6" s="36">
+        <v>248</v>
+      </c>
+      <c r="B6" s="51">
         <v>47.96</v>
       </c>
-      <c r="C6" s="36">
+      <c r="C6" s="51">
         <v>47.96</v>
       </c>
-      <c r="D6" s="36">
+      <c r="D6" s="51">
         <v>47.96</v>
       </c>
-      <c r="E6" s="36">
+      <c r="E6" s="51">
         <v>47.96</v>
       </c>
-      <c r="F6" s="36">
+      <c r="F6" s="51">
         <v>47.96</v>
       </c>
-      <c r="G6" s="36">
+      <c r="G6" s="51">
         <v>47.96</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" s="51">
+        <v>47.96</v>
+      </c>
+      <c r="I6" s="51">
+        <v>47.96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>230</v>
-      </c>
-      <c r="B7" s="36">
+        <v>249</v>
+      </c>
+      <c r="B7" s="51">
         <v>52.56</v>
       </c>
-      <c r="C7" s="36">
+      <c r="C7" s="51">
         <v>52.56</v>
       </c>
-      <c r="D7" s="36">
+      <c r="D7" s="51">
         <v>52.56</v>
       </c>
-      <c r="E7" s="36">
+      <c r="E7" s="51">
         <v>52.56</v>
       </c>
-      <c r="F7" s="36">
+      <c r="F7" s="51">
         <v>52.56</v>
       </c>
-      <c r="G7" s="36">
+      <c r="G7" s="51">
         <v>52.56</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" s="51">
+        <v>52.56</v>
+      </c>
+      <c r="I7" s="51">
+        <v>52.56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>231</v>
-      </c>
-      <c r="B8" s="36">
+        <v>250</v>
+      </c>
+      <c r="B8" s="51">
         <v>83.03</v>
       </c>
-      <c r="C8" s="36">
+      <c r="C8" s="51">
         <v>83.03</v>
       </c>
-      <c r="D8" s="36">
+      <c r="D8" s="51">
         <v>83.03</v>
       </c>
-      <c r="E8" s="36">
+      <c r="E8" s="51">
         <v>83.03</v>
       </c>
-      <c r="F8" s="36">
+      <c r="F8" s="51">
         <v>83.03</v>
       </c>
-      <c r="G8" s="36">
+      <c r="G8" s="51">
         <v>83.03</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" s="51">
+        <v>83.03</v>
+      </c>
+      <c r="I8" s="51">
+        <v>83.03</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>232</v>
-      </c>
-      <c r="B9" s="50">
-        <f>B8*(1+0.01)</f>
+        <v>251</v>
+      </c>
+      <c r="B9" s="51">
+        <f>B8</f>
+        <v>83.03</v>
+      </c>
+      <c r="C9" s="53">
+        <f t="shared" ref="C9:C55" si="0">C8*(1+0.01)</f>
         <v>83.860299999999995</v>
       </c>
-      <c r="C9" s="50">
-        <f>C8*(1+0.025)</f>
-        <v>85.10575</v>
-      </c>
-      <c r="D9" s="50">
-        <f>D8*(1+0.05)</f>
+      <c r="D9" s="53">
+        <f t="shared" ref="D9:D55" si="1">D8*(1+0.05)</f>
         <v>87.1815</v>
       </c>
-      <c r="E9" s="19">
-        <f>E8*(1+0.075)</f>
+      <c r="E9" s="53">
+        <f t="shared" ref="E9:E55" si="2">E8*(1+0.075)</f>
         <v>89.257249999999999</v>
       </c>
-      <c r="F9" s="19">
-        <f>F8*(1+0.1)</f>
+      <c r="F9" s="53">
+        <f t="shared" ref="F9:F55" si="3">F8*(1+0.1)</f>
         <v>91.333000000000013</v>
       </c>
-      <c r="G9" s="19">
-        <f>G8*(1+0.15)</f>
+      <c r="G9" s="28">
+        <f t="shared" ref="G9:G55" si="4">G8*(1+0.15)</f>
         <v>95.484499999999997</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" s="28">
+        <f t="shared" ref="H9:H55" si="5">H8*(1+0.18)</f>
+        <v>97.975399999999993</v>
+      </c>
+      <c r="I9" s="28">
+        <f t="shared" ref="I9:I55" si="6">I8*(1+0.2)</f>
+        <v>99.635999999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>207</v>
-      </c>
-      <c r="B10" s="50">
-        <f t="shared" ref="B10:B45" si="0">B9*(1+0.01)</f>
+        <v>219</v>
+      </c>
+      <c r="B10" s="51">
+        <f t="shared" ref="B10:B55" si="7">B9</f>
+        <v>83.03</v>
+      </c>
+      <c r="C10" s="53">
+        <f t="shared" si="0"/>
         <v>84.698903000000001</v>
       </c>
-      <c r="C10" s="50">
-        <f t="shared" ref="C10:C45" si="1">C9*(1+0.025)</f>
-        <v>87.233393749999991</v>
-      </c>
-      <c r="D10" s="50">
-        <f t="shared" ref="D10:D45" si="2">D9*(1+0.05)</f>
+      <c r="D10" s="53">
+        <f t="shared" si="1"/>
         <v>91.540575000000004</v>
       </c>
-      <c r="E10" s="19">
-        <f t="shared" ref="E10:E45" si="3">E9*(1+0.075)</f>
+      <c r="E10" s="53">
+        <f t="shared" si="2"/>
         <v>95.951543749999999</v>
       </c>
-      <c r="F10" s="19">
-        <f t="shared" ref="F10:F45" si="4">F9*(1+0.1)</f>
+      <c r="F10" s="53">
+        <f t="shared" si="3"/>
         <v>100.46630000000002</v>
       </c>
-      <c r="G10" s="19">
-        <f t="shared" ref="G10:G45" si="5">G9*(1+0.15)</f>
+      <c r="G10" s="28">
+        <f t="shared" si="4"/>
         <v>109.80717499999999</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10" s="28">
+        <f t="shared" si="5"/>
+        <v>115.61097199999999</v>
+      </c>
+      <c r="I10" s="28">
+        <f t="shared" si="6"/>
+        <v>119.56319999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>233</v>
-      </c>
-      <c r="B11" s="50">
+        <v>252</v>
+      </c>
+      <c r="B11" s="51">
+        <f t="shared" si="7"/>
+        <v>83.03</v>
+      </c>
+      <c r="C11" s="53">
         <f t="shared" si="0"/>
         <v>85.545892030000005</v>
       </c>
-      <c r="C11" s="50">
+      <c r="D11" s="53">
         <f t="shared" si="1"/>
-        <v>89.414228593749982</v>
-      </c>
-      <c r="D11" s="50">
+        <v>96.117603750000015</v>
+      </c>
+      <c r="E11" s="53">
         <f t="shared" si="2"/>
-        <v>96.117603750000015</v>
-      </c>
-      <c r="E11" s="19">
+        <v>103.14790953124999</v>
+      </c>
+      <c r="F11" s="53">
         <f t="shared" si="3"/>
-        <v>103.14790953124999</v>
-      </c>
-      <c r="F11" s="19">
+        <v>110.51293000000003</v>
+      </c>
+      <c r="G11" s="28">
         <f t="shared" si="4"/>
-        <v>110.51293000000003</v>
-      </c>
-      <c r="G11" s="19">
+        <v>126.27825124999997</v>
+      </c>
+      <c r="H11" s="28">
         <f t="shared" si="5"/>
-        <v>126.27825124999997</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>136.42094695999998</v>
+      </c>
+      <c r="I11" s="28">
+        <f t="shared" si="6"/>
+        <v>143.47583999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>234</v>
-      </c>
-      <c r="B12" s="50">
+        <v>253</v>
+      </c>
+      <c r="B12" s="51">
+        <f t="shared" si="7"/>
+        <v>83.03</v>
+      </c>
+      <c r="C12" s="53">
         <f t="shared" si="0"/>
         <v>86.401350950299999</v>
       </c>
-      <c r="C12" s="50">
+      <c r="D12" s="53">
         <f t="shared" si="1"/>
-        <v>91.649584308593717</v>
-      </c>
-      <c r="D12" s="50">
+        <v>100.92348393750002</v>
+      </c>
+      <c r="E12" s="53">
         <f t="shared" si="2"/>
-        <v>100.92348393750002</v>
-      </c>
-      <c r="E12" s="19">
+        <v>110.88400274609374</v>
+      </c>
+      <c r="F12" s="53">
         <f t="shared" si="3"/>
-        <v>110.88400274609374</v>
-      </c>
-      <c r="F12" s="19">
+        <v>121.56422300000004</v>
+      </c>
+      <c r="G12" s="28">
         <f t="shared" si="4"/>
-        <v>121.56422300000004</v>
-      </c>
-      <c r="G12" s="19">
+        <v>145.21998893749995</v>
+      </c>
+      <c r="H12" s="28">
         <f t="shared" si="5"/>
-        <v>145.21998893749995</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>160.97671741279996</v>
+      </c>
+      <c r="I12" s="28">
+        <f t="shared" si="6"/>
+        <v>172.17100799999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>235</v>
-      </c>
-      <c r="B13" s="50">
+        <v>254</v>
+      </c>
+      <c r="B13" s="51">
+        <f t="shared" si="7"/>
+        <v>83.03</v>
+      </c>
+      <c r="C13" s="53">
         <f t="shared" si="0"/>
         <v>87.265364459802996</v>
       </c>
-      <c r="C13" s="50">
+      <c r="D13" s="53">
         <f t="shared" si="1"/>
-        <v>93.940823916308545</v>
-      </c>
-      <c r="D13" s="50">
+        <v>105.96965813437502</v>
+      </c>
+      <c r="E13" s="53">
         <f t="shared" si="2"/>
-        <v>105.96965813437502</v>
-      </c>
-      <c r="E13" s="19">
+        <v>119.20030295205076</v>
+      </c>
+      <c r="F13" s="53">
         <f t="shared" si="3"/>
-        <v>119.20030295205076</v>
-      </c>
-      <c r="F13" s="19">
+        <v>133.72064530000006</v>
+      </c>
+      <c r="G13" s="28">
         <f t="shared" si="4"/>
-        <v>133.72064530000006</v>
-      </c>
-      <c r="G13" s="19">
+        <v>167.00298727812492</v>
+      </c>
+      <c r="H13" s="28">
         <f t="shared" si="5"/>
-        <v>167.00298727812492</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>189.95252654710393</v>
+      </c>
+      <c r="I13" s="28">
+        <f t="shared" si="6"/>
+        <v>206.60520959999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>236</v>
-      </c>
-      <c r="B14" s="50">
+        <v>255</v>
+      </c>
+      <c r="B14" s="51">
+        <f t="shared" si="7"/>
+        <v>83.03</v>
+      </c>
+      <c r="C14" s="53">
         <f t="shared" si="0"/>
         <v>88.138018104401027</v>
       </c>
-      <c r="C14" s="50">
+      <c r="D14" s="53">
         <f t="shared" si="1"/>
-        <v>96.289344514216253</v>
-      </c>
-      <c r="D14" s="50">
+        <v>111.26814104109378</v>
+      </c>
+      <c r="E14" s="53">
         <f t="shared" si="2"/>
-        <v>111.26814104109378</v>
-      </c>
-      <c r="E14" s="19">
+        <v>128.14032567345456</v>
+      </c>
+      <c r="F14" s="53">
         <f t="shared" si="3"/>
-        <v>128.14032567345456</v>
-      </c>
-      <c r="F14" s="19">
+        <v>147.09270983000008</v>
+      </c>
+      <c r="G14" s="28">
         <f t="shared" si="4"/>
-        <v>147.09270983000008</v>
-      </c>
-      <c r="G14" s="19">
+        <v>192.05343536984364</v>
+      </c>
+      <c r="H14" s="28">
         <f t="shared" si="5"/>
-        <v>192.05343536984364</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>224.14398132558262</v>
+      </c>
+      <c r="I14" s="28">
+        <f t="shared" si="6"/>
+        <v>247.92625151999994</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>183</v>
-      </c>
-      <c r="B15" s="50">
+        <v>195</v>
+      </c>
+      <c r="B15" s="51">
+        <f t="shared" si="7"/>
+        <v>83.03</v>
+      </c>
+      <c r="C15" s="53">
         <f t="shared" si="0"/>
         <v>89.019398285445035</v>
       </c>
-      <c r="C15" s="50">
+      <c r="D15" s="53">
         <f t="shared" si="1"/>
-        <v>98.696578127071646</v>
-      </c>
-      <c r="D15" s="50">
+        <v>116.83154809314848</v>
+      </c>
+      <c r="E15" s="53">
         <f t="shared" si="2"/>
-        <v>116.83154809314848</v>
-      </c>
-      <c r="E15" s="19">
+        <v>137.75085009896364</v>
+      </c>
+      <c r="F15" s="53">
         <f t="shared" si="3"/>
-        <v>137.75085009896364</v>
-      </c>
-      <c r="F15" s="19">
+        <v>161.80198081300009</v>
+      </c>
+      <c r="G15" s="28">
         <f t="shared" si="4"/>
-        <v>161.80198081300009</v>
-      </c>
-      <c r="G15" s="19">
+        <v>220.86145067532016</v>
+      </c>
+      <c r="H15" s="28">
         <f t="shared" si="5"/>
-        <v>220.86145067532016</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>264.48989796418749</v>
+      </c>
+      <c r="I15" s="28">
+        <f t="shared" si="6"/>
+        <v>297.51150182399994</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>237</v>
-      </c>
-      <c r="B16" s="50">
+        <v>256</v>
+      </c>
+      <c r="B16" s="51">
+        <f t="shared" si="7"/>
+        <v>83.03</v>
+      </c>
+      <c r="C16" s="53">
         <f t="shared" si="0"/>
         <v>89.909592268299491</v>
       </c>
-      <c r="C16" s="50">
+      <c r="D16" s="53">
         <f t="shared" si="1"/>
-        <v>101.16399258024843</v>
-      </c>
-      <c r="D16" s="50">
+        <v>122.67312549780591</v>
+      </c>
+      <c r="E16" s="53">
         <f t="shared" si="2"/>
-        <v>122.67312549780591</v>
-      </c>
-      <c r="E16" s="19">
+        <v>148.0821638563859</v>
+      </c>
+      <c r="F16" s="53">
         <f t="shared" si="3"/>
-        <v>148.0821638563859</v>
-      </c>
-      <c r="F16" s="19">
+        <v>177.98217889430012</v>
+      </c>
+      <c r="G16" s="28">
         <f t="shared" si="4"/>
-        <v>177.98217889430012</v>
-      </c>
-      <c r="G16" s="19">
+        <v>253.99066827661815</v>
+      </c>
+      <c r="H16" s="28">
         <f t="shared" si="5"/>
-        <v>253.99066827661815</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>312.09807959774122</v>
+      </c>
+      <c r="I16" s="28">
+        <f t="shared" si="6"/>
+        <v>357.0138021887999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>238</v>
-      </c>
-      <c r="B17" s="50">
+        <v>257</v>
+      </c>
+      <c r="B17" s="51">
+        <f t="shared" si="7"/>
+        <v>83.03</v>
+      </c>
+      <c r="C17" s="53">
         <f t="shared" si="0"/>
         <v>90.80868819098248</v>
       </c>
-      <c r="C17" s="50">
+      <c r="D17" s="53">
         <f t="shared" si="1"/>
-        <v>103.69309239475463</v>
-      </c>
-      <c r="D17" s="50">
+        <v>128.80678177269621</v>
+      </c>
+      <c r="E17" s="53">
         <f t="shared" si="2"/>
-        <v>128.80678177269621</v>
-      </c>
-      <c r="E17" s="19">
+        <v>159.18832614561484</v>
+      </c>
+      <c r="F17" s="53">
         <f t="shared" si="3"/>
-        <v>159.18832614561484</v>
-      </c>
-      <c r="F17" s="19">
+        <v>195.78039678373014</v>
+      </c>
+      <c r="G17" s="28">
         <f t="shared" si="4"/>
-        <v>195.78039678373014</v>
-      </c>
-      <c r="G17" s="19">
+        <v>292.08926851811083</v>
+      </c>
+      <c r="H17" s="28">
         <f t="shared" si="5"/>
-        <v>292.08926851811083</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <v>368.27573392533463</v>
+      </c>
+      <c r="I17" s="28">
+        <f t="shared" si="6"/>
+        <v>428.41656262655988</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>239</v>
-      </c>
-      <c r="B18" s="50">
+        <v>258</v>
+      </c>
+      <c r="B18" s="51">
+        <f t="shared" si="7"/>
+        <v>83.03</v>
+      </c>
+      <c r="C18" s="53">
         <f t="shared" si="0"/>
         <v>91.716775072892304</v>
       </c>
-      <c r="C18" s="50">
+      <c r="D18" s="53">
         <f t="shared" si="1"/>
-        <v>106.28541970462348</v>
-      </c>
-      <c r="D18" s="50">
+        <v>135.24712086133104</v>
+      </c>
+      <c r="E18" s="53">
         <f t="shared" si="2"/>
-        <v>135.24712086133104</v>
-      </c>
-      <c r="E18" s="19">
+        <v>171.12745060653594</v>
+      </c>
+      <c r="F18" s="53">
         <f t="shared" si="3"/>
-        <v>171.12745060653594</v>
-      </c>
-      <c r="F18" s="19">
+        <v>215.35843646210319</v>
+      </c>
+      <c r="G18" s="28">
         <f t="shared" si="4"/>
-        <v>215.35843646210319</v>
-      </c>
-      <c r="G18" s="19">
+        <v>335.90265879582745</v>
+      </c>
+      <c r="H18" s="28">
         <f t="shared" si="5"/>
-        <v>335.90265879582745</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>434.56536603189483</v>
+      </c>
+      <c r="I18" s="28">
+        <f t="shared" si="6"/>
+        <v>514.09987515187186</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>240</v>
-      </c>
-      <c r="B19" s="50">
+        <v>259</v>
+      </c>
+      <c r="B19" s="51">
+        <f t="shared" si="7"/>
+        <v>83.03</v>
+      </c>
+      <c r="C19" s="53">
         <f t="shared" si="0"/>
         <v>92.633942823621226</v>
       </c>
-      <c r="C19" s="50">
+      <c r="D19" s="53">
         <f t="shared" si="1"/>
-        <v>108.94255519723906</v>
-      </c>
-      <c r="D19" s="50">
+        <v>142.00947690439759</v>
+      </c>
+      <c r="E19" s="53">
         <f t="shared" si="2"/>
-        <v>142.00947690439759</v>
-      </c>
-      <c r="E19" s="19">
+        <v>183.96200940202613</v>
+      </c>
+      <c r="F19" s="53">
         <f t="shared" si="3"/>
-        <v>183.96200940202613</v>
-      </c>
-      <c r="F19" s="19">
+        <v>236.89428010831352</v>
+      </c>
+      <c r="G19" s="28">
         <f t="shared" si="4"/>
-        <v>236.89428010831352</v>
-      </c>
-      <c r="G19" s="19">
+        <v>386.28805761520152</v>
+      </c>
+      <c r="H19" s="28">
         <f t="shared" si="5"/>
-        <v>386.28805761520152</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="37" t="s">
-        <v>208</v>
-      </c>
-      <c r="B20" s="50">
+        <v>512.78713191763586</v>
+      </c>
+      <c r="I19" s="28">
+        <f t="shared" si="6"/>
+        <v>616.91985018224625</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="54" t="s">
+        <v>220</v>
+      </c>
+      <c r="B20" s="51">
+        <f t="shared" si="7"/>
+        <v>83.03</v>
+      </c>
+      <c r="C20" s="53">
         <f t="shared" si="0"/>
         <v>93.560282251857444</v>
       </c>
-      <c r="C20" s="50">
+      <c r="D20" s="53">
         <f t="shared" si="1"/>
-        <v>111.66611907717002</v>
-      </c>
-      <c r="D20" s="50">
+        <v>149.10995074961747</v>
+      </c>
+      <c r="E20" s="53">
         <f t="shared" si="2"/>
-        <v>149.10995074961747</v>
-      </c>
-      <c r="E20" s="19">
+        <v>197.75916010717808</v>
+      </c>
+      <c r="F20" s="53">
         <f t="shared" si="3"/>
-        <v>197.75916010717808</v>
-      </c>
-      <c r="F20" s="19">
+        <v>260.58370811914489</v>
+      </c>
+      <c r="G20" s="28">
         <f t="shared" si="4"/>
-        <v>260.58370811914489</v>
-      </c>
-      <c r="G20" s="19">
+        <v>444.23126625748171</v>
+      </c>
+      <c r="H20" s="28">
         <f t="shared" si="5"/>
-        <v>444.23126625748171</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="37" t="s">
-        <v>241</v>
-      </c>
-      <c r="B21" s="50">
+        <v>605.08881566281025</v>
+      </c>
+      <c r="I20" s="28">
+        <f t="shared" si="6"/>
+        <v>740.30382021869548</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="54" t="s">
+        <v>260</v>
+      </c>
+      <c r="B21" s="51">
+        <f t="shared" si="7"/>
+        <v>83.03</v>
+      </c>
+      <c r="C21" s="53">
         <f t="shared" si="0"/>
         <v>94.495885074376019</v>
       </c>
-      <c r="C21" s="50">
+      <c r="D21" s="53">
         <f t="shared" si="1"/>
-        <v>114.45777205409927</v>
-      </c>
-      <c r="D21" s="50">
+        <v>156.56544828709835</v>
+      </c>
+      <c r="E21" s="53">
         <f t="shared" si="2"/>
-        <v>156.56544828709835</v>
-      </c>
-      <c r="E21" s="19">
+        <v>212.59109711521643</v>
+      </c>
+      <c r="F21" s="53">
         <f t="shared" si="3"/>
-        <v>212.59109711521643</v>
-      </c>
-      <c r="F21" s="19">
+        <v>286.64207893105942</v>
+      </c>
+      <c r="G21" s="28">
         <f t="shared" si="4"/>
-        <v>286.64207893105942</v>
-      </c>
-      <c r="G21" s="19">
+        <v>510.86595619610392</v>
+      </c>
+      <c r="H21" s="28">
         <f t="shared" si="5"/>
-        <v>510.86595619610392</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="37" t="s">
-        <v>242</v>
-      </c>
-      <c r="B22" s="50">
+        <v>714.00480248211602</v>
+      </c>
+      <c r="I21" s="28">
+        <f t="shared" si="6"/>
+        <v>888.36458426243451</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="54" t="s">
+        <v>261</v>
+      </c>
+      <c r="B22" s="51">
+        <f t="shared" si="7"/>
+        <v>83.03</v>
+      </c>
+      <c r="C22" s="53">
         <f t="shared" si="0"/>
         <v>95.440843925119779</v>
       </c>
-      <c r="C22" s="50">
+      <c r="D22" s="53">
         <f t="shared" si="1"/>
-        <v>117.31921635545174</v>
-      </c>
-      <c r="D22" s="50">
+        <v>164.39372070145328</v>
+      </c>
+      <c r="E22" s="53">
         <f t="shared" si="2"/>
-        <v>164.39372070145328</v>
-      </c>
-      <c r="E22" s="19">
+        <v>228.53542939885764</v>
+      </c>
+      <c r="F22" s="53">
         <f t="shared" si="3"/>
-        <v>228.53542939885764</v>
-      </c>
-      <c r="F22" s="19">
+        <v>315.3062868241654</v>
+      </c>
+      <c r="G22" s="28">
         <f t="shared" si="4"/>
-        <v>315.3062868241654</v>
-      </c>
-      <c r="G22" s="19">
+        <v>587.49584962551944</v>
+      </c>
+      <c r="H22" s="28">
         <f t="shared" si="5"/>
-        <v>587.49584962551944</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="37" t="s">
-        <v>243</v>
-      </c>
-      <c r="B23" s="50">
+        <v>842.52566692889684</v>
+      </c>
+      <c r="I22" s="28">
+        <f t="shared" si="6"/>
+        <v>1066.0375011149213</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="54" t="s">
+        <v>262</v>
+      </c>
+      <c r="B23" s="51">
+        <f t="shared" si="7"/>
+        <v>83.03</v>
+      </c>
+      <c r="C23" s="53">
         <f t="shared" si="0"/>
         <v>96.395252364370975</v>
       </c>
-      <c r="C23" s="50">
+      <c r="D23" s="53">
         <f t="shared" si="1"/>
-        <v>120.25219676433802</v>
-      </c>
-      <c r="D23" s="50">
+        <v>172.61340673652595</v>
+      </c>
+      <c r="E23" s="53">
         <f t="shared" si="2"/>
-        <v>172.61340673652595</v>
-      </c>
-      <c r="E23" s="19">
+        <v>245.67558660377196</v>
+      </c>
+      <c r="F23" s="53">
         <f t="shared" si="3"/>
-        <v>245.67558660377196</v>
-      </c>
-      <c r="F23" s="19">
+        <v>346.83691550658199</v>
+      </c>
+      <c r="G23" s="28">
         <f t="shared" si="4"/>
-        <v>346.83691550658199</v>
-      </c>
-      <c r="G23" s="19">
+        <v>675.62022706934727</v>
+      </c>
+      <c r="H23" s="28">
         <f t="shared" si="5"/>
-        <v>675.62022706934727</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="37" t="s">
-        <v>244</v>
-      </c>
-      <c r="B24" s="50">
+        <v>994.18028697609827</v>
+      </c>
+      <c r="I23" s="28">
+        <f t="shared" si="6"/>
+        <v>1279.2450013379055</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="54" t="s">
+        <v>263</v>
+      </c>
+      <c r="B24" s="51">
+        <f t="shared" si="7"/>
+        <v>83.03</v>
+      </c>
+      <c r="C24" s="53">
         <f t="shared" si="0"/>
         <v>97.359204888014688</v>
       </c>
-      <c r="C24" s="50">
+      <c r="D24" s="53">
         <f t="shared" si="1"/>
-        <v>123.25850168344647</v>
-      </c>
-      <c r="D24" s="50">
+        <v>181.24407707335226</v>
+      </c>
+      <c r="E24" s="53">
         <f t="shared" si="2"/>
-        <v>181.24407707335226</v>
-      </c>
-      <c r="E24" s="19">
+        <v>264.10125559905487</v>
+      </c>
+      <c r="F24" s="53">
         <f t="shared" si="3"/>
-        <v>264.10125559905487</v>
-      </c>
-      <c r="F24" s="19">
+        <v>381.52060705724023</v>
+      </c>
+      <c r="G24" s="28">
         <f t="shared" si="4"/>
-        <v>381.52060705724023</v>
-      </c>
-      <c r="G24" s="19">
+        <v>776.9632611297493</v>
+      </c>
+      <c r="H24" s="28">
         <f t="shared" si="5"/>
-        <v>776.9632611297493</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="37" t="s">
-        <v>184</v>
-      </c>
-      <c r="B25" s="50">
+        <v>1173.132738631796</v>
+      </c>
+      <c r="I24" s="28">
+        <f t="shared" si="6"/>
+        <v>1535.0940016054865</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="54" t="s">
+        <v>196</v>
+      </c>
+      <c r="B25" s="51">
+        <f t="shared" si="7"/>
+        <v>83.03</v>
+      </c>
+      <c r="C25" s="53">
         <f t="shared" si="0"/>
         <v>98.332796936894837</v>
       </c>
-      <c r="C25" s="50">
+      <c r="D25" s="53">
         <f t="shared" si="1"/>
-        <v>126.33996422553263</v>
-      </c>
-      <c r="D25" s="50">
+        <v>190.30628092701988</v>
+      </c>
+      <c r="E25" s="53">
         <f t="shared" si="2"/>
-        <v>190.30628092701988</v>
-      </c>
-      <c r="E25" s="19">
+        <v>283.90884976898394</v>
+      </c>
+      <c r="F25" s="53">
         <f t="shared" si="3"/>
-        <v>283.90884976898394</v>
-      </c>
-      <c r="F25" s="19">
+        <v>419.67266776296429</v>
+      </c>
+      <c r="G25" s="28">
         <f t="shared" si="4"/>
-        <v>419.67266776296429</v>
-      </c>
-      <c r="G25" s="19">
+        <v>893.50775029921158</v>
+      </c>
+      <c r="H25" s="28">
         <f t="shared" si="5"/>
-        <v>893.50775029921158</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="37" t="s">
-        <v>245</v>
-      </c>
-      <c r="B26" s="50">
+        <v>1384.2966315855192</v>
+      </c>
+      <c r="I25" s="28">
+        <f t="shared" si="6"/>
+        <v>1842.1128019265836</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="54" t="s">
+        <v>264</v>
+      </c>
+      <c r="B26" s="51">
+        <f t="shared" si="7"/>
+        <v>83.03</v>
+      </c>
+      <c r="C26" s="53">
         <f t="shared" si="0"/>
         <v>99.316124906263781</v>
       </c>
-      <c r="C26" s="50">
+      <c r="D26" s="53">
         <f t="shared" si="1"/>
-        <v>129.49846333117094</v>
-      </c>
-      <c r="D26" s="50">
+        <v>199.82159497337088</v>
+      </c>
+      <c r="E26" s="53">
         <f t="shared" si="2"/>
-        <v>199.82159497337088</v>
-      </c>
-      <c r="E26" s="19">
+        <v>305.20201350165775</v>
+      </c>
+      <c r="F26" s="53">
         <f t="shared" si="3"/>
-        <v>305.20201350165775</v>
-      </c>
-      <c r="F26" s="19">
+        <v>461.63993453926076</v>
+      </c>
+      <c r="G26" s="28">
         <f t="shared" si="4"/>
-        <v>461.63993453926076</v>
-      </c>
-      <c r="G26" s="19">
+        <v>1027.5339128440933</v>
+      </c>
+      <c r="H26" s="28">
         <f t="shared" si="5"/>
-        <v>1027.5339128440933</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="37" t="s">
-        <v>246</v>
-      </c>
-      <c r="B27" s="50">
+        <v>1633.4700252709126</v>
+      </c>
+      <c r="I26" s="28">
+        <f t="shared" si="6"/>
+        <v>2210.5353623119004</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="54" t="s">
+        <v>265</v>
+      </c>
+      <c r="B27" s="51">
+        <f t="shared" si="7"/>
+        <v>83.03</v>
+      </c>
+      <c r="C27" s="53">
         <f t="shared" si="0"/>
         <v>100.30928615532642</v>
       </c>
-      <c r="C27" s="50">
+      <c r="D27" s="53">
         <f t="shared" si="1"/>
-        <v>132.73592491445021</v>
-      </c>
-      <c r="D27" s="50">
+        <v>209.81267472203942</v>
+      </c>
+      <c r="E27" s="53">
         <f t="shared" si="2"/>
-        <v>209.81267472203942</v>
-      </c>
-      <c r="E27" s="19">
+        <v>328.09216451428205</v>
+      </c>
+      <c r="F27" s="53">
         <f t="shared" si="3"/>
-        <v>328.09216451428205</v>
-      </c>
-      <c r="F27" s="19">
+        <v>507.8039279931869</v>
+      </c>
+      <c r="G27" s="28">
         <f t="shared" si="4"/>
-        <v>507.8039279931869</v>
-      </c>
-      <c r="G27" s="19">
+        <v>1181.6639997707071</v>
+      </c>
+      <c r="H27" s="28">
         <f t="shared" si="5"/>
-        <v>1181.6639997707071</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="37" t="s">
-        <v>247</v>
-      </c>
-      <c r="B28" s="50">
+        <v>1927.4946298196769</v>
+      </c>
+      <c r="I27" s="28">
+        <f t="shared" si="6"/>
+        <v>2652.6424347742804</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="B28" s="51">
+        <f t="shared" si="7"/>
+        <v>83.03</v>
+      </c>
+      <c r="C28" s="53">
         <f t="shared" si="0"/>
         <v>101.31237901687969</v>
       </c>
-      <c r="C28" s="50">
+      <c r="D28" s="53">
         <f t="shared" si="1"/>
-        <v>136.05432303731146</v>
-      </c>
-      <c r="D28" s="50">
+        <v>220.3033084581414</v>
+      </c>
+      <c r="E28" s="53">
         <f t="shared" si="2"/>
-        <v>220.3033084581414</v>
-      </c>
-      <c r="E28" s="19">
+        <v>352.69907685285318</v>
+      </c>
+      <c r="F28" s="53">
         <f t="shared" si="3"/>
-        <v>352.69907685285318</v>
-      </c>
-      <c r="F28" s="19">
+        <v>558.58432079250565</v>
+      </c>
+      <c r="G28" s="28">
         <f t="shared" si="4"/>
-        <v>558.58432079250565</v>
-      </c>
-      <c r="G28" s="19">
+        <v>1358.913599736313</v>
+      </c>
+      <c r="H28" s="28">
         <f t="shared" si="5"/>
-        <v>1358.913599736313</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="37" t="s">
-        <v>248</v>
-      </c>
-      <c r="B29" s="50">
+        <v>2274.4436631872186</v>
+      </c>
+      <c r="I28" s="28">
+        <f t="shared" si="6"/>
+        <v>3183.1709217291364</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="54" t="s">
+        <v>267</v>
+      </c>
+      <c r="B29" s="51">
+        <f t="shared" si="7"/>
+        <v>83.03</v>
+      </c>
+      <c r="C29" s="53">
         <f t="shared" si="0"/>
         <v>102.32550280704848</v>
       </c>
-      <c r="C29" s="50">
+      <c r="D29" s="53">
         <f t="shared" si="1"/>
-        <v>139.45568111324422</v>
-      </c>
-      <c r="D29" s="50">
+        <v>231.31847388104848</v>
+      </c>
+      <c r="E29" s="53">
         <f t="shared" si="2"/>
-        <v>231.31847388104848</v>
-      </c>
-      <c r="E29" s="19">
+        <v>379.15150761681713</v>
+      </c>
+      <c r="F29" s="53">
         <f t="shared" si="3"/>
-        <v>379.15150761681713</v>
-      </c>
-      <c r="F29" s="19">
+        <v>614.44275287175628</v>
+      </c>
+      <c r="G29" s="28">
         <f t="shared" si="4"/>
-        <v>614.44275287175628</v>
-      </c>
-      <c r="G29" s="19">
+        <v>1562.7506396967599</v>
+      </c>
+      <c r="H29" s="28">
         <f t="shared" si="5"/>
-        <v>1562.7506396967599</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="37" t="s">
-        <v>209</v>
-      </c>
-      <c r="B30" s="50">
+        <v>2683.8435225609178</v>
+      </c>
+      <c r="I29" s="28">
+        <f t="shared" si="6"/>
+        <v>3819.8051060749635</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="54" t="s">
+        <v>221</v>
+      </c>
+      <c r="B30" s="51">
+        <f t="shared" si="7"/>
+        <v>83.03</v>
+      </c>
+      <c r="C30" s="53">
         <f t="shared" si="0"/>
         <v>103.34875783511896</v>
       </c>
-      <c r="C30" s="50">
+      <c r="D30" s="53">
         <f t="shared" si="1"/>
-        <v>142.94207314107533</v>
-      </c>
-      <c r="D30" s="50">
+        <v>242.88439757510091</v>
+      </c>
+      <c r="E30" s="53">
         <f t="shared" si="2"/>
-        <v>242.88439757510091</v>
-      </c>
-      <c r="E30" s="19">
+        <v>407.5878706880784</v>
+      </c>
+      <c r="F30" s="53">
         <f t="shared" si="3"/>
-        <v>407.5878706880784</v>
-      </c>
-      <c r="F30" s="19">
+        <v>675.88702815893191</v>
+      </c>
+      <c r="G30" s="28">
         <f t="shared" si="4"/>
-        <v>675.88702815893191</v>
-      </c>
-      <c r="G30" s="19">
+        <v>1797.1632356512737</v>
+      </c>
+      <c r="H30" s="28">
         <f t="shared" si="5"/>
-        <v>1797.1632356512737</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="37" t="s">
-        <v>249</v>
-      </c>
-      <c r="B31" s="50">
+        <v>3166.9353566218829</v>
+      </c>
+      <c r="I30" s="28">
+        <f t="shared" si="6"/>
+        <v>4583.7661272899559</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="54" t="s">
+        <v>268</v>
+      </c>
+      <c r="B31" s="51">
+        <f t="shared" si="7"/>
+        <v>83.03</v>
+      </c>
+      <c r="C31" s="53">
         <f t="shared" si="0"/>
         <v>104.38224541347014</v>
       </c>
-      <c r="C31" s="50">
+      <c r="D31" s="53">
         <f t="shared" si="1"/>
-        <v>146.51562496960219</v>
-      </c>
-      <c r="D31" s="50">
+        <v>255.02861745385596</v>
+      </c>
+      <c r="E31" s="53">
         <f t="shared" si="2"/>
-        <v>255.02861745385596</v>
-      </c>
-      <c r="E31" s="19">
+        <v>438.15696098968425</v>
+      </c>
+      <c r="F31" s="53">
         <f t="shared" si="3"/>
-        <v>438.15696098968425</v>
-      </c>
-      <c r="F31" s="19">
+        <v>743.47573097482518</v>
+      </c>
+      <c r="G31" s="28">
         <f t="shared" si="4"/>
-        <v>743.47573097482518</v>
-      </c>
-      <c r="G31" s="19">
+        <v>2066.7377209989645</v>
+      </c>
+      <c r="H31" s="28">
         <f t="shared" si="5"/>
-        <v>2066.7377209989645</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="37" t="s">
-        <v>250</v>
-      </c>
-      <c r="B32" s="50">
+        <v>3736.9837208138215</v>
+      </c>
+      <c r="I31" s="28">
+        <f t="shared" si="6"/>
+        <v>5500.5193527479469</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="54" t="s">
+        <v>269</v>
+      </c>
+      <c r="B32" s="51">
+        <f t="shared" si="7"/>
+        <v>83.03</v>
+      </c>
+      <c r="C32" s="53">
         <f t="shared" si="0"/>
         <v>105.42606786760484</v>
       </c>
-      <c r="C32" s="50">
+      <c r="D32" s="53">
         <f t="shared" si="1"/>
-        <v>150.17851559384223</v>
-      </c>
-      <c r="D32" s="50">
+        <v>267.78004832654875</v>
+      </c>
+      <c r="E32" s="53">
         <f t="shared" si="2"/>
-        <v>267.78004832654875</v>
-      </c>
-      <c r="E32" s="19">
+        <v>471.01873306391053</v>
+      </c>
+      <c r="F32" s="53">
         <f t="shared" si="3"/>
-        <v>471.01873306391053</v>
-      </c>
-      <c r="F32" s="19">
+        <v>817.82330407230779</v>
+      </c>
+      <c r="G32" s="28">
         <f t="shared" si="4"/>
-        <v>817.82330407230779</v>
-      </c>
-      <c r="G32" s="19">
+        <v>2376.7483791488089</v>
+      </c>
+      <c r="H32" s="28">
         <f t="shared" si="5"/>
-        <v>2376.7483791488089</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="37" t="s">
-        <v>251</v>
-      </c>
-      <c r="B33" s="50">
+        <v>4409.6407905603091</v>
+      </c>
+      <c r="I32" s="28">
+        <f t="shared" si="6"/>
+        <v>6600.6232232975362</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="54" t="s">
+        <v>270</v>
+      </c>
+      <c r="B33" s="51">
+        <f t="shared" si="7"/>
+        <v>83.03</v>
+      </c>
+      <c r="C33" s="53">
         <f t="shared" si="0"/>
         <v>106.48032854628089</v>
       </c>
-      <c r="C33" s="50">
+      <c r="D33" s="53">
         <f t="shared" si="1"/>
-        <v>153.93297848368829</v>
-      </c>
-      <c r="D33" s="50">
+        <v>281.16905074287621</v>
+      </c>
+      <c r="E33" s="53">
         <f t="shared" si="2"/>
-        <v>281.16905074287621</v>
-      </c>
-      <c r="E33" s="19">
+        <v>506.3451380437038</v>
+      </c>
+      <c r="F33" s="53">
         <f t="shared" si="3"/>
-        <v>506.3451380437038</v>
-      </c>
-      <c r="F33" s="19">
+        <v>899.60563447953859</v>
+      </c>
+      <c r="G33" s="28">
         <f t="shared" si="4"/>
-        <v>899.60563447953859</v>
-      </c>
-      <c r="G33" s="19">
+        <v>2733.2606360211298</v>
+      </c>
+      <c r="H33" s="28">
         <f t="shared" si="5"/>
-        <v>2733.2606360211298</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="37" t="s">
-        <v>252</v>
-      </c>
-      <c r="B34" s="50">
+        <v>5203.3761328611645</v>
+      </c>
+      <c r="I33" s="28">
+        <f t="shared" si="6"/>
+        <v>7920.7478679570431</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="54" t="s">
+        <v>271</v>
+      </c>
+      <c r="B34" s="51">
+        <f t="shared" si="7"/>
+        <v>83.03</v>
+      </c>
+      <c r="C34" s="53">
         <f t="shared" si="0"/>
         <v>107.5451318317437</v>
       </c>
-      <c r="C34" s="50">
+      <c r="D34" s="53">
         <f t="shared" si="1"/>
-        <v>157.78130294578048</v>
-      </c>
-      <c r="D34" s="50">
+        <v>295.22750328002002</v>
+      </c>
+      <c r="E34" s="53">
         <f t="shared" si="2"/>
-        <v>295.22750328002002</v>
-      </c>
-      <c r="E34" s="19">
+        <v>544.32102339698156</v>
+      </c>
+      <c r="F34" s="53">
         <f t="shared" si="3"/>
-        <v>544.32102339698156</v>
-      </c>
-      <c r="F34" s="19">
+        <v>989.56619792749257</v>
+      </c>
+      <c r="G34" s="28">
         <f t="shared" si="4"/>
-        <v>989.56619792749257</v>
-      </c>
-      <c r="G34" s="19">
+        <v>3143.2497314242992</v>
+      </c>
+      <c r="H34" s="28">
         <f t="shared" si="5"/>
-        <v>3143.2497314242992</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="37" t="s">
-        <v>185</v>
-      </c>
-      <c r="B35" s="50">
+        <v>6139.983836776174</v>
+      </c>
+      <c r="I34" s="28">
+        <f t="shared" si="6"/>
+        <v>9504.8974415484518</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="54" t="s">
+        <v>197</v>
+      </c>
+      <c r="B35" s="51">
+        <f t="shared" si="7"/>
+        <v>83.03</v>
+      </c>
+      <c r="C35" s="53">
         <f t="shared" si="0"/>
         <v>108.62058315006114</v>
       </c>
-      <c r="C35" s="50">
+      <c r="D35" s="53">
         <f t="shared" si="1"/>
-        <v>161.72583551942498</v>
-      </c>
-      <c r="D35" s="50">
+        <v>309.98887844402105</v>
+      </c>
+      <c r="E35" s="53">
         <f t="shared" si="2"/>
-        <v>309.98887844402105</v>
-      </c>
-      <c r="E35" s="19">
+        <v>585.14510015175517</v>
+      </c>
+      <c r="F35" s="53">
         <f t="shared" si="3"/>
-        <v>585.14510015175517</v>
-      </c>
-      <c r="F35" s="19">
+        <v>1088.5228177202418</v>
+      </c>
+      <c r="G35" s="28">
         <f t="shared" si="4"/>
-        <v>1088.5228177202418</v>
-      </c>
-      <c r="G35" s="19">
+        <v>3614.7371911379437</v>
+      </c>
+      <c r="H35" s="28">
         <f t="shared" si="5"/>
-        <v>3614.7371911379437</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="37" t="s">
-        <v>253</v>
-      </c>
-      <c r="B36" s="50">
+        <v>7245.1809273958852</v>
+      </c>
+      <c r="I35" s="28">
+        <f t="shared" si="6"/>
+        <v>11405.876929858141</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="54" t="s">
+        <v>272</v>
+      </c>
+      <c r="B36" s="51">
+        <f t="shared" si="7"/>
+        <v>83.03</v>
+      </c>
+      <c r="C36" s="53">
         <f t="shared" si="0"/>
         <v>109.70678898156174</v>
       </c>
-      <c r="C36" s="50">
+      <c r="D36" s="53">
         <f t="shared" si="1"/>
-        <v>165.76898140741059</v>
-      </c>
-      <c r="D36" s="50">
+        <v>325.48832236622212</v>
+      </c>
+      <c r="E36" s="53">
         <f t="shared" si="2"/>
-        <v>325.48832236622212</v>
-      </c>
-      <c r="E36" s="19">
+        <v>629.0309826631368</v>
+      </c>
+      <c r="F36" s="53">
         <f t="shared" si="3"/>
-        <v>629.0309826631368</v>
-      </c>
-      <c r="F36" s="19">
+        <v>1197.3750994922661</v>
+      </c>
+      <c r="G36" s="28">
         <f t="shared" si="4"/>
-        <v>1197.3750994922661</v>
-      </c>
-      <c r="G36" s="19">
+        <v>4156.9477698086348</v>
+      </c>
+      <c r="H36" s="28">
         <f t="shared" si="5"/>
-        <v>4156.9477698086348</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="37" t="s">
-        <v>254</v>
-      </c>
-      <c r="B37" s="50">
+        <v>8549.3134943271434</v>
+      </c>
+      <c r="I36" s="28">
+        <f t="shared" si="6"/>
+        <v>13687.052315829769</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="54" t="s">
+        <v>273</v>
+      </c>
+      <c r="B37" s="51">
+        <f t="shared" si="7"/>
+        <v>83.03</v>
+      </c>
+      <c r="C37" s="53">
         <f t="shared" si="0"/>
         <v>110.80385687137736</v>
       </c>
-      <c r="C37" s="50">
+      <c r="D37" s="53">
         <f t="shared" si="1"/>
-        <v>169.91320594259585</v>
-      </c>
-      <c r="D37" s="50">
+        <v>341.76273848453326</v>
+      </c>
+      <c r="E37" s="53">
         <f t="shared" si="2"/>
-        <v>341.76273848453326</v>
-      </c>
-      <c r="E37" s="19">
+        <v>676.20830636287201</v>
+      </c>
+      <c r="F37" s="53">
         <f t="shared" si="3"/>
-        <v>676.20830636287201</v>
-      </c>
-      <c r="F37" s="19">
+        <v>1317.1126094414929</v>
+      </c>
+      <c r="G37" s="28">
         <f t="shared" si="4"/>
-        <v>1317.1126094414929</v>
-      </c>
-      <c r="G37" s="19">
+        <v>4780.4899352799293</v>
+      </c>
+      <c r="H37" s="28">
         <f t="shared" si="5"/>
-        <v>4780.4899352799293</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="37" t="s">
-        <v>255</v>
-      </c>
-      <c r="B38" s="50">
+        <v>10088.189923306029</v>
+      </c>
+      <c r="I37" s="28">
+        <f t="shared" si="6"/>
+        <v>16424.462778995723</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="54" t="s">
+        <v>274</v>
+      </c>
+      <c r="B38" s="51">
+        <f t="shared" si="7"/>
+        <v>83.03</v>
+      </c>
+      <c r="C38" s="53">
         <f t="shared" si="0"/>
         <v>111.91189544009114</v>
       </c>
-      <c r="C38" s="50">
+      <c r="D38" s="53">
         <f t="shared" si="1"/>
-        <v>174.16103609116072</v>
-      </c>
-      <c r="D38" s="50">
+        <v>358.85087540875992</v>
+      </c>
+      <c r="E38" s="53">
         <f t="shared" si="2"/>
-        <v>358.85087540875992</v>
-      </c>
-      <c r="E38" s="19">
+        <v>726.9239293400874</v>
+      </c>
+      <c r="F38" s="53">
         <f t="shared" si="3"/>
-        <v>726.9239293400874</v>
-      </c>
-      <c r="F38" s="19">
+        <v>1448.8238703856423</v>
+      </c>
+      <c r="G38" s="28">
         <f t="shared" si="4"/>
-        <v>1448.8238703856423</v>
-      </c>
-      <c r="G38" s="19">
+        <v>5497.5634255719187</v>
+      </c>
+      <c r="H38" s="28">
         <f t="shared" si="5"/>
-        <v>5497.5634255719187</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="37" t="s">
-        <v>256</v>
-      </c>
-      <c r="B39" s="50">
+        <v>11904.064109501112</v>
+      </c>
+      <c r="I38" s="28">
+        <f t="shared" si="6"/>
+        <v>19709.355334794865</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="54" t="s">
+        <v>275</v>
+      </c>
+      <c r="B39" s="51">
+        <f t="shared" si="7"/>
+        <v>83.03</v>
+      </c>
+      <c r="C39" s="53">
         <f t="shared" si="0"/>
         <v>113.03101439449206</v>
       </c>
-      <c r="C39" s="50">
+      <c r="D39" s="53">
         <f t="shared" si="1"/>
-        <v>178.51506199343973</v>
-      </c>
-      <c r="D39" s="50">
+        <v>376.79341917919794</v>
+      </c>
+      <c r="E39" s="53">
         <f t="shared" si="2"/>
-        <v>376.79341917919794</v>
-      </c>
-      <c r="E39" s="19">
+        <v>781.44322404059392</v>
+      </c>
+      <c r="F39" s="53">
         <f t="shared" si="3"/>
-        <v>781.44322404059392</v>
-      </c>
-      <c r="F39" s="19">
+        <v>1593.7062574242066</v>
+      </c>
+      <c r="G39" s="28">
         <f t="shared" si="4"/>
-        <v>1593.7062574242066</v>
-      </c>
-      <c r="G39" s="19">
+        <v>6322.1979394077061</v>
+      </c>
+      <c r="H39" s="28">
         <f t="shared" si="5"/>
-        <v>6322.1979394077061</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="37" t="s">
-        <v>210</v>
-      </c>
-      <c r="B40" s="50">
+        <v>14046.795649211312</v>
+      </c>
+      <c r="I39" s="28">
+        <f t="shared" si="6"/>
+        <v>23651.226401753836</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="54" t="s">
+        <v>222</v>
+      </c>
+      <c r="B40" s="51">
+        <f t="shared" si="7"/>
+        <v>83.03</v>
+      </c>
+      <c r="C40" s="53">
         <f t="shared" si="0"/>
         <v>114.16132453843699</v>
       </c>
-      <c r="C40" s="50">
+      <c r="D40" s="53">
         <f t="shared" si="1"/>
-        <v>182.97793854327571</v>
-      </c>
-      <c r="D40" s="50">
+        <v>395.63309013815785</v>
+      </c>
+      <c r="E40" s="53">
         <f t="shared" si="2"/>
-        <v>395.63309013815785</v>
-      </c>
-      <c r="E40" s="19">
+        <v>840.05146584363843</v>
+      </c>
+      <c r="F40" s="53">
         <f t="shared" si="3"/>
-        <v>840.05146584363843</v>
-      </c>
-      <c r="F40" s="19">
+        <v>1753.0768831666273</v>
+      </c>
+      <c r="G40" s="28">
         <f t="shared" si="4"/>
-        <v>1753.0768831666273</v>
-      </c>
-      <c r="G40" s="19">
+        <v>7270.5276303188612</v>
+      </c>
+      <c r="H40" s="28">
         <f t="shared" si="5"/>
-        <v>7270.5276303188612</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="37" t="s">
-        <v>257</v>
-      </c>
-      <c r="B41" s="50">
+        <v>16575.218866069346</v>
+      </c>
+      <c r="I40" s="28">
+        <f t="shared" si="6"/>
+        <v>28381.471682104602</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="54" t="s">
+        <v>276</v>
+      </c>
+      <c r="B41" s="51">
+        <f t="shared" si="7"/>
+        <v>83.03</v>
+      </c>
+      <c r="C41" s="53">
         <f t="shared" si="0"/>
         <v>115.30293778382136</v>
       </c>
-      <c r="C41" s="50">
+      <c r="D41" s="53">
         <f t="shared" si="1"/>
-        <v>187.5523870068576</v>
-      </c>
-      <c r="D41" s="50">
+        <v>415.41474464506575</v>
+      </c>
+      <c r="E41" s="53">
         <f t="shared" si="2"/>
-        <v>415.41474464506575</v>
-      </c>
-      <c r="E41" s="19">
+        <v>903.05532578191128</v>
+      </c>
+      <c r="F41" s="53">
         <f t="shared" si="3"/>
-        <v>903.05532578191128</v>
-      </c>
-      <c r="F41" s="19">
+        <v>1928.3845714832903</v>
+      </c>
+      <c r="G41" s="28">
         <f t="shared" si="4"/>
-        <v>1928.3845714832903</v>
-      </c>
-      <c r="G41" s="19">
+        <v>8361.1067748666901</v>
+      </c>
+      <c r="H41" s="28">
         <f t="shared" si="5"/>
-        <v>8361.1067748666901</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="37" t="s">
-        <v>258</v>
-      </c>
-      <c r="B42" s="50">
+        <v>19558.758261961826</v>
+      </c>
+      <c r="I41" s="28">
+        <f t="shared" si="6"/>
+        <v>34057.766018525523</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="54" t="s">
+        <v>277</v>
+      </c>
+      <c r="B42" s="51">
+        <f t="shared" si="7"/>
+        <v>83.03</v>
+      </c>
+      <c r="C42" s="53">
         <f t="shared" si="0"/>
         <v>116.45596716165957</v>
       </c>
-      <c r="C42" s="50">
+      <c r="D42" s="53">
         <f t="shared" si="1"/>
-        <v>192.24119668202903</v>
-      </c>
-      <c r="D42" s="50">
+        <v>436.18548187731903</v>
+      </c>
+      <c r="E42" s="53">
         <f t="shared" si="2"/>
-        <v>436.18548187731903</v>
-      </c>
-      <c r="E42" s="19">
+        <v>970.78447521555461</v>
+      </c>
+      <c r="F42" s="53">
         <f t="shared" si="3"/>
-        <v>970.78447521555461</v>
-      </c>
-      <c r="F42" s="19">
+        <v>2121.2230286316194</v>
+      </c>
+      <c r="G42" s="28">
         <f t="shared" si="4"/>
-        <v>2121.2230286316194</v>
-      </c>
-      <c r="G42" s="19">
+        <v>9615.2727910966933</v>
+      </c>
+      <c r="H42" s="28">
         <f t="shared" si="5"/>
-        <v>9615.2727910966933</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="37" t="s">
-        <v>259</v>
-      </c>
-      <c r="B43" s="50">
+        <v>23079.334749114954</v>
+      </c>
+      <c r="I42" s="28">
+        <f t="shared" si="6"/>
+        <v>40869.319222230624</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="54" t="s">
+        <v>278</v>
+      </c>
+      <c r="B43" s="51">
+        <f t="shared" si="7"/>
+        <v>83.03</v>
+      </c>
+      <c r="C43" s="53">
         <f t="shared" si="0"/>
         <v>117.62052683327617</v>
       </c>
-      <c r="C43" s="50">
+      <c r="D43" s="53">
         <f t="shared" si="1"/>
-        <v>197.04722659907975</v>
-      </c>
-      <c r="D43" s="50">
+        <v>457.99475597118499</v>
+      </c>
+      <c r="E43" s="53">
         <f t="shared" si="2"/>
-        <v>457.99475597118499</v>
-      </c>
-      <c r="E43" s="19">
+        <v>1043.5933108567212</v>
+      </c>
+      <c r="F43" s="53">
         <f t="shared" si="3"/>
-        <v>1043.5933108567212</v>
-      </c>
-      <c r="F43" s="19">
+        <v>2333.3453314947815</v>
+      </c>
+      <c r="G43" s="28">
         <f t="shared" si="4"/>
-        <v>2333.3453314947815</v>
-      </c>
-      <c r="G43" s="19">
+        <v>11057.563709761196</v>
+      </c>
+      <c r="H43" s="28">
         <f t="shared" si="5"/>
-        <v>11057.563709761196</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="37" t="s">
-        <v>260</v>
-      </c>
-      <c r="B44" s="50">
+        <v>27233.615003955645</v>
+      </c>
+      <c r="I43" s="28">
+        <f t="shared" si="6"/>
+        <v>49043.183066676749</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="54" t="s">
+        <v>279</v>
+      </c>
+      <c r="B44" s="51">
+        <f t="shared" si="7"/>
+        <v>83.03</v>
+      </c>
+      <c r="C44" s="53">
         <f t="shared" si="0"/>
         <v>118.79673210160894</v>
       </c>
-      <c r="C44" s="50">
+      <c r="D44" s="53">
         <f t="shared" si="1"/>
-        <v>201.97340726405673</v>
-      </c>
-      <c r="D44" s="50">
+        <v>480.89449376974426</v>
+      </c>
+      <c r="E44" s="53">
         <f t="shared" si="2"/>
-        <v>480.89449376974426</v>
-      </c>
-      <c r="E44" s="19">
+        <v>1121.8628091709752</v>
+      </c>
+      <c r="F44" s="53">
         <f t="shared" si="3"/>
-        <v>1121.8628091709752</v>
-      </c>
-      <c r="F44" s="19">
+        <v>2566.6798646442599</v>
+      </c>
+      <c r="G44" s="28">
         <f t="shared" si="4"/>
-        <v>2566.6798646442599</v>
-      </c>
-      <c r="G44" s="19">
+        <v>12716.198266225374</v>
+      </c>
+      <c r="H44" s="28">
         <f t="shared" si="5"/>
-        <v>12716.198266225374</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="37" t="s">
-        <v>186</v>
-      </c>
-      <c r="B45" s="50">
+        <v>32135.665704667659</v>
+      </c>
+      <c r="I44" s="28">
+        <f t="shared" si="6"/>
+        <v>58851.8196800121</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="54" t="s">
+        <v>198</v>
+      </c>
+      <c r="B45" s="51">
+        <f t="shared" si="7"/>
+        <v>83.03</v>
+      </c>
+      <c r="C45" s="53">
         <f t="shared" si="0"/>
         <v>119.98469942262503</v>
       </c>
-      <c r="C45" s="50">
+      <c r="D45" s="53">
         <f t="shared" si="1"/>
-        <v>207.02274244565814</v>
-      </c>
-      <c r="D45" s="50">
+        <v>504.93921845823149</v>
+      </c>
+      <c r="E45" s="53">
         <f t="shared" si="2"/>
-        <v>504.93921845823149</v>
-      </c>
-      <c r="E45" s="19">
+        <v>1206.0025198587982</v>
+      </c>
+      <c r="F45" s="53">
         <f t="shared" si="3"/>
-        <v>1206.0025198587982</v>
-      </c>
-      <c r="F45" s="19">
+        <v>2823.347851108686</v>
+      </c>
+      <c r="G45" s="28">
         <f t="shared" si="4"/>
-        <v>2823.347851108686</v>
-      </c>
-      <c r="G45" s="19">
+        <v>14623.628006159179</v>
+      </c>
+      <c r="H45" s="28">
         <f t="shared" si="5"/>
-        <v>14623.628006159179</v>
-      </c>
+        <v>37920.085531507837</v>
+      </c>
+      <c r="I45" s="28">
+        <f t="shared" si="6"/>
+        <v>70622.183616014518</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="54" t="s">
+        <v>280</v>
+      </c>
+      <c r="B46" s="51">
+        <f t="shared" si="7"/>
+        <v>83.03</v>
+      </c>
+      <c r="C46" s="53">
+        <f t="shared" si="0"/>
+        <v>121.18454641685128</v>
+      </c>
+      <c r="D46" s="53">
+        <f t="shared" si="1"/>
+        <v>530.18617938114312</v>
+      </c>
+      <c r="E46" s="53">
+        <f t="shared" si="2"/>
+        <v>1296.452708848208</v>
+      </c>
+      <c r="F46" s="53">
+        <f t="shared" si="3"/>
+        <v>3105.6826362195548</v>
+      </c>
+      <c r="G46" s="28">
+        <f t="shared" si="4"/>
+        <v>16817.172207083055</v>
+      </c>
+      <c r="H46" s="28">
+        <f t="shared" si="5"/>
+        <v>44745.700927179249</v>
+      </c>
+      <c r="I46" s="28">
+        <f t="shared" si="6"/>
+        <v>84746.620339217421</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="54" t="s">
+        <v>281</v>
+      </c>
+      <c r="B47" s="51">
+        <f t="shared" si="7"/>
+        <v>83.03</v>
+      </c>
+      <c r="C47" s="53">
+        <f t="shared" si="0"/>
+        <v>122.3963918810198</v>
+      </c>
+      <c r="D47" s="53">
+        <f t="shared" si="1"/>
+        <v>556.69548835020032</v>
+      </c>
+      <c r="E47" s="53">
+        <f t="shared" si="2"/>
+        <v>1393.6866620118235</v>
+      </c>
+      <c r="F47" s="53">
+        <f t="shared" si="3"/>
+        <v>3416.2508998415105</v>
+      </c>
+      <c r="G47" s="28">
+        <f t="shared" si="4"/>
+        <v>19339.74803814551</v>
+      </c>
+      <c r="H47" s="28">
+        <f t="shared" si="5"/>
+        <v>52799.927094071507</v>
+      </c>
+      <c r="I47" s="28">
+        <f t="shared" si="6"/>
+        <v>101695.9444070609</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="54" t="s">
+        <v>282</v>
+      </c>
+      <c r="B48" s="51">
+        <f t="shared" si="7"/>
+        <v>83.03</v>
+      </c>
+      <c r="C48" s="53">
+        <f t="shared" si="0"/>
+        <v>123.62035579982999</v>
+      </c>
+      <c r="D48" s="53">
+        <f t="shared" si="1"/>
+        <v>584.53026276771038</v>
+      </c>
+      <c r="E48" s="53">
+        <f t="shared" si="2"/>
+        <v>1498.2131616627103</v>
+      </c>
+      <c r="F48" s="53">
+        <f t="shared" si="3"/>
+        <v>3757.8759898256617</v>
+      </c>
+      <c r="G48" s="28">
+        <f t="shared" si="4"/>
+        <v>22240.710243867336</v>
+      </c>
+      <c r="H48" s="28">
+        <f t="shared" si="5"/>
+        <v>62303.913971004375</v>
+      </c>
+      <c r="I48" s="28">
+        <f t="shared" si="6"/>
+        <v>122035.13328847308</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="54" t="s">
+        <v>283</v>
+      </c>
+      <c r="B49" s="51">
+        <f t="shared" si="7"/>
+        <v>83.03</v>
+      </c>
+      <c r="C49" s="53">
+        <f t="shared" si="0"/>
+        <v>124.85655935782829</v>
+      </c>
+      <c r="D49" s="53">
+        <f t="shared" si="1"/>
+        <v>613.75677590609598</v>
+      </c>
+      <c r="E49" s="53">
+        <f t="shared" si="2"/>
+        <v>1610.5791487874135</v>
+      </c>
+      <c r="F49" s="53">
+        <f t="shared" si="3"/>
+        <v>4133.6635888082283</v>
+      </c>
+      <c r="G49" s="28">
+        <f t="shared" si="4"/>
+        <v>25576.816780447432</v>
+      </c>
+      <c r="H49" s="28">
+        <f t="shared" si="5"/>
+        <v>73518.618485785162</v>
+      </c>
+      <c r="I49" s="28">
+        <f t="shared" si="6"/>
+        <v>146442.1599461677</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="54" t="s">
+        <v>223</v>
+      </c>
+      <c r="B50" s="51">
+        <f t="shared" si="7"/>
+        <v>83.03</v>
+      </c>
+      <c r="C50" s="53">
+        <f t="shared" si="0"/>
+        <v>126.10512495140657</v>
+      </c>
+      <c r="D50" s="53">
+        <f t="shared" si="1"/>
+        <v>644.44461470140084</v>
+      </c>
+      <c r="E50" s="53">
+        <f t="shared" si="2"/>
+        <v>1731.3725849464695</v>
+      </c>
+      <c r="F50" s="53">
+        <f t="shared" si="3"/>
+        <v>4547.0299476890514</v>
+      </c>
+      <c r="G50" s="28">
+        <f t="shared" si="4"/>
+        <v>29413.339297514543</v>
+      </c>
+      <c r="H50" s="28">
+        <f t="shared" si="5"/>
+        <v>86751.969813226489</v>
+      </c>
+      <c r="I50" s="28">
+        <f t="shared" si="6"/>
+        <v>175730.59193540123</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="54" t="s">
+        <v>284</v>
+      </c>
+      <c r="B51" s="51">
+        <f t="shared" si="7"/>
+        <v>83.03</v>
+      </c>
+      <c r="C51" s="53">
+        <f t="shared" si="0"/>
+        <v>127.36617620092063</v>
+      </c>
+      <c r="D51" s="53">
+        <f t="shared" si="1"/>
+        <v>676.66684543647091</v>
+      </c>
+      <c r="E51" s="53">
+        <f t="shared" si="2"/>
+        <v>1861.2255288174547</v>
+      </c>
+      <c r="F51" s="53">
+        <f t="shared" si="3"/>
+        <v>5001.7329424579566</v>
+      </c>
+      <c r="G51" s="28">
+        <f t="shared" si="4"/>
+        <v>33825.340192141724</v>
+      </c>
+      <c r="H51" s="28">
+        <f t="shared" si="5"/>
+        <v>102367.32437960725</v>
+      </c>
+      <c r="I51" s="28">
+        <f t="shared" si="6"/>
+        <v>210876.71032248146</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="54" t="s">
+        <v>285</v>
+      </c>
+      <c r="B52" s="51">
+        <f t="shared" si="7"/>
+        <v>83.03</v>
+      </c>
+      <c r="C52" s="53">
+        <f t="shared" si="0"/>
+        <v>128.63983796292985</v>
+      </c>
+      <c r="D52" s="53">
+        <f t="shared" si="1"/>
+        <v>710.50018770829445</v>
+      </c>
+      <c r="E52" s="53">
+        <f t="shared" si="2"/>
+        <v>2000.8174434787636</v>
+      </c>
+      <c r="F52" s="53">
+        <f t="shared" si="3"/>
+        <v>5501.9062367037523</v>
+      </c>
+      <c r="G52" s="28">
+        <f t="shared" si="4"/>
+        <v>38899.141220962978</v>
+      </c>
+      <c r="H52" s="28">
+        <f t="shared" si="5"/>
+        <v>120793.44276793655</v>
+      </c>
+      <c r="I52" s="28">
+        <f t="shared" si="6"/>
+        <v>253052.05238697774</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="54" t="s">
+        <v>286</v>
+      </c>
+      <c r="B53" s="51">
+        <f t="shared" si="7"/>
+        <v>83.03</v>
+      </c>
+      <c r="C53" s="53">
+        <f t="shared" si="0"/>
+        <v>129.92623634255915</v>
+      </c>
+      <c r="D53" s="53">
+        <f t="shared" si="1"/>
+        <v>746.02519709370915</v>
+      </c>
+      <c r="E53" s="53">
+        <f t="shared" si="2"/>
+        <v>2150.8787517396709</v>
+      </c>
+      <c r="F53" s="53">
+        <f t="shared" si="3"/>
+        <v>6052.0968603741276</v>
+      </c>
+      <c r="G53" s="28">
+        <f t="shared" si="4"/>
+        <v>44734.012404107423</v>
+      </c>
+      <c r="H53" s="28">
+        <f t="shared" si="5"/>
+        <v>142536.26246616512</v>
+      </c>
+      <c r="I53" s="28">
+        <f t="shared" si="6"/>
+        <v>303662.46286437329</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="54" t="s">
+        <v>287</v>
+      </c>
+      <c r="B54" s="51">
+        <f t="shared" si="7"/>
+        <v>83.03</v>
+      </c>
+      <c r="C54" s="53">
+        <f t="shared" si="0"/>
+        <v>131.22549870598473</v>
+      </c>
+      <c r="D54" s="53">
+        <f t="shared" si="1"/>
+        <v>783.32645694839459</v>
+      </c>
+      <c r="E54" s="53">
+        <f t="shared" si="2"/>
+        <v>2312.194658120146</v>
+      </c>
+      <c r="F54" s="53">
+        <f t="shared" si="3"/>
+        <v>6657.3065464115407</v>
+      </c>
+      <c r="G54" s="28">
+        <f t="shared" si="4"/>
+        <v>51444.114264723532</v>
+      </c>
+      <c r="H54" s="28">
+        <f t="shared" si="5"/>
+        <v>168192.78971007484</v>
+      </c>
+      <c r="I54" s="28">
+        <f t="shared" si="6"/>
+        <v>364394.95543724793</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="54" t="s">
+        <v>199</v>
+      </c>
+      <c r="B55" s="51">
+        <f t="shared" si="7"/>
+        <v>83.03</v>
+      </c>
+      <c r="C55" s="53">
+        <f t="shared" si="0"/>
+        <v>132.53775369304458</v>
+      </c>
+      <c r="D55" s="53">
+        <f t="shared" si="1"/>
+        <v>822.49277979581439</v>
+      </c>
+      <c r="E55" s="53">
+        <f t="shared" si="2"/>
+        <v>2485.6092574791569</v>
+      </c>
+      <c r="F55" s="53">
+        <f t="shared" si="3"/>
+        <v>7323.0372010526953</v>
+      </c>
+      <c r="G55" s="28">
+        <f t="shared" si="4"/>
+        <v>59160.731404432059</v>
+      </c>
+      <c r="H55" s="28">
+        <f t="shared" si="5"/>
+        <v>198467.49185788829</v>
+      </c>
+      <c r="I55" s="28">
+        <f t="shared" si="6"/>
+        <v>437273.94652469753</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="54"/>
+      <c r="B56" s="52"/>
+      <c r="C56" s="53"/>
+      <c r="D56" s="53"/>
+      <c r="E56" s="53"/>
+      <c r="F56" s="53"/>
+      <c r="G56" s="28"/>
+      <c r="H56" s="28"/>
+      <c r="I56" s="28"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="54"/>
+      <c r="B57" s="52"/>
+      <c r="C57" s="53"/>
+      <c r="D57" s="53"/>
+      <c r="E57" s="53"/>
+      <c r="F57" s="53"/>
+      <c r="G57" s="28"/>
+      <c r="H57" s="28"/>
+      <c r="I57" s="28"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="54"/>
+      <c r="B58" s="52"/>
+      <c r="C58" s="53"/>
+      <c r="D58" s="53"/>
+      <c r="E58" s="53"/>
+      <c r="F58" s="53"/>
+      <c r="G58" s="28"/>
+      <c r="H58" s="28"/>
+      <c r="I58" s="28"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="54"/>
+      <c r="B59" s="52"/>
+      <c r="C59" s="53"/>
+      <c r="D59" s="53"/>
+      <c r="E59" s="53"/>
+      <c r="F59" s="53"/>
+      <c r="G59" s="28"/>
+      <c r="H59" s="28"/>
+      <c r="I59" s="28"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="54"/>
+      <c r="B60" s="52"/>
+      <c r="C60" s="53"/>
+      <c r="D60" s="53"/>
+      <c r="E60" s="53"/>
+      <c r="F60" s="53"/>
+      <c r="G60" s="28"/>
+      <c r="H60" s="28"/>
+      <c r="I60" s="28"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="54"/>
+      <c r="B61" s="52"/>
+      <c r="C61" s="53"/>
+      <c r="D61" s="53"/>
+      <c r="E61" s="53"/>
+      <c r="F61" s="53"/>
+      <c r="G61" s="28"/>
+      <c r="H61" s="28"/>
+      <c r="I61" s="28"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="54"/>
+      <c r="B62" s="52"/>
+      <c r="C62" s="53"/>
+      <c r="D62" s="53"/>
+      <c r="E62" s="53"/>
+      <c r="F62" s="53"/>
+      <c r="G62" s="28"/>
+      <c r="H62" s="28"/>
+      <c r="I62" s="28"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="54"/>
+      <c r="B63" s="52"/>
+      <c r="C63" s="53"/>
+      <c r="D63" s="53"/>
+      <c r="E63" s="53"/>
+      <c r="F63" s="53"/>
+      <c r="G63" s="28"/>
+      <c r="H63" s="28"/>
+      <c r="I63" s="28"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -5159,285 +6079,213 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:Z5"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
-    </sheetView>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="24.140625" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
-    <col min="4" max="6" width="11.5703125" customWidth="1"/>
-    <col min="7" max="7" width="5.85546875" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" customWidth="1"/>
-    <col min="9" max="9" width="22.85546875" customWidth="1"/>
-    <col min="10" max="10" width="24.140625" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" customWidth="1"/>
-    <col min="12" max="12" width="19.140625" customWidth="1"/>
-    <col min="13" max="13" width="10.5703125" customWidth="1"/>
-    <col min="14" max="15" width="19.140625" customWidth="1"/>
-    <col min="16" max="16" width="39" customWidth="1"/>
-    <col min="17" max="17" width="22.7109375" customWidth="1"/>
-    <col min="18" max="18" width="11.5703125" customWidth="1"/>
-    <col min="19" max="19" width="32" customWidth="1"/>
-    <col min="20" max="20" width="26.7109375" customWidth="1"/>
-    <col min="21" max="21" width="10.5703125" customWidth="1"/>
-    <col min="22" max="22" width="5.85546875" customWidth="1"/>
-    <col min="24" max="24" width="22.85546875" customWidth="1"/>
-    <col min="25" max="25" width="10.5703125" customWidth="1"/>
-    <col min="26" max="26" width="36.42578125" customWidth="1"/>
+    <col min="1" max="2" width="25" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="6" width="12" customWidth="1"/>
+    <col min="7" max="7" width="6.140625" customWidth="1"/>
+    <col min="8" max="8" width="12" customWidth="1"/>
+    <col min="9" max="9" width="23.7109375" customWidth="1"/>
+    <col min="10" max="10" width="25" customWidth="1"/>
+    <col min="11" max="11" width="15.42578125" customWidth="1"/>
+    <col min="12" max="12" width="19.85546875" customWidth="1"/>
+    <col min="13" max="13" width="11" customWidth="1"/>
+    <col min="14" max="15" width="19.85546875" customWidth="1"/>
+    <col min="16" max="16" width="23.7109375" customWidth="1"/>
+    <col min="17" max="17" width="11" customWidth="1"/>
+    <col min="18" max="18" width="37.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="B1" t="s">
-        <v>261</v>
+        <v>288</v>
       </c>
       <c r="C1" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="D1" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="E1" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="F1" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="G1" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="I1" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="J1" t="s">
-        <v>261</v>
+        <v>288</v>
       </c>
       <c r="K1" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="L1" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="M1" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="N1" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="P1" t="s">
-        <v>167</v>
+        <v>288</v>
       </c>
       <c r="Q1" t="s">
-        <v>261</v>
+        <v>174</v>
       </c>
       <c r="R1" t="s">
-        <v>145</v>
-      </c>
-      <c r="S1" t="s">
-        <v>211</v>
-      </c>
-      <c r="T1" t="s">
-        <v>168</v>
-      </c>
-      <c r="U1" t="s">
-        <v>163</v>
-      </c>
-      <c r="V1" t="s">
-        <v>169</v>
-      </c>
-      <c r="X1" t="s">
-        <v>261</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>163</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>263</v>
+        <v>290</v>
       </c>
       <c r="B2" t="s">
-        <v>264</v>
+        <v>291</v>
       </c>
       <c r="C2" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="D2" t="s">
-        <v>265</v>
+        <v>292</v>
       </c>
       <c r="E2" t="s">
-        <v>266</v>
+        <v>293</v>
       </c>
       <c r="F2" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>267</v>
+        <v>294</v>
       </c>
       <c r="J2" t="s">
-        <v>264</v>
+        <v>291</v>
       </c>
       <c r="K2" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="L2" t="s">
-        <v>268</v>
+        <v>295</v>
       </c>
       <c r="M2" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="N2">
         <v>0.6</v>
       </c>
       <c r="P2" t="s">
-        <v>269</v>
+        <v>291</v>
       </c>
       <c r="Q2" t="s">
-        <v>264</v>
+        <v>178</v>
       </c>
       <c r="R2" t="s">
-        <v>265</v>
-      </c>
-      <c r="S2" t="s">
-        <v>270</v>
-      </c>
-      <c r="T2" t="s">
-        <v>271</v>
-      </c>
-      <c r="U2" t="s">
-        <v>166</v>
-      </c>
-      <c r="V2">
-        <v>1</v>
-      </c>
-      <c r="X2" t="s">
-        <v>264</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>166</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>263</v>
+        <v>290</v>
       </c>
       <c r="B3" t="s">
-        <v>273</v>
+        <v>297</v>
       </c>
       <c r="C3" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="D3" t="s">
-        <v>274</v>
+        <v>298</v>
       </c>
       <c r="E3" t="s">
-        <v>266</v>
+        <v>293</v>
       </c>
       <c r="F3" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>267</v>
+        <v>294</v>
       </c>
       <c r="J3" t="s">
-        <v>273</v>
+        <v>297</v>
       </c>
       <c r="K3" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="L3" t="s">
-        <v>268</v>
+        <v>295</v>
       </c>
       <c r="M3" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="N3">
         <v>1.1999999999999999E-3</v>
       </c>
       <c r="P3" t="s">
-        <v>269</v>
+        <v>297</v>
       </c>
       <c r="Q3" t="s">
-        <v>273</v>
+        <v>178</v>
       </c>
       <c r="R3" t="s">
-        <v>274</v>
-      </c>
-      <c r="S3" t="s">
-        <v>275</v>
-      </c>
-      <c r="T3" t="s">
-        <v>271</v>
-      </c>
-      <c r="U3" t="s">
-        <v>166</v>
-      </c>
-      <c r="V3">
-        <v>1</v>
-      </c>
-      <c r="X3" t="s">
-        <v>273</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>166</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="I4" t="s">
-        <v>276</v>
+        <v>299</v>
       </c>
       <c r="J4" t="s">
-        <v>264</v>
+        <v>291</v>
       </c>
       <c r="K4" t="s">
-        <v>265</v>
+        <v>292</v>
       </c>
       <c r="L4" t="s">
-        <v>268</v>
+        <v>295</v>
       </c>
       <c r="M4" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="N4">
         <v>0.6</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="I5" t="s">
-        <v>276</v>
+        <v>299</v>
       </c>
       <c r="J5" t="s">
-        <v>273</v>
+        <v>297</v>
       </c>
       <c r="K5" t="s">
-        <v>274</v>
+        <v>298</v>
       </c>
       <c r="L5" t="s">
-        <v>268</v>
+        <v>295</v>
       </c>
       <c r="M5" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="N5">
         <v>1.1999999999999999E-3</v>
@@ -5452,64 +6300,64 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="B1" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="C1" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="B2" t="s">
-        <v>265</v>
+        <v>292</v>
       </c>
       <c r="C2" t="s">
-        <v>274</v>
+        <v>298</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="B3" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="C3" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="B4" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="C4" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="B5">
         <v>0.8</v>
@@ -5520,7 +6368,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="B6">
         <v>0.8</v>
@@ -5531,7 +6379,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="B7">
         <v>0.8</v>
@@ -5542,7 +6390,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="B8">
         <v>0.8</v>
@@ -5553,12 +6401,23 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="B9">
         <v>0.8</v>
       </c>
       <c r="C9">
+        <v>1.8E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>199</v>
+      </c>
+      <c r="B10">
+        <v>0.8</v>
+      </c>
+      <c r="C10">
         <v>1.8E-3</v>
       </c>
     </row>
@@ -5572,71 +6431,73 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" customWidth="1"/>
-    <col min="3" max="3" width="21.140625" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" customWidth="1"/>
-    <col min="7" max="7" width="18.7109375" customWidth="1"/>
-    <col min="8" max="8" width="17.85546875" customWidth="1"/>
-    <col min="9" max="9" width="17.28515625" customWidth="1"/>
-    <col min="10" max="10" width="17.85546875" customWidth="1"/>
-    <col min="11" max="11" width="17.28515625" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="22" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" customWidth="1"/>
+    <col min="9" max="9" width="18" customWidth="1"/>
+    <col min="10" max="10" width="18.5703125" customWidth="1"/>
+    <col min="11" max="11" width="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="B1" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="C1" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="D1" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="E1" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="B2" t="s">
-        <v>277</v>
+        <v>300</v>
       </c>
       <c r="C2" t="s">
-        <v>265</v>
+        <v>292</v>
       </c>
       <c r="D2" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="E2">
-        <v>0.3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="B3" t="s">
-        <v>278</v>
+        <v>301</v>
       </c>
       <c r="C3" t="s">
-        <v>274</v>
+        <v>298</v>
       </c>
       <c r="D3" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="E3">
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
     </row>
   </sheetData>
@@ -5647,102 +6508,102 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView topLeftCell="A4" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="B1" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="C1" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="B2" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="C2" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="B3" t="s">
-        <v>277</v>
+        <v>300</v>
       </c>
       <c r="C3" t="s">
-        <v>278</v>
+        <v>301</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="B4" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="C4" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="B5" t="s">
-        <v>265</v>
+        <v>292</v>
       </c>
       <c r="C5" t="s">
-        <v>274</v>
+        <v>298</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="B6" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="C6" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="B7" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="C7" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="B8" s="4">
-        <v>153235.05755748009</v>
+        <v>153235.05755748</v>
       </c>
       <c r="C8" s="4">
         <f>Base!E35</f>
@@ -5751,102 +6612,125 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="B9" s="4">
         <v>466325.30448643101</v>
       </c>
       <c r="C9" s="4">
-        <f t="shared" ref="C9:C12" si="0">C8</f>
-        <v>503144654.08805031</v>
+        <f t="shared" ref="C9:C18" si="0">$C$8*B9/$B$8</f>
+        <v>1531171050.2690833</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="B10" s="4">
-        <v>452531.64772125217</v>
+        <v>452531.647721252</v>
       </c>
       <c r="C10" s="4">
         <f t="shared" si="0"/>
-        <v>503144654.08805031</v>
+        <v>1485879817.4901745</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="B11" s="4">
-        <v>443281.91878865106</v>
+        <v>443281.918788651</v>
       </c>
       <c r="C11" s="4">
         <f t="shared" si="0"/>
-        <v>503144654.08805031</v>
+        <v>1455508492.9487522</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="B12" s="4">
-        <v>441949.46191361878</v>
+        <v>441949.46191361902</v>
       </c>
       <c r="C12" s="4">
         <f t="shared" si="0"/>
-        <v>503144654.08805031</v>
+        <v>1451133393.907048</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="B13" s="4">
-        <v>441805.20056338521</v>
+        <v>441805.20056338498</v>
       </c>
       <c r="C13" s="4">
-        <f t="shared" ref="C13" si="1">C12</f>
-        <v>503144654.08805031</v>
+        <f t="shared" si="0"/>
+        <v>1450659714.2653346</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="B14" s="4">
-        <v>441797.61264709232</v>
+        <v>441797.61264709203</v>
       </c>
       <c r="C14" s="4">
-        <f t="shared" ref="C14" si="2">C13</f>
-        <v>503144654.08805031</v>
+        <f t="shared" si="0"/>
+        <v>1450634799.4737763</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="B15" s="4">
-        <v>441798.91599598486</v>
+        <v>441798.91599598498</v>
       </c>
       <c r="C15" s="4">
-        <f t="shared" ref="C15" si="3">C14</f>
-        <v>503144654.08805031</v>
+        <f t="shared" si="0"/>
+        <v>1450639078.9972637</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="B16" s="4">
-        <v>441799.42197618191</v>
+        <v>441799.42197618203</v>
       </c>
       <c r="C16" s="4">
-        <f t="shared" ref="C16" si="4">C15</f>
-        <v>503144654.08805031</v>
+        <f t="shared" si="0"/>
+        <v>1450640740.3744659</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>223</v>
+      </c>
+      <c r="B17" s="4">
+        <v>441799.42197618203</v>
+      </c>
+      <c r="C17" s="4">
+        <f t="shared" si="0"/>
+        <v>1450640740.3744659</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>199</v>
+      </c>
+      <c r="B18" s="4">
+        <v>441799.42197618203</v>
+      </c>
+      <c r="C18" s="4">
+        <f t="shared" si="0"/>
+        <v>1450640740.3744659</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <legacyDrawing r:id="rId1"/>
@@ -5855,46 +6739,56 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="B1" t="s">
-        <v>279</v>
+        <v>302</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>148</v>
-      </c>
-      <c r="B2" s="38">
-        <v>10000000000</v>
+        <v>159</v>
+      </c>
+      <c r="B2" s="55">
+        <v>1E+18</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>265</v>
-      </c>
-      <c r="B3" s="38">
-        <v>10000000000</v>
+        <v>292</v>
+      </c>
+      <c r="B3" s="55">
+        <v>1E+18</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>274</v>
-      </c>
-      <c r="B4" s="38">
-        <v>10000000000</v>
+        <v>298</v>
+      </c>
+      <c r="B4" s="55">
+        <v>1E+18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B5" s="55">
+        <v>1E+18</v>
       </c>
     </row>
   </sheetData>
@@ -5909,334 +6803,332 @@
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="15.5703125" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" style="29" customWidth="1"/>
-    <col min="4" max="4" width="24.42578125" customWidth="1"/>
-    <col min="5" max="5" width="31.5703125" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" customWidth="1"/>
-    <col min="7" max="7" width="21.140625" customWidth="1"/>
-    <col min="8" max="8" width="24.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.85546875" customWidth="1"/>
-    <col min="10" max="10" width="22.28515625" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" customWidth="1"/>
-    <col min="12" max="12" width="23.5703125" customWidth="1"/>
-    <col min="13" max="13" width="16.85546875" customWidth="1"/>
-    <col min="14" max="14" width="15.28515625" customWidth="1"/>
-    <col min="15" max="15" width="20.7109375" customWidth="1"/>
-    <col min="16" max="16" width="18.85546875" customWidth="1"/>
-    <col min="17" max="17" width="23.5703125" customWidth="1"/>
-    <col min="18" max="18" width="21.5703125" customWidth="1"/>
-    <col min="19" max="19" width="15.28515625" customWidth="1"/>
-    <col min="20" max="20" width="21.85546875" customWidth="1"/>
+    <col min="1" max="2" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" style="40" customWidth="1"/>
+    <col min="4" max="4" width="25.28515625" customWidth="1"/>
+    <col min="5" max="5" width="32.7109375" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" customWidth="1"/>
+    <col min="7" max="7" width="22" customWidth="1"/>
+    <col min="8" max="8" width="25" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" customWidth="1"/>
+    <col min="10" max="10" width="23.140625" customWidth="1"/>
+    <col min="11" max="11" width="25.85546875" customWidth="1"/>
+    <col min="12" max="12" width="24.42578125" customWidth="1"/>
+    <col min="13" max="13" width="17.42578125" customWidth="1"/>
+    <col min="14" max="14" width="15.85546875" customWidth="1"/>
+    <col min="15" max="15" width="21.42578125" customWidth="1"/>
+    <col min="16" max="16" width="19.5703125" customWidth="1"/>
+    <col min="17" max="17" width="24.42578125" customWidth="1"/>
+    <col min="18" max="18" width="22.42578125" customWidth="1"/>
+    <col min="19" max="19" width="15.85546875" customWidth="1"/>
+    <col min="20" max="20" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="B1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C1"/>
+        <v>136</v>
+      </c>
       <c r="D1" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="G1" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="J1" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="M1" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="P1" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="R1" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="B2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C2"/>
+        <v>136</v>
+      </c>
       <c r="D2" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="E2" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="G2" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="H2" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="J2" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="K2" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="M2" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="P2" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="R2" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="S2" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="B3" t="s">
-        <v>139</v>
-      </c>
-      <c r="C3" s="29" t="s">
-        <v>140</v>
+        <v>150</v>
+      </c>
+      <c r="C3" s="40" t="s">
+        <v>151</v>
       </c>
       <c r="D3" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="E3" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="F3" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="G3" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="H3" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="I3" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="J3" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="K3" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="L3" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="M3" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="N3" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="O3" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="P3" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="Q3" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="R3" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="S3" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="T3" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="B4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C4" s="29" t="s">
-        <v>146</v>
+        <v>156</v>
+      </c>
+      <c r="C4" s="40" t="s">
+        <v>157</v>
       </c>
       <c r="D4" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="E4" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="F4" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="G4" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="H4" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="I4" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="J4" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="K4" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="L4" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="M4" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="N4" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="O4" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="P4" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="Q4" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="R4" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="S4" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="T4" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="B5" t="s">
-        <v>148</v>
-      </c>
-      <c r="C5" s="29" t="s">
-        <v>149</v>
+        <v>159</v>
+      </c>
+      <c r="C5" s="40" t="s">
+        <v>160</v>
       </c>
       <c r="D5" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="E5" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="F5" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="G5" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="H5" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="I5" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="J5" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="K5" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="L5" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="M5" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="N5" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="O5" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="P5" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="Q5" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="S5" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="T5" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="F6" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="G6" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="K6" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="L6" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="Q6" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="T6" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="L7" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="T7" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="L8" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="R8" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="S8" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="T8" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="R9" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="R10" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
     </row>
     <row r="42" ht="27" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6249,42 +7141,43 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="10.5703125" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" customWidth="1"/>
-    <col min="7" max="7" width="18.7109375" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" customWidth="1"/>
+    <col min="1" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" customWidth="1"/>
+    <col min="8" max="8" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="B1" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="C1" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="D1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+      <c r="E1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="B2" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="C2" t="b">
         <f>TRUE()</f>
@@ -6292,8 +7185,15 @@
       </c>
       <c r="D2" s="4">
         <f>Base!C59</f>
-        <v>204035.62050000002</v>
-      </c>
+        <v>255044.52562500001</v>
+      </c>
+      <c r="E2" s="4">
+        <f>D2</f>
+        <v>255044.52562500001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D3" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -6305,136 +7205,134 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:O6"/>
   <sheetViews>
-    <sheetView zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
-    </sheetView>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" customWidth="1"/>
-    <col min="3" max="3" width="21.140625" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" customWidth="1"/>
-    <col min="7" max="7" width="22.5703125" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" customWidth="1"/>
-    <col min="9" max="9" width="24.85546875" customWidth="1"/>
-    <col min="10" max="11" width="10.5703125" customWidth="1"/>
-    <col min="13" max="13" width="25.7109375" customWidth="1"/>
-    <col min="14" max="14" width="22.5703125" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" customWidth="1"/>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="22" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" customWidth="1"/>
+    <col min="7" max="7" width="23.42578125" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" customWidth="1"/>
+    <col min="9" max="9" width="25.85546875" customWidth="1"/>
+    <col min="10" max="11" width="11" customWidth="1"/>
+    <col min="13" max="13" width="26.7109375" customWidth="1"/>
+    <col min="14" max="14" width="23.42578125" customWidth="1"/>
+    <col min="15" max="15" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="B1" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="C1" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="E1" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="F1" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="G1" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="H1" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="I1" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="J1" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="K1" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="M1" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="N1" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="O1" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="B2" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="C2" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="E2" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="F2" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="G2" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="H2" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="I2" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="J2" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="K2">
         <f>Base!C61</f>
         <v>46.402721136626234</v>
       </c>
       <c r="M2" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="N2" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="O2" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="B3" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="C3" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="E3" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="F3" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="G3" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="H3" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="I3" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="J3" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="K3">
         <f>Base!C62</f>
@@ -6443,31 +7341,31 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="B4" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="C4" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="E4" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="F4" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="G4" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="H4" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="I4" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="J4" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="K4">
         <f>Base!C57</f>
@@ -6476,31 +7374,31 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="B5" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="C5" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="E5" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="F5" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="G5" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="H5" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="I5" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="J5" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="K5">
         <f>Base!C56</f>
@@ -6509,13 +7407,13 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="B6" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="C6" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -6526,83 +7424,83 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:B12"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" customWidth="1"/>
-    <col min="5" max="5" width="23.5703125" customWidth="1"/>
-    <col min="6" max="6" width="24.85546875" customWidth="1"/>
-    <col min="7" max="8" width="23.5703125" customWidth="1"/>
-    <col min="9" max="9" width="24.85546875" customWidth="1"/>
-    <col min="10" max="10" width="17.85546875" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="2" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="25.85546875" customWidth="1"/>
+    <col min="5" max="5" width="24.42578125" customWidth="1"/>
+    <col min="6" max="6" width="25.85546875" customWidth="1"/>
+    <col min="7" max="8" width="24.42578125" customWidth="1"/>
+    <col min="9" max="9" width="25.85546875" customWidth="1"/>
+    <col min="10" max="10" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="B1" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="B2" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="B3" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="B4" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="B5" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="B6" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="B7" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="B8">
         <f>Base!C55</f>
@@ -6611,7 +7509,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="B9">
         <v>0.56000000000000005</v>
@@ -6619,7 +7517,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="B10">
         <v>0.53</v>
@@ -6627,7 +7525,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="B11">
         <v>0.51</v>
@@ -6635,10 +7533,18 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="B12">
         <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>199</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -6651,105 +7557,103 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
-    </sheetView>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" customWidth="1"/>
-    <col min="2" max="2" width="24.140625" customWidth="1"/>
-    <col min="3" max="3" width="21.140625" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" customWidth="1"/>
-    <col min="6" max="6" width="24.140625" customWidth="1"/>
-    <col min="7" max="7" width="21.140625" customWidth="1"/>
-    <col min="8" max="8" width="16.85546875" customWidth="1"/>
-    <col min="9" max="9" width="24.85546875" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" customWidth="1"/>
-    <col min="11" max="11" width="11.85546875" customWidth="1"/>
-    <col min="13" max="13" width="16.85546875" customWidth="1"/>
-    <col min="14" max="14" width="10.5703125" customWidth="1"/>
-    <col min="15" max="15" width="8.140625" customWidth="1"/>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="25" customWidth="1"/>
+    <col min="3" max="3" width="22" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" customWidth="1"/>
+    <col min="6" max="6" width="25" customWidth="1"/>
+    <col min="7" max="7" width="22" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" customWidth="1"/>
+    <col min="9" max="9" width="25.85546875" customWidth="1"/>
+    <col min="10" max="10" width="11" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" customWidth="1"/>
+    <col min="13" max="13" width="17.42578125" customWidth="1"/>
+    <col min="14" max="14" width="11" customWidth="1"/>
+    <col min="15" max="15" width="8.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="B1" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="C1" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="E1" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="F1" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="G1" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="H1" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="I1" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="J1" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="K1" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="M1" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="N1" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="O1" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="B2" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="C2" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="E2" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="F2" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="G2" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="H2" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="I2" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="J2" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="K2">
         <f>Base!C63</f>
         <v>3.7400000000000003E-2</v>
       </c>
       <c r="M2" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="N2" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="O2">
         <f>Base!B3</f>
@@ -6758,31 +7662,31 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="B3" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="C3" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="E3" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="F3" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="G3" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="H3" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="I3" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="J3" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="K3">
         <f>Base!C64</f>
@@ -6791,13 +7695,13 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="B4" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="C4" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -6812,47 +7716,47 @@
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" customWidth="1"/>
-    <col min="2" max="2" width="26.28515625" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="2" max="2" width="27.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="B1" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="B2" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="B3" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="B4" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="B5">
         <v>90</v>
@@ -6860,7 +7764,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="B6">
         <v>60</v>
@@ -6868,7 +7772,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="B7">
         <v>60</v>
@@ -6882,377 +7786,367 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:AB13"/>
+  <dimension ref="A1:AB14"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="AB2" sqref="AB2"/>
+    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="AB8" sqref="AB8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" customWidth="1"/>
-    <col min="3" max="3" width="23.5703125" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" customWidth="1"/>
-    <col min="9" max="9" width="17.85546875" customWidth="1"/>
-    <col min="10" max="10" width="21.85546875" customWidth="1"/>
-    <col min="11" max="11" width="21.140625" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
-    <col min="13" max="13" width="24.85546875" customWidth="1"/>
-    <col min="14" max="14" width="14" customWidth="1"/>
-    <col min="15" max="15" width="11.85546875" customWidth="1"/>
-    <col min="17" max="17" width="21.85546875" customWidth="1"/>
-    <col min="18" max="18" width="14" customWidth="1"/>
-    <col min="19" max="19" width="10.5703125" customWidth="1"/>
-    <col min="20" max="20" width="15.140625" customWidth="1"/>
-    <col min="21" max="21" width="11.85546875" customWidth="1"/>
-    <col min="22" max="22" width="16.28515625" customWidth="1"/>
-    <col min="23" max="23" width="32.28515625" customWidth="1"/>
-    <col min="24" max="24" width="20.42578125" customWidth="1"/>
-    <col min="25" max="25" width="36.7109375" customWidth="1"/>
-    <col min="26" max="26" width="13.28515625" customWidth="1"/>
-    <col min="27" max="27" width="24" customWidth="1"/>
-    <col min="28" max="29" width="21.5703125" customWidth="1"/>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="25.85546875" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" customWidth="1"/>
+    <col min="9" max="9" width="18.5703125" customWidth="1"/>
+    <col min="10" max="10" width="22.7109375" customWidth="1"/>
+    <col min="11" max="11" width="22" customWidth="1"/>
+    <col min="12" max="12" width="15.42578125" customWidth="1"/>
+    <col min="13" max="13" width="25.85546875" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" customWidth="1"/>
+    <col min="15" max="15" width="12.28515625" customWidth="1"/>
+    <col min="17" max="17" width="22.7109375" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" customWidth="1"/>
+    <col min="19" max="19" width="11" customWidth="1"/>
+    <col min="20" max="20" width="15.7109375" customWidth="1"/>
+    <col min="21" max="21" width="12.28515625" customWidth="1"/>
+    <col min="22" max="22" width="16.85546875" customWidth="1"/>
+    <col min="23" max="23" width="33.42578125" customWidth="1"/>
+    <col min="24" max="24" width="21.140625" customWidth="1"/>
+    <col min="25" max="25" width="38.140625" customWidth="1"/>
+    <col min="26" max="26" width="13.85546875" customWidth="1"/>
+    <col min="27" max="27" width="24.85546875" customWidth="1"/>
+    <col min="28" max="29" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
-        <v>167</v>
-      </c>
-      <c r="B1" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="D1" s="30" t="s">
-        <v>163</v>
-      </c>
-      <c r="E1" s="30" t="s">
-        <v>191</v>
-      </c>
-      <c r="F1" s="30" t="s">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1" s="41" t="s">
+        <v>179</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>157</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>156</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>174</v>
+      </c>
+      <c r="E1" s="41" t="s">
+        <v>204</v>
+      </c>
+      <c r="F1" s="41" t="s">
+        <v>193</v>
+      </c>
+      <c r="G1" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="I1" s="41" t="s">
+        <v>179</v>
+      </c>
+      <c r="J1" s="41" t="s">
+        <v>157</v>
+      </c>
+      <c r="K1" s="41" t="s">
+        <v>156</v>
+      </c>
+      <c r="L1" s="41" t="s">
+        <v>156</v>
+      </c>
+      <c r="M1" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="N1" s="41" t="s">
+        <v>174</v>
+      </c>
+      <c r="O1" s="41" t="s">
         <v>181</v>
       </c>
-      <c r="G1" s="30" t="s">
-        <v>121</v>
-      </c>
-      <c r="I1" s="30" t="s">
-        <v>167</v>
-      </c>
-      <c r="J1" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="K1" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="L1" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="M1" s="30" t="s">
-        <v>168</v>
-      </c>
-      <c r="N1" s="30" t="s">
-        <v>163</v>
-      </c>
-      <c r="O1" s="30" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q1" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="R1" s="30" t="s">
-        <v>163</v>
-      </c>
-      <c r="S1" s="30" t="s">
-        <v>191</v>
-      </c>
-      <c r="T1" s="30" t="s">
-        <v>192</v>
-      </c>
-      <c r="U1" s="30" t="s">
-        <v>118</v>
-      </c>
-      <c r="V1" s="30" t="s">
-        <v>193</v>
-      </c>
-      <c r="W1" s="30" t="s">
-        <v>194</v>
-      </c>
-      <c r="X1" s="30" t="s">
-        <v>119</v>
-      </c>
-      <c r="Y1" s="30" t="s">
-        <v>195</v>
-      </c>
-      <c r="Z1" s="30" t="s">
-        <v>196</v>
-      </c>
-      <c r="AA1" s="30" t="s">
-        <v>197</v>
-      </c>
-      <c r="AB1" s="30" t="s">
-        <v>285</v>
+      <c r="Q1" s="41" t="s">
+        <v>157</v>
+      </c>
+      <c r="R1" s="41" t="s">
+        <v>174</v>
+      </c>
+      <c r="S1" s="41" t="s">
+        <v>204</v>
+      </c>
+      <c r="T1" s="41" t="s">
+        <v>205</v>
+      </c>
+      <c r="U1" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="V1" s="41" t="s">
+        <v>206</v>
+      </c>
+      <c r="W1" s="41" t="s">
+        <v>207</v>
+      </c>
+      <c r="X1" s="41" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y1" s="41" t="s">
+        <v>208</v>
+      </c>
+      <c r="Z1" s="41" t="s">
+        <v>209</v>
+      </c>
+      <c r="AA1" s="41" t="s">
+        <v>210</v>
+      </c>
+      <c r="AB1" s="41" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="B2" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="C2" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="I2" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="J2" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="K2" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="L2" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="M2" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="N2" t="s">
-        <v>166</v>
-      </c>
-      <c r="O2">
+        <v>178</v>
+      </c>
+      <c r="O2" s="4">
         <f>Base!C67</f>
         <v>3777.7777777777783</v>
       </c>
-      <c r="Q2" s="31" t="s">
-        <v>154</v>
-      </c>
-      <c r="R2" s="31" t="s">
-        <v>166</v>
-      </c>
-      <c r="S2" s="31"/>
-      <c r="T2" s="32">
+      <c r="Q2" s="42" t="s">
+        <v>165</v>
+      </c>
+      <c r="R2" s="42" t="s">
+        <v>178</v>
+      </c>
+      <c r="S2" s="42"/>
+      <c r="T2" s="43">
         <f>Base!B15</f>
         <v>2</v>
       </c>
-      <c r="U2" s="31">
+      <c r="U2" s="44">
         <f>Base!C65</f>
-        <v>2.3561643835616444</v>
-      </c>
-      <c r="V2" s="31">
+        <v>2.3561643835616439</v>
+      </c>
+      <c r="V2" s="42">
         <v>0</v>
       </c>
-      <c r="W2" s="31" t="s">
-        <v>198</v>
-      </c>
-      <c r="X2" s="31">
+      <c r="W2" s="42" t="s">
+        <v>212</v>
+      </c>
+      <c r="X2" s="42">
         <f>Base!C66</f>
         <v>23994000</v>
       </c>
-      <c r="Y2" s="31" t="s">
-        <v>199</v>
-      </c>
-      <c r="Z2" s="31">
-        <f>U2*Base!B14</f>
-        <v>73.041095890410972</v>
-      </c>
-      <c r="AA2" s="31" t="s">
-        <v>200</v>
-      </c>
-      <c r="AB2" s="31"/>
+      <c r="Y2" s="42" t="s">
+        <v>213</v>
+      </c>
+      <c r="Z2" s="42"/>
+      <c r="AA2" s="42"/>
+      <c r="AB2" s="42"/>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="B3" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="C3" t="s">
-        <v>157</v>
-      </c>
-      <c r="I3" s="31" t="s">
-        <v>172</v>
-      </c>
-      <c r="J3" s="31" t="s">
-        <v>154</v>
-      </c>
-      <c r="K3" s="31" t="s">
-        <v>157</v>
-      </c>
-      <c r="L3" s="31" t="s">
-        <v>151</v>
-      </c>
-      <c r="M3" s="31" t="s">
-        <v>175</v>
-      </c>
-      <c r="N3" s="31" t="s">
-        <v>166</v>
-      </c>
-      <c r="O3" s="31">
+        <v>168</v>
+      </c>
+      <c r="I3" s="42" t="s">
+        <v>184</v>
+      </c>
+      <c r="J3" s="42" t="s">
+        <v>165</v>
+      </c>
+      <c r="K3" s="42" t="s">
+        <v>168</v>
+      </c>
+      <c r="L3" s="42" t="s">
+        <v>162</v>
+      </c>
+      <c r="M3" s="42" t="s">
+        <v>187</v>
+      </c>
+      <c r="N3" s="42" t="s">
+        <v>178</v>
+      </c>
+      <c r="O3" s="45">
         <f>Base!C68</f>
         <v>2266.666666666667</v>
       </c>
-      <c r="Q3" s="33" t="s">
-        <v>159</v>
-      </c>
-      <c r="R3" s="33" t="s">
-        <v>166</v>
-      </c>
-      <c r="S3" s="33" t="b">
+      <c r="Q3" s="46" t="s">
+        <v>170</v>
+      </c>
+      <c r="R3" s="46" t="s">
+        <v>178</v>
+      </c>
+      <c r="S3" s="46" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="T3" s="34"/>
-      <c r="U3" s="33"/>
-      <c r="V3" s="33"/>
-      <c r="W3" s="33"/>
-      <c r="X3" s="33"/>
-      <c r="Y3" s="33"/>
-      <c r="Z3" s="33"/>
-      <c r="AA3" s="33"/>
-      <c r="AB3" s="33"/>
+      <c r="T3" s="47"/>
+      <c r="U3" s="48"/>
+      <c r="V3" s="46"/>
+      <c r="W3" s="46"/>
+      <c r="X3" s="46"/>
+      <c r="Y3" s="46"/>
+      <c r="Z3" s="46"/>
+      <c r="AA3" s="46"/>
+      <c r="AB3" s="46"/>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="B4" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="C4" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="D4" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F4" s="7">
         <f>Base!B14</f>
         <v>31</v>
       </c>
-      <c r="G4" s="19">
+      <c r="G4" s="28">
         <f>Base!C69</f>
         <v>5.5</v>
       </c>
-      <c r="I4" s="33" t="s">
-        <v>172</v>
-      </c>
-      <c r="J4" s="33" t="s">
-        <v>159</v>
-      </c>
-      <c r="K4" s="33" t="s">
-        <v>150</v>
-      </c>
-      <c r="L4" s="33" t="s">
-        <v>151</v>
-      </c>
-      <c r="M4" s="33" t="s">
-        <v>175</v>
+      <c r="I4" s="46" t="s">
+        <v>184</v>
+      </c>
+      <c r="J4" s="46" t="s">
+        <v>170</v>
+      </c>
+      <c r="K4" s="46" t="s">
+        <v>161</v>
+      </c>
+      <c r="L4" s="46" t="s">
+        <v>162</v>
+      </c>
+      <c r="M4" s="46" t="s">
+        <v>187</v>
       </c>
       <c r="N4" t="s">
-        <v>202</v>
-      </c>
-      <c r="O4" s="33">
+        <v>215</v>
+      </c>
+      <c r="O4" s="49">
         <f>Base!C73</f>
         <v>4111.1111111111113</v>
       </c>
-      <c r="Q4" s="31" t="s">
-        <v>159</v>
-      </c>
-      <c r="R4" s="31" t="s">
-        <v>202</v>
-      </c>
-      <c r="S4" s="31" t="b">
+      <c r="Q4" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="R4" s="42" t="s">
+        <v>215</v>
+      </c>
+      <c r="S4" s="42" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="T4" s="32">
+      <c r="T4" s="43">
         <f>T2</f>
         <v>2</v>
       </c>
-      <c r="U4" s="31">
+      <c r="U4" s="44">
         <f>Base!C71</f>
         <v>2.2972602739726029</v>
       </c>
-      <c r="V4" s="31">
+      <c r="V4" s="42">
         <v>0</v>
       </c>
-      <c r="W4" s="31" t="s">
-        <v>198</v>
-      </c>
-      <c r="X4" s="31">
+      <c r="W4" s="42" t="s">
+        <v>212</v>
+      </c>
+      <c r="X4" s="42">
         <f>Base!C72</f>
         <v>23354160</v>
       </c>
-      <c r="Y4" s="31" t="s">
-        <v>199</v>
-      </c>
-      <c r="Z4" s="31">
-        <f>U4*Base!B14</f>
-        <v>71.215068493150696</v>
-      </c>
-      <c r="AA4" s="31" t="s">
-        <v>203</v>
-      </c>
-      <c r="AB4" s="31"/>
+      <c r="Y4" s="42" t="s">
+        <v>213</v>
+      </c>
+      <c r="Z4" s="42"/>
+      <c r="AA4" s="42"/>
+      <c r="AB4" s="42"/>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="B5" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="C5" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="D5" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="E5" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="I5" s="31" t="s">
-        <v>172</v>
-      </c>
-      <c r="J5" s="31" t="s">
-        <v>159</v>
-      </c>
-      <c r="K5" s="31" t="s">
-        <v>157</v>
-      </c>
-      <c r="L5" s="31" t="s">
-        <v>151</v>
-      </c>
-      <c r="M5" s="31" t="s">
-        <v>175</v>
-      </c>
-      <c r="N5" s="31" t="s">
-        <v>202</v>
-      </c>
-      <c r="O5" s="31">
+      <c r="I5" s="42" t="s">
+        <v>184</v>
+      </c>
+      <c r="J5" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="K5" s="42" t="s">
+        <v>168</v>
+      </c>
+      <c r="L5" s="42" t="s">
+        <v>162</v>
+      </c>
+      <c r="M5" s="42" t="s">
+        <v>187</v>
+      </c>
+      <c r="N5" s="42" t="s">
+        <v>215</v>
+      </c>
+      <c r="O5" s="45">
         <f>Base!C74</f>
         <v>2466.6666666666665</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="B6" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="C6" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="D6" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="E6" t="b">
         <f>FALSE()</f>
@@ -7261,84 +8155,86 @@
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="B7" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="C7" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="D7" t="s">
-        <v>204</v>
-      </c>
-      <c r="F7">
+        <v>216</v>
+      </c>
+      <c r="F7" s="7">
+        <f>F4</f>
         <v>31</v>
       </c>
-      <c r="G7" s="19">
+      <c r="G7" s="28">
+        <f>G4</f>
         <v>5.5</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A8" s="33" t="s">
-        <v>171</v>
-      </c>
-      <c r="B8" s="33" t="s">
-        <v>159</v>
-      </c>
-      <c r="C8" s="33" t="s">
-        <v>151</v>
-      </c>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
+      <c r="A8" s="46" t="s">
+        <v>183</v>
+      </c>
+      <c r="B8" s="46" t="s">
+        <v>170</v>
+      </c>
+      <c r="C8" s="46" t="s">
+        <v>162</v>
+      </c>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="B9" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="C9" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="B10" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="C10" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="D10" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F10" s="7">
         <f>Base!B14</f>
         <v>31</v>
       </c>
-      <c r="G10" s="19">
+      <c r="G10" s="28">
         <f>Base!C75</f>
-        <v>5.7520661157024806</v>
+        <v>5.7520661157024797</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="B11" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="C11" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="D11" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="E11" t="b">
         <f>FALSE()</f>
@@ -7347,16 +8243,16 @@
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="B12" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="C12" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="D12" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="E12" t="b">
         <f>FALSE()</f>
@@ -7364,25 +8260,35 @@
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A13" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="B13" s="31" t="s">
-        <v>159</v>
-      </c>
-      <c r="C13" s="31" t="s">
-        <v>156</v>
-      </c>
-      <c r="D13" s="31" t="s">
-        <v>204</v>
-      </c>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31">
+      <c r="A13" t="s">
+        <v>188</v>
+      </c>
+      <c r="B13" t="s">
+        <v>170</v>
+      </c>
+      <c r="C13" t="s">
+        <v>167</v>
+      </c>
+      <c r="D13" t="s">
+        <v>216</v>
+      </c>
+      <c r="F13" s="7">
+        <f>F10</f>
         <v>31</v>
       </c>
-      <c r="G13" s="35">
-        <v>5.0999999999999996</v>
-      </c>
+      <c r="G13" s="28">
+        <f>G10</f>
+        <v>5.7520661157024797</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A14" s="46"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -7393,79 +8299,79 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" customWidth="1"/>
-    <col min="3" max="3" width="21.5703125" customWidth="1"/>
-    <col min="4" max="4" width="22" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="B1" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="C1" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="D1" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="B2" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="C2" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="D2" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="B3" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="C3" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="D3" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="B4" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="C4" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="D4" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="B5">
         <f>UtilityUnit_generator!T2</f>
@@ -7480,7 +8386,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -7491,29 +8397,23 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -7521,7 +8421,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -7529,7 +8429,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -7537,7 +8437,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -7545,9 +8445,33 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="C13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>223</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>199</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>224</v>
+      </c>
+      <c r="C16">
         <v>0</v>
       </c>
     </row>

--- a/InputData/PlatformOperation.xlsx
+++ b/InputData/PlatformOperation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\PhD project\Products\Models\OffPlatfEner\InputData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26CDB6EB-5C14-446D-B7BF-DFA9E5B3FC91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9E217E2-A335-4DBD-B2AD-10EC3AAC85A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="661" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="661" firstSheet="7" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -586,7 +586,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="306">
   <si>
     <t>Specification document (open access)</t>
   </si>
@@ -1155,18 +1155,6 @@
     <t>unit__to_node</t>
   </si>
   <si>
-    <t>object_class_1</t>
-  </si>
-  <si>
-    <t>object_name_1</t>
-  </si>
-  <si>
-    <t>object_class_2</t>
-  </si>
-  <si>
-    <t>object_name_2</t>
-  </si>
-  <si>
     <t>unit_capacity</t>
   </si>
   <si>
@@ -1194,9 +1182,6 @@
     <t>fix_ratio_in_out_unit_flow</t>
   </si>
   <si>
-    <t>object_name</t>
-  </si>
-  <si>
     <t>TSdevelopmentPersonnel_1</t>
   </si>
   <si>
@@ -1495,6 +1480,30 @@
   </si>
   <si>
     <t>node_slack_penalty</t>
+  </si>
+  <si>
+    <t>entity_class</t>
+  </si>
+  <si>
+    <t>entity_class_3D</t>
+  </si>
+  <si>
+    <t>entity_class_2D</t>
+  </si>
+  <si>
+    <t>entity_name</t>
+  </si>
+  <si>
+    <t>dimension_1</t>
+  </si>
+  <si>
+    <t>entity_name_1</t>
+  </si>
+  <si>
+    <t>dimension_2</t>
+  </si>
+  <si>
+    <t>entity_name_2</t>
   </si>
 </sst>
 </file>
@@ -1677,12 +1686,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1691,9 +1700,9 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
@@ -1711,9 +1720,7 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="169" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1725,16 +1732,15 @@
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1744,7 +1750,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
@@ -1836,9 +1842,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1876,7 +1882,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1982,7 +1988,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2124,7 +2130,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2903,13 +2909,13 @@
       <c r="F36" t="s">
         <v>82</v>
       </c>
-      <c r="G36" s="29" t="s">
+      <c r="G36" t="s">
         <v>83</v>
       </c>
       <c r="I36" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="J36" s="30" t="s">
+      <c r="J36" t="s">
         <v>85</v>
       </c>
     </row>
@@ -2933,138 +2939,138 @@
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="31" t="s">
+      <c r="A39" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="B39" s="31" t="s">
+      <c r="B39" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="C39" s="31" t="s">
+      <c r="C39" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="D39" s="31" t="s">
+      <c r="D39" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="E39" s="31" t="s">
+      <c r="E39" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="F39" s="31" t="s">
+      <c r="F39" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="G39" s="31" t="s">
+      <c r="G39" s="29" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" s="31" t="s">
+      <c r="A40" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="B40" s="31"/>
-      <c r="C40" s="31"/>
-      <c r="D40" s="31"/>
-      <c r="E40" s="31"/>
-      <c r="F40" s="31"/>
-      <c r="G40" s="31"/>
+      <c r="B40" s="29"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="29"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="31" t="s">
+      <c r="A41" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="B41" s="31">
+      <c r="B41" s="29">
         <v>12.5</v>
       </c>
-      <c r="C41" s="31">
+      <c r="C41" s="29">
         <v>13.9</v>
       </c>
-      <c r="D41" s="31">
+      <c r="D41" s="29">
         <v>14.6</v>
       </c>
-      <c r="E41" s="32">
+      <c r="E41" s="30">
         <f>C41-B41</f>
         <v>1.4000000000000004</v>
       </c>
-      <c r="F41" s="32">
+      <c r="F41" s="30">
         <f>D41-C41</f>
         <v>0.69999999999999929</v>
       </c>
-      <c r="G41" s="32">
+      <c r="G41" s="30">
         <f>D41-B41</f>
         <v>2.0999999999999996</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="31" t="s">
+      <c r="A42" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="B42" s="31">
+      <c r="B42" s="29">
         <v>1.7</v>
       </c>
-      <c r="C42" s="31">
+      <c r="C42" s="29">
         <v>1.9</v>
       </c>
-      <c r="D42" s="31">
+      <c r="D42" s="29">
         <v>2.2999999999999998</v>
       </c>
-      <c r="E42" s="32">
+      <c r="E42" s="30">
         <f>C42-B42</f>
         <v>0.19999999999999996</v>
       </c>
-      <c r="F42" s="32">
+      <c r="F42" s="30">
         <f>D42-C42</f>
         <v>0.39999999999999991</v>
       </c>
-      <c r="G42" s="32">
+      <c r="G42" s="30">
         <f>D42-B42</f>
         <v>0.59999999999999987</v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A43" s="31" t="s">
+      <c r="A43" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="B43" s="31">
+      <c r="B43" s="29">
         <v>2</v>
       </c>
-      <c r="C43" s="31">
+      <c r="C43" s="29">
         <v>2</v>
       </c>
-      <c r="D43" s="31">
+      <c r="D43" s="29">
         <v>2</v>
       </c>
-      <c r="E43" s="32"/>
-      <c r="F43" s="32"/>
-      <c r="G43" s="32"/>
-      <c r="J43" s="33"/>
-      <c r="K43" s="34"/>
-      <c r="L43" s="34"/>
-      <c r="M43" s="34"/>
-      <c r="N43" s="34"/>
-      <c r="O43" s="34"/>
-      <c r="P43" s="34"/>
-      <c r="R43" s="34"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="30"/>
+      <c r="J43" s="31"/>
+      <c r="K43" s="32"/>
+      <c r="L43" s="32"/>
+      <c r="M43" s="32"/>
+      <c r="N43" s="32"/>
+      <c r="O43" s="32"/>
+      <c r="P43" s="32"/>
+      <c r="R43" s="32"/>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A44" s="31" t="s">
+      <c r="A44" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="B44" s="31">
+      <c r="B44" s="29">
         <v>16.2</v>
       </c>
-      <c r="C44" s="31">
+      <c r="C44" s="29">
         <v>17.8</v>
       </c>
-      <c r="D44" s="31">
+      <c r="D44" s="29">
         <v>18.899999999999999</v>
       </c>
-      <c r="E44" s="32">
+      <c r="E44" s="30">
         <f>C44-B44</f>
         <v>1.6000000000000014</v>
       </c>
-      <c r="F44" s="32">
+      <c r="F44" s="30">
         <f>D44-C44</f>
         <v>1.0999999999999979</v>
       </c>
-      <c r="G44" s="32">
+      <c r="G44" s="30">
         <f>D44-B44</f>
         <v>2.6999999999999993</v>
       </c>
@@ -3077,99 +3083,99 @@
       <c r="R44" s="25"/>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A45" s="31"/>
-      <c r="B45" s="31"/>
-      <c r="C45" s="31"/>
-      <c r="D45" s="31"/>
-      <c r="E45" s="32"/>
-      <c r="F45" s="32"/>
-      <c r="G45" s="32"/>
+      <c r="A45" s="29"/>
+      <c r="B45" s="29"/>
+      <c r="C45" s="29"/>
+      <c r="D45" s="29"/>
+      <c r="E45" s="30"/>
+      <c r="F45" s="30"/>
+      <c r="G45" s="30"/>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" s="31" t="s">
+      <c r="A46" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="B46" s="31"/>
-      <c r="C46" s="31"/>
-      <c r="D46" s="31"/>
-      <c r="E46" s="32"/>
-      <c r="F46" s="32"/>
-      <c r="G46" s="32"/>
+      <c r="B46" s="29"/>
+      <c r="C46" s="29"/>
+      <c r="D46" s="29"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="30"/>
+      <c r="G46" s="30"/>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47" s="31" t="s">
+      <c r="A47" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="B47" s="32">
+      <c r="B47" s="30">
         <v>27.02</v>
       </c>
-      <c r="C47" s="32">
+      <c r="C47" s="30">
         <v>31.888000000000002</v>
       </c>
-      <c r="D47" s="32">
+      <c r="D47" s="30">
         <v>33.588000000000001</v>
       </c>
-      <c r="E47" s="32">
+      <c r="E47" s="30">
         <f t="shared" ref="E47:F49" si="0">C47-B47</f>
         <v>4.8680000000000021</v>
       </c>
-      <c r="F47" s="32">
+      <c r="F47" s="30">
         <f t="shared" si="0"/>
         <v>1.6999999999999993</v>
       </c>
-      <c r="G47" s="32">
+      <c r="G47" s="30">
         <f>D47-B47</f>
         <v>6.5680000000000014</v>
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A48" s="31" t="s">
+      <c r="A48" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="B48" s="32">
+      <c r="B48" s="30">
         <v>3.3660000000000001</v>
       </c>
-      <c r="C48" s="32">
+      <c r="C48" s="30">
         <v>3.7559999999999998</v>
       </c>
-      <c r="D48" s="32">
+      <c r="D48" s="30">
         <v>3.8879999999999999</v>
       </c>
-      <c r="E48" s="32">
+      <c r="E48" s="30">
         <f t="shared" si="0"/>
         <v>0.38999999999999968</v>
       </c>
-      <c r="F48" s="32">
+      <c r="F48" s="30">
         <f t="shared" si="0"/>
         <v>0.13200000000000012</v>
       </c>
-      <c r="G48" s="32">
+      <c r="G48" s="30">
         <f>D48-B48</f>
         <v>0.5219999999999998</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="31" t="s">
+      <c r="A49" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="B49" s="32">
+      <c r="B49" s="30">
         <v>30.385999999999999</v>
       </c>
-      <c r="C49" s="32">
+      <c r="C49" s="30">
         <v>35.643999999999998</v>
       </c>
-      <c r="D49" s="32">
+      <c r="D49" s="30">
         <v>37.475999999999999</v>
       </c>
-      <c r="E49" s="32">
+      <c r="E49" s="30">
         <f t="shared" si="0"/>
         <v>5.2579999999999991</v>
       </c>
-      <c r="F49" s="32">
+      <c r="F49" s="30">
         <f t="shared" si="0"/>
         <v>1.8320000000000007</v>
       </c>
-      <c r="G49" s="35">
+      <c r="G49" s="33">
         <f>D49-B49</f>
         <v>7.09</v>
       </c>
@@ -3206,7 +3212,7 @@
       <c r="B53" t="s">
         <v>108</v>
       </c>
-      <c r="C53" s="36">
+      <c r="C53" s="34">
         <f>B34/L10/10^6</f>
         <v>1.0434375000000001E-3</v>
       </c>
@@ -3218,7 +3224,7 @@
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C54" s="36">
+      <c r="C54" s="34">
         <f>B35/L8/10^6</f>
         <v>0.58125000000000004</v>
       </c>
@@ -3231,7 +3237,7 @@
       <c r="G54" s="4"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C55" s="37">
+      <c r="C55" s="35">
         <f>SUM(C53:C54)</f>
         <v>0.58229343750000007</v>
       </c>
@@ -3246,7 +3252,7 @@
       <c r="B56" t="s">
         <v>113</v>
       </c>
-      <c r="C56" s="37">
+      <c r="C56" s="35">
         <f>C53/C55</f>
         <v>1.7919444609918002E-3</v>
       </c>
@@ -3255,7 +3261,7 @@
       <c r="B57" t="s">
         <v>114</v>
       </c>
-      <c r="C57" s="37">
+      <c r="C57" s="35">
         <f>C54/C55</f>
         <v>0.99820805553900815</v>
       </c>
@@ -3413,7 +3419,7 @@
       <c r="B69" t="s">
         <v>132</v>
       </c>
-      <c r="C69" s="38">
+      <c r="C69" s="36">
         <f>B26</f>
         <v>5.5</v>
       </c>
@@ -3422,7 +3428,7 @@
       <c r="B70" t="s">
         <v>133</v>
       </c>
-      <c r="C70" s="39">
+      <c r="C70" s="37">
         <f>1-SUM(B31,B29)</f>
         <v>0.92246575342465753</v>
       </c>
@@ -3485,7 +3491,7 @@
       <c r="B75" t="s">
         <v>132</v>
       </c>
-      <c r="C75" s="38">
+      <c r="C75" s="36">
         <f>D26</f>
         <v>5.7520661157024797</v>
       </c>
@@ -3494,7 +3500,7 @@
       <c r="B76" t="s">
         <v>133</v>
       </c>
-      <c r="C76" s="39">
+      <c r="C76" s="37">
         <f>1-SUM(E29,E31)</f>
         <v>0.93205479452054796</v>
       </c>
@@ -3520,7 +3526,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3540,7 +3548,7 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>179</v>
+        <v>300</v>
       </c>
       <c r="B1" t="s">
         <v>157</v>
@@ -3549,7 +3557,7 @@
         <v>156</v>
       </c>
       <c r="E1" t="s">
-        <v>179</v>
+        <v>299</v>
       </c>
       <c r="F1" t="s">
         <v>157</v>
@@ -3558,7 +3566,7 @@
         <v>156</v>
       </c>
       <c r="H1" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="I1" t="s">
         <v>180</v>
@@ -3570,16 +3578,16 @@
         <v>181</v>
       </c>
       <c r="M1" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="N1" t="s">
         <v>174</v>
       </c>
       <c r="O1" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="P1" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -3593,7 +3601,7 @@
         <v>162</v>
       </c>
       <c r="E2" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="F2" t="s">
         <v>166</v>
@@ -3602,10 +3610,10 @@
         <v>162</v>
       </c>
       <c r="H2" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="I2" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="J2" t="s">
         <v>178</v>
@@ -3614,13 +3622,13 @@
         <v>-1</v>
       </c>
       <c r="M2" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="N2" t="s">
         <v>178</v>
       </c>
       <c r="O2" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -3628,7 +3636,7 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="F3" t="s">
         <v>160</v>
@@ -3637,10 +3645,10 @@
         <v>162</v>
       </c>
       <c r="H3" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="I3" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="J3" t="s">
         <v>178</v>
@@ -3658,10 +3666,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:AC6"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:R8"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3693,15 +3701,15 @@
     <col min="32" max="32" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>155</v>
+        <v>298</v>
       </c>
       <c r="B1" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C1" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="E1" t="s">
         <v>156</v>
@@ -3710,20 +3718,19 @@
         <v>174</v>
       </c>
       <c r="G1" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="H1" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="I1" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="J1" t="s">
-        <v>200</v>
-      </c>
-      <c r="AC1" s="50"/>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>156</v>
       </c>
@@ -3737,14 +3744,14 @@
         <v>167</v>
       </c>
       <c r="F2" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="G2" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>156</v>
       </c>
@@ -3758,30 +3765,30 @@
         <v>171</v>
       </c>
       <c r="F3" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="G3" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
         <v>167</v>
       </c>
       <c r="F4" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="H4" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E5" t="s">
         <v>171</v>
       </c>
       <c r="F5" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="I5" t="b">
         <f>TRUE()</f>
@@ -3792,7 +3799,7 @@
         <v>7.09</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
         <v>161</v>
       </c>
@@ -3807,8 +3814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3830,7 +3837,7 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>179</v>
+        <v>300</v>
       </c>
       <c r="B1" t="s">
         <v>157</v>
@@ -3866,7 +3873,7 @@
         <v>174</v>
       </c>
       <c r="O1" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -3905,7 +3912,7 @@
         <v>172</v>
       </c>
       <c r="N2" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="O2">
         <v>83.03</v>
@@ -3970,7 +3977,7 @@
         <v>187</v>
       </c>
       <c r="J4" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="K4">
         <f>Base!E37</f>
@@ -4014,7 +4021,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>155</v>
+        <v>298</v>
       </c>
       <c r="B1" t="s">
         <v>156</v>
@@ -4043,7 +4050,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>202</v>
+        <v>301</v>
       </c>
       <c r="B2" t="s">
         <v>172</v>
@@ -4075,28 +4082,28 @@
         <v>180</v>
       </c>
       <c r="B3" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C3" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D3" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="E3" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="F3" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="G3" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="H3" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="I3" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -4104,167 +4111,167 @@
         <v>174</v>
       </c>
       <c r="B4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C4" t="s">
+        <v>236</v>
+      </c>
+      <c r="D4" t="s">
+        <v>237</v>
+      </c>
+      <c r="E4" t="s">
+        <v>238</v>
+      </c>
+      <c r="F4" t="s">
+        <v>239</v>
+      </c>
+      <c r="G4" t="s">
         <v>240</v>
       </c>
-      <c r="C4" t="s">
+      <c r="H4" t="s">
         <v>241</v>
       </c>
-      <c r="D4" t="s">
+      <c r="I4" t="s">
         <v>242</v>
-      </c>
-      <c r="E4" t="s">
-        <v>243</v>
-      </c>
-      <c r="F4" t="s">
-        <v>244</v>
-      </c>
-      <c r="G4" t="s">
-        <v>245</v>
-      </c>
-      <c r="H4" t="s">
-        <v>246</v>
-      </c>
-      <c r="I4" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>194</v>
-      </c>
-      <c r="B5" s="51">
+        <v>190</v>
+      </c>
+      <c r="B5" s="48">
         <v>0</v>
       </c>
-      <c r="C5" s="51">
+      <c r="C5" s="48">
         <v>0</v>
       </c>
-      <c r="D5" s="51">
+      <c r="D5" s="48">
         <v>0</v>
       </c>
-      <c r="E5" s="51">
+      <c r="E5" s="48">
         <v>0</v>
       </c>
-      <c r="F5" s="51">
+      <c r="F5" s="48">
         <v>0</v>
       </c>
-      <c r="G5" s="51">
+      <c r="G5" s="48">
         <v>0</v>
       </c>
-      <c r="H5" s="51">
+      <c r="H5" s="48">
         <v>0</v>
       </c>
-      <c r="I5" s="51">
+      <c r="I5" s="48">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>248</v>
-      </c>
-      <c r="B6" s="51">
+        <v>243</v>
+      </c>
+      <c r="B6" s="48">
         <v>47.96</v>
       </c>
-      <c r="C6" s="51">
+      <c r="C6" s="48">
         <v>47.96</v>
       </c>
-      <c r="D6" s="51">
+      <c r="D6" s="48">
         <v>47.96</v>
       </c>
-      <c r="E6" s="51">
+      <c r="E6" s="48">
         <v>47.96</v>
       </c>
-      <c r="F6" s="51">
+      <c r="F6" s="48">
         <v>47.96</v>
       </c>
-      <c r="G6" s="51">
+      <c r="G6" s="48">
         <v>47.96</v>
       </c>
-      <c r="H6" s="51">
+      <c r="H6" s="48">
         <v>47.96</v>
       </c>
-      <c r="I6" s="51">
+      <c r="I6" s="48">
         <v>47.96</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>249</v>
-      </c>
-      <c r="B7" s="51">
+        <v>244</v>
+      </c>
+      <c r="B7" s="48">
         <v>52.56</v>
       </c>
-      <c r="C7" s="51">
+      <c r="C7" s="48">
         <v>52.56</v>
       </c>
-      <c r="D7" s="51">
+      <c r="D7" s="48">
         <v>52.56</v>
       </c>
-      <c r="E7" s="51">
+      <c r="E7" s="48">
         <v>52.56</v>
       </c>
-      <c r="F7" s="51">
+      <c r="F7" s="48">
         <v>52.56</v>
       </c>
-      <c r="G7" s="51">
+      <c r="G7" s="48">
         <v>52.56</v>
       </c>
-      <c r="H7" s="51">
+      <c r="H7" s="48">
         <v>52.56</v>
       </c>
-      <c r="I7" s="51">
+      <c r="I7" s="48">
         <v>52.56</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>250</v>
-      </c>
-      <c r="B8" s="51">
+        <v>245</v>
+      </c>
+      <c r="B8" s="48">
         <v>83.03</v>
       </c>
-      <c r="C8" s="51">
+      <c r="C8" s="48">
         <v>83.03</v>
       </c>
-      <c r="D8" s="51">
+      <c r="D8" s="48">
         <v>83.03</v>
       </c>
-      <c r="E8" s="51">
+      <c r="E8" s="48">
         <v>83.03</v>
       </c>
-      <c r="F8" s="51">
+      <c r="F8" s="48">
         <v>83.03</v>
       </c>
-      <c r="G8" s="51">
+      <c r="G8" s="48">
         <v>83.03</v>
       </c>
-      <c r="H8" s="51">
+      <c r="H8" s="48">
         <v>83.03</v>
       </c>
-      <c r="I8" s="51">
+      <c r="I8" s="48">
         <v>83.03</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>251</v>
-      </c>
-      <c r="B9" s="51">
+        <v>246</v>
+      </c>
+      <c r="B9" s="48">
         <f>B8</f>
         <v>83.03</v>
       </c>
-      <c r="C9" s="53">
+      <c r="C9" s="50">
         <f t="shared" ref="C9:C55" si="0">C8*(1+0.01)</f>
         <v>83.860299999999995</v>
       </c>
-      <c r="D9" s="53">
+      <c r="D9" s="50">
         <f t="shared" ref="D9:D55" si="1">D8*(1+0.05)</f>
         <v>87.1815</v>
       </c>
-      <c r="E9" s="53">
+      <c r="E9" s="50">
         <f t="shared" ref="E9:E55" si="2">E8*(1+0.075)</f>
         <v>89.257249999999999</v>
       </c>
-      <c r="F9" s="53">
+      <c r="F9" s="50">
         <f t="shared" ref="F9:F55" si="3">F8*(1+0.1)</f>
         <v>91.333000000000013</v>
       </c>
@@ -4283,25 +4290,25 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>219</v>
-      </c>
-      <c r="B10" s="51">
+        <v>214</v>
+      </c>
+      <c r="B10" s="48">
         <f t="shared" ref="B10:B55" si="7">B9</f>
         <v>83.03</v>
       </c>
-      <c r="C10" s="53">
+      <c r="C10" s="50">
         <f t="shared" si="0"/>
         <v>84.698903000000001</v>
       </c>
-      <c r="D10" s="53">
+      <c r="D10" s="50">
         <f t="shared" si="1"/>
         <v>91.540575000000004</v>
       </c>
-      <c r="E10" s="53">
+      <c r="E10" s="50">
         <f t="shared" si="2"/>
         <v>95.951543749999999</v>
       </c>
-      <c r="F10" s="53">
+      <c r="F10" s="50">
         <f t="shared" si="3"/>
         <v>100.46630000000002</v>
       </c>
@@ -4320,25 +4327,25 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>252</v>
-      </c>
-      <c r="B11" s="51">
+        <v>247</v>
+      </c>
+      <c r="B11" s="48">
         <f t="shared" si="7"/>
         <v>83.03</v>
       </c>
-      <c r="C11" s="53">
+      <c r="C11" s="50">
         <f t="shared" si="0"/>
         <v>85.545892030000005</v>
       </c>
-      <c r="D11" s="53">
+      <c r="D11" s="50">
         <f t="shared" si="1"/>
         <v>96.117603750000015</v>
       </c>
-      <c r="E11" s="53">
+      <c r="E11" s="50">
         <f t="shared" si="2"/>
         <v>103.14790953124999</v>
       </c>
-      <c r="F11" s="53">
+      <c r="F11" s="50">
         <f t="shared" si="3"/>
         <v>110.51293000000003</v>
       </c>
@@ -4357,25 +4364,25 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>253</v>
-      </c>
-      <c r="B12" s="51">
+        <v>248</v>
+      </c>
+      <c r="B12" s="48">
         <f t="shared" si="7"/>
         <v>83.03</v>
       </c>
-      <c r="C12" s="53">
+      <c r="C12" s="50">
         <f t="shared" si="0"/>
         <v>86.401350950299999</v>
       </c>
-      <c r="D12" s="53">
+      <c r="D12" s="50">
         <f t="shared" si="1"/>
         <v>100.92348393750002</v>
       </c>
-      <c r="E12" s="53">
+      <c r="E12" s="50">
         <f t="shared" si="2"/>
         <v>110.88400274609374</v>
       </c>
-      <c r="F12" s="53">
+      <c r="F12" s="50">
         <f t="shared" si="3"/>
         <v>121.56422300000004</v>
       </c>
@@ -4394,25 +4401,25 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>254</v>
-      </c>
-      <c r="B13" s="51">
+        <v>249</v>
+      </c>
+      <c r="B13" s="48">
         <f t="shared" si="7"/>
         <v>83.03</v>
       </c>
-      <c r="C13" s="53">
+      <c r="C13" s="50">
         <f t="shared" si="0"/>
         <v>87.265364459802996</v>
       </c>
-      <c r="D13" s="53">
+      <c r="D13" s="50">
         <f t="shared" si="1"/>
         <v>105.96965813437502</v>
       </c>
-      <c r="E13" s="53">
+      <c r="E13" s="50">
         <f t="shared" si="2"/>
         <v>119.20030295205076</v>
       </c>
-      <c r="F13" s="53">
+      <c r="F13" s="50">
         <f t="shared" si="3"/>
         <v>133.72064530000006</v>
       </c>
@@ -4431,25 +4438,25 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>255</v>
-      </c>
-      <c r="B14" s="51">
+        <v>250</v>
+      </c>
+      <c r="B14" s="48">
         <f t="shared" si="7"/>
         <v>83.03</v>
       </c>
-      <c r="C14" s="53">
+      <c r="C14" s="50">
         <f t="shared" si="0"/>
         <v>88.138018104401027</v>
       </c>
-      <c r="D14" s="53">
+      <c r="D14" s="50">
         <f t="shared" si="1"/>
         <v>111.26814104109378</v>
       </c>
-      <c r="E14" s="53">
+      <c r="E14" s="50">
         <f t="shared" si="2"/>
         <v>128.14032567345456</v>
       </c>
-      <c r="F14" s="53">
+      <c r="F14" s="50">
         <f t="shared" si="3"/>
         <v>147.09270983000008</v>
       </c>
@@ -4468,25 +4475,25 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>195</v>
-      </c>
-      <c r="B15" s="51">
+        <v>191</v>
+      </c>
+      <c r="B15" s="48">
         <f t="shared" si="7"/>
         <v>83.03</v>
       </c>
-      <c r="C15" s="53">
+      <c r="C15" s="50">
         <f t="shared" si="0"/>
         <v>89.019398285445035</v>
       </c>
-      <c r="D15" s="53">
+      <c r="D15" s="50">
         <f t="shared" si="1"/>
         <v>116.83154809314848</v>
       </c>
-      <c r="E15" s="53">
+      <c r="E15" s="50">
         <f t="shared" si="2"/>
         <v>137.75085009896364</v>
       </c>
-      <c r="F15" s="53">
+      <c r="F15" s="50">
         <f t="shared" si="3"/>
         <v>161.80198081300009</v>
       </c>
@@ -4505,25 +4512,25 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>256</v>
-      </c>
-      <c r="B16" s="51">
+        <v>251</v>
+      </c>
+      <c r="B16" s="48">
         <f t="shared" si="7"/>
         <v>83.03</v>
       </c>
-      <c r="C16" s="53">
+      <c r="C16" s="50">
         <f t="shared" si="0"/>
         <v>89.909592268299491</v>
       </c>
-      <c r="D16" s="53">
+      <c r="D16" s="50">
         <f t="shared" si="1"/>
         <v>122.67312549780591</v>
       </c>
-      <c r="E16" s="53">
+      <c r="E16" s="50">
         <f t="shared" si="2"/>
         <v>148.0821638563859</v>
       </c>
-      <c r="F16" s="53">
+      <c r="F16" s="50">
         <f t="shared" si="3"/>
         <v>177.98217889430012</v>
       </c>
@@ -4542,25 +4549,25 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>257</v>
-      </c>
-      <c r="B17" s="51">
+        <v>252</v>
+      </c>
+      <c r="B17" s="48">
         <f t="shared" si="7"/>
         <v>83.03</v>
       </c>
-      <c r="C17" s="53">
+      <c r="C17" s="50">
         <f t="shared" si="0"/>
         <v>90.80868819098248</v>
       </c>
-      <c r="D17" s="53">
+      <c r="D17" s="50">
         <f t="shared" si="1"/>
         <v>128.80678177269621</v>
       </c>
-      <c r="E17" s="53">
+      <c r="E17" s="50">
         <f t="shared" si="2"/>
         <v>159.18832614561484</v>
       </c>
-      <c r="F17" s="53">
+      <c r="F17" s="50">
         <f t="shared" si="3"/>
         <v>195.78039678373014</v>
       </c>
@@ -4579,25 +4586,25 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>258</v>
-      </c>
-      <c r="B18" s="51">
+        <v>253</v>
+      </c>
+      <c r="B18" s="48">
         <f t="shared" si="7"/>
         <v>83.03</v>
       </c>
-      <c r="C18" s="53">
+      <c r="C18" s="50">
         <f t="shared" si="0"/>
         <v>91.716775072892304</v>
       </c>
-      <c r="D18" s="53">
+      <c r="D18" s="50">
         <f t="shared" si="1"/>
         <v>135.24712086133104</v>
       </c>
-      <c r="E18" s="53">
+      <c r="E18" s="50">
         <f t="shared" si="2"/>
         <v>171.12745060653594</v>
       </c>
-      <c r="F18" s="53">
+      <c r="F18" s="50">
         <f t="shared" si="3"/>
         <v>215.35843646210319</v>
       </c>
@@ -4616,25 +4623,25 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>259</v>
-      </c>
-      <c r="B19" s="51">
+        <v>254</v>
+      </c>
+      <c r="B19" s="48">
         <f t="shared" si="7"/>
         <v>83.03</v>
       </c>
-      <c r="C19" s="53">
+      <c r="C19" s="50">
         <f t="shared" si="0"/>
         <v>92.633942823621226</v>
       </c>
-      <c r="D19" s="53">
+      <c r="D19" s="50">
         <f t="shared" si="1"/>
         <v>142.00947690439759</v>
       </c>
-      <c r="E19" s="53">
+      <c r="E19" s="50">
         <f t="shared" si="2"/>
         <v>183.96200940202613</v>
       </c>
-      <c r="F19" s="53">
+      <c r="F19" s="50">
         <f t="shared" si="3"/>
         <v>236.89428010831352</v>
       </c>
@@ -4652,26 +4659,26 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="54" t="s">
-        <v>220</v>
-      </c>
-      <c r="B20" s="51">
+      <c r="A20" s="51" t="s">
+        <v>215</v>
+      </c>
+      <c r="B20" s="48">
         <f t="shared" si="7"/>
         <v>83.03</v>
       </c>
-      <c r="C20" s="53">
+      <c r="C20" s="50">
         <f t="shared" si="0"/>
         <v>93.560282251857444</v>
       </c>
-      <c r="D20" s="53">
+      <c r="D20" s="50">
         <f t="shared" si="1"/>
         <v>149.10995074961747</v>
       </c>
-      <c r="E20" s="53">
+      <c r="E20" s="50">
         <f t="shared" si="2"/>
         <v>197.75916010717808</v>
       </c>
-      <c r="F20" s="53">
+      <c r="F20" s="50">
         <f t="shared" si="3"/>
         <v>260.58370811914489</v>
       </c>
@@ -4689,26 +4696,26 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="54" t="s">
-        <v>260</v>
-      </c>
-      <c r="B21" s="51">
+      <c r="A21" s="51" t="s">
+        <v>255</v>
+      </c>
+      <c r="B21" s="48">
         <f t="shared" si="7"/>
         <v>83.03</v>
       </c>
-      <c r="C21" s="53">
+      <c r="C21" s="50">
         <f t="shared" si="0"/>
         <v>94.495885074376019</v>
       </c>
-      <c r="D21" s="53">
+      <c r="D21" s="50">
         <f t="shared" si="1"/>
         <v>156.56544828709835</v>
       </c>
-      <c r="E21" s="53">
+      <c r="E21" s="50">
         <f t="shared" si="2"/>
         <v>212.59109711521643</v>
       </c>
-      <c r="F21" s="53">
+      <c r="F21" s="50">
         <f t="shared" si="3"/>
         <v>286.64207893105942</v>
       </c>
@@ -4726,26 +4733,26 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="54" t="s">
-        <v>261</v>
-      </c>
-      <c r="B22" s="51">
+      <c r="A22" s="51" t="s">
+        <v>256</v>
+      </c>
+      <c r="B22" s="48">
         <f t="shared" si="7"/>
         <v>83.03</v>
       </c>
-      <c r="C22" s="53">
+      <c r="C22" s="50">
         <f t="shared" si="0"/>
         <v>95.440843925119779</v>
       </c>
-      <c r="D22" s="53">
+      <c r="D22" s="50">
         <f t="shared" si="1"/>
         <v>164.39372070145328</v>
       </c>
-      <c r="E22" s="53">
+      <c r="E22" s="50">
         <f t="shared" si="2"/>
         <v>228.53542939885764</v>
       </c>
-      <c r="F22" s="53">
+      <c r="F22" s="50">
         <f t="shared" si="3"/>
         <v>315.3062868241654</v>
       </c>
@@ -4763,26 +4770,26 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="54" t="s">
-        <v>262</v>
-      </c>
-      <c r="B23" s="51">
+      <c r="A23" s="51" t="s">
+        <v>257</v>
+      </c>
+      <c r="B23" s="48">
         <f t="shared" si="7"/>
         <v>83.03</v>
       </c>
-      <c r="C23" s="53">
+      <c r="C23" s="50">
         <f t="shared" si="0"/>
         <v>96.395252364370975</v>
       </c>
-      <c r="D23" s="53">
+      <c r="D23" s="50">
         <f t="shared" si="1"/>
         <v>172.61340673652595</v>
       </c>
-      <c r="E23" s="53">
+      <c r="E23" s="50">
         <f t="shared" si="2"/>
         <v>245.67558660377196</v>
       </c>
-      <c r="F23" s="53">
+      <c r="F23" s="50">
         <f t="shared" si="3"/>
         <v>346.83691550658199</v>
       </c>
@@ -4800,26 +4807,26 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="54" t="s">
-        <v>263</v>
-      </c>
-      <c r="B24" s="51">
+      <c r="A24" s="51" t="s">
+        <v>258</v>
+      </c>
+      <c r="B24" s="48">
         <f t="shared" si="7"/>
         <v>83.03</v>
       </c>
-      <c r="C24" s="53">
+      <c r="C24" s="50">
         <f t="shared" si="0"/>
         <v>97.359204888014688</v>
       </c>
-      <c r="D24" s="53">
+      <c r="D24" s="50">
         <f t="shared" si="1"/>
         <v>181.24407707335226</v>
       </c>
-      <c r="E24" s="53">
+      <c r="E24" s="50">
         <f t="shared" si="2"/>
         <v>264.10125559905487</v>
       </c>
-      <c r="F24" s="53">
+      <c r="F24" s="50">
         <f t="shared" si="3"/>
         <v>381.52060705724023</v>
       </c>
@@ -4837,26 +4844,26 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="54" t="s">
-        <v>196</v>
-      </c>
-      <c r="B25" s="51">
+      <c r="A25" s="51" t="s">
+        <v>192</v>
+      </c>
+      <c r="B25" s="48">
         <f t="shared" si="7"/>
         <v>83.03</v>
       </c>
-      <c r="C25" s="53">
+      <c r="C25" s="50">
         <f t="shared" si="0"/>
         <v>98.332796936894837</v>
       </c>
-      <c r="D25" s="53">
+      <c r="D25" s="50">
         <f t="shared" si="1"/>
         <v>190.30628092701988</v>
       </c>
-      <c r="E25" s="53">
+      <c r="E25" s="50">
         <f t="shared" si="2"/>
         <v>283.90884976898394</v>
       </c>
-      <c r="F25" s="53">
+      <c r="F25" s="50">
         <f t="shared" si="3"/>
         <v>419.67266776296429</v>
       </c>
@@ -4874,26 +4881,26 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="54" t="s">
-        <v>264</v>
-      </c>
-      <c r="B26" s="51">
+      <c r="A26" s="51" t="s">
+        <v>259</v>
+      </c>
+      <c r="B26" s="48">
         <f t="shared" si="7"/>
         <v>83.03</v>
       </c>
-      <c r="C26" s="53">
+      <c r="C26" s="50">
         <f t="shared" si="0"/>
         <v>99.316124906263781</v>
       </c>
-      <c r="D26" s="53">
+      <c r="D26" s="50">
         <f t="shared" si="1"/>
         <v>199.82159497337088</v>
       </c>
-      <c r="E26" s="53">
+      <c r="E26" s="50">
         <f t="shared" si="2"/>
         <v>305.20201350165775</v>
       </c>
-      <c r="F26" s="53">
+      <c r="F26" s="50">
         <f t="shared" si="3"/>
         <v>461.63993453926076</v>
       </c>
@@ -4911,26 +4918,26 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="54" t="s">
-        <v>265</v>
-      </c>
-      <c r="B27" s="51">
+      <c r="A27" s="51" t="s">
+        <v>260</v>
+      </c>
+      <c r="B27" s="48">
         <f t="shared" si="7"/>
         <v>83.03</v>
       </c>
-      <c r="C27" s="53">
+      <c r="C27" s="50">
         <f t="shared" si="0"/>
         <v>100.30928615532642</v>
       </c>
-      <c r="D27" s="53">
+      <c r="D27" s="50">
         <f t="shared" si="1"/>
         <v>209.81267472203942</v>
       </c>
-      <c r="E27" s="53">
+      <c r="E27" s="50">
         <f t="shared" si="2"/>
         <v>328.09216451428205</v>
       </c>
-      <c r="F27" s="53">
+      <c r="F27" s="50">
         <f t="shared" si="3"/>
         <v>507.8039279931869</v>
       </c>
@@ -4948,26 +4955,26 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="B28" s="51">
+      <c r="A28" s="51" t="s">
+        <v>261</v>
+      </c>
+      <c r="B28" s="48">
         <f t="shared" si="7"/>
         <v>83.03</v>
       </c>
-      <c r="C28" s="53">
+      <c r="C28" s="50">
         <f t="shared" si="0"/>
         <v>101.31237901687969</v>
       </c>
-      <c r="D28" s="53">
+      <c r="D28" s="50">
         <f t="shared" si="1"/>
         <v>220.3033084581414</v>
       </c>
-      <c r="E28" s="53">
+      <c r="E28" s="50">
         <f t="shared" si="2"/>
         <v>352.69907685285318</v>
       </c>
-      <c r="F28" s="53">
+      <c r="F28" s="50">
         <f t="shared" si="3"/>
         <v>558.58432079250565</v>
       </c>
@@ -4985,26 +4992,26 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="54" t="s">
-        <v>267</v>
-      </c>
-      <c r="B29" s="51">
+      <c r="A29" s="51" t="s">
+        <v>262</v>
+      </c>
+      <c r="B29" s="48">
         <f t="shared" si="7"/>
         <v>83.03</v>
       </c>
-      <c r="C29" s="53">
+      <c r="C29" s="50">
         <f t="shared" si="0"/>
         <v>102.32550280704848</v>
       </c>
-      <c r="D29" s="53">
+      <c r="D29" s="50">
         <f t="shared" si="1"/>
         <v>231.31847388104848</v>
       </c>
-      <c r="E29" s="53">
+      <c r="E29" s="50">
         <f t="shared" si="2"/>
         <v>379.15150761681713</v>
       </c>
-      <c r="F29" s="53">
+      <c r="F29" s="50">
         <f t="shared" si="3"/>
         <v>614.44275287175628</v>
       </c>
@@ -5022,26 +5029,26 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="54" t="s">
-        <v>221</v>
-      </c>
-      <c r="B30" s="51">
+      <c r="A30" s="51" t="s">
+        <v>216</v>
+      </c>
+      <c r="B30" s="48">
         <f t="shared" si="7"/>
         <v>83.03</v>
       </c>
-      <c r="C30" s="53">
+      <c r="C30" s="50">
         <f t="shared" si="0"/>
         <v>103.34875783511896</v>
       </c>
-      <c r="D30" s="53">
+      <c r="D30" s="50">
         <f t="shared" si="1"/>
         <v>242.88439757510091</v>
       </c>
-      <c r="E30" s="53">
+      <c r="E30" s="50">
         <f t="shared" si="2"/>
         <v>407.5878706880784</v>
       </c>
-      <c r="F30" s="53">
+      <c r="F30" s="50">
         <f t="shared" si="3"/>
         <v>675.88702815893191</v>
       </c>
@@ -5059,26 +5066,26 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="54" t="s">
-        <v>268</v>
-      </c>
-      <c r="B31" s="51">
+      <c r="A31" s="51" t="s">
+        <v>263</v>
+      </c>
+      <c r="B31" s="48">
         <f t="shared" si="7"/>
         <v>83.03</v>
       </c>
-      <c r="C31" s="53">
+      <c r="C31" s="50">
         <f t="shared" si="0"/>
         <v>104.38224541347014</v>
       </c>
-      <c r="D31" s="53">
+      <c r="D31" s="50">
         <f t="shared" si="1"/>
         <v>255.02861745385596</v>
       </c>
-      <c r="E31" s="53">
+      <c r="E31" s="50">
         <f t="shared" si="2"/>
         <v>438.15696098968425</v>
       </c>
-      <c r="F31" s="53">
+      <c r="F31" s="50">
         <f t="shared" si="3"/>
         <v>743.47573097482518</v>
       </c>
@@ -5096,26 +5103,26 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="54" t="s">
-        <v>269</v>
-      </c>
-      <c r="B32" s="51">
+      <c r="A32" s="51" t="s">
+        <v>264</v>
+      </c>
+      <c r="B32" s="48">
         <f t="shared" si="7"/>
         <v>83.03</v>
       </c>
-      <c r="C32" s="53">
+      <c r="C32" s="50">
         <f t="shared" si="0"/>
         <v>105.42606786760484</v>
       </c>
-      <c r="D32" s="53">
+      <c r="D32" s="50">
         <f t="shared" si="1"/>
         <v>267.78004832654875</v>
       </c>
-      <c r="E32" s="53">
+      <c r="E32" s="50">
         <f t="shared" si="2"/>
         <v>471.01873306391053</v>
       </c>
-      <c r="F32" s="53">
+      <c r="F32" s="50">
         <f t="shared" si="3"/>
         <v>817.82330407230779</v>
       </c>
@@ -5133,26 +5140,26 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="54" t="s">
-        <v>270</v>
-      </c>
-      <c r="B33" s="51">
+      <c r="A33" s="51" t="s">
+        <v>265</v>
+      </c>
+      <c r="B33" s="48">
         <f t="shared" si="7"/>
         <v>83.03</v>
       </c>
-      <c r="C33" s="53">
+      <c r="C33" s="50">
         <f t="shared" si="0"/>
         <v>106.48032854628089</v>
       </c>
-      <c r="D33" s="53">
+      <c r="D33" s="50">
         <f t="shared" si="1"/>
         <v>281.16905074287621</v>
       </c>
-      <c r="E33" s="53">
+      <c r="E33" s="50">
         <f t="shared" si="2"/>
         <v>506.3451380437038</v>
       </c>
-      <c r="F33" s="53">
+      <c r="F33" s="50">
         <f t="shared" si="3"/>
         <v>899.60563447953859</v>
       </c>
@@ -5170,26 +5177,26 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="54" t="s">
-        <v>271</v>
-      </c>
-      <c r="B34" s="51">
+      <c r="A34" s="51" t="s">
+        <v>266</v>
+      </c>
+      <c r="B34" s="48">
         <f t="shared" si="7"/>
         <v>83.03</v>
       </c>
-      <c r="C34" s="53">
+      <c r="C34" s="50">
         <f t="shared" si="0"/>
         <v>107.5451318317437</v>
       </c>
-      <c r="D34" s="53">
+      <c r="D34" s="50">
         <f t="shared" si="1"/>
         <v>295.22750328002002</v>
       </c>
-      <c r="E34" s="53">
+      <c r="E34" s="50">
         <f t="shared" si="2"/>
         <v>544.32102339698156</v>
       </c>
-      <c r="F34" s="53">
+      <c r="F34" s="50">
         <f t="shared" si="3"/>
         <v>989.56619792749257</v>
       </c>
@@ -5207,26 +5214,26 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="54" t="s">
-        <v>197</v>
-      </c>
-      <c r="B35" s="51">
+      <c r="A35" s="51" t="s">
+        <v>193</v>
+      </c>
+      <c r="B35" s="48">
         <f t="shared" si="7"/>
         <v>83.03</v>
       </c>
-      <c r="C35" s="53">
+      <c r="C35" s="50">
         <f t="shared" si="0"/>
         <v>108.62058315006114</v>
       </c>
-      <c r="D35" s="53">
+      <c r="D35" s="50">
         <f t="shared" si="1"/>
         <v>309.98887844402105</v>
       </c>
-      <c r="E35" s="53">
+      <c r="E35" s="50">
         <f t="shared" si="2"/>
         <v>585.14510015175517</v>
       </c>
-      <c r="F35" s="53">
+      <c r="F35" s="50">
         <f t="shared" si="3"/>
         <v>1088.5228177202418</v>
       </c>
@@ -5244,26 +5251,26 @@
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="54" t="s">
-        <v>272</v>
-      </c>
-      <c r="B36" s="51">
+      <c r="A36" s="51" t="s">
+        <v>267</v>
+      </c>
+      <c r="B36" s="48">
         <f t="shared" si="7"/>
         <v>83.03</v>
       </c>
-      <c r="C36" s="53">
+      <c r="C36" s="50">
         <f t="shared" si="0"/>
         <v>109.70678898156174</v>
       </c>
-      <c r="D36" s="53">
+      <c r="D36" s="50">
         <f t="shared" si="1"/>
         <v>325.48832236622212</v>
       </c>
-      <c r="E36" s="53">
+      <c r="E36" s="50">
         <f t="shared" si="2"/>
         <v>629.0309826631368</v>
       </c>
-      <c r="F36" s="53">
+      <c r="F36" s="50">
         <f t="shared" si="3"/>
         <v>1197.3750994922661</v>
       </c>
@@ -5281,26 +5288,26 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="54" t="s">
-        <v>273</v>
-      </c>
-      <c r="B37" s="51">
+      <c r="A37" s="51" t="s">
+        <v>268</v>
+      </c>
+      <c r="B37" s="48">
         <f t="shared" si="7"/>
         <v>83.03</v>
       </c>
-      <c r="C37" s="53">
+      <c r="C37" s="50">
         <f t="shared" si="0"/>
         <v>110.80385687137736</v>
       </c>
-      <c r="D37" s="53">
+      <c r="D37" s="50">
         <f t="shared" si="1"/>
         <v>341.76273848453326</v>
       </c>
-      <c r="E37" s="53">
+      <c r="E37" s="50">
         <f t="shared" si="2"/>
         <v>676.20830636287201</v>
       </c>
-      <c r="F37" s="53">
+      <c r="F37" s="50">
         <f t="shared" si="3"/>
         <v>1317.1126094414929</v>
       </c>
@@ -5318,26 +5325,26 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="54" t="s">
-        <v>274</v>
-      </c>
-      <c r="B38" s="51">
+      <c r="A38" s="51" t="s">
+        <v>269</v>
+      </c>
+      <c r="B38" s="48">
         <f t="shared" si="7"/>
         <v>83.03</v>
       </c>
-      <c r="C38" s="53">
+      <c r="C38" s="50">
         <f t="shared" si="0"/>
         <v>111.91189544009114</v>
       </c>
-      <c r="D38" s="53">
+      <c r="D38" s="50">
         <f t="shared" si="1"/>
         <v>358.85087540875992</v>
       </c>
-      <c r="E38" s="53">
+      <c r="E38" s="50">
         <f t="shared" si="2"/>
         <v>726.9239293400874</v>
       </c>
-      <c r="F38" s="53">
+      <c r="F38" s="50">
         <f t="shared" si="3"/>
         <v>1448.8238703856423</v>
       </c>
@@ -5355,26 +5362,26 @@
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="54" t="s">
-        <v>275</v>
-      </c>
-      <c r="B39" s="51">
+      <c r="A39" s="51" t="s">
+        <v>270</v>
+      </c>
+      <c r="B39" s="48">
         <f t="shared" si="7"/>
         <v>83.03</v>
       </c>
-      <c r="C39" s="53">
+      <c r="C39" s="50">
         <f t="shared" si="0"/>
         <v>113.03101439449206</v>
       </c>
-      <c r="D39" s="53">
+      <c r="D39" s="50">
         <f t="shared" si="1"/>
         <v>376.79341917919794</v>
       </c>
-      <c r="E39" s="53">
+      <c r="E39" s="50">
         <f t="shared" si="2"/>
         <v>781.44322404059392</v>
       </c>
-      <c r="F39" s="53">
+      <c r="F39" s="50">
         <f t="shared" si="3"/>
         <v>1593.7062574242066</v>
       </c>
@@ -5392,26 +5399,26 @@
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="54" t="s">
-        <v>222</v>
-      </c>
-      <c r="B40" s="51">
+      <c r="A40" s="51" t="s">
+        <v>217</v>
+      </c>
+      <c r="B40" s="48">
         <f t="shared" si="7"/>
         <v>83.03</v>
       </c>
-      <c r="C40" s="53">
+      <c r="C40" s="50">
         <f t="shared" si="0"/>
         <v>114.16132453843699</v>
       </c>
-      <c r="D40" s="53">
+      <c r="D40" s="50">
         <f t="shared" si="1"/>
         <v>395.63309013815785</v>
       </c>
-      <c r="E40" s="53">
+      <c r="E40" s="50">
         <f t="shared" si="2"/>
         <v>840.05146584363843</v>
       </c>
-      <c r="F40" s="53">
+      <c r="F40" s="50">
         <f t="shared" si="3"/>
         <v>1753.0768831666273</v>
       </c>
@@ -5429,26 +5436,26 @@
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="54" t="s">
-        <v>276</v>
-      </c>
-      <c r="B41" s="51">
+      <c r="A41" s="51" t="s">
+        <v>271</v>
+      </c>
+      <c r="B41" s="48">
         <f t="shared" si="7"/>
         <v>83.03</v>
       </c>
-      <c r="C41" s="53">
+      <c r="C41" s="50">
         <f t="shared" si="0"/>
         <v>115.30293778382136</v>
       </c>
-      <c r="D41" s="53">
+      <c r="D41" s="50">
         <f t="shared" si="1"/>
         <v>415.41474464506575</v>
       </c>
-      <c r="E41" s="53">
+      <c r="E41" s="50">
         <f t="shared" si="2"/>
         <v>903.05532578191128</v>
       </c>
-      <c r="F41" s="53">
+      <c r="F41" s="50">
         <f t="shared" si="3"/>
         <v>1928.3845714832903</v>
       </c>
@@ -5466,26 +5473,26 @@
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="54" t="s">
-        <v>277</v>
-      </c>
-      <c r="B42" s="51">
+      <c r="A42" s="51" t="s">
+        <v>272</v>
+      </c>
+      <c r="B42" s="48">
         <f t="shared" si="7"/>
         <v>83.03</v>
       </c>
-      <c r="C42" s="53">
+      <c r="C42" s="50">
         <f t="shared" si="0"/>
         <v>116.45596716165957</v>
       </c>
-      <c r="D42" s="53">
+      <c r="D42" s="50">
         <f t="shared" si="1"/>
         <v>436.18548187731903</v>
       </c>
-      <c r="E42" s="53">
+      <c r="E42" s="50">
         <f t="shared" si="2"/>
         <v>970.78447521555461</v>
       </c>
-      <c r="F42" s="53">
+      <c r="F42" s="50">
         <f t="shared" si="3"/>
         <v>2121.2230286316194</v>
       </c>
@@ -5503,26 +5510,26 @@
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="54" t="s">
-        <v>278</v>
-      </c>
-      <c r="B43" s="51">
+      <c r="A43" s="51" t="s">
+        <v>273</v>
+      </c>
+      <c r="B43" s="48">
         <f t="shared" si="7"/>
         <v>83.03</v>
       </c>
-      <c r="C43" s="53">
+      <c r="C43" s="50">
         <f t="shared" si="0"/>
         <v>117.62052683327617</v>
       </c>
-      <c r="D43" s="53">
+      <c r="D43" s="50">
         <f t="shared" si="1"/>
         <v>457.99475597118499</v>
       </c>
-      <c r="E43" s="53">
+      <c r="E43" s="50">
         <f t="shared" si="2"/>
         <v>1043.5933108567212</v>
       </c>
-      <c r="F43" s="53">
+      <c r="F43" s="50">
         <f t="shared" si="3"/>
         <v>2333.3453314947815</v>
       </c>
@@ -5540,26 +5547,26 @@
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="54" t="s">
-        <v>279</v>
-      </c>
-      <c r="B44" s="51">
+      <c r="A44" s="51" t="s">
+        <v>274</v>
+      </c>
+      <c r="B44" s="48">
         <f t="shared" si="7"/>
         <v>83.03</v>
       </c>
-      <c r="C44" s="53">
+      <c r="C44" s="50">
         <f t="shared" si="0"/>
         <v>118.79673210160894</v>
       </c>
-      <c r="D44" s="53">
+      <c r="D44" s="50">
         <f t="shared" si="1"/>
         <v>480.89449376974426</v>
       </c>
-      <c r="E44" s="53">
+      <c r="E44" s="50">
         <f t="shared" si="2"/>
         <v>1121.8628091709752</v>
       </c>
-      <c r="F44" s="53">
+      <c r="F44" s="50">
         <f t="shared" si="3"/>
         <v>2566.6798646442599</v>
       </c>
@@ -5577,26 +5584,26 @@
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="54" t="s">
-        <v>198</v>
-      </c>
-      <c r="B45" s="51">
+      <c r="A45" s="51" t="s">
+        <v>194</v>
+      </c>
+      <c r="B45" s="48">
         <f t="shared" si="7"/>
         <v>83.03</v>
       </c>
-      <c r="C45" s="53">
+      <c r="C45" s="50">
         <f t="shared" si="0"/>
         <v>119.98469942262503</v>
       </c>
-      <c r="D45" s="53">
+      <c r="D45" s="50">
         <f t="shared" si="1"/>
         <v>504.93921845823149</v>
       </c>
-      <c r="E45" s="53">
+      <c r="E45" s="50">
         <f t="shared" si="2"/>
         <v>1206.0025198587982</v>
       </c>
-      <c r="F45" s="53">
+      <c r="F45" s="50">
         <f t="shared" si="3"/>
         <v>2823.347851108686</v>
       </c>
@@ -5614,26 +5621,26 @@
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="54" t="s">
-        <v>280</v>
-      </c>
-      <c r="B46" s="51">
+      <c r="A46" s="51" t="s">
+        <v>275</v>
+      </c>
+      <c r="B46" s="48">
         <f t="shared" si="7"/>
         <v>83.03</v>
       </c>
-      <c r="C46" s="53">
+      <c r="C46" s="50">
         <f t="shared" si="0"/>
         <v>121.18454641685128</v>
       </c>
-      <c r="D46" s="53">
+      <c r="D46" s="50">
         <f t="shared" si="1"/>
         <v>530.18617938114312</v>
       </c>
-      <c r="E46" s="53">
+      <c r="E46" s="50">
         <f t="shared" si="2"/>
         <v>1296.452708848208</v>
       </c>
-      <c r="F46" s="53">
+      <c r="F46" s="50">
         <f t="shared" si="3"/>
         <v>3105.6826362195548</v>
       </c>
@@ -5651,26 +5658,26 @@
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="54" t="s">
-        <v>281</v>
-      </c>
-      <c r="B47" s="51">
+      <c r="A47" s="51" t="s">
+        <v>276</v>
+      </c>
+      <c r="B47" s="48">
         <f t="shared" si="7"/>
         <v>83.03</v>
       </c>
-      <c r="C47" s="53">
+      <c r="C47" s="50">
         <f t="shared" si="0"/>
         <v>122.3963918810198</v>
       </c>
-      <c r="D47" s="53">
+      <c r="D47" s="50">
         <f t="shared" si="1"/>
         <v>556.69548835020032</v>
       </c>
-      <c r="E47" s="53">
+      <c r="E47" s="50">
         <f t="shared" si="2"/>
         <v>1393.6866620118235</v>
       </c>
-      <c r="F47" s="53">
+      <c r="F47" s="50">
         <f t="shared" si="3"/>
         <v>3416.2508998415105</v>
       </c>
@@ -5688,26 +5695,26 @@
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="54" t="s">
-        <v>282</v>
-      </c>
-      <c r="B48" s="51">
+      <c r="A48" s="51" t="s">
+        <v>277</v>
+      </c>
+      <c r="B48" s="48">
         <f t="shared" si="7"/>
         <v>83.03</v>
       </c>
-      <c r="C48" s="53">
+      <c r="C48" s="50">
         <f t="shared" si="0"/>
         <v>123.62035579982999</v>
       </c>
-      <c r="D48" s="53">
+      <c r="D48" s="50">
         <f t="shared" si="1"/>
         <v>584.53026276771038</v>
       </c>
-      <c r="E48" s="53">
+      <c r="E48" s="50">
         <f t="shared" si="2"/>
         <v>1498.2131616627103</v>
       </c>
-      <c r="F48" s="53">
+      <c r="F48" s="50">
         <f t="shared" si="3"/>
         <v>3757.8759898256617</v>
       </c>
@@ -5725,26 +5732,26 @@
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="54" t="s">
-        <v>283</v>
-      </c>
-      <c r="B49" s="51">
+      <c r="A49" s="51" t="s">
+        <v>278</v>
+      </c>
+      <c r="B49" s="48">
         <f t="shared" si="7"/>
         <v>83.03</v>
       </c>
-      <c r="C49" s="53">
+      <c r="C49" s="50">
         <f t="shared" si="0"/>
         <v>124.85655935782829</v>
       </c>
-      <c r="D49" s="53">
+      <c r="D49" s="50">
         <f t="shared" si="1"/>
         <v>613.75677590609598</v>
       </c>
-      <c r="E49" s="53">
+      <c r="E49" s="50">
         <f t="shared" si="2"/>
         <v>1610.5791487874135</v>
       </c>
-      <c r="F49" s="53">
+      <c r="F49" s="50">
         <f t="shared" si="3"/>
         <v>4133.6635888082283</v>
       </c>
@@ -5762,26 +5769,26 @@
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="54" t="s">
-        <v>223</v>
-      </c>
-      <c r="B50" s="51">
+      <c r="A50" s="51" t="s">
+        <v>218</v>
+      </c>
+      <c r="B50" s="48">
         <f t="shared" si="7"/>
         <v>83.03</v>
       </c>
-      <c r="C50" s="53">
+      <c r="C50" s="50">
         <f t="shared" si="0"/>
         <v>126.10512495140657</v>
       </c>
-      <c r="D50" s="53">
+      <c r="D50" s="50">
         <f t="shared" si="1"/>
         <v>644.44461470140084</v>
       </c>
-      <c r="E50" s="53">
+      <c r="E50" s="50">
         <f t="shared" si="2"/>
         <v>1731.3725849464695</v>
       </c>
-      <c r="F50" s="53">
+      <c r="F50" s="50">
         <f t="shared" si="3"/>
         <v>4547.0299476890514</v>
       </c>
@@ -5799,26 +5806,26 @@
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="54" t="s">
-        <v>284</v>
-      </c>
-      <c r="B51" s="51">
+      <c r="A51" s="51" t="s">
+        <v>279</v>
+      </c>
+      <c r="B51" s="48">
         <f t="shared" si="7"/>
         <v>83.03</v>
       </c>
-      <c r="C51" s="53">
+      <c r="C51" s="50">
         <f t="shared" si="0"/>
         <v>127.36617620092063</v>
       </c>
-      <c r="D51" s="53">
+      <c r="D51" s="50">
         <f t="shared" si="1"/>
         <v>676.66684543647091</v>
       </c>
-      <c r="E51" s="53">
+      <c r="E51" s="50">
         <f t="shared" si="2"/>
         <v>1861.2255288174547</v>
       </c>
-      <c r="F51" s="53">
+      <c r="F51" s="50">
         <f t="shared" si="3"/>
         <v>5001.7329424579566</v>
       </c>
@@ -5836,26 +5843,26 @@
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="54" t="s">
-        <v>285</v>
-      </c>
-      <c r="B52" s="51">
+      <c r="A52" s="51" t="s">
+        <v>280</v>
+      </c>
+      <c r="B52" s="48">
         <f t="shared" si="7"/>
         <v>83.03</v>
       </c>
-      <c r="C52" s="53">
+      <c r="C52" s="50">
         <f t="shared" si="0"/>
         <v>128.63983796292985</v>
       </c>
-      <c r="D52" s="53">
+      <c r="D52" s="50">
         <f t="shared" si="1"/>
         <v>710.50018770829445</v>
       </c>
-      <c r="E52" s="53">
+      <c r="E52" s="50">
         <f t="shared" si="2"/>
         <v>2000.8174434787636</v>
       </c>
-      <c r="F52" s="53">
+      <c r="F52" s="50">
         <f t="shared" si="3"/>
         <v>5501.9062367037523</v>
       </c>
@@ -5873,26 +5880,26 @@
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="54" t="s">
-        <v>286</v>
-      </c>
-      <c r="B53" s="51">
+      <c r="A53" s="51" t="s">
+        <v>281</v>
+      </c>
+      <c r="B53" s="48">
         <f t="shared" si="7"/>
         <v>83.03</v>
       </c>
-      <c r="C53" s="53">
+      <c r="C53" s="50">
         <f t="shared" si="0"/>
         <v>129.92623634255915</v>
       </c>
-      <c r="D53" s="53">
+      <c r="D53" s="50">
         <f t="shared" si="1"/>
         <v>746.02519709370915</v>
       </c>
-      <c r="E53" s="53">
+      <c r="E53" s="50">
         <f t="shared" si="2"/>
         <v>2150.8787517396709</v>
       </c>
-      <c r="F53" s="53">
+      <c r="F53" s="50">
         <f t="shared" si="3"/>
         <v>6052.0968603741276</v>
       </c>
@@ -5910,26 +5917,26 @@
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="54" t="s">
-        <v>287</v>
-      </c>
-      <c r="B54" s="51">
+      <c r="A54" s="51" t="s">
+        <v>282</v>
+      </c>
+      <c r="B54" s="48">
         <f t="shared" si="7"/>
         <v>83.03</v>
       </c>
-      <c r="C54" s="53">
+      <c r="C54" s="50">
         <f t="shared" si="0"/>
         <v>131.22549870598473</v>
       </c>
-      <c r="D54" s="53">
+      <c r="D54" s="50">
         <f t="shared" si="1"/>
         <v>783.32645694839459</v>
       </c>
-      <c r="E54" s="53">
+      <c r="E54" s="50">
         <f t="shared" si="2"/>
         <v>2312.194658120146</v>
       </c>
-      <c r="F54" s="53">
+      <c r="F54" s="50">
         <f t="shared" si="3"/>
         <v>6657.3065464115407</v>
       </c>
@@ -5947,26 +5954,26 @@
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="54" t="s">
-        <v>199</v>
-      </c>
-      <c r="B55" s="51">
+      <c r="A55" s="51" t="s">
+        <v>195</v>
+      </c>
+      <c r="B55" s="48">
         <f t="shared" si="7"/>
         <v>83.03</v>
       </c>
-      <c r="C55" s="53">
+      <c r="C55" s="50">
         <f t="shared" si="0"/>
         <v>132.53775369304458</v>
       </c>
-      <c r="D55" s="53">
+      <c r="D55" s="50">
         <f t="shared" si="1"/>
         <v>822.49277979581439</v>
       </c>
-      <c r="E55" s="53">
+      <c r="E55" s="50">
         <f t="shared" si="2"/>
         <v>2485.6092574791569</v>
       </c>
-      <c r="F55" s="53">
+      <c r="F55" s="50">
         <f t="shared" si="3"/>
         <v>7323.0372010526953</v>
       </c>
@@ -5984,89 +5991,89 @@
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="54"/>
-      <c r="B56" s="52"/>
-      <c r="C56" s="53"/>
-      <c r="D56" s="53"/>
-      <c r="E56" s="53"/>
-      <c r="F56" s="53"/>
+      <c r="A56" s="51"/>
+      <c r="B56" s="49"/>
+      <c r="C56" s="50"/>
+      <c r="D56" s="50"/>
+      <c r="E56" s="50"/>
+      <c r="F56" s="50"/>
       <c r="G56" s="28"/>
       <c r="H56" s="28"/>
       <c r="I56" s="28"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="54"/>
-      <c r="B57" s="52"/>
-      <c r="C57" s="53"/>
-      <c r="D57" s="53"/>
-      <c r="E57" s="53"/>
-      <c r="F57" s="53"/>
+      <c r="A57" s="51"/>
+      <c r="B57" s="49"/>
+      <c r="C57" s="50"/>
+      <c r="D57" s="50"/>
+      <c r="E57" s="50"/>
+      <c r="F57" s="50"/>
       <c r="G57" s="28"/>
       <c r="H57" s="28"/>
       <c r="I57" s="28"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="54"/>
-      <c r="B58" s="52"/>
-      <c r="C58" s="53"/>
-      <c r="D58" s="53"/>
-      <c r="E58" s="53"/>
-      <c r="F58" s="53"/>
+      <c r="A58" s="51"/>
+      <c r="B58" s="49"/>
+      <c r="C58" s="50"/>
+      <c r="D58" s="50"/>
+      <c r="E58" s="50"/>
+      <c r="F58" s="50"/>
       <c r="G58" s="28"/>
       <c r="H58" s="28"/>
       <c r="I58" s="28"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="54"/>
-      <c r="B59" s="52"/>
-      <c r="C59" s="53"/>
-      <c r="D59" s="53"/>
-      <c r="E59" s="53"/>
-      <c r="F59" s="53"/>
+      <c r="A59" s="51"/>
+      <c r="B59" s="49"/>
+      <c r="C59" s="50"/>
+      <c r="D59" s="50"/>
+      <c r="E59" s="50"/>
+      <c r="F59" s="50"/>
       <c r="G59" s="28"/>
       <c r="H59" s="28"/>
       <c r="I59" s="28"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="54"/>
-      <c r="B60" s="52"/>
-      <c r="C60" s="53"/>
-      <c r="D60" s="53"/>
-      <c r="E60" s="53"/>
-      <c r="F60" s="53"/>
+      <c r="A60" s="51"/>
+      <c r="B60" s="49"/>
+      <c r="C60" s="50"/>
+      <c r="D60" s="50"/>
+      <c r="E60" s="50"/>
+      <c r="F60" s="50"/>
       <c r="G60" s="28"/>
       <c r="H60" s="28"/>
       <c r="I60" s="28"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="54"/>
-      <c r="B61" s="52"/>
-      <c r="C61" s="53"/>
-      <c r="D61" s="53"/>
-      <c r="E61" s="53"/>
-      <c r="F61" s="53"/>
+      <c r="A61" s="51"/>
+      <c r="B61" s="49"/>
+      <c r="C61" s="50"/>
+      <c r="D61" s="50"/>
+      <c r="E61" s="50"/>
+      <c r="F61" s="50"/>
       <c r="G61" s="28"/>
       <c r="H61" s="28"/>
       <c r="I61" s="28"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="54"/>
-      <c r="B62" s="52"/>
-      <c r="C62" s="53"/>
-      <c r="D62" s="53"/>
-      <c r="E62" s="53"/>
-      <c r="F62" s="53"/>
+      <c r="A62" s="51"/>
+      <c r="B62" s="49"/>
+      <c r="C62" s="50"/>
+      <c r="D62" s="50"/>
+      <c r="E62" s="50"/>
+      <c r="F62" s="50"/>
       <c r="G62" s="28"/>
       <c r="H62" s="28"/>
       <c r="I62" s="28"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="54"/>
-      <c r="B63" s="52"/>
-      <c r="C63" s="53"/>
-      <c r="D63" s="53"/>
-      <c r="E63" s="53"/>
-      <c r="F63" s="53"/>
+      <c r="A63" s="51"/>
+      <c r="B63" s="49"/>
+      <c r="C63" s="50"/>
+      <c r="D63" s="50"/>
+      <c r="E63" s="50"/>
+      <c r="F63" s="50"/>
       <c r="G63" s="28"/>
       <c r="H63" s="28"/>
       <c r="I63" s="28"/>
@@ -6081,7 +6088,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:R5"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6103,10 +6112,10 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>179</v>
+        <v>299</v>
       </c>
       <c r="B1" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C1" t="s">
         <v>156</v>
@@ -6124,10 +6133,10 @@
         <v>181</v>
       </c>
       <c r="I1" t="s">
-        <v>179</v>
+        <v>300</v>
       </c>
       <c r="J1" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="K1" t="s">
         <v>156</v>
@@ -6142,30 +6151,30 @@
         <v>181</v>
       </c>
       <c r="P1" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="Q1" t="s">
         <v>174</v>
       </c>
       <c r="R1" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="B2" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="C2" t="s">
         <v>162</v>
       </c>
       <c r="D2" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="E2" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="F2" t="s">
         <v>178</v>
@@ -6174,16 +6183,16 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="J2" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="K2" t="s">
         <v>162</v>
       </c>
       <c r="L2" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="M2" t="s">
         <v>178</v>
@@ -6192,30 +6201,30 @@
         <v>0.6</v>
       </c>
       <c r="P2" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="Q2" t="s">
         <v>178</v>
       </c>
       <c r="R2" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="B3" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="C3" t="s">
         <v>169</v>
       </c>
       <c r="D3" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="E3" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="F3" t="s">
         <v>178</v>
@@ -6224,16 +6233,16 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="J3" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="K3" t="s">
         <v>169</v>
       </c>
       <c r="L3" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="M3" t="s">
         <v>178</v>
@@ -6242,27 +6251,27 @@
         <v>1.1999999999999999E-3</v>
       </c>
       <c r="P3" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="Q3" t="s">
         <v>178</v>
       </c>
       <c r="R3" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="I4" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="J4" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="K4" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="L4" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="M4" t="s">
         <v>178</v>
@@ -6273,16 +6282,16 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="I5" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="J5" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="K5" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="L5" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="M5" t="s">
         <v>178</v>
@@ -6302,7 +6311,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6313,7 +6322,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>155</v>
+        <v>298</v>
       </c>
       <c r="B1" t="s">
         <v>156</v>
@@ -6324,13 +6333,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>202</v>
+        <v>301</v>
       </c>
       <c r="B2" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="C2" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -6338,10 +6347,10 @@
         <v>180</v>
       </c>
       <c r="B3" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C3" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -6357,7 +6366,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B5">
         <v>0.8</v>
@@ -6368,7 +6377,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B6">
         <v>0.8</v>
@@ -6379,7 +6388,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B7">
         <v>0.8</v>
@@ -6390,7 +6399,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B8">
         <v>0.8</v>
@@ -6401,7 +6410,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B9">
         <v>0.8</v>
@@ -6412,7 +6421,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B10">
         <v>0.8</v>
@@ -6432,7 +6441,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6451,7 +6460,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>179</v>
+        <v>300</v>
       </c>
       <c r="B1" t="s">
         <v>157</v>
@@ -6463,7 +6472,7 @@
         <v>174</v>
       </c>
       <c r="E1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -6471,10 +6480,10 @@
         <v>188</v>
       </c>
       <c r="B2" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C2" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="D2" t="s">
         <v>178</v>
@@ -6488,10 +6497,10 @@
         <v>188</v>
       </c>
       <c r="B3" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C3" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D3" t="s">
         <v>178</v>
@@ -6510,8 +6519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6523,7 +6532,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>179</v>
+        <v>300</v>
       </c>
       <c r="B1" t="s">
         <v>188</v>
@@ -6534,7 +6543,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>189</v>
+        <v>302</v>
       </c>
       <c r="B2" t="s">
         <v>157</v>
@@ -6545,18 +6554,18 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>190</v>
+        <v>303</v>
       </c>
       <c r="B3" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C3" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>191</v>
+        <v>304</v>
       </c>
       <c r="B4" t="s">
         <v>156</v>
@@ -6567,13 +6576,13 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>192</v>
+        <v>305</v>
       </c>
       <c r="B5" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="C5" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -6600,7 +6609,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B8" s="4">
         <v>153235.05755748</v>
@@ -6612,7 +6621,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="B9" s="4">
         <v>466325.30448643101</v>
@@ -6624,7 +6633,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B10" s="4">
         <v>452531.647721252</v>
@@ -6636,7 +6645,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="B11" s="4">
         <v>443281.918788651</v>
@@ -6648,7 +6657,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B12" s="4">
         <v>441949.46191361902</v>
@@ -6660,7 +6669,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="B13" s="4">
         <v>441805.20056338498</v>
@@ -6672,7 +6681,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B14" s="4">
         <v>441797.61264709203</v>
@@ -6684,7 +6693,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B15" s="4">
         <v>441798.91599598498</v>
@@ -6696,7 +6705,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B16" s="4">
         <v>441799.42197618203</v>
@@ -6708,7 +6717,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B17" s="4">
         <v>441799.42197618203</v>
@@ -6720,7 +6729,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B18" s="4">
         <v>441799.42197618203</v>
@@ -6756,30 +6765,30 @@
         <v>156</v>
       </c>
       <c r="B1" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>159</v>
       </c>
-      <c r="B2" s="55">
+      <c r="B2" s="52">
         <v>1E+18</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>292</v>
-      </c>
-      <c r="B3" s="55">
+        <v>287</v>
+      </c>
+      <c r="B3" s="52">
         <v>1E+18</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>298</v>
-      </c>
-      <c r="B4" s="55">
+        <v>293</v>
+      </c>
+      <c r="B4" s="52">
         <v>1E+18</v>
       </c>
     </row>
@@ -6787,7 +6796,7 @@
       <c r="A5" t="s">
         <v>172</v>
       </c>
-      <c r="B5" s="55">
+      <c r="B5" s="52">
         <v>1E+18</v>
       </c>
     </row>
@@ -6806,7 +6815,7 @@
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="16.140625" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" style="40" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" style="38" customWidth="1"/>
     <col min="4" max="4" width="25.28515625" customWidth="1"/>
     <col min="5" max="5" width="32.7109375" customWidth="1"/>
     <col min="6" max="6" width="15.42578125" customWidth="1"/>
@@ -6897,7 +6906,7 @@
       <c r="B3" t="s">
         <v>150</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="38" t="s">
         <v>151</v>
       </c>
       <c r="D3" t="s">
@@ -6959,7 +6968,7 @@
       <c r="B4" t="s">
         <v>156</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="38" t="s">
         <v>157</v>
       </c>
       <c r="D4" t="s">
@@ -7021,7 +7030,7 @@
       <c r="B5" t="s">
         <v>159</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="38" t="s">
         <v>160</v>
       </c>
       <c r="D5" t="s">
@@ -7205,7 +7214,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:O6"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7225,7 +7236,7 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>179</v>
+        <v>300</v>
       </c>
       <c r="B1" t="s">
         <v>157</v>
@@ -7234,7 +7245,7 @@
         <v>156</v>
       </c>
       <c r="E1" t="s">
-        <v>179</v>
+        <v>299</v>
       </c>
       <c r="F1" t="s">
         <v>157</v>
@@ -7427,7 +7438,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7444,7 +7455,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>179</v>
+        <v>300</v>
       </c>
       <c r="B1" t="s">
         <v>183</v>
@@ -7452,7 +7463,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>189</v>
+        <v>302</v>
       </c>
       <c r="B2" t="s">
         <v>157</v>
@@ -7460,7 +7471,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>190</v>
+        <v>303</v>
       </c>
       <c r="B3" t="s">
         <v>160</v>
@@ -7468,7 +7479,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>191</v>
+        <v>304</v>
       </c>
       <c r="B4" t="s">
         <v>156</v>
@@ -7476,7 +7487,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>192</v>
+        <v>305</v>
       </c>
       <c r="B5" t="s">
         <v>159</v>
@@ -7487,7 +7498,7 @@
         <v>180</v>
       </c>
       <c r="B6" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -7500,7 +7511,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B8">
         <f>Base!C55</f>
@@ -7509,7 +7520,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B9">
         <v>0.56000000000000005</v>
@@ -7517,7 +7528,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B10">
         <v>0.53</v>
@@ -7525,7 +7536,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B11">
         <v>0.51</v>
@@ -7533,7 +7544,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B12">
         <v>0.5</v>
@@ -7541,7 +7552,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -7557,7 +7568,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7578,7 +7591,7 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>179</v>
+        <v>300</v>
       </c>
       <c r="B1" t="s">
         <v>157</v>
@@ -7587,7 +7600,7 @@
         <v>156</v>
       </c>
       <c r="E1" t="s">
-        <v>179</v>
+        <v>299</v>
       </c>
       <c r="F1" t="s">
         <v>157</v>
@@ -7614,7 +7627,7 @@
         <v>174</v>
       </c>
       <c r="O1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -7640,7 +7653,7 @@
         <v>164</v>
       </c>
       <c r="I2" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="J2" t="s">
         <v>178</v>
@@ -7683,7 +7696,7 @@
         <v>164</v>
       </c>
       <c r="I3" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="J3" t="s">
         <v>178</v>
@@ -7714,7 +7727,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7724,7 +7739,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>155</v>
+        <v>298</v>
       </c>
       <c r="B1" t="s">
         <v>156</v>
@@ -7732,7 +7747,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>202</v>
+        <v>301</v>
       </c>
       <c r="B2" t="s">
         <v>164</v>
@@ -7743,7 +7758,7 @@
         <v>180</v>
       </c>
       <c r="B3" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -7751,12 +7766,12 @@
         <v>174</v>
       </c>
       <c r="B4" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B5">
         <v>90</v>
@@ -7764,7 +7779,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B6">
         <v>60</v>
@@ -7772,7 +7787,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B7">
         <v>60</v>
@@ -7788,8 +7803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:AB14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="AB8" sqref="AB8"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7822,83 +7837,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
-        <v>179</v>
-      </c>
-      <c r="B1" s="41" t="s">
+      <c r="A1" s="39" t="s">
+        <v>300</v>
+      </c>
+      <c r="B1" s="39" t="s">
         <v>157</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="39" t="s">
         <v>156</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="39" t="s">
         <v>174</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="39" t="s">
+        <v>199</v>
+      </c>
+      <c r="F1" s="39" t="s">
+        <v>189</v>
+      </c>
+      <c r="G1" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="I1" s="39" t="s">
+        <v>299</v>
+      </c>
+      <c r="J1" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="K1" s="39" t="s">
+        <v>156</v>
+      </c>
+      <c r="L1" s="39" t="s">
+        <v>156</v>
+      </c>
+      <c r="M1" s="39" t="s">
+        <v>180</v>
+      </c>
+      <c r="N1" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="O1" s="39" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q1" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="R1" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="S1" s="39" t="s">
+        <v>199</v>
+      </c>
+      <c r="T1" s="39" t="s">
+        <v>200</v>
+      </c>
+      <c r="U1" s="39" t="s">
+        <v>128</v>
+      </c>
+      <c r="V1" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="W1" s="39" t="s">
+        <v>202</v>
+      </c>
+      <c r="X1" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y1" s="39" t="s">
+        <v>203</v>
+      </c>
+      <c r="Z1" s="39" t="s">
         <v>204</v>
       </c>
-      <c r="F1" s="41" t="s">
-        <v>193</v>
-      </c>
-      <c r="G1" s="41" t="s">
-        <v>132</v>
-      </c>
-      <c r="I1" s="41" t="s">
-        <v>179</v>
-      </c>
-      <c r="J1" s="41" t="s">
-        <v>157</v>
-      </c>
-      <c r="K1" s="41" t="s">
-        <v>156</v>
-      </c>
-      <c r="L1" s="41" t="s">
-        <v>156</v>
-      </c>
-      <c r="M1" s="41" t="s">
-        <v>180</v>
-      </c>
-      <c r="N1" s="41" t="s">
-        <v>174</v>
-      </c>
-      <c r="O1" s="41" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q1" s="41" t="s">
-        <v>157</v>
-      </c>
-      <c r="R1" s="41" t="s">
-        <v>174</v>
-      </c>
-      <c r="S1" s="41" t="s">
-        <v>204</v>
-      </c>
-      <c r="T1" s="41" t="s">
+      <c r="AA1" s="39" t="s">
         <v>205</v>
       </c>
-      <c r="U1" s="41" t="s">
-        <v>128</v>
-      </c>
-      <c r="V1" s="41" t="s">
+      <c r="AB1" s="39" t="s">
         <v>206</v>
-      </c>
-      <c r="W1" s="41" t="s">
-        <v>207</v>
-      </c>
-      <c r="X1" s="41" t="s">
-        <v>129</v>
-      </c>
-      <c r="Y1" s="41" t="s">
-        <v>208</v>
-      </c>
-      <c r="Z1" s="41" t="s">
-        <v>209</v>
-      </c>
-      <c r="AA1" s="41" t="s">
-        <v>210</v>
-      </c>
-      <c r="AB1" s="41" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
@@ -7933,37 +7948,37 @@
         <f>Base!C67</f>
         <v>3777.7777777777783</v>
       </c>
-      <c r="Q2" s="42" t="s">
+      <c r="Q2" s="40" t="s">
         <v>165</v>
       </c>
-      <c r="R2" s="42" t="s">
+      <c r="R2" s="40" t="s">
         <v>178</v>
       </c>
-      <c r="S2" s="42"/>
-      <c r="T2" s="43">
+      <c r="S2" s="40"/>
+      <c r="T2" s="41">
         <f>Base!B15</f>
         <v>2</v>
       </c>
-      <c r="U2" s="44">
+      <c r="U2" s="42">
         <f>Base!C65</f>
         <v>2.3561643835616439</v>
       </c>
-      <c r="V2" s="42">
+      <c r="V2" s="40">
         <v>0</v>
       </c>
-      <c r="W2" s="42" t="s">
-        <v>212</v>
-      </c>
-      <c r="X2" s="42">
+      <c r="W2" s="40" t="s">
+        <v>207</v>
+      </c>
+      <c r="X2" s="40">
         <f>Base!C66</f>
         <v>23994000</v>
       </c>
-      <c r="Y2" s="42" t="s">
-        <v>213</v>
-      </c>
-      <c r="Z2" s="42"/>
-      <c r="AA2" s="42"/>
-      <c r="AB2" s="42"/>
+      <c r="Y2" s="40" t="s">
+        <v>208</v>
+      </c>
+      <c r="Z2" s="40"/>
+      <c r="AA2" s="40"/>
+      <c r="AB2" s="40"/>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -7975,47 +7990,47 @@
       <c r="C3" t="s">
         <v>168</v>
       </c>
-      <c r="I3" s="42" t="s">
+      <c r="I3" s="40" t="s">
         <v>184</v>
       </c>
-      <c r="J3" s="42" t="s">
+      <c r="J3" s="40" t="s">
         <v>165</v>
       </c>
-      <c r="K3" s="42" t="s">
+      <c r="K3" s="40" t="s">
         <v>168</v>
       </c>
-      <c r="L3" s="42" t="s">
+      <c r="L3" s="40" t="s">
         <v>162</v>
       </c>
-      <c r="M3" s="42" t="s">
+      <c r="M3" s="40" t="s">
         <v>187</v>
       </c>
-      <c r="N3" s="42" t="s">
+      <c r="N3" s="40" t="s">
         <v>178</v>
       </c>
-      <c r="O3" s="45">
+      <c r="O3" s="43">
         <f>Base!C68</f>
         <v>2266.666666666667</v>
       </c>
-      <c r="Q3" s="46" t="s">
+      <c r="Q3" s="44" t="s">
         <v>170</v>
       </c>
-      <c r="R3" s="46" t="s">
+      <c r="R3" s="44" t="s">
         <v>178</v>
       </c>
-      <c r="S3" s="46" t="b">
+      <c r="S3" s="44" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="T3" s="47"/>
-      <c r="U3" s="48"/>
-      <c r="V3" s="46"/>
-      <c r="W3" s="46"/>
-      <c r="X3" s="46"/>
-      <c r="Y3" s="46"/>
-      <c r="Z3" s="46"/>
-      <c r="AA3" s="46"/>
-      <c r="AB3" s="46"/>
+      <c r="T3" s="45"/>
+      <c r="U3" s="46"/>
+      <c r="V3" s="44"/>
+      <c r="W3" s="44"/>
+      <c r="X3" s="44"/>
+      <c r="Y3" s="44"/>
+      <c r="Z3" s="44"/>
+      <c r="AA3" s="44"/>
+      <c r="AB3" s="44"/>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -8028,7 +8043,7 @@
         <v>161</v>
       </c>
       <c r="D4" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="F4" s="7">
         <f>Base!B14</f>
@@ -8038,62 +8053,62 @@
         <f>Base!C69</f>
         <v>5.5</v>
       </c>
-      <c r="I4" s="46" t="s">
+      <c r="I4" s="44" t="s">
         <v>184</v>
       </c>
-      <c r="J4" s="46" t="s">
+      <c r="J4" s="44" t="s">
         <v>170</v>
       </c>
-      <c r="K4" s="46" t="s">
+      <c r="K4" s="44" t="s">
         <v>161</v>
       </c>
-      <c r="L4" s="46" t="s">
+      <c r="L4" s="44" t="s">
         <v>162</v>
       </c>
-      <c r="M4" s="46" t="s">
+      <c r="M4" s="44" t="s">
         <v>187</v>
       </c>
       <c r="N4" t="s">
-        <v>215</v>
-      </c>
-      <c r="O4" s="49">
+        <v>210</v>
+      </c>
+      <c r="O4" s="47">
         <f>Base!C73</f>
         <v>4111.1111111111113</v>
       </c>
-      <c r="Q4" s="42" t="s">
+      <c r="Q4" s="40" t="s">
         <v>170</v>
       </c>
-      <c r="R4" s="42" t="s">
-        <v>215</v>
-      </c>
-      <c r="S4" s="42" t="b">
+      <c r="R4" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="S4" s="40" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="T4" s="43">
+      <c r="T4" s="41">
         <f>T2</f>
         <v>2</v>
       </c>
-      <c r="U4" s="44">
+      <c r="U4" s="42">
         <f>Base!C71</f>
         <v>2.2972602739726029</v>
       </c>
-      <c r="V4" s="42">
+      <c r="V4" s="40">
         <v>0</v>
       </c>
-      <c r="W4" s="42" t="s">
-        <v>212</v>
-      </c>
-      <c r="X4" s="42">
+      <c r="W4" s="40" t="s">
+        <v>207</v>
+      </c>
+      <c r="X4" s="40">
         <f>Base!C72</f>
         <v>23354160</v>
       </c>
-      <c r="Y4" s="42" t="s">
-        <v>213</v>
-      </c>
-      <c r="Z4" s="42"/>
-      <c r="AA4" s="42"/>
-      <c r="AB4" s="42"/>
+      <c r="Y4" s="40" t="s">
+        <v>208</v>
+      </c>
+      <c r="Z4" s="40"/>
+      <c r="AA4" s="40"/>
+      <c r="AB4" s="40"/>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -8106,31 +8121,31 @@
         <v>167</v>
       </c>
       <c r="D5" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="E5" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="I5" s="42" t="s">
+      <c r="I5" s="40" t="s">
         <v>184</v>
       </c>
-      <c r="J5" s="42" t="s">
+      <c r="J5" s="40" t="s">
         <v>170</v>
       </c>
-      <c r="K5" s="42" t="s">
+      <c r="K5" s="40" t="s">
         <v>168</v>
       </c>
-      <c r="L5" s="42" t="s">
+      <c r="L5" s="40" t="s">
         <v>162</v>
       </c>
-      <c r="M5" s="42" t="s">
+      <c r="M5" s="40" t="s">
         <v>187</v>
       </c>
-      <c r="N5" s="42" t="s">
-        <v>215</v>
-      </c>
-      <c r="O5" s="45">
+      <c r="N5" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="O5" s="43">
         <f>Base!C74</f>
         <v>2466.6666666666665</v>
       </c>
@@ -8146,7 +8161,7 @@
         <v>171</v>
       </c>
       <c r="D6" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="E6" t="b">
         <f>FALSE()</f>
@@ -8164,7 +8179,7 @@
         <v>167</v>
       </c>
       <c r="D7" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="F7" s="7">
         <f>F4</f>
@@ -8176,19 +8191,19 @@
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A8" s="46" t="s">
+      <c r="A8" s="44" t="s">
         <v>183</v>
       </c>
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="44" t="s">
         <v>170</v>
       </c>
-      <c r="C8" s="46" t="s">
+      <c r="C8" s="44" t="s">
         <v>162</v>
       </c>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -8212,7 +8227,7 @@
         <v>161</v>
       </c>
       <c r="D10" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="F10" s="7">
         <f>Base!B14</f>
@@ -8234,7 +8249,7 @@
         <v>167</v>
       </c>
       <c r="D11" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="E11" t="b">
         <f>FALSE()</f>
@@ -8252,7 +8267,7 @@
         <v>171</v>
       </c>
       <c r="D12" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="E12" t="b">
         <f>FALSE()</f>
@@ -8270,7 +8285,7 @@
         <v>167</v>
       </c>
       <c r="D13" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="F13" s="7">
         <f>F10</f>
@@ -8282,13 +8297,13 @@
       </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A14" s="46"/>
-      <c r="B14" s="46"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
+      <c r="A14" s="44"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -8302,7 +8317,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8315,7 +8330,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>155</v>
+        <v>298</v>
       </c>
       <c r="B1" t="s">
         <v>157</v>
@@ -8329,7 +8344,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>202</v>
+        <v>301</v>
       </c>
       <c r="B2" t="s">
         <v>165</v>
@@ -8346,13 +8361,13 @@
         <v>180</v>
       </c>
       <c r="B3" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C3" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D3" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -8363,15 +8378,15 @@
         <v>178</v>
       </c>
       <c r="C4" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="D4" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B5">
         <f>UtilityUnit_generator!T2</f>
@@ -8386,7 +8401,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -8397,7 +8412,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -8405,7 +8420,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -8413,7 +8428,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -8421,7 +8436,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -8429,7 +8444,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -8437,7 +8452,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -8445,7 +8460,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -8453,7 +8468,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -8461,7 +8476,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -8469,7 +8484,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -8477,6 +8492,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/InputData/PlatformOperation.xlsx
+++ b/InputData/PlatformOperation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\PhD project\Products\Models\OffPlatfEner\InputData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9E217E2-A335-4DBD-B2AD-10EC3AAC85A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB78DAEA-4728-40CE-A681-3618D7E03F57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="661" firstSheet="7" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="12645" tabRatio="661" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -1688,9 +1688,6 @@
   </cellStyleXfs>
   <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1752,6 +1749,7 @@
     </xf>
     <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -2140,9 +2138,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R76"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2160,7 +2156,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
       <c r="I1" t="s">
@@ -2183,7 +2179,7 @@
       <c r="E2" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2191,7 +2187,7 @@
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>90</v>
       </c>
       <c r="C3" t="s">
@@ -2249,7 +2245,7 @@
       <c r="C5" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <f>B5*L8*10^6</f>
         <v>172222.22222222222</v>
       </c>
@@ -2292,7 +2288,7 @@
       <c r="K6" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="5">
+      <c r="L6" s="4">
         <f>1/3.6</f>
         <v>0.27777777777777779</v>
       </c>
@@ -2335,7 +2331,7 @@
       <c r="K8" t="s">
         <v>10</v>
       </c>
-      <c r="L8" s="6">
+      <c r="L8" s="5">
         <f>L3*L6/1000</f>
         <v>1.1111111111111112E-2</v>
       </c>
@@ -2375,7 +2371,7 @@
       <c r="A10" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="6">
         <v>175000</v>
       </c>
       <c r="C10" t="s">
@@ -2409,7 +2405,7 @@
       <c r="A11" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="6">
         <f>B10</f>
         <v>175000</v>
       </c>
@@ -2421,7 +2417,7 @@
       <c r="A12" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="7">
         <v>0.9</v>
       </c>
       <c r="I12">
@@ -2444,7 +2440,7 @@
       <c r="A13" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="6">
         <v>25000</v>
       </c>
       <c r="C13" t="s">
@@ -2476,7 +2472,7 @@
       <c r="A14" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="8">
         <v>31</v>
       </c>
       <c r="C14" t="s">
@@ -2487,7 +2483,7 @@
       <c r="A15" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15" s="8">
         <v>2</v>
       </c>
       <c r="C15" t="s">
@@ -2498,7 +2494,7 @@
       <c r="A16" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="6">
         <v>120</v>
       </c>
       <c r="C16" t="s">
@@ -2506,13 +2502,13 @@
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B17" s="7"/>
+      <c r="B17" s="6"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>45</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C18" t="s">
@@ -2526,13 +2522,13 @@
       <c r="A19" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="10">
+      <c r="B19" s="9">
         <v>0.03</v>
       </c>
       <c r="C19" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="1" t="s">
         <v>49</v>
       </c>
       <c r="H19" t="s">
@@ -2540,26 +2536,26 @@
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="12">
+      <c r="B20" s="11">
         <v>2015</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C20" s="10">
         <v>2020</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D20" s="11">
         <v>2030</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E20" s="10">
         <v>2040</v>
       </c>
-      <c r="F20" s="11">
+      <c r="F20" s="10">
         <v>2050</v>
       </c>
-      <c r="G20" s="11"/>
-      <c r="H20" s="13" t="s">
+      <c r="G20" s="10"/>
+      <c r="H20" s="12" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2567,19 +2563,19 @@
       <c r="A21" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="14">
+      <c r="B21" s="13">
         <v>0.34</v>
       </c>
       <c r="C21">
         <v>0.34</v>
       </c>
-      <c r="D21" s="14">
+      <c r="D21" s="13">
         <v>0.35</v>
       </c>
-      <c r="E21" s="8">
+      <c r="E21" s="7">
         <v>0.37</v>
       </c>
-      <c r="F21" s="8">
+      <c r="F21" s="7">
         <v>0.38</v>
       </c>
     </row>
@@ -2587,250 +2583,250 @@
       <c r="A22" t="s">
         <v>54</v>
       </c>
-      <c r="B22" s="15">
+      <c r="B22" s="14">
         <v>0.71</v>
       </c>
       <c r="C22">
         <v>0.71</v>
       </c>
-      <c r="D22" s="15">
+      <c r="D22" s="14">
         <v>0.73</v>
       </c>
-      <c r="E22" s="16">
+      <c r="E22" s="15">
         <v>0.8</v>
       </c>
-      <c r="F22" s="16">
+      <c r="F22" s="15">
         <v>0.8</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="H22" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="K22" s="17"/>
+      <c r="K22" s="16"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>56</v>
       </c>
-      <c r="B23" s="15">
+      <c r="B23" s="14">
         <v>0.6</v>
       </c>
       <c r="C23">
         <v>0.6</v>
       </c>
-      <c r="D23" s="15">
+      <c r="D23" s="14">
         <v>0.6</v>
       </c>
-      <c r="E23" s="16">
+      <c r="E23" s="15">
         <v>0.6</v>
       </c>
-      <c r="F23" s="16">
+      <c r="F23" s="15">
         <v>0.6</v>
       </c>
       <c r="G23" t="s">
         <v>57</v>
       </c>
-      <c r="H23" s="2"/>
-      <c r="K23" s="17"/>
+      <c r="H23" s="1"/>
+      <c r="K23" s="16"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>58</v>
       </c>
-      <c r="B24" s="15">
+      <c r="B24" s="14">
         <v>0.04</v>
       </c>
       <c r="C24">
         <v>0.04</v>
       </c>
-      <c r="D24" s="15">
+      <c r="D24" s="14">
         <v>0.04</v>
       </c>
-      <c r="E24" s="16">
+      <c r="E24" s="15">
         <v>0.04</v>
       </c>
-      <c r="F24" s="16">
+      <c r="F24" s="15">
         <v>0.04</v>
       </c>
       <c r="G24" t="s">
         <v>59</v>
       </c>
-      <c r="H24" s="2"/>
+      <c r="H24" s="1"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>60</v>
       </c>
-      <c r="B25" s="15">
+      <c r="B25" s="14">
         <v>0.75</v>
       </c>
-      <c r="C25" s="18">
+      <c r="C25" s="17">
         <v>0.77400000000000002</v>
       </c>
-      <c r="D25" s="15">
+      <c r="D25" s="14">
         <v>0.75336000000000003</v>
       </c>
-      <c r="E25" s="18">
+      <c r="E25" s="17">
         <v>0.72240000000000004</v>
       </c>
-      <c r="F25" s="18">
+      <c r="F25" s="17">
         <v>0.70176000000000005</v>
       </c>
       <c r="G25" t="s">
         <v>61</v>
       </c>
-      <c r="H25" s="2"/>
+      <c r="H25" s="1"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>62</v>
       </c>
-      <c r="B26" s="15">
+      <c r="B26" s="14">
         <v>5.5</v>
       </c>
-      <c r="C26" s="18">
+      <c r="C26" s="17">
         <v>5.8585858585858599</v>
       </c>
-      <c r="D26" s="15">
+      <c r="D26" s="14">
         <v>5.7520661157024797</v>
       </c>
-      <c r="E26" s="18">
+      <c r="E26" s="17">
         <v>5.4325068870523401</v>
       </c>
-      <c r="F26" s="18">
+      <c r="F26" s="17">
         <v>4.8999081726354499</v>
       </c>
       <c r="G26" t="s">
         <v>63</v>
       </c>
-      <c r="H26" s="2"/>
+      <c r="H26" s="1"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>64</v>
       </c>
-      <c r="B27" s="19">
+      <c r="B27" s="18">
         <v>20000</v>
       </c>
-      <c r="C27" s="20">
+      <c r="C27" s="19">
         <v>20640</v>
       </c>
-      <c r="D27" s="19">
+      <c r="D27" s="18">
         <v>20124</v>
       </c>
-      <c r="E27" s="20">
+      <c r="E27" s="19">
         <v>19195.2</v>
       </c>
-      <c r="F27" s="20">
+      <c r="F27" s="19">
         <v>18576</v>
       </c>
       <c r="G27" t="s">
         <v>65</v>
       </c>
-      <c r="H27" s="2"/>
+      <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>66</v>
       </c>
-      <c r="B28" s="19">
+      <c r="B28" s="18">
         <v>25</v>
       </c>
       <c r="C28">
         <v>25</v>
       </c>
-      <c r="D28" s="19">
+      <c r="D28" s="18">
         <v>25</v>
       </c>
-      <c r="E28" s="7">
+      <c r="E28" s="6">
         <v>25</v>
       </c>
-      <c r="F28" s="7">
+      <c r="F28" s="6">
         <v>25</v>
       </c>
       <c r="G28" t="s">
         <v>67</v>
       </c>
-      <c r="H28" s="2"/>
+      <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>68</v>
       </c>
-      <c r="B29" s="21">
+      <c r="B29" s="20">
         <v>0.02</v>
       </c>
       <c r="C29">
         <v>0.02</v>
       </c>
-      <c r="D29" s="21">
+      <c r="D29" s="20">
         <v>0.02</v>
       </c>
-      <c r="E29" s="22">
+      <c r="E29" s="21">
         <v>0.02</v>
       </c>
-      <c r="F29" s="22">
+      <c r="F29" s="21">
         <v>0.02</v>
       </c>
-      <c r="H29" s="2"/>
+      <c r="H29" s="1"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>69</v>
       </c>
-      <c r="B30" s="23">
+      <c r="B30" s="22">
         <v>3</v>
       </c>
       <c r="C30">
         <v>3</v>
       </c>
-      <c r="D30" s="23">
+      <c r="D30" s="22">
         <v>2.8</v>
       </c>
-      <c r="E30" s="24">
+      <c r="E30" s="23">
         <v>2.5</v>
       </c>
-      <c r="F30" s="24">
+      <c r="F30" s="23">
         <v>2.5</v>
       </c>
       <c r="G30" t="s">
         <v>70</v>
       </c>
-      <c r="H30" s="2"/>
-      <c r="L30" s="25"/>
-      <c r="M30" s="25"/>
-      <c r="N30" s="25"/>
-      <c r="O30" s="25"/>
+      <c r="H30" s="1"/>
+      <c r="L30" s="24"/>
+      <c r="M30" s="24"/>
+      <c r="N30" s="24"/>
+      <c r="O30" s="24"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>69</v>
       </c>
-      <c r="B31" s="26">
+      <c r="B31" s="25">
         <f>B30*24*7/$L$12</f>
         <v>5.7534246575342465E-2</v>
       </c>
       <c r="C31">
         <v>0.06</v>
       </c>
-      <c r="D31" s="26">
+      <c r="D31" s="25">
         <f>D30*24*7/$L$12</f>
         <v>5.3698630136986295E-2</v>
       </c>
-      <c r="E31" s="22">
+      <c r="E31" s="21">
         <f>E30*24*7/$L$12</f>
         <v>4.7945205479452052E-2</v>
       </c>
-      <c r="F31" s="22">
+      <c r="F31" s="21">
         <f>F30*24*7/$L$12</f>
         <v>4.7945205479452052E-2</v>
       </c>
-      <c r="H31" s="2"/>
+      <c r="H31" s="1"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>71</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C33" t="s">
@@ -2839,13 +2835,13 @@
       <c r="D33" t="s">
         <v>72</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E33" s="2">
         <v>400000</v>
       </c>
       <c r="F33" t="s">
         <v>73</v>
       </c>
-      <c r="G33" s="2" t="s">
+      <c r="G33" s="1" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2853,7 +2849,7 @@
       <c r="A34" t="s">
         <v>75</v>
       </c>
-      <c r="B34" s="7">
+      <c r="B34" s="6">
         <f>D10*B12/L13</f>
         <v>10434.375</v>
       </c>
@@ -2874,14 +2870,14 @@
       <c r="A35" t="s">
         <v>79</v>
       </c>
-      <c r="B35" s="7">
+      <c r="B35" s="6">
         <f>D5*B12/L13</f>
         <v>6458.333333333333</v>
       </c>
       <c r="C35" t="s">
         <v>76</v>
       </c>
-      <c r="E35" s="27">
+      <c r="E35" s="26">
         <f>E34/L4*10^6</f>
         <v>503144654.08805031</v>
       </c>
@@ -2893,7 +2889,7 @@
       <c r="A36" t="s">
         <v>80</v>
       </c>
-      <c r="B36" s="7">
+      <c r="B36" s="6">
         <f>B35*B19</f>
         <v>193.74999999999997</v>
       </c>
@@ -2903,7 +2899,7 @@
       <c r="D36" t="s">
         <v>81</v>
       </c>
-      <c r="E36" s="28">
+      <c r="E36" s="27">
         <v>0.46</v>
       </c>
       <c r="F36" t="s">
@@ -2912,7 +2908,7 @@
       <c r="G36" t="s">
         <v>83</v>
       </c>
-      <c r="I36" s="2" t="s">
+      <c r="I36" s="1" t="s">
         <v>84</v>
       </c>
       <c r="J36" t="s">
@@ -2923,14 +2919,14 @@
       <c r="A37" t="s">
         <v>86</v>
       </c>
-      <c r="B37" s="7">
+      <c r="B37" s="6">
         <f>B49/B21</f>
         <v>89.370588235294107</v>
       </c>
       <c r="C37" t="s">
         <v>76</v>
       </c>
-      <c r="E37" s="27">
+      <c r="E37" s="26">
         <f>E36*L8*10^6</f>
         <v>5111.1111111111113</v>
       </c>
@@ -2939,243 +2935,243 @@
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="29" t="s">
+      <c r="A39" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="B39" s="29" t="s">
+      <c r="B39" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="C39" s="29" t="s">
+      <c r="C39" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="D39" s="29" t="s">
+      <c r="D39" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="E39" s="29" t="s">
+      <c r="E39" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="F39" s="29" t="s">
+      <c r="F39" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="G39" s="29" t="s">
+      <c r="G39" s="28" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" s="29" t="s">
+      <c r="A40" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="B40" s="29"/>
-      <c r="C40" s="29"/>
-      <c r="D40" s="29"/>
-      <c r="E40" s="29"/>
-      <c r="F40" s="29"/>
-      <c r="G40" s="29"/>
+      <c r="B40" s="28"/>
+      <c r="C40" s="28"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="28"/>
+      <c r="G40" s="28"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="29" t="s">
+      <c r="A41" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="B41" s="29">
+      <c r="B41" s="28">
         <v>12.5</v>
       </c>
-      <c r="C41" s="29">
+      <c r="C41" s="28">
         <v>13.9</v>
       </c>
-      <c r="D41" s="29">
+      <c r="D41" s="28">
         <v>14.6</v>
       </c>
-      <c r="E41" s="30">
+      <c r="E41" s="29">
         <f>C41-B41</f>
         <v>1.4000000000000004</v>
       </c>
-      <c r="F41" s="30">
+      <c r="F41" s="29">
         <f>D41-C41</f>
         <v>0.69999999999999929</v>
       </c>
-      <c r="G41" s="30">
+      <c r="G41" s="29">
         <f>D41-B41</f>
         <v>2.0999999999999996</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="29" t="s">
+      <c r="A42" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="B42" s="29">
+      <c r="B42" s="28">
         <v>1.7</v>
       </c>
-      <c r="C42" s="29">
+      <c r="C42" s="28">
         <v>1.9</v>
       </c>
-      <c r="D42" s="29">
+      <c r="D42" s="28">
         <v>2.2999999999999998</v>
       </c>
-      <c r="E42" s="30">
+      <c r="E42" s="29">
         <f>C42-B42</f>
         <v>0.19999999999999996</v>
       </c>
-      <c r="F42" s="30">
+      <c r="F42" s="29">
         <f>D42-C42</f>
         <v>0.39999999999999991</v>
       </c>
-      <c r="G42" s="30">
+      <c r="G42" s="29">
         <f>D42-B42</f>
         <v>0.59999999999999987</v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A43" s="29" t="s">
+      <c r="A43" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="B43" s="29">
+      <c r="B43" s="28">
         <v>2</v>
       </c>
-      <c r="C43" s="29">
+      <c r="C43" s="28">
         <v>2</v>
       </c>
-      <c r="D43" s="29">
+      <c r="D43" s="28">
         <v>2</v>
       </c>
-      <c r="E43" s="30"/>
-      <c r="F43" s="30"/>
-      <c r="G43" s="30"/>
-      <c r="J43" s="31"/>
-      <c r="K43" s="32"/>
-      <c r="L43" s="32"/>
-      <c r="M43" s="32"/>
-      <c r="N43" s="32"/>
-      <c r="O43" s="32"/>
-      <c r="P43" s="32"/>
-      <c r="R43" s="32"/>
+      <c r="E43" s="29"/>
+      <c r="F43" s="29"/>
+      <c r="G43" s="29"/>
+      <c r="J43" s="30"/>
+      <c r="K43" s="31"/>
+      <c r="L43" s="31"/>
+      <c r="M43" s="31"/>
+      <c r="N43" s="31"/>
+      <c r="O43" s="31"/>
+      <c r="P43" s="31"/>
+      <c r="R43" s="31"/>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A44" s="29" t="s">
+      <c r="A44" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="B44" s="29">
+      <c r="B44" s="28">
         <v>16.2</v>
       </c>
-      <c r="C44" s="29">
+      <c r="C44" s="28">
         <v>17.8</v>
       </c>
-      <c r="D44" s="29">
+      <c r="D44" s="28">
         <v>18.899999999999999</v>
       </c>
-      <c r="E44" s="30">
+      <c r="E44" s="29">
         <f>C44-B44</f>
         <v>1.6000000000000014</v>
       </c>
-      <c r="F44" s="30">
+      <c r="F44" s="29">
         <f>D44-C44</f>
         <v>1.0999999999999979</v>
       </c>
-      <c r="G44" s="30">
+      <c r="G44" s="29">
         <f>D44-B44</f>
         <v>2.6999999999999993</v>
       </c>
-      <c r="K44" s="25"/>
-      <c r="L44" s="25"/>
-      <c r="M44" s="25"/>
-      <c r="N44" s="25"/>
-      <c r="O44" s="25"/>
-      <c r="P44" s="25"/>
-      <c r="R44" s="25"/>
+      <c r="K44" s="24"/>
+      <c r="L44" s="24"/>
+      <c r="M44" s="24"/>
+      <c r="N44" s="24"/>
+      <c r="O44" s="24"/>
+      <c r="P44" s="24"/>
+      <c r="R44" s="24"/>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A45" s="29"/>
-      <c r="B45" s="29"/>
-      <c r="C45" s="29"/>
-      <c r="D45" s="29"/>
-      <c r="E45" s="30"/>
-      <c r="F45" s="30"/>
-      <c r="G45" s="30"/>
+      <c r="A45" s="28"/>
+      <c r="B45" s="28"/>
+      <c r="C45" s="28"/>
+      <c r="D45" s="28"/>
+      <c r="E45" s="29"/>
+      <c r="F45" s="29"/>
+      <c r="G45" s="29"/>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" s="29" t="s">
+      <c r="A46" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="B46" s="29"/>
-      <c r="C46" s="29"/>
-      <c r="D46" s="29"/>
-      <c r="E46" s="30"/>
-      <c r="F46" s="30"/>
-      <c r="G46" s="30"/>
+      <c r="B46" s="28"/>
+      <c r="C46" s="28"/>
+      <c r="D46" s="28"/>
+      <c r="E46" s="29"/>
+      <c r="F46" s="29"/>
+      <c r="G46" s="29"/>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47" s="29" t="s">
+      <c r="A47" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="B47" s="30">
+      <c r="B47" s="29">
         <v>27.02</v>
       </c>
-      <c r="C47" s="30">
+      <c r="C47" s="29">
         <v>31.888000000000002</v>
       </c>
-      <c r="D47" s="30">
+      <c r="D47" s="29">
         <v>33.588000000000001</v>
       </c>
-      <c r="E47" s="30">
+      <c r="E47" s="29">
         <f t="shared" ref="E47:F49" si="0">C47-B47</f>
         <v>4.8680000000000021</v>
       </c>
-      <c r="F47" s="30">
+      <c r="F47" s="29">
         <f t="shared" si="0"/>
         <v>1.6999999999999993</v>
       </c>
-      <c r="G47" s="30">
+      <c r="G47" s="29">
         <f>D47-B47</f>
         <v>6.5680000000000014</v>
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A48" s="29" t="s">
+      <c r="A48" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="B48" s="30">
+      <c r="B48" s="29">
         <v>3.3660000000000001</v>
       </c>
-      <c r="C48" s="30">
+      <c r="C48" s="29">
         <v>3.7559999999999998</v>
       </c>
-      <c r="D48" s="30">
+      <c r="D48" s="29">
         <v>3.8879999999999999</v>
       </c>
-      <c r="E48" s="30">
+      <c r="E48" s="29">
         <f t="shared" si="0"/>
         <v>0.38999999999999968</v>
       </c>
-      <c r="F48" s="30">
+      <c r="F48" s="29">
         <f t="shared" si="0"/>
         <v>0.13200000000000012</v>
       </c>
-      <c r="G48" s="30">
+      <c r="G48" s="29">
         <f>D48-B48</f>
         <v>0.5219999999999998</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="29" t="s">
+      <c r="A49" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="B49" s="30">
+      <c r="B49" s="29">
         <v>30.385999999999999</v>
       </c>
-      <c r="C49" s="30">
+      <c r="C49" s="29">
         <v>35.643999999999998</v>
       </c>
-      <c r="D49" s="30">
+      <c r="D49" s="29">
         <v>37.475999999999999</v>
       </c>
-      <c r="E49" s="30">
+      <c r="E49" s="29">
         <f t="shared" si="0"/>
         <v>5.2579999999999991</v>
       </c>
-      <c r="F49" s="30">
+      <c r="F49" s="29">
         <f t="shared" si="0"/>
         <v>1.8320000000000007</v>
       </c>
-      <c r="G49" s="33">
+      <c r="G49" s="32">
         <f>D49-B49</f>
         <v>7.09</v>
       </c>
@@ -3212,7 +3208,7 @@
       <c r="B53" t="s">
         <v>108</v>
       </c>
-      <c r="C53" s="34">
+      <c r="C53" s="33">
         <f>B34/L10/10^6</f>
         <v>1.0434375000000001E-3</v>
       </c>
@@ -3224,7 +3220,7 @@
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C54" s="34">
+      <c r="C54" s="33">
         <f>B35/L8/10^6</f>
         <v>0.58125000000000004</v>
       </c>
@@ -3234,10 +3230,10 @@
       <c r="E54" t="s">
         <v>111</v>
       </c>
-      <c r="G54" s="4"/>
+      <c r="G54" s="3"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C55" s="35">
+      <c r="C55" s="34">
         <f>SUM(C53:C54)</f>
         <v>0.58229343750000007</v>
       </c>
@@ -3252,7 +3248,7 @@
       <c r="B56" t="s">
         <v>113</v>
       </c>
-      <c r="C56" s="35">
+      <c r="C56" s="34">
         <f>C53/C55</f>
         <v>1.7919444609918002E-3</v>
       </c>
@@ -3261,7 +3257,7 @@
       <c r="B57" t="s">
         <v>114</v>
       </c>
-      <c r="C57" s="35">
+      <c r="C57" s="34">
         <f>C54/C55</f>
         <v>0.99820805553900815</v>
       </c>
@@ -3281,7 +3277,7 @@
       <c r="B59" t="s">
         <v>116</v>
       </c>
-      <c r="C59" s="27">
+      <c r="C59" s="26">
         <f>C55*C58*L12</f>
         <v>255044.52562500001</v>
       </c>
@@ -3293,7 +3289,7 @@
       <c r="B60" t="s">
         <v>118</v>
       </c>
-      <c r="C60" s="27">
+      <c r="C60" s="26">
         <f>SUM(ProductionUnit_well_stream_ts!B8:B8)*Base!L12*10</f>
         <v>51008.905125000012</v>
       </c>
@@ -3308,7 +3304,7 @@
       <c r="B61" t="s">
         <v>120</v>
       </c>
-      <c r="C61" s="3">
+      <c r="C61" s="2">
         <f>B47/C55</f>
         <v>46.402721136626234</v>
       </c>
@@ -3320,7 +3316,7 @@
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C62" s="3">
+      <c r="C62" s="2">
         <f>SUM(B41,B43)/C55</f>
         <v>24.901534288715041</v>
       </c>
@@ -3338,7 +3334,7 @@
       <c r="B63" t="s">
         <v>125</v>
       </c>
-      <c r="C63" s="3">
+      <c r="C63" s="2">
         <f>B48/B3</f>
         <v>3.7400000000000003E-2</v>
       </c>
@@ -3350,7 +3346,7 @@
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C64" s="3">
+      <c r="C64" s="2">
         <f>B42/B3</f>
         <v>1.8888888888888889E-2</v>
       </c>
@@ -3368,7 +3364,7 @@
       <c r="B65" t="s">
         <v>128</v>
       </c>
-      <c r="C65" s="3">
+      <c r="C65" s="2">
         <f>C27/L12</f>
         <v>2.3561643835616439</v>
       </c>
@@ -3380,7 +3376,7 @@
       <c r="B66" t="s">
         <v>129</v>
       </c>
-      <c r="C66" s="3">
+      <c r="C66" s="2">
         <f>C25*B14*10^6</f>
         <v>23994000</v>
       </c>
@@ -3392,7 +3388,7 @@
       <c r="B67" t="s">
         <v>131</v>
       </c>
-      <c r="C67" s="27">
+      <c r="C67" s="26">
         <f>B21*L8*10^6</f>
         <v>3777.7777777777783</v>
       </c>
@@ -3404,7 +3400,7 @@
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C68" s="27">
+      <c r="C68" s="26">
         <f>C67*B23</f>
         <v>2266.666666666667</v>
       </c>
@@ -3419,7 +3415,7 @@
       <c r="B69" t="s">
         <v>132</v>
       </c>
-      <c r="C69" s="36">
+      <c r="C69" s="35">
         <f>B26</f>
         <v>5.5</v>
       </c>
@@ -3428,7 +3424,7 @@
       <c r="B70" t="s">
         <v>133</v>
       </c>
-      <c r="C70" s="37">
+      <c r="C70" s="36">
         <f>1-SUM(B31,B29)</f>
         <v>0.92246575342465753</v>
       </c>
@@ -3440,7 +3436,7 @@
       <c r="B71" t="s">
         <v>128</v>
       </c>
-      <c r="C71" s="3">
+      <c r="C71" s="2">
         <f>D27/L12</f>
         <v>2.2972602739726029</v>
       </c>
@@ -3452,7 +3448,7 @@
       <c r="B72" t="s">
         <v>129</v>
       </c>
-      <c r="C72" s="3">
+      <c r="C72" s="2">
         <f>D25*B14*10^6</f>
         <v>23354160</v>
       </c>
@@ -3464,7 +3460,7 @@
       <c r="B73" t="s">
         <v>131</v>
       </c>
-      <c r="C73" s="27">
+      <c r="C73" s="26">
         <f>E21*L8*10^6</f>
         <v>4111.1111111111113</v>
       </c>
@@ -3476,7 +3472,7 @@
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C74" s="27">
+      <c r="C74" s="26">
         <f>C73*E23</f>
         <v>2466.6666666666665</v>
       </c>
@@ -3491,7 +3487,7 @@
       <c r="B75" t="s">
         <v>132</v>
       </c>
-      <c r="C75" s="36">
+      <c r="C75" s="35">
         <f>D26</f>
         <v>5.7520661157024797</v>
       </c>
@@ -3500,7 +3496,7 @@
       <c r="B76" t="s">
         <v>133</v>
       </c>
-      <c r="C76" s="37">
+      <c r="C76" s="36">
         <f>1-SUM(E29,E31)</f>
         <v>0.93205479452054796</v>
       </c>
@@ -4139,28 +4135,28 @@
       <c r="A5" t="s">
         <v>190</v>
       </c>
-      <c r="B5" s="48">
+      <c r="B5" s="47">
         <v>0</v>
       </c>
-      <c r="C5" s="48">
+      <c r="C5" s="47">
         <v>0</v>
       </c>
-      <c r="D5" s="48">
+      <c r="D5" s="47">
         <v>0</v>
       </c>
-      <c r="E5" s="48">
+      <c r="E5" s="47">
         <v>0</v>
       </c>
-      <c r="F5" s="48">
+      <c r="F5" s="47">
         <v>0</v>
       </c>
-      <c r="G5" s="48">
+      <c r="G5" s="47">
         <v>0</v>
       </c>
-      <c r="H5" s="48">
+      <c r="H5" s="47">
         <v>0</v>
       </c>
-      <c r="I5" s="48">
+      <c r="I5" s="47">
         <v>0</v>
       </c>
     </row>
@@ -4168,28 +4164,28 @@
       <c r="A6" t="s">
         <v>243</v>
       </c>
-      <c r="B6" s="48">
+      <c r="B6" s="47">
         <v>47.96</v>
       </c>
-      <c r="C6" s="48">
+      <c r="C6" s="47">
         <v>47.96</v>
       </c>
-      <c r="D6" s="48">
+      <c r="D6" s="47">
         <v>47.96</v>
       </c>
-      <c r="E6" s="48">
+      <c r="E6" s="47">
         <v>47.96</v>
       </c>
-      <c r="F6" s="48">
+      <c r="F6" s="47">
         <v>47.96</v>
       </c>
-      <c r="G6" s="48">
+      <c r="G6" s="47">
         <v>47.96</v>
       </c>
-      <c r="H6" s="48">
+      <c r="H6" s="47">
         <v>47.96</v>
       </c>
-      <c r="I6" s="48">
+      <c r="I6" s="47">
         <v>47.96</v>
       </c>
     </row>
@@ -4197,28 +4193,28 @@
       <c r="A7" t="s">
         <v>244</v>
       </c>
-      <c r="B7" s="48">
+      <c r="B7" s="47">
         <v>52.56</v>
       </c>
-      <c r="C7" s="48">
+      <c r="C7" s="47">
         <v>52.56</v>
       </c>
-      <c r="D7" s="48">
+      <c r="D7" s="47">
         <v>52.56</v>
       </c>
-      <c r="E7" s="48">
+      <c r="E7" s="47">
         <v>52.56</v>
       </c>
-      <c r="F7" s="48">
+      <c r="F7" s="47">
         <v>52.56</v>
       </c>
-      <c r="G7" s="48">
+      <c r="G7" s="47">
         <v>52.56</v>
       </c>
-      <c r="H7" s="48">
+      <c r="H7" s="47">
         <v>52.56</v>
       </c>
-      <c r="I7" s="48">
+      <c r="I7" s="47">
         <v>52.56</v>
       </c>
     </row>
@@ -4226,28 +4222,28 @@
       <c r="A8" t="s">
         <v>245</v>
       </c>
-      <c r="B8" s="48">
+      <c r="B8" s="47">
         <v>83.03</v>
       </c>
-      <c r="C8" s="48">
+      <c r="C8" s="47">
         <v>83.03</v>
       </c>
-      <c r="D8" s="48">
+      <c r="D8" s="47">
         <v>83.03</v>
       </c>
-      <c r="E8" s="48">
+      <c r="E8" s="47">
         <v>83.03</v>
       </c>
-      <c r="F8" s="48">
+      <c r="F8" s="47">
         <v>83.03</v>
       </c>
-      <c r="G8" s="48">
+      <c r="G8" s="47">
         <v>83.03</v>
       </c>
-      <c r="H8" s="48">
+      <c r="H8" s="47">
         <v>83.03</v>
       </c>
-      <c r="I8" s="48">
+      <c r="I8" s="47">
         <v>83.03</v>
       </c>
     </row>
@@ -4255,35 +4251,35 @@
       <c r="A9" t="s">
         <v>246</v>
       </c>
-      <c r="B9" s="48">
+      <c r="B9" s="47">
         <f>B8</f>
         <v>83.03</v>
       </c>
-      <c r="C9" s="50">
+      <c r="C9" s="49">
         <f t="shared" ref="C9:C55" si="0">C8*(1+0.01)</f>
         <v>83.860299999999995</v>
       </c>
-      <c r="D9" s="50">
+      <c r="D9" s="49">
         <f t="shared" ref="D9:D55" si="1">D8*(1+0.05)</f>
         <v>87.1815</v>
       </c>
-      <c r="E9" s="50">
+      <c r="E9" s="49">
         <f t="shared" ref="E9:E55" si="2">E8*(1+0.075)</f>
         <v>89.257249999999999</v>
       </c>
-      <c r="F9" s="50">
+      <c r="F9" s="49">
         <f t="shared" ref="F9:F55" si="3">F8*(1+0.1)</f>
         <v>91.333000000000013</v>
       </c>
-      <c r="G9" s="28">
+      <c r="G9" s="27">
         <f t="shared" ref="G9:G55" si="4">G8*(1+0.15)</f>
         <v>95.484499999999997</v>
       </c>
-      <c r="H9" s="28">
+      <c r="H9" s="27">
         <f t="shared" ref="H9:H55" si="5">H8*(1+0.18)</f>
         <v>97.975399999999993</v>
       </c>
-      <c r="I9" s="28">
+      <c r="I9" s="27">
         <f t="shared" ref="I9:I55" si="6">I8*(1+0.2)</f>
         <v>99.635999999999996</v>
       </c>
@@ -4292,35 +4288,35 @@
       <c r="A10" t="s">
         <v>214</v>
       </c>
-      <c r="B10" s="48">
+      <c r="B10" s="47">
         <f t="shared" ref="B10:B55" si="7">B9</f>
         <v>83.03</v>
       </c>
-      <c r="C10" s="50">
+      <c r="C10" s="49">
         <f t="shared" si="0"/>
         <v>84.698903000000001</v>
       </c>
-      <c r="D10" s="50">
+      <c r="D10" s="49">
         <f t="shared" si="1"/>
         <v>91.540575000000004</v>
       </c>
-      <c r="E10" s="50">
+      <c r="E10" s="49">
         <f t="shared" si="2"/>
         <v>95.951543749999999</v>
       </c>
-      <c r="F10" s="50">
+      <c r="F10" s="49">
         <f t="shared" si="3"/>
         <v>100.46630000000002</v>
       </c>
-      <c r="G10" s="28">
+      <c r="G10" s="27">
         <f t="shared" si="4"/>
         <v>109.80717499999999</v>
       </c>
-      <c r="H10" s="28">
+      <c r="H10" s="27">
         <f t="shared" si="5"/>
         <v>115.61097199999999</v>
       </c>
-      <c r="I10" s="28">
+      <c r="I10" s="27">
         <f t="shared" si="6"/>
         <v>119.56319999999999</v>
       </c>
@@ -4329,35 +4325,35 @@
       <c r="A11" t="s">
         <v>247</v>
       </c>
-      <c r="B11" s="48">
+      <c r="B11" s="47">
         <f t="shared" si="7"/>
         <v>83.03</v>
       </c>
-      <c r="C11" s="50">
+      <c r="C11" s="49">
         <f t="shared" si="0"/>
         <v>85.545892030000005</v>
       </c>
-      <c r="D11" s="50">
+      <c r="D11" s="49">
         <f t="shared" si="1"/>
         <v>96.117603750000015</v>
       </c>
-      <c r="E11" s="50">
+      <c r="E11" s="49">
         <f t="shared" si="2"/>
         <v>103.14790953124999</v>
       </c>
-      <c r="F11" s="50">
+      <c r="F11" s="49">
         <f t="shared" si="3"/>
         <v>110.51293000000003</v>
       </c>
-      <c r="G11" s="28">
+      <c r="G11" s="27">
         <f t="shared" si="4"/>
         <v>126.27825124999997</v>
       </c>
-      <c r="H11" s="28">
+      <c r="H11" s="27">
         <f t="shared" si="5"/>
         <v>136.42094695999998</v>
       </c>
-      <c r="I11" s="28">
+      <c r="I11" s="27">
         <f t="shared" si="6"/>
         <v>143.47583999999998</v>
       </c>
@@ -4366,35 +4362,35 @@
       <c r="A12" t="s">
         <v>248</v>
       </c>
-      <c r="B12" s="48">
+      <c r="B12" s="47">
         <f t="shared" si="7"/>
         <v>83.03</v>
       </c>
-      <c r="C12" s="50">
+      <c r="C12" s="49">
         <f t="shared" si="0"/>
         <v>86.401350950299999</v>
       </c>
-      <c r="D12" s="50">
+      <c r="D12" s="49">
         <f t="shared" si="1"/>
         <v>100.92348393750002</v>
       </c>
-      <c r="E12" s="50">
+      <c r="E12" s="49">
         <f t="shared" si="2"/>
         <v>110.88400274609374</v>
       </c>
-      <c r="F12" s="50">
+      <c r="F12" s="49">
         <f t="shared" si="3"/>
         <v>121.56422300000004</v>
       </c>
-      <c r="G12" s="28">
+      <c r="G12" s="27">
         <f t="shared" si="4"/>
         <v>145.21998893749995</v>
       </c>
-      <c r="H12" s="28">
+      <c r="H12" s="27">
         <f t="shared" si="5"/>
         <v>160.97671741279996</v>
       </c>
-      <c r="I12" s="28">
+      <c r="I12" s="27">
         <f t="shared" si="6"/>
         <v>172.17100799999997</v>
       </c>
@@ -4403,35 +4399,35 @@
       <c r="A13" t="s">
         <v>249</v>
       </c>
-      <c r="B13" s="48">
+      <c r="B13" s="47">
         <f t="shared" si="7"/>
         <v>83.03</v>
       </c>
-      <c r="C13" s="50">
+      <c r="C13" s="49">
         <f t="shared" si="0"/>
         <v>87.265364459802996</v>
       </c>
-      <c r="D13" s="50">
+      <c r="D13" s="49">
         <f t="shared" si="1"/>
         <v>105.96965813437502</v>
       </c>
-      <c r="E13" s="50">
+      <c r="E13" s="49">
         <f t="shared" si="2"/>
         <v>119.20030295205076</v>
       </c>
-      <c r="F13" s="50">
+      <c r="F13" s="49">
         <f t="shared" si="3"/>
         <v>133.72064530000006</v>
       </c>
-      <c r="G13" s="28">
+      <c r="G13" s="27">
         <f t="shared" si="4"/>
         <v>167.00298727812492</v>
       </c>
-      <c r="H13" s="28">
+      <c r="H13" s="27">
         <f t="shared" si="5"/>
         <v>189.95252654710393</v>
       </c>
-      <c r="I13" s="28">
+      <c r="I13" s="27">
         <f t="shared" si="6"/>
         <v>206.60520959999997</v>
       </c>
@@ -4440,35 +4436,35 @@
       <c r="A14" t="s">
         <v>250</v>
       </c>
-      <c r="B14" s="48">
+      <c r="B14" s="47">
         <f t="shared" si="7"/>
         <v>83.03</v>
       </c>
-      <c r="C14" s="50">
+      <c r="C14" s="49">
         <f t="shared" si="0"/>
         <v>88.138018104401027</v>
       </c>
-      <c r="D14" s="50">
+      <c r="D14" s="49">
         <f t="shared" si="1"/>
         <v>111.26814104109378</v>
       </c>
-      <c r="E14" s="50">
+      <c r="E14" s="49">
         <f t="shared" si="2"/>
         <v>128.14032567345456</v>
       </c>
-      <c r="F14" s="50">
+      <c r="F14" s="49">
         <f t="shared" si="3"/>
         <v>147.09270983000008</v>
       </c>
-      <c r="G14" s="28">
+      <c r="G14" s="27">
         <f t="shared" si="4"/>
         <v>192.05343536984364</v>
       </c>
-      <c r="H14" s="28">
+      <c r="H14" s="27">
         <f t="shared" si="5"/>
         <v>224.14398132558262</v>
       </c>
-      <c r="I14" s="28">
+      <c r="I14" s="27">
         <f t="shared" si="6"/>
         <v>247.92625151999994</v>
       </c>
@@ -4477,35 +4473,35 @@
       <c r="A15" t="s">
         <v>191</v>
       </c>
-      <c r="B15" s="48">
+      <c r="B15" s="47">
         <f t="shared" si="7"/>
         <v>83.03</v>
       </c>
-      <c r="C15" s="50">
+      <c r="C15" s="49">
         <f t="shared" si="0"/>
         <v>89.019398285445035</v>
       </c>
-      <c r="D15" s="50">
+      <c r="D15" s="49">
         <f t="shared" si="1"/>
         <v>116.83154809314848</v>
       </c>
-      <c r="E15" s="50">
+      <c r="E15" s="49">
         <f t="shared" si="2"/>
         <v>137.75085009896364</v>
       </c>
-      <c r="F15" s="50">
+      <c r="F15" s="49">
         <f t="shared" si="3"/>
         <v>161.80198081300009</v>
       </c>
-      <c r="G15" s="28">
+      <c r="G15" s="27">
         <f t="shared" si="4"/>
         <v>220.86145067532016</v>
       </c>
-      <c r="H15" s="28">
+      <c r="H15" s="27">
         <f t="shared" si="5"/>
         <v>264.48989796418749</v>
       </c>
-      <c r="I15" s="28">
+      <c r="I15" s="27">
         <f t="shared" si="6"/>
         <v>297.51150182399994</v>
       </c>
@@ -4514,35 +4510,35 @@
       <c r="A16" t="s">
         <v>251</v>
       </c>
-      <c r="B16" s="48">
+      <c r="B16" s="47">
         <f t="shared" si="7"/>
         <v>83.03</v>
       </c>
-      <c r="C16" s="50">
+      <c r="C16" s="49">
         <f t="shared" si="0"/>
         <v>89.909592268299491</v>
       </c>
-      <c r="D16" s="50">
+      <c r="D16" s="49">
         <f t="shared" si="1"/>
         <v>122.67312549780591</v>
       </c>
-      <c r="E16" s="50">
+      <c r="E16" s="49">
         <f t="shared" si="2"/>
         <v>148.0821638563859</v>
       </c>
-      <c r="F16" s="50">
+      <c r="F16" s="49">
         <f t="shared" si="3"/>
         <v>177.98217889430012</v>
       </c>
-      <c r="G16" s="28">
+      <c r="G16" s="27">
         <f t="shared" si="4"/>
         <v>253.99066827661815</v>
       </c>
-      <c r="H16" s="28">
+      <c r="H16" s="27">
         <f t="shared" si="5"/>
         <v>312.09807959774122</v>
       </c>
-      <c r="I16" s="28">
+      <c r="I16" s="27">
         <f t="shared" si="6"/>
         <v>357.0138021887999</v>
       </c>
@@ -4551,35 +4547,35 @@
       <c r="A17" t="s">
         <v>252</v>
       </c>
-      <c r="B17" s="48">
+      <c r="B17" s="47">
         <f t="shared" si="7"/>
         <v>83.03</v>
       </c>
-      <c r="C17" s="50">
+      <c r="C17" s="49">
         <f t="shared" si="0"/>
         <v>90.80868819098248</v>
       </c>
-      <c r="D17" s="50">
+      <c r="D17" s="49">
         <f t="shared" si="1"/>
         <v>128.80678177269621</v>
       </c>
-      <c r="E17" s="50">
+      <c r="E17" s="49">
         <f t="shared" si="2"/>
         <v>159.18832614561484</v>
       </c>
-      <c r="F17" s="50">
+      <c r="F17" s="49">
         <f t="shared" si="3"/>
         <v>195.78039678373014</v>
       </c>
-      <c r="G17" s="28">
+      <c r="G17" s="27">
         <f t="shared" si="4"/>
         <v>292.08926851811083</v>
       </c>
-      <c r="H17" s="28">
+      <c r="H17" s="27">
         <f t="shared" si="5"/>
         <v>368.27573392533463</v>
       </c>
-      <c r="I17" s="28">
+      <c r="I17" s="27">
         <f t="shared" si="6"/>
         <v>428.41656262655988</v>
       </c>
@@ -4588,35 +4584,35 @@
       <c r="A18" t="s">
         <v>253</v>
       </c>
-      <c r="B18" s="48">
+      <c r="B18" s="47">
         <f t="shared" si="7"/>
         <v>83.03</v>
       </c>
-      <c r="C18" s="50">
+      <c r="C18" s="49">
         <f t="shared" si="0"/>
         <v>91.716775072892304</v>
       </c>
-      <c r="D18" s="50">
+      <c r="D18" s="49">
         <f t="shared" si="1"/>
         <v>135.24712086133104</v>
       </c>
-      <c r="E18" s="50">
+      <c r="E18" s="49">
         <f t="shared" si="2"/>
         <v>171.12745060653594</v>
       </c>
-      <c r="F18" s="50">
+      <c r="F18" s="49">
         <f t="shared" si="3"/>
         <v>215.35843646210319</v>
       </c>
-      <c r="G18" s="28">
+      <c r="G18" s="27">
         <f t="shared" si="4"/>
         <v>335.90265879582745</v>
       </c>
-      <c r="H18" s="28">
+      <c r="H18" s="27">
         <f t="shared" si="5"/>
         <v>434.56536603189483</v>
       </c>
-      <c r="I18" s="28">
+      <c r="I18" s="27">
         <f t="shared" si="6"/>
         <v>514.09987515187186</v>
       </c>
@@ -4625,1458 +4621,1458 @@
       <c r="A19" t="s">
         <v>254</v>
       </c>
-      <c r="B19" s="48">
+      <c r="B19" s="47">
         <f t="shared" si="7"/>
         <v>83.03</v>
       </c>
-      <c r="C19" s="50">
+      <c r="C19" s="49">
         <f t="shared" si="0"/>
         <v>92.633942823621226</v>
       </c>
-      <c r="D19" s="50">
+      <c r="D19" s="49">
         <f t="shared" si="1"/>
         <v>142.00947690439759</v>
       </c>
-      <c r="E19" s="50">
+      <c r="E19" s="49">
         <f t="shared" si="2"/>
         <v>183.96200940202613</v>
       </c>
-      <c r="F19" s="50">
+      <c r="F19" s="49">
         <f t="shared" si="3"/>
         <v>236.89428010831352</v>
       </c>
-      <c r="G19" s="28">
+      <c r="G19" s="27">
         <f t="shared" si="4"/>
         <v>386.28805761520152</v>
       </c>
-      <c r="H19" s="28">
+      <c r="H19" s="27">
         <f t="shared" si="5"/>
         <v>512.78713191763586</v>
       </c>
-      <c r="I19" s="28">
+      <c r="I19" s="27">
         <f t="shared" si="6"/>
         <v>616.91985018224625</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="51" t="s">
+      <c r="A20" s="50" t="s">
         <v>215</v>
       </c>
-      <c r="B20" s="48">
+      <c r="B20" s="47">
         <f t="shared" si="7"/>
         <v>83.03</v>
       </c>
-      <c r="C20" s="50">
+      <c r="C20" s="49">
         <f t="shared" si="0"/>
         <v>93.560282251857444</v>
       </c>
-      <c r="D20" s="50">
+      <c r="D20" s="49">
         <f t="shared" si="1"/>
         <v>149.10995074961747</v>
       </c>
-      <c r="E20" s="50">
+      <c r="E20" s="49">
         <f t="shared" si="2"/>
         <v>197.75916010717808</v>
       </c>
-      <c r="F20" s="50">
+      <c r="F20" s="49">
         <f t="shared" si="3"/>
         <v>260.58370811914489</v>
       </c>
-      <c r="G20" s="28">
+      <c r="G20" s="27">
         <f t="shared" si="4"/>
         <v>444.23126625748171</v>
       </c>
-      <c r="H20" s="28">
+      <c r="H20" s="27">
         <f t="shared" si="5"/>
         <v>605.08881566281025</v>
       </c>
-      <c r="I20" s="28">
+      <c r="I20" s="27">
         <f t="shared" si="6"/>
         <v>740.30382021869548</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="51" t="s">
+      <c r="A21" s="50" t="s">
         <v>255</v>
       </c>
-      <c r="B21" s="48">
+      <c r="B21" s="47">
         <f t="shared" si="7"/>
         <v>83.03</v>
       </c>
-      <c r="C21" s="50">
+      <c r="C21" s="49">
         <f t="shared" si="0"/>
         <v>94.495885074376019</v>
       </c>
-      <c r="D21" s="50">
+      <c r="D21" s="49">
         <f t="shared" si="1"/>
         <v>156.56544828709835</v>
       </c>
-      <c r="E21" s="50">
+      <c r="E21" s="49">
         <f t="shared" si="2"/>
         <v>212.59109711521643</v>
       </c>
-      <c r="F21" s="50">
+      <c r="F21" s="49">
         <f t="shared" si="3"/>
         <v>286.64207893105942</v>
       </c>
-      <c r="G21" s="28">
+      <c r="G21" s="27">
         <f t="shared" si="4"/>
         <v>510.86595619610392</v>
       </c>
-      <c r="H21" s="28">
+      <c r="H21" s="27">
         <f t="shared" si="5"/>
         <v>714.00480248211602</v>
       </c>
-      <c r="I21" s="28">
+      <c r="I21" s="27">
         <f t="shared" si="6"/>
         <v>888.36458426243451</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="51" t="s">
+      <c r="A22" s="50" t="s">
         <v>256</v>
       </c>
-      <c r="B22" s="48">
+      <c r="B22" s="47">
         <f t="shared" si="7"/>
         <v>83.03</v>
       </c>
-      <c r="C22" s="50">
+      <c r="C22" s="49">
         <f t="shared" si="0"/>
         <v>95.440843925119779</v>
       </c>
-      <c r="D22" s="50">
+      <c r="D22" s="49">
         <f t="shared" si="1"/>
         <v>164.39372070145328</v>
       </c>
-      <c r="E22" s="50">
+      <c r="E22" s="49">
         <f t="shared" si="2"/>
         <v>228.53542939885764</v>
       </c>
-      <c r="F22" s="50">
+      <c r="F22" s="49">
         <f t="shared" si="3"/>
         <v>315.3062868241654</v>
       </c>
-      <c r="G22" s="28">
+      <c r="G22" s="27">
         <f t="shared" si="4"/>
         <v>587.49584962551944</v>
       </c>
-      <c r="H22" s="28">
+      <c r="H22" s="27">
         <f t="shared" si="5"/>
         <v>842.52566692889684</v>
       </c>
-      <c r="I22" s="28">
+      <c r="I22" s="27">
         <f t="shared" si="6"/>
         <v>1066.0375011149213</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="51" t="s">
+      <c r="A23" s="50" t="s">
         <v>257</v>
       </c>
-      <c r="B23" s="48">
+      <c r="B23" s="47">
         <f t="shared" si="7"/>
         <v>83.03</v>
       </c>
-      <c r="C23" s="50">
+      <c r="C23" s="49">
         <f t="shared" si="0"/>
         <v>96.395252364370975</v>
       </c>
-      <c r="D23" s="50">
+      <c r="D23" s="49">
         <f t="shared" si="1"/>
         <v>172.61340673652595</v>
       </c>
-      <c r="E23" s="50">
+      <c r="E23" s="49">
         <f t="shared" si="2"/>
         <v>245.67558660377196</v>
       </c>
-      <c r="F23" s="50">
+      <c r="F23" s="49">
         <f t="shared" si="3"/>
         <v>346.83691550658199</v>
       </c>
-      <c r="G23" s="28">
+      <c r="G23" s="27">
         <f t="shared" si="4"/>
         <v>675.62022706934727</v>
       </c>
-      <c r="H23" s="28">
+      <c r="H23" s="27">
         <f t="shared" si="5"/>
         <v>994.18028697609827</v>
       </c>
-      <c r="I23" s="28">
+      <c r="I23" s="27">
         <f t="shared" si="6"/>
         <v>1279.2450013379055</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="51" t="s">
+      <c r="A24" s="50" t="s">
         <v>258</v>
       </c>
-      <c r="B24" s="48">
+      <c r="B24" s="47">
         <f t="shared" si="7"/>
         <v>83.03</v>
       </c>
-      <c r="C24" s="50">
+      <c r="C24" s="49">
         <f t="shared" si="0"/>
         <v>97.359204888014688</v>
       </c>
-      <c r="D24" s="50">
+      <c r="D24" s="49">
         <f t="shared" si="1"/>
         <v>181.24407707335226</v>
       </c>
-      <c r="E24" s="50">
+      <c r="E24" s="49">
         <f t="shared" si="2"/>
         <v>264.10125559905487</v>
       </c>
-      <c r="F24" s="50">
+      <c r="F24" s="49">
         <f t="shared" si="3"/>
         <v>381.52060705724023</v>
       </c>
-      <c r="G24" s="28">
+      <c r="G24" s="27">
         <f t="shared" si="4"/>
         <v>776.9632611297493</v>
       </c>
-      <c r="H24" s="28">
+      <c r="H24" s="27">
         <f t="shared" si="5"/>
         <v>1173.132738631796</v>
       </c>
-      <c r="I24" s="28">
+      <c r="I24" s="27">
         <f t="shared" si="6"/>
         <v>1535.0940016054865</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="51" t="s">
+      <c r="A25" s="50" t="s">
         <v>192</v>
       </c>
-      <c r="B25" s="48">
+      <c r="B25" s="47">
         <f t="shared" si="7"/>
         <v>83.03</v>
       </c>
-      <c r="C25" s="50">
+      <c r="C25" s="49">
         <f t="shared" si="0"/>
         <v>98.332796936894837</v>
       </c>
-      <c r="D25" s="50">
+      <c r="D25" s="49">
         <f t="shared" si="1"/>
         <v>190.30628092701988</v>
       </c>
-      <c r="E25" s="50">
+      <c r="E25" s="49">
         <f t="shared" si="2"/>
         <v>283.90884976898394</v>
       </c>
-      <c r="F25" s="50">
+      <c r="F25" s="49">
         <f t="shared" si="3"/>
         <v>419.67266776296429</v>
       </c>
-      <c r="G25" s="28">
+      <c r="G25" s="27">
         <f t="shared" si="4"/>
         <v>893.50775029921158</v>
       </c>
-      <c r="H25" s="28">
+      <c r="H25" s="27">
         <f t="shared" si="5"/>
         <v>1384.2966315855192</v>
       </c>
-      <c r="I25" s="28">
+      <c r="I25" s="27">
         <f t="shared" si="6"/>
         <v>1842.1128019265836</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="51" t="s">
+      <c r="A26" s="50" t="s">
         <v>259</v>
       </c>
-      <c r="B26" s="48">
+      <c r="B26" s="47">
         <f t="shared" si="7"/>
         <v>83.03</v>
       </c>
-      <c r="C26" s="50">
+      <c r="C26" s="49">
         <f t="shared" si="0"/>
         <v>99.316124906263781</v>
       </c>
-      <c r="D26" s="50">
+      <c r="D26" s="49">
         <f t="shared" si="1"/>
         <v>199.82159497337088</v>
       </c>
-      <c r="E26" s="50">
+      <c r="E26" s="49">
         <f t="shared" si="2"/>
         <v>305.20201350165775</v>
       </c>
-      <c r="F26" s="50">
+      <c r="F26" s="49">
         <f t="shared" si="3"/>
         <v>461.63993453926076</v>
       </c>
-      <c r="G26" s="28">
+      <c r="G26" s="27">
         <f t="shared" si="4"/>
         <v>1027.5339128440933</v>
       </c>
-      <c r="H26" s="28">
+      <c r="H26" s="27">
         <f t="shared" si="5"/>
         <v>1633.4700252709126</v>
       </c>
-      <c r="I26" s="28">
+      <c r="I26" s="27">
         <f t="shared" si="6"/>
         <v>2210.5353623119004</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="51" t="s">
+      <c r="A27" s="50" t="s">
         <v>260</v>
       </c>
-      <c r="B27" s="48">
+      <c r="B27" s="47">
         <f t="shared" si="7"/>
         <v>83.03</v>
       </c>
-      <c r="C27" s="50">
+      <c r="C27" s="49">
         <f t="shared" si="0"/>
         <v>100.30928615532642</v>
       </c>
-      <c r="D27" s="50">
+      <c r="D27" s="49">
         <f t="shared" si="1"/>
         <v>209.81267472203942</v>
       </c>
-      <c r="E27" s="50">
+      <c r="E27" s="49">
         <f t="shared" si="2"/>
         <v>328.09216451428205</v>
       </c>
-      <c r="F27" s="50">
+      <c r="F27" s="49">
         <f t="shared" si="3"/>
         <v>507.8039279931869</v>
       </c>
-      <c r="G27" s="28">
+      <c r="G27" s="27">
         <f t="shared" si="4"/>
         <v>1181.6639997707071</v>
       </c>
-      <c r="H27" s="28">
+      <c r="H27" s="27">
         <f t="shared" si="5"/>
         <v>1927.4946298196769</v>
       </c>
-      <c r="I27" s="28">
+      <c r="I27" s="27">
         <f t="shared" si="6"/>
         <v>2652.6424347742804</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="51" t="s">
+      <c r="A28" s="50" t="s">
         <v>261</v>
       </c>
-      <c r="B28" s="48">
+      <c r="B28" s="47">
         <f t="shared" si="7"/>
         <v>83.03</v>
       </c>
-      <c r="C28" s="50">
+      <c r="C28" s="49">
         <f t="shared" si="0"/>
         <v>101.31237901687969</v>
       </c>
-      <c r="D28" s="50">
+      <c r="D28" s="49">
         <f t="shared" si="1"/>
         <v>220.3033084581414</v>
       </c>
-      <c r="E28" s="50">
+      <c r="E28" s="49">
         <f t="shared" si="2"/>
         <v>352.69907685285318</v>
       </c>
-      <c r="F28" s="50">
+      <c r="F28" s="49">
         <f t="shared" si="3"/>
         <v>558.58432079250565</v>
       </c>
-      <c r="G28" s="28">
+      <c r="G28" s="27">
         <f t="shared" si="4"/>
         <v>1358.913599736313</v>
       </c>
-      <c r="H28" s="28">
+      <c r="H28" s="27">
         <f t="shared" si="5"/>
         <v>2274.4436631872186</v>
       </c>
-      <c r="I28" s="28">
+      <c r="I28" s="27">
         <f t="shared" si="6"/>
         <v>3183.1709217291364</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="51" t="s">
+      <c r="A29" s="50" t="s">
         <v>262</v>
       </c>
-      <c r="B29" s="48">
+      <c r="B29" s="47">
         <f t="shared" si="7"/>
         <v>83.03</v>
       </c>
-      <c r="C29" s="50">
+      <c r="C29" s="49">
         <f t="shared" si="0"/>
         <v>102.32550280704848</v>
       </c>
-      <c r="D29" s="50">
+      <c r="D29" s="49">
         <f t="shared" si="1"/>
         <v>231.31847388104848</v>
       </c>
-      <c r="E29" s="50">
+      <c r="E29" s="49">
         <f t="shared" si="2"/>
         <v>379.15150761681713</v>
       </c>
-      <c r="F29" s="50">
+      <c r="F29" s="49">
         <f t="shared" si="3"/>
         <v>614.44275287175628</v>
       </c>
-      <c r="G29" s="28">
+      <c r="G29" s="27">
         <f t="shared" si="4"/>
         <v>1562.7506396967599</v>
       </c>
-      <c r="H29" s="28">
+      <c r="H29" s="27">
         <f t="shared" si="5"/>
         <v>2683.8435225609178</v>
       </c>
-      <c r="I29" s="28">
+      <c r="I29" s="27">
         <f t="shared" si="6"/>
         <v>3819.8051060749635</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="51" t="s">
+      <c r="A30" s="50" t="s">
         <v>216</v>
       </c>
-      <c r="B30" s="48">
+      <c r="B30" s="47">
         <f t="shared" si="7"/>
         <v>83.03</v>
       </c>
-      <c r="C30" s="50">
+      <c r="C30" s="49">
         <f t="shared" si="0"/>
         <v>103.34875783511896</v>
       </c>
-      <c r="D30" s="50">
+      <c r="D30" s="49">
         <f t="shared" si="1"/>
         <v>242.88439757510091</v>
       </c>
-      <c r="E30" s="50">
+      <c r="E30" s="49">
         <f t="shared" si="2"/>
         <v>407.5878706880784</v>
       </c>
-      <c r="F30" s="50">
+      <c r="F30" s="49">
         <f t="shared" si="3"/>
         <v>675.88702815893191</v>
       </c>
-      <c r="G30" s="28">
+      <c r="G30" s="27">
         <f t="shared" si="4"/>
         <v>1797.1632356512737</v>
       </c>
-      <c r="H30" s="28">
+      <c r="H30" s="27">
         <f t="shared" si="5"/>
         <v>3166.9353566218829</v>
       </c>
-      <c r="I30" s="28">
+      <c r="I30" s="27">
         <f t="shared" si="6"/>
         <v>4583.7661272899559</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="51" t="s">
+      <c r="A31" s="50" t="s">
         <v>263</v>
       </c>
-      <c r="B31" s="48">
+      <c r="B31" s="47">
         <f t="shared" si="7"/>
         <v>83.03</v>
       </c>
-      <c r="C31" s="50">
+      <c r="C31" s="49">
         <f t="shared" si="0"/>
         <v>104.38224541347014</v>
       </c>
-      <c r="D31" s="50">
+      <c r="D31" s="49">
         <f t="shared" si="1"/>
         <v>255.02861745385596</v>
       </c>
-      <c r="E31" s="50">
+      <c r="E31" s="49">
         <f t="shared" si="2"/>
         <v>438.15696098968425</v>
       </c>
-      <c r="F31" s="50">
+      <c r="F31" s="49">
         <f t="shared" si="3"/>
         <v>743.47573097482518</v>
       </c>
-      <c r="G31" s="28">
+      <c r="G31" s="27">
         <f t="shared" si="4"/>
         <v>2066.7377209989645</v>
       </c>
-      <c r="H31" s="28">
+      <c r="H31" s="27">
         <f t="shared" si="5"/>
         <v>3736.9837208138215</v>
       </c>
-      <c r="I31" s="28">
+      <c r="I31" s="27">
         <f t="shared" si="6"/>
         <v>5500.5193527479469</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="51" t="s">
+      <c r="A32" s="50" t="s">
         <v>264</v>
       </c>
-      <c r="B32" s="48">
+      <c r="B32" s="47">
         <f t="shared" si="7"/>
         <v>83.03</v>
       </c>
-      <c r="C32" s="50">
+      <c r="C32" s="49">
         <f t="shared" si="0"/>
         <v>105.42606786760484</v>
       </c>
-      <c r="D32" s="50">
+      <c r="D32" s="49">
         <f t="shared" si="1"/>
         <v>267.78004832654875</v>
       </c>
-      <c r="E32" s="50">
+      <c r="E32" s="49">
         <f t="shared" si="2"/>
         <v>471.01873306391053</v>
       </c>
-      <c r="F32" s="50">
+      <c r="F32" s="49">
         <f t="shared" si="3"/>
         <v>817.82330407230779</v>
       </c>
-      <c r="G32" s="28">
+      <c r="G32" s="27">
         <f t="shared" si="4"/>
         <v>2376.7483791488089</v>
       </c>
-      <c r="H32" s="28">
+      <c r="H32" s="27">
         <f t="shared" si="5"/>
         <v>4409.6407905603091</v>
       </c>
-      <c r="I32" s="28">
+      <c r="I32" s="27">
         <f t="shared" si="6"/>
         <v>6600.6232232975362</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="51" t="s">
+      <c r="A33" s="50" t="s">
         <v>265</v>
       </c>
-      <c r="B33" s="48">
+      <c r="B33" s="47">
         <f t="shared" si="7"/>
         <v>83.03</v>
       </c>
-      <c r="C33" s="50">
+      <c r="C33" s="49">
         <f t="shared" si="0"/>
         <v>106.48032854628089</v>
       </c>
-      <c r="D33" s="50">
+      <c r="D33" s="49">
         <f t="shared" si="1"/>
         <v>281.16905074287621</v>
       </c>
-      <c r="E33" s="50">
+      <c r="E33" s="49">
         <f t="shared" si="2"/>
         <v>506.3451380437038</v>
       </c>
-      <c r="F33" s="50">
+      <c r="F33" s="49">
         <f t="shared" si="3"/>
         <v>899.60563447953859</v>
       </c>
-      <c r="G33" s="28">
+      <c r="G33" s="27">
         <f t="shared" si="4"/>
         <v>2733.2606360211298</v>
       </c>
-      <c r="H33" s="28">
+      <c r="H33" s="27">
         <f t="shared" si="5"/>
         <v>5203.3761328611645</v>
       </c>
-      <c r="I33" s="28">
+      <c r="I33" s="27">
         <f t="shared" si="6"/>
         <v>7920.7478679570431</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="51" t="s">
+      <c r="A34" s="50" t="s">
         <v>266</v>
       </c>
-      <c r="B34" s="48">
+      <c r="B34" s="47">
         <f t="shared" si="7"/>
         <v>83.03</v>
       </c>
-      <c r="C34" s="50">
+      <c r="C34" s="49">
         <f t="shared" si="0"/>
         <v>107.5451318317437</v>
       </c>
-      <c r="D34" s="50">
+      <c r="D34" s="49">
         <f t="shared" si="1"/>
         <v>295.22750328002002</v>
       </c>
-      <c r="E34" s="50">
+      <c r="E34" s="49">
         <f t="shared" si="2"/>
         <v>544.32102339698156</v>
       </c>
-      <c r="F34" s="50">
+      <c r="F34" s="49">
         <f t="shared" si="3"/>
         <v>989.56619792749257</v>
       </c>
-      <c r="G34" s="28">
+      <c r="G34" s="27">
         <f t="shared" si="4"/>
         <v>3143.2497314242992</v>
       </c>
-      <c r="H34" s="28">
+      <c r="H34" s="27">
         <f t="shared" si="5"/>
         <v>6139.983836776174</v>
       </c>
-      <c r="I34" s="28">
+      <c r="I34" s="27">
         <f t="shared" si="6"/>
         <v>9504.8974415484518</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="51" t="s">
+      <c r="A35" s="50" t="s">
         <v>193</v>
       </c>
-      <c r="B35" s="48">
+      <c r="B35" s="47">
         <f t="shared" si="7"/>
         <v>83.03</v>
       </c>
-      <c r="C35" s="50">
+      <c r="C35" s="49">
         <f t="shared" si="0"/>
         <v>108.62058315006114</v>
       </c>
-      <c r="D35" s="50">
+      <c r="D35" s="49">
         <f t="shared" si="1"/>
         <v>309.98887844402105</v>
       </c>
-      <c r="E35" s="50">
+      <c r="E35" s="49">
         <f t="shared" si="2"/>
         <v>585.14510015175517</v>
       </c>
-      <c r="F35" s="50">
+      <c r="F35" s="49">
         <f t="shared" si="3"/>
         <v>1088.5228177202418</v>
       </c>
-      <c r="G35" s="28">
+      <c r="G35" s="27">
         <f t="shared" si="4"/>
         <v>3614.7371911379437</v>
       </c>
-      <c r="H35" s="28">
+      <c r="H35" s="27">
         <f t="shared" si="5"/>
         <v>7245.1809273958852</v>
       </c>
-      <c r="I35" s="28">
+      <c r="I35" s="27">
         <f t="shared" si="6"/>
         <v>11405.876929858141</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="51" t="s">
+      <c r="A36" s="50" t="s">
         <v>267</v>
       </c>
-      <c r="B36" s="48">
+      <c r="B36" s="47">
         <f t="shared" si="7"/>
         <v>83.03</v>
       </c>
-      <c r="C36" s="50">
+      <c r="C36" s="49">
         <f t="shared" si="0"/>
         <v>109.70678898156174</v>
       </c>
-      <c r="D36" s="50">
+      <c r="D36" s="49">
         <f t="shared" si="1"/>
         <v>325.48832236622212</v>
       </c>
-      <c r="E36" s="50">
+      <c r="E36" s="49">
         <f t="shared" si="2"/>
         <v>629.0309826631368</v>
       </c>
-      <c r="F36" s="50">
+      <c r="F36" s="49">
         <f t="shared" si="3"/>
         <v>1197.3750994922661</v>
       </c>
-      <c r="G36" s="28">
+      <c r="G36" s="27">
         <f t="shared" si="4"/>
         <v>4156.9477698086348</v>
       </c>
-      <c r="H36" s="28">
+      <c r="H36" s="27">
         <f t="shared" si="5"/>
         <v>8549.3134943271434</v>
       </c>
-      <c r="I36" s="28">
+      <c r="I36" s="27">
         <f t="shared" si="6"/>
         <v>13687.052315829769</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="51" t="s">
+      <c r="A37" s="50" t="s">
         <v>268</v>
       </c>
-      <c r="B37" s="48">
+      <c r="B37" s="47">
         <f t="shared" si="7"/>
         <v>83.03</v>
       </c>
-      <c r="C37" s="50">
+      <c r="C37" s="49">
         <f t="shared" si="0"/>
         <v>110.80385687137736</v>
       </c>
-      <c r="D37" s="50">
+      <c r="D37" s="49">
         <f t="shared" si="1"/>
         <v>341.76273848453326</v>
       </c>
-      <c r="E37" s="50">
+      <c r="E37" s="49">
         <f t="shared" si="2"/>
         <v>676.20830636287201</v>
       </c>
-      <c r="F37" s="50">
+      <c r="F37" s="49">
         <f t="shared" si="3"/>
         <v>1317.1126094414929</v>
       </c>
-      <c r="G37" s="28">
+      <c r="G37" s="27">
         <f t="shared" si="4"/>
         <v>4780.4899352799293</v>
       </c>
-      <c r="H37" s="28">
+      <c r="H37" s="27">
         <f t="shared" si="5"/>
         <v>10088.189923306029</v>
       </c>
-      <c r="I37" s="28">
+      <c r="I37" s="27">
         <f t="shared" si="6"/>
         <v>16424.462778995723</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="51" t="s">
+      <c r="A38" s="50" t="s">
         <v>269</v>
       </c>
-      <c r="B38" s="48">
+      <c r="B38" s="47">
         <f t="shared" si="7"/>
         <v>83.03</v>
       </c>
-      <c r="C38" s="50">
+      <c r="C38" s="49">
         <f t="shared" si="0"/>
         <v>111.91189544009114</v>
       </c>
-      <c r="D38" s="50">
+      <c r="D38" s="49">
         <f t="shared" si="1"/>
         <v>358.85087540875992</v>
       </c>
-      <c r="E38" s="50">
+      <c r="E38" s="49">
         <f t="shared" si="2"/>
         <v>726.9239293400874</v>
       </c>
-      <c r="F38" s="50">
+      <c r="F38" s="49">
         <f t="shared" si="3"/>
         <v>1448.8238703856423</v>
       </c>
-      <c r="G38" s="28">
+      <c r="G38" s="27">
         <f t="shared" si="4"/>
         <v>5497.5634255719187</v>
       </c>
-      <c r="H38" s="28">
+      <c r="H38" s="27">
         <f t="shared" si="5"/>
         <v>11904.064109501112</v>
       </c>
-      <c r="I38" s="28">
+      <c r="I38" s="27">
         <f t="shared" si="6"/>
         <v>19709.355334794865</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="51" t="s">
+      <c r="A39" s="50" t="s">
         <v>270</v>
       </c>
-      <c r="B39" s="48">
+      <c r="B39" s="47">
         <f t="shared" si="7"/>
         <v>83.03</v>
       </c>
-      <c r="C39" s="50">
+      <c r="C39" s="49">
         <f t="shared" si="0"/>
         <v>113.03101439449206</v>
       </c>
-      <c r="D39" s="50">
+      <c r="D39" s="49">
         <f t="shared" si="1"/>
         <v>376.79341917919794</v>
       </c>
-      <c r="E39" s="50">
+      <c r="E39" s="49">
         <f t="shared" si="2"/>
         <v>781.44322404059392</v>
       </c>
-      <c r="F39" s="50">
+      <c r="F39" s="49">
         <f t="shared" si="3"/>
         <v>1593.7062574242066</v>
       </c>
-      <c r="G39" s="28">
+      <c r="G39" s="27">
         <f t="shared" si="4"/>
         <v>6322.1979394077061</v>
       </c>
-      <c r="H39" s="28">
+      <c r="H39" s="27">
         <f t="shared" si="5"/>
         <v>14046.795649211312</v>
       </c>
-      <c r="I39" s="28">
+      <c r="I39" s="27">
         <f t="shared" si="6"/>
         <v>23651.226401753836</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="51" t="s">
+      <c r="A40" s="50" t="s">
         <v>217</v>
       </c>
-      <c r="B40" s="48">
+      <c r="B40" s="47">
         <f t="shared" si="7"/>
         <v>83.03</v>
       </c>
-      <c r="C40" s="50">
+      <c r="C40" s="49">
         <f t="shared" si="0"/>
         <v>114.16132453843699</v>
       </c>
-      <c r="D40" s="50">
+      <c r="D40" s="49">
         <f t="shared" si="1"/>
         <v>395.63309013815785</v>
       </c>
-      <c r="E40" s="50">
+      <c r="E40" s="49">
         <f t="shared" si="2"/>
         <v>840.05146584363843</v>
       </c>
-      <c r="F40" s="50">
+      <c r="F40" s="49">
         <f t="shared" si="3"/>
         <v>1753.0768831666273</v>
       </c>
-      <c r="G40" s="28">
+      <c r="G40" s="27">
         <f t="shared" si="4"/>
         <v>7270.5276303188612</v>
       </c>
-      <c r="H40" s="28">
+      <c r="H40" s="27">
         <f t="shared" si="5"/>
         <v>16575.218866069346</v>
       </c>
-      <c r="I40" s="28">
+      <c r="I40" s="27">
         <f t="shared" si="6"/>
         <v>28381.471682104602</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="51" t="s">
+      <c r="A41" s="50" t="s">
         <v>271</v>
       </c>
-      <c r="B41" s="48">
+      <c r="B41" s="47">
         <f t="shared" si="7"/>
         <v>83.03</v>
       </c>
-      <c r="C41" s="50">
+      <c r="C41" s="49">
         <f t="shared" si="0"/>
         <v>115.30293778382136</v>
       </c>
-      <c r="D41" s="50">
+      <c r="D41" s="49">
         <f t="shared" si="1"/>
         <v>415.41474464506575</v>
       </c>
-      <c r="E41" s="50">
+      <c r="E41" s="49">
         <f t="shared" si="2"/>
         <v>903.05532578191128</v>
       </c>
-      <c r="F41" s="50">
+      <c r="F41" s="49">
         <f t="shared" si="3"/>
         <v>1928.3845714832903</v>
       </c>
-      <c r="G41" s="28">
+      <c r="G41" s="27">
         <f t="shared" si="4"/>
         <v>8361.1067748666901</v>
       </c>
-      <c r="H41" s="28">
+      <c r="H41" s="27">
         <f t="shared" si="5"/>
         <v>19558.758261961826</v>
       </c>
-      <c r="I41" s="28">
+      <c r="I41" s="27">
         <f t="shared" si="6"/>
         <v>34057.766018525523</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="51" t="s">
+      <c r="A42" s="50" t="s">
         <v>272</v>
       </c>
-      <c r="B42" s="48">
+      <c r="B42" s="47">
         <f t="shared" si="7"/>
         <v>83.03</v>
       </c>
-      <c r="C42" s="50">
+      <c r="C42" s="49">
         <f t="shared" si="0"/>
         <v>116.45596716165957</v>
       </c>
-      <c r="D42" s="50">
+      <c r="D42" s="49">
         <f t="shared" si="1"/>
         <v>436.18548187731903</v>
       </c>
-      <c r="E42" s="50">
+      <c r="E42" s="49">
         <f t="shared" si="2"/>
         <v>970.78447521555461</v>
       </c>
-      <c r="F42" s="50">
+      <c r="F42" s="49">
         <f t="shared" si="3"/>
         <v>2121.2230286316194</v>
       </c>
-      <c r="G42" s="28">
+      <c r="G42" s="27">
         <f t="shared" si="4"/>
         <v>9615.2727910966933</v>
       </c>
-      <c r="H42" s="28">
+      <c r="H42" s="27">
         <f t="shared" si="5"/>
         <v>23079.334749114954</v>
       </c>
-      <c r="I42" s="28">
+      <c r="I42" s="27">
         <f t="shared" si="6"/>
         <v>40869.319222230624</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="51" t="s">
+      <c r="A43" s="50" t="s">
         <v>273</v>
       </c>
-      <c r="B43" s="48">
+      <c r="B43" s="47">
         <f t="shared" si="7"/>
         <v>83.03</v>
       </c>
-      <c r="C43" s="50">
+      <c r="C43" s="49">
         <f t="shared" si="0"/>
         <v>117.62052683327617</v>
       </c>
-      <c r="D43" s="50">
+      <c r="D43" s="49">
         <f t="shared" si="1"/>
         <v>457.99475597118499</v>
       </c>
-      <c r="E43" s="50">
+      <c r="E43" s="49">
         <f t="shared" si="2"/>
         <v>1043.5933108567212</v>
       </c>
-      <c r="F43" s="50">
+      <c r="F43" s="49">
         <f t="shared" si="3"/>
         <v>2333.3453314947815</v>
       </c>
-      <c r="G43" s="28">
+      <c r="G43" s="27">
         <f t="shared" si="4"/>
         <v>11057.563709761196</v>
       </c>
-      <c r="H43" s="28">
+      <c r="H43" s="27">
         <f t="shared" si="5"/>
         <v>27233.615003955645</v>
       </c>
-      <c r="I43" s="28">
+      <c r="I43" s="27">
         <f t="shared" si="6"/>
         <v>49043.183066676749</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="51" t="s">
+      <c r="A44" s="50" t="s">
         <v>274</v>
       </c>
-      <c r="B44" s="48">
+      <c r="B44" s="47">
         <f t="shared" si="7"/>
         <v>83.03</v>
       </c>
-      <c r="C44" s="50">
+      <c r="C44" s="49">
         <f t="shared" si="0"/>
         <v>118.79673210160894</v>
       </c>
-      <c r="D44" s="50">
+      <c r="D44" s="49">
         <f t="shared" si="1"/>
         <v>480.89449376974426</v>
       </c>
-      <c r="E44" s="50">
+      <c r="E44" s="49">
         <f t="shared" si="2"/>
         <v>1121.8628091709752</v>
       </c>
-      <c r="F44" s="50">
+      <c r="F44" s="49">
         <f t="shared" si="3"/>
         <v>2566.6798646442599</v>
       </c>
-      <c r="G44" s="28">
+      <c r="G44" s="27">
         <f t="shared" si="4"/>
         <v>12716.198266225374</v>
       </c>
-      <c r="H44" s="28">
+      <c r="H44" s="27">
         <f t="shared" si="5"/>
         <v>32135.665704667659</v>
       </c>
-      <c r="I44" s="28">
+      <c r="I44" s="27">
         <f t="shared" si="6"/>
         <v>58851.8196800121</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="51" t="s">
+      <c r="A45" s="50" t="s">
         <v>194</v>
       </c>
-      <c r="B45" s="48">
+      <c r="B45" s="47">
         <f t="shared" si="7"/>
         <v>83.03</v>
       </c>
-      <c r="C45" s="50">
+      <c r="C45" s="49">
         <f t="shared" si="0"/>
         <v>119.98469942262503</v>
       </c>
-      <c r="D45" s="50">
+      <c r="D45" s="49">
         <f t="shared" si="1"/>
         <v>504.93921845823149</v>
       </c>
-      <c r="E45" s="50">
+      <c r="E45" s="49">
         <f t="shared" si="2"/>
         <v>1206.0025198587982</v>
       </c>
-      <c r="F45" s="50">
+      <c r="F45" s="49">
         <f t="shared" si="3"/>
         <v>2823.347851108686</v>
       </c>
-      <c r="G45" s="28">
+      <c r="G45" s="27">
         <f t="shared" si="4"/>
         <v>14623.628006159179</v>
       </c>
-      <c r="H45" s="28">
+      <c r="H45" s="27">
         <f t="shared" si="5"/>
         <v>37920.085531507837</v>
       </c>
-      <c r="I45" s="28">
+      <c r="I45" s="27">
         <f t="shared" si="6"/>
         <v>70622.183616014518</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="51" t="s">
+      <c r="A46" s="50" t="s">
         <v>275</v>
       </c>
-      <c r="B46" s="48">
+      <c r="B46" s="47">
         <f t="shared" si="7"/>
         <v>83.03</v>
       </c>
-      <c r="C46" s="50">
+      <c r="C46" s="49">
         <f t="shared" si="0"/>
         <v>121.18454641685128</v>
       </c>
-      <c r="D46" s="50">
+      <c r="D46" s="49">
         <f t="shared" si="1"/>
         <v>530.18617938114312</v>
       </c>
-      <c r="E46" s="50">
+      <c r="E46" s="49">
         <f t="shared" si="2"/>
         <v>1296.452708848208</v>
       </c>
-      <c r="F46" s="50">
+      <c r="F46" s="49">
         <f t="shared" si="3"/>
         <v>3105.6826362195548</v>
       </c>
-      <c r="G46" s="28">
+      <c r="G46" s="27">
         <f t="shared" si="4"/>
         <v>16817.172207083055</v>
       </c>
-      <c r="H46" s="28">
+      <c r="H46" s="27">
         <f t="shared" si="5"/>
         <v>44745.700927179249</v>
       </c>
-      <c r="I46" s="28">
+      <c r="I46" s="27">
         <f t="shared" si="6"/>
         <v>84746.620339217421</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="51" t="s">
+      <c r="A47" s="50" t="s">
         <v>276</v>
       </c>
-      <c r="B47" s="48">
+      <c r="B47" s="47">
         <f t="shared" si="7"/>
         <v>83.03</v>
       </c>
-      <c r="C47" s="50">
+      <c r="C47" s="49">
         <f t="shared" si="0"/>
         <v>122.3963918810198</v>
       </c>
-      <c r="D47" s="50">
+      <c r="D47" s="49">
         <f t="shared" si="1"/>
         <v>556.69548835020032</v>
       </c>
-      <c r="E47" s="50">
+      <c r="E47" s="49">
         <f t="shared" si="2"/>
         <v>1393.6866620118235</v>
       </c>
-      <c r="F47" s="50">
+      <c r="F47" s="49">
         <f t="shared" si="3"/>
         <v>3416.2508998415105</v>
       </c>
-      <c r="G47" s="28">
+      <c r="G47" s="27">
         <f t="shared" si="4"/>
         <v>19339.74803814551</v>
       </c>
-      <c r="H47" s="28">
+      <c r="H47" s="27">
         <f t="shared" si="5"/>
         <v>52799.927094071507</v>
       </c>
-      <c r="I47" s="28">
+      <c r="I47" s="27">
         <f t="shared" si="6"/>
         <v>101695.9444070609</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="51" t="s">
+      <c r="A48" s="50" t="s">
         <v>277</v>
       </c>
-      <c r="B48" s="48">
+      <c r="B48" s="47">
         <f t="shared" si="7"/>
         <v>83.03</v>
       </c>
-      <c r="C48" s="50">
+      <c r="C48" s="49">
         <f t="shared" si="0"/>
         <v>123.62035579982999</v>
       </c>
-      <c r="D48" s="50">
+      <c r="D48" s="49">
         <f t="shared" si="1"/>
         <v>584.53026276771038</v>
       </c>
-      <c r="E48" s="50">
+      <c r="E48" s="49">
         <f t="shared" si="2"/>
         <v>1498.2131616627103</v>
       </c>
-      <c r="F48" s="50">
+      <c r="F48" s="49">
         <f t="shared" si="3"/>
         <v>3757.8759898256617</v>
       </c>
-      <c r="G48" s="28">
+      <c r="G48" s="27">
         <f t="shared" si="4"/>
         <v>22240.710243867336</v>
       </c>
-      <c r="H48" s="28">
+      <c r="H48" s="27">
         <f t="shared" si="5"/>
         <v>62303.913971004375</v>
       </c>
-      <c r="I48" s="28">
+      <c r="I48" s="27">
         <f t="shared" si="6"/>
         <v>122035.13328847308</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="51" t="s">
+      <c r="A49" s="50" t="s">
         <v>278</v>
       </c>
-      <c r="B49" s="48">
+      <c r="B49" s="47">
         <f t="shared" si="7"/>
         <v>83.03</v>
       </c>
-      <c r="C49" s="50">
+      <c r="C49" s="49">
         <f t="shared" si="0"/>
         <v>124.85655935782829</v>
       </c>
-      <c r="D49" s="50">
+      <c r="D49" s="49">
         <f t="shared" si="1"/>
         <v>613.75677590609598</v>
       </c>
-      <c r="E49" s="50">
+      <c r="E49" s="49">
         <f t="shared" si="2"/>
         <v>1610.5791487874135</v>
       </c>
-      <c r="F49" s="50">
+      <c r="F49" s="49">
         <f t="shared" si="3"/>
         <v>4133.6635888082283</v>
       </c>
-      <c r="G49" s="28">
+      <c r="G49" s="27">
         <f t="shared" si="4"/>
         <v>25576.816780447432</v>
       </c>
-      <c r="H49" s="28">
+      <c r="H49" s="27">
         <f t="shared" si="5"/>
         <v>73518.618485785162</v>
       </c>
-      <c r="I49" s="28">
+      <c r="I49" s="27">
         <f t="shared" si="6"/>
         <v>146442.1599461677</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="51" t="s">
+      <c r="A50" s="50" t="s">
         <v>218</v>
       </c>
-      <c r="B50" s="48">
+      <c r="B50" s="47">
         <f t="shared" si="7"/>
         <v>83.03</v>
       </c>
-      <c r="C50" s="50">
+      <c r="C50" s="49">
         <f t="shared" si="0"/>
         <v>126.10512495140657</v>
       </c>
-      <c r="D50" s="50">
+      <c r="D50" s="49">
         <f t="shared" si="1"/>
         <v>644.44461470140084</v>
       </c>
-      <c r="E50" s="50">
+      <c r="E50" s="49">
         <f t="shared" si="2"/>
         <v>1731.3725849464695</v>
       </c>
-      <c r="F50" s="50">
+      <c r="F50" s="49">
         <f t="shared" si="3"/>
         <v>4547.0299476890514</v>
       </c>
-      <c r="G50" s="28">
+      <c r="G50" s="27">
         <f t="shared" si="4"/>
         <v>29413.339297514543</v>
       </c>
-      <c r="H50" s="28">
+      <c r="H50" s="27">
         <f t="shared" si="5"/>
         <v>86751.969813226489</v>
       </c>
-      <c r="I50" s="28">
+      <c r="I50" s="27">
         <f t="shared" si="6"/>
         <v>175730.59193540123</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="51" t="s">
+      <c r="A51" s="50" t="s">
         <v>279</v>
       </c>
-      <c r="B51" s="48">
+      <c r="B51" s="47">
         <f t="shared" si="7"/>
         <v>83.03</v>
       </c>
-      <c r="C51" s="50">
+      <c r="C51" s="49">
         <f t="shared" si="0"/>
         <v>127.36617620092063</v>
       </c>
-      <c r="D51" s="50">
+      <c r="D51" s="49">
         <f t="shared" si="1"/>
         <v>676.66684543647091</v>
       </c>
-      <c r="E51" s="50">
+      <c r="E51" s="49">
         <f t="shared" si="2"/>
         <v>1861.2255288174547</v>
       </c>
-      <c r="F51" s="50">
+      <c r="F51" s="49">
         <f t="shared" si="3"/>
         <v>5001.7329424579566</v>
       </c>
-      <c r="G51" s="28">
+      <c r="G51" s="27">
         <f t="shared" si="4"/>
         <v>33825.340192141724</v>
       </c>
-      <c r="H51" s="28">
+      <c r="H51" s="27">
         <f t="shared" si="5"/>
         <v>102367.32437960725</v>
       </c>
-      <c r="I51" s="28">
+      <c r="I51" s="27">
         <f t="shared" si="6"/>
         <v>210876.71032248146</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="51" t="s">
+      <c r="A52" s="50" t="s">
         <v>280</v>
       </c>
-      <c r="B52" s="48">
+      <c r="B52" s="47">
         <f t="shared" si="7"/>
         <v>83.03</v>
       </c>
-      <c r="C52" s="50">
+      <c r="C52" s="49">
         <f t="shared" si="0"/>
         <v>128.63983796292985</v>
       </c>
-      <c r="D52" s="50">
+      <c r="D52" s="49">
         <f t="shared" si="1"/>
         <v>710.50018770829445</v>
       </c>
-      <c r="E52" s="50">
+      <c r="E52" s="49">
         <f t="shared" si="2"/>
         <v>2000.8174434787636</v>
       </c>
-      <c r="F52" s="50">
+      <c r="F52" s="49">
         <f t="shared" si="3"/>
         <v>5501.9062367037523</v>
       </c>
-      <c r="G52" s="28">
+      <c r="G52" s="27">
         <f t="shared" si="4"/>
         <v>38899.141220962978</v>
       </c>
-      <c r="H52" s="28">
+      <c r="H52" s="27">
         <f t="shared" si="5"/>
         <v>120793.44276793655</v>
       </c>
-      <c r="I52" s="28">
+      <c r="I52" s="27">
         <f t="shared" si="6"/>
         <v>253052.05238697774</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="51" t="s">
+      <c r="A53" s="50" t="s">
         <v>281</v>
       </c>
-      <c r="B53" s="48">
+      <c r="B53" s="47">
         <f t="shared" si="7"/>
         <v>83.03</v>
       </c>
-      <c r="C53" s="50">
+      <c r="C53" s="49">
         <f t="shared" si="0"/>
         <v>129.92623634255915</v>
       </c>
-      <c r="D53" s="50">
+      <c r="D53" s="49">
         <f t="shared" si="1"/>
         <v>746.02519709370915</v>
       </c>
-      <c r="E53" s="50">
+      <c r="E53" s="49">
         <f t="shared" si="2"/>
         <v>2150.8787517396709</v>
       </c>
-      <c r="F53" s="50">
+      <c r="F53" s="49">
         <f t="shared" si="3"/>
         <v>6052.0968603741276</v>
       </c>
-      <c r="G53" s="28">
+      <c r="G53" s="27">
         <f t="shared" si="4"/>
         <v>44734.012404107423</v>
       </c>
-      <c r="H53" s="28">
+      <c r="H53" s="27">
         <f t="shared" si="5"/>
         <v>142536.26246616512</v>
       </c>
-      <c r="I53" s="28">
+      <c r="I53" s="27">
         <f t="shared" si="6"/>
         <v>303662.46286437329</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="51" t="s">
+      <c r="A54" s="50" t="s">
         <v>282</v>
       </c>
-      <c r="B54" s="48">
+      <c r="B54" s="47">
         <f t="shared" si="7"/>
         <v>83.03</v>
       </c>
-      <c r="C54" s="50">
+      <c r="C54" s="49">
         <f t="shared" si="0"/>
         <v>131.22549870598473</v>
       </c>
-      <c r="D54" s="50">
+      <c r="D54" s="49">
         <f t="shared" si="1"/>
         <v>783.32645694839459</v>
       </c>
-      <c r="E54" s="50">
+      <c r="E54" s="49">
         <f t="shared" si="2"/>
         <v>2312.194658120146</v>
       </c>
-      <c r="F54" s="50">
+      <c r="F54" s="49">
         <f t="shared" si="3"/>
         <v>6657.3065464115407</v>
       </c>
-      <c r="G54" s="28">
+      <c r="G54" s="27">
         <f t="shared" si="4"/>
         <v>51444.114264723532</v>
       </c>
-      <c r="H54" s="28">
+      <c r="H54" s="27">
         <f t="shared" si="5"/>
         <v>168192.78971007484</v>
       </c>
-      <c r="I54" s="28">
+      <c r="I54" s="27">
         <f t="shared" si="6"/>
         <v>364394.95543724793</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="51" t="s">
+      <c r="A55" s="50" t="s">
         <v>195</v>
       </c>
-      <c r="B55" s="48">
+      <c r="B55" s="47">
         <f t="shared" si="7"/>
         <v>83.03</v>
       </c>
-      <c r="C55" s="50">
+      <c r="C55" s="49">
         <f t="shared" si="0"/>
         <v>132.53775369304458</v>
       </c>
-      <c r="D55" s="50">
+      <c r="D55" s="49">
         <f t="shared" si="1"/>
         <v>822.49277979581439</v>
       </c>
-      <c r="E55" s="50">
+      <c r="E55" s="49">
         <f t="shared" si="2"/>
         <v>2485.6092574791569</v>
       </c>
-      <c r="F55" s="50">
+      <c r="F55" s="49">
         <f t="shared" si="3"/>
         <v>7323.0372010526953</v>
       </c>
-      <c r="G55" s="28">
+      <c r="G55" s="27">
         <f t="shared" si="4"/>
         <v>59160.731404432059</v>
       </c>
-      <c r="H55" s="28">
+      <c r="H55" s="27">
         <f t="shared" si="5"/>
         <v>198467.49185788829</v>
       </c>
-      <c r="I55" s="28">
+      <c r="I55" s="27">
         <f t="shared" si="6"/>
         <v>437273.94652469753</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="51"/>
-      <c r="B56" s="49"/>
-      <c r="C56" s="50"/>
-      <c r="D56" s="50"/>
-      <c r="E56" s="50"/>
-      <c r="F56" s="50"/>
-      <c r="G56" s="28"/>
-      <c r="H56" s="28"/>
-      <c r="I56" s="28"/>
+      <c r="A56" s="50"/>
+      <c r="B56" s="48"/>
+      <c r="C56" s="49"/>
+      <c r="D56" s="49"/>
+      <c r="E56" s="49"/>
+      <c r="F56" s="49"/>
+      <c r="G56" s="27"/>
+      <c r="H56" s="27"/>
+      <c r="I56" s="27"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="51"/>
-      <c r="B57" s="49"/>
-      <c r="C57" s="50"/>
-      <c r="D57" s="50"/>
-      <c r="E57" s="50"/>
-      <c r="F57" s="50"/>
-      <c r="G57" s="28"/>
-      <c r="H57" s="28"/>
-      <c r="I57" s="28"/>
+      <c r="A57" s="50"/>
+      <c r="B57" s="48"/>
+      <c r="C57" s="49"/>
+      <c r="D57" s="49"/>
+      <c r="E57" s="49"/>
+      <c r="F57" s="49"/>
+      <c r="G57" s="27"/>
+      <c r="H57" s="27"/>
+      <c r="I57" s="27"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="51"/>
-      <c r="B58" s="49"/>
-      <c r="C58" s="50"/>
-      <c r="D58" s="50"/>
-      <c r="E58" s="50"/>
-      <c r="F58" s="50"/>
-      <c r="G58" s="28"/>
-      <c r="H58" s="28"/>
-      <c r="I58" s="28"/>
+      <c r="A58" s="50"/>
+      <c r="B58" s="48"/>
+      <c r="C58" s="49"/>
+      <c r="D58" s="49"/>
+      <c r="E58" s="49"/>
+      <c r="F58" s="49"/>
+      <c r="G58" s="27"/>
+      <c r="H58" s="27"/>
+      <c r="I58" s="27"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="51"/>
-      <c r="B59" s="49"/>
-      <c r="C59" s="50"/>
-      <c r="D59" s="50"/>
-      <c r="E59" s="50"/>
-      <c r="F59" s="50"/>
-      <c r="G59" s="28"/>
-      <c r="H59" s="28"/>
-      <c r="I59" s="28"/>
+      <c r="A59" s="50"/>
+      <c r="B59" s="48"/>
+      <c r="C59" s="49"/>
+      <c r="D59" s="49"/>
+      <c r="E59" s="49"/>
+      <c r="F59" s="49"/>
+      <c r="G59" s="27"/>
+      <c r="H59" s="27"/>
+      <c r="I59" s="27"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="51"/>
-      <c r="B60" s="49"/>
-      <c r="C60" s="50"/>
-      <c r="D60" s="50"/>
-      <c r="E60" s="50"/>
-      <c r="F60" s="50"/>
-      <c r="G60" s="28"/>
-      <c r="H60" s="28"/>
-      <c r="I60" s="28"/>
+      <c r="A60" s="50"/>
+      <c r="B60" s="48"/>
+      <c r="C60" s="49"/>
+      <c r="D60" s="49"/>
+      <c r="E60" s="49"/>
+      <c r="F60" s="49"/>
+      <c r="G60" s="27"/>
+      <c r="H60" s="27"/>
+      <c r="I60" s="27"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="51"/>
-      <c r="B61" s="49"/>
-      <c r="C61" s="50"/>
-      <c r="D61" s="50"/>
-      <c r="E61" s="50"/>
-      <c r="F61" s="50"/>
-      <c r="G61" s="28"/>
-      <c r="H61" s="28"/>
-      <c r="I61" s="28"/>
+      <c r="A61" s="50"/>
+      <c r="B61" s="48"/>
+      <c r="C61" s="49"/>
+      <c r="D61" s="49"/>
+      <c r="E61" s="49"/>
+      <c r="F61" s="49"/>
+      <c r="G61" s="27"/>
+      <c r="H61" s="27"/>
+      <c r="I61" s="27"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="51"/>
-      <c r="B62" s="49"/>
-      <c r="C62" s="50"/>
-      <c r="D62" s="50"/>
-      <c r="E62" s="50"/>
-      <c r="F62" s="50"/>
-      <c r="G62" s="28"/>
-      <c r="H62" s="28"/>
-      <c r="I62" s="28"/>
+      <c r="A62" s="50"/>
+      <c r="B62" s="48"/>
+      <c r="C62" s="49"/>
+      <c r="D62" s="49"/>
+      <c r="E62" s="49"/>
+      <c r="F62" s="49"/>
+      <c r="G62" s="27"/>
+      <c r="H62" s="27"/>
+      <c r="I62" s="27"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="51"/>
-      <c r="B63" s="49"/>
-      <c r="C63" s="50"/>
-      <c r="D63" s="50"/>
-      <c r="E63" s="50"/>
-      <c r="F63" s="50"/>
-      <c r="G63" s="28"/>
-      <c r="H63" s="28"/>
-      <c r="I63" s="28"/>
+      <c r="A63" s="50"/>
+      <c r="B63" s="48"/>
+      <c r="C63" s="49"/>
+      <c r="D63" s="49"/>
+      <c r="E63" s="49"/>
+      <c r="F63" s="49"/>
+      <c r="G63" s="27"/>
+      <c r="H63" s="27"/>
+      <c r="I63" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -6311,7 +6307,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6611,10 +6607,10 @@
       <c r="A8" t="s">
         <v>190</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <v>153235.05755748</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <f>Base!E35</f>
         <v>503144654.08805031</v>
       </c>
@@ -6623,10 +6619,10 @@
       <c r="A9" t="s">
         <v>214</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <v>466325.30448643101</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <f t="shared" ref="C9:C18" si="0">$C$8*B9/$B$8</f>
         <v>1531171050.2690833</v>
       </c>
@@ -6635,10 +6631,10 @@
       <c r="A10" t="s">
         <v>191</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="3">
         <v>452531.647721252</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <f t="shared" si="0"/>
         <v>1485879817.4901745</v>
       </c>
@@ -6647,10 +6643,10 @@
       <c r="A11" t="s">
         <v>215</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="3">
         <v>443281.918788651</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <f t="shared" si="0"/>
         <v>1455508492.9487522</v>
       </c>
@@ -6659,10 +6655,10 @@
       <c r="A12" t="s">
         <v>192</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="3">
         <v>441949.46191361902</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <f t="shared" si="0"/>
         <v>1451133393.907048</v>
       </c>
@@ -6671,10 +6667,10 @@
       <c r="A13" t="s">
         <v>216</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="3">
         <v>441805.20056338498</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <f t="shared" si="0"/>
         <v>1450659714.2653346</v>
       </c>
@@ -6683,10 +6679,10 @@
       <c r="A14" t="s">
         <v>193</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="3">
         <v>441797.61264709203</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <f t="shared" si="0"/>
         <v>1450634799.4737763</v>
       </c>
@@ -6695,10 +6691,10 @@
       <c r="A15" t="s">
         <v>217</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="3">
         <v>441798.91599598498</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <f t="shared" si="0"/>
         <v>1450639078.9972637</v>
       </c>
@@ -6707,10 +6703,10 @@
       <c r="A16" t="s">
         <v>194</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="3">
         <v>441799.42197618203</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="3">
         <f t="shared" si="0"/>
         <v>1450640740.3744659</v>
       </c>
@@ -6719,10 +6715,10 @@
       <c r="A17" t="s">
         <v>218</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="3">
         <v>441799.42197618203</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="3">
         <f t="shared" si="0"/>
         <v>1450640740.3744659</v>
       </c>
@@ -6731,10 +6727,10 @@
       <c r="A18" t="s">
         <v>195</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="3">
         <v>441799.42197618203</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="3">
         <f t="shared" si="0"/>
         <v>1450640740.3744659</v>
       </c>
@@ -6772,7 +6768,7 @@
       <c r="A2" t="s">
         <v>159</v>
       </c>
-      <c r="B2" s="52">
+      <c r="B2" s="51">
         <v>1E+18</v>
       </c>
     </row>
@@ -6780,7 +6776,7 @@
       <c r="A3" t="s">
         <v>287</v>
       </c>
-      <c r="B3" s="52">
+      <c r="B3" s="51">
         <v>1E+18</v>
       </c>
     </row>
@@ -6788,7 +6784,7 @@
       <c r="A4" t="s">
         <v>293</v>
       </c>
-      <c r="B4" s="52">
+      <c r="B4" s="51">
         <v>1E+18</v>
       </c>
     </row>
@@ -6796,7 +6792,7 @@
       <c r="A5" t="s">
         <v>172</v>
       </c>
-      <c r="B5" s="52">
+      <c r="B5" s="51">
         <v>1E+18</v>
       </c>
     </row>
@@ -6815,7 +6811,7 @@
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="16.140625" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" style="38" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" style="37" customWidth="1"/>
     <col min="4" max="4" width="25.28515625" customWidth="1"/>
     <col min="5" max="5" width="32.7109375" customWidth="1"/>
     <col min="6" max="6" width="15.42578125" customWidth="1"/>
@@ -6906,7 +6902,7 @@
       <c r="B3" t="s">
         <v>150</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="37" t="s">
         <v>151</v>
       </c>
       <c r="D3" t="s">
@@ -6968,7 +6964,7 @@
       <c r="B4" t="s">
         <v>156</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="37" t="s">
         <v>157</v>
       </c>
       <c r="D4" t="s">
@@ -7030,7 +7026,7 @@
       <c r="B5" t="s">
         <v>159</v>
       </c>
-      <c r="C5" s="38" t="s">
+      <c r="C5" s="37" t="s">
         <v>160</v>
       </c>
       <c r="D5" t="s">
@@ -7192,17 +7188,17 @@
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="3">
         <f>Base!C59</f>
         <v>255044.52562500001</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="3">
         <f>D2</f>
         <v>255044.52562500001</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D3" s="4"/>
+      <c r="D3" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -7837,82 +7833,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="38" t="s">
         <v>300</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="38" t="s">
         <v>157</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="38" t="s">
         <v>156</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="38" t="s">
         <v>174</v>
       </c>
-      <c r="E1" s="39" t="s">
+      <c r="E1" s="38" t="s">
         <v>199</v>
       </c>
-      <c r="F1" s="39" t="s">
+      <c r="F1" s="38" t="s">
         <v>189</v>
       </c>
-      <c r="G1" s="39" t="s">
+      <c r="G1" s="38" t="s">
         <v>132</v>
       </c>
-      <c r="I1" s="39" t="s">
+      <c r="I1" s="38" t="s">
         <v>299</v>
       </c>
-      <c r="J1" s="39" t="s">
+      <c r="J1" s="38" t="s">
         <v>157</v>
       </c>
-      <c r="K1" s="39" t="s">
+      <c r="K1" s="38" t="s">
         <v>156</v>
       </c>
-      <c r="L1" s="39" t="s">
+      <c r="L1" s="38" t="s">
         <v>156</v>
       </c>
-      <c r="M1" s="39" t="s">
+      <c r="M1" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="N1" s="39" t="s">
+      <c r="N1" s="38" t="s">
         <v>174</v>
       </c>
-      <c r="O1" s="39" t="s">
+      <c r="O1" s="38" t="s">
         <v>181</v>
       </c>
-      <c r="Q1" s="39" t="s">
+      <c r="Q1" s="38" t="s">
         <v>157</v>
       </c>
-      <c r="R1" s="39" t="s">
+      <c r="R1" s="38" t="s">
         <v>174</v>
       </c>
-      <c r="S1" s="39" t="s">
+      <c r="S1" s="38" t="s">
         <v>199</v>
       </c>
-      <c r="T1" s="39" t="s">
+      <c r="T1" s="38" t="s">
         <v>200</v>
       </c>
-      <c r="U1" s="39" t="s">
+      <c r="U1" s="38" t="s">
         <v>128</v>
       </c>
-      <c r="V1" s="39" t="s">
+      <c r="V1" s="38" t="s">
         <v>201</v>
       </c>
-      <c r="W1" s="39" t="s">
+      <c r="W1" s="38" t="s">
         <v>202</v>
       </c>
-      <c r="X1" s="39" t="s">
+      <c r="X1" s="38" t="s">
         <v>129</v>
       </c>
-      <c r="Y1" s="39" t="s">
+      <c r="Y1" s="38" t="s">
         <v>203</v>
       </c>
-      <c r="Z1" s="39" t="s">
+      <c r="Z1" s="38" t="s">
         <v>204</v>
       </c>
-      <c r="AA1" s="39" t="s">
+      <c r="AA1" s="38" t="s">
         <v>205</v>
       </c>
-      <c r="AB1" s="39" t="s">
+      <c r="AB1" s="38" t="s">
         <v>206</v>
       </c>
     </row>
@@ -7944,41 +7940,41 @@
       <c r="N2" t="s">
         <v>178</v>
       </c>
-      <c r="O2" s="4">
+      <c r="O2" s="3">
         <f>Base!C67</f>
         <v>3777.7777777777783</v>
       </c>
-      <c r="Q2" s="40" t="s">
+      <c r="Q2" s="39" t="s">
         <v>165</v>
       </c>
-      <c r="R2" s="40" t="s">
+      <c r="R2" s="39" t="s">
         <v>178</v>
       </c>
-      <c r="S2" s="40"/>
-      <c r="T2" s="41">
+      <c r="S2" s="39"/>
+      <c r="T2" s="40">
         <f>Base!B15</f>
         <v>2</v>
       </c>
-      <c r="U2" s="42">
+      <c r="U2" s="41">
         <f>Base!C65</f>
         <v>2.3561643835616439</v>
       </c>
-      <c r="V2" s="40">
+      <c r="V2" s="39">
         <v>0</v>
       </c>
-      <c r="W2" s="40" t="s">
+      <c r="W2" s="39" t="s">
         <v>207</v>
       </c>
-      <c r="X2" s="40">
+      <c r="X2" s="39">
         <f>Base!C66</f>
         <v>23994000</v>
       </c>
-      <c r="Y2" s="40" t="s">
+      <c r="Y2" s="39" t="s">
         <v>208</v>
       </c>
-      <c r="Z2" s="40"/>
-      <c r="AA2" s="40"/>
-      <c r="AB2" s="40"/>
+      <c r="Z2" s="39"/>
+      <c r="AA2" s="39"/>
+      <c r="AB2" s="39"/>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -7990,47 +7986,47 @@
       <c r="C3" t="s">
         <v>168</v>
       </c>
-      <c r="I3" s="40" t="s">
+      <c r="I3" s="39" t="s">
         <v>184</v>
       </c>
-      <c r="J3" s="40" t="s">
+      <c r="J3" s="39" t="s">
         <v>165</v>
       </c>
-      <c r="K3" s="40" t="s">
+      <c r="K3" s="39" t="s">
         <v>168</v>
       </c>
-      <c r="L3" s="40" t="s">
+      <c r="L3" s="39" t="s">
         <v>162</v>
       </c>
-      <c r="M3" s="40" t="s">
+      <c r="M3" s="39" t="s">
         <v>187</v>
       </c>
-      <c r="N3" s="40" t="s">
+      <c r="N3" s="39" t="s">
         <v>178</v>
       </c>
-      <c r="O3" s="43">
+      <c r="O3" s="42">
         <f>Base!C68</f>
         <v>2266.666666666667</v>
       </c>
-      <c r="Q3" s="44" t="s">
+      <c r="Q3" s="43" t="s">
         <v>170</v>
       </c>
-      <c r="R3" s="44" t="s">
+      <c r="R3" s="43" t="s">
         <v>178</v>
       </c>
-      <c r="S3" s="44" t="b">
+      <c r="S3" s="43" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="T3" s="45"/>
-      <c r="U3" s="46"/>
-      <c r="V3" s="44"/>
-      <c r="W3" s="44"/>
-      <c r="X3" s="44"/>
-      <c r="Y3" s="44"/>
-      <c r="Z3" s="44"/>
-      <c r="AA3" s="44"/>
-      <c r="AB3" s="44"/>
+      <c r="T3" s="44"/>
+      <c r="U3" s="45"/>
+      <c r="V3" s="43"/>
+      <c r="W3" s="43"/>
+      <c r="X3" s="43"/>
+      <c r="Y3" s="43"/>
+      <c r="Z3" s="43"/>
+      <c r="AA3" s="43"/>
+      <c r="AB3" s="43"/>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -8045,70 +8041,70 @@
       <c r="D4" t="s">
         <v>209</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="6">
         <f>Base!B14</f>
         <v>31</v>
       </c>
-      <c r="G4" s="28">
+      <c r="G4" s="27">
         <f>Base!C69</f>
         <v>5.5</v>
       </c>
-      <c r="I4" s="44" t="s">
+      <c r="I4" s="43" t="s">
         <v>184</v>
       </c>
-      <c r="J4" s="44" t="s">
+      <c r="J4" s="43" t="s">
         <v>170</v>
       </c>
-      <c r="K4" s="44" t="s">
+      <c r="K4" s="43" t="s">
         <v>161</v>
       </c>
-      <c r="L4" s="44" t="s">
+      <c r="L4" s="43" t="s">
         <v>162</v>
       </c>
-      <c r="M4" s="44" t="s">
+      <c r="M4" s="43" t="s">
         <v>187</v>
       </c>
       <c r="N4" t="s">
         <v>210</v>
       </c>
-      <c r="O4" s="47">
+      <c r="O4" s="46">
         <f>Base!C73</f>
         <v>4111.1111111111113</v>
       </c>
-      <c r="Q4" s="40" t="s">
+      <c r="Q4" s="39" t="s">
         <v>170</v>
       </c>
-      <c r="R4" s="40" t="s">
+      <c r="R4" s="39" t="s">
         <v>210</v>
       </c>
-      <c r="S4" s="40" t="b">
+      <c r="S4" s="39" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="T4" s="41">
+      <c r="T4" s="40">
         <f>T2</f>
         <v>2</v>
       </c>
-      <c r="U4" s="42">
+      <c r="U4" s="41">
         <f>Base!C71</f>
         <v>2.2972602739726029</v>
       </c>
-      <c r="V4" s="40">
+      <c r="V4" s="39">
         <v>0</v>
       </c>
-      <c r="W4" s="40" t="s">
+      <c r="W4" s="39" t="s">
         <v>207</v>
       </c>
-      <c r="X4" s="40">
+      <c r="X4" s="39">
         <f>Base!C72</f>
         <v>23354160</v>
       </c>
-      <c r="Y4" s="40" t="s">
+      <c r="Y4" s="39" t="s">
         <v>208</v>
       </c>
-      <c r="Z4" s="40"/>
-      <c r="AA4" s="40"/>
-      <c r="AB4" s="40"/>
+      <c r="Z4" s="39"/>
+      <c r="AA4" s="39"/>
+      <c r="AB4" s="39"/>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -8127,25 +8123,25 @@
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="I5" s="40" t="s">
+      <c r="I5" s="39" t="s">
         <v>184</v>
       </c>
-      <c r="J5" s="40" t="s">
+      <c r="J5" s="39" t="s">
         <v>170</v>
       </c>
-      <c r="K5" s="40" t="s">
+      <c r="K5" s="39" t="s">
         <v>168</v>
       </c>
-      <c r="L5" s="40" t="s">
+      <c r="L5" s="39" t="s">
         <v>162</v>
       </c>
-      <c r="M5" s="40" t="s">
+      <c r="M5" s="39" t="s">
         <v>187</v>
       </c>
-      <c r="N5" s="40" t="s">
+      <c r="N5" s="39" t="s">
         <v>210</v>
       </c>
-      <c r="O5" s="43">
+      <c r="O5" s="42">
         <f>Base!C74</f>
         <v>2466.6666666666665</v>
       </c>
@@ -8181,29 +8177,29 @@
       <c r="D7" t="s">
         <v>211</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="6">
         <f>F4</f>
         <v>31</v>
       </c>
-      <c r="G7" s="28">
+      <c r="G7" s="27">
         <f>G4</f>
         <v>5.5</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="43" t="s">
         <v>183</v>
       </c>
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="43" t="s">
         <v>170</v>
       </c>
-      <c r="C8" s="44" t="s">
+      <c r="C8" s="43" t="s">
         <v>162</v>
       </c>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -8229,11 +8225,11 @@
       <c r="D10" t="s">
         <v>209</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="6">
         <f>Base!B14</f>
         <v>31</v>
       </c>
-      <c r="G10" s="28">
+      <c r="G10" s="27">
         <f>Base!C75</f>
         <v>5.7520661157024797</v>
       </c>
@@ -8287,23 +8283,23 @@
       <c r="D13" t="s">
         <v>211</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="6">
         <f>F10</f>
         <v>31</v>
       </c>
-      <c r="G13" s="28">
+      <c r="G13" s="27">
         <f>G10</f>
         <v>5.7520661157024797</v>
       </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A14" s="44"/>
-      <c r="B14" s="44"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
+      <c r="A14" s="43"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/InputData/PlatformOperation.xlsx
+++ b/InputData/PlatformOperation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\PhD project\Products\Models\OffPlatfEner\InputData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB78DAEA-4728-40CE-A681-3618D7E03F57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47D2E3C6-BFE4-45EB-B1E5-F27D8EA85817}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="12645" tabRatio="661" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="661" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -586,7 +586,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="306">
   <si>
     <t>Specification document (open access)</t>
   </si>
@@ -1686,7 +1686,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1750,6 +1750,7 @@
     <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -2138,7 +2139,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7799,8 +7800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:AB14"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7922,6 +7923,9 @@
       <c r="C2" t="s">
         <v>162</v>
       </c>
+      <c r="D2" t="s">
+        <v>178</v>
+      </c>
       <c r="I2" t="s">
         <v>184</v>
       </c>
@@ -7985,6 +7989,9 @@
       </c>
       <c r="C3" t="s">
         <v>168</v>
+      </c>
+      <c r="D3" t="s">
+        <v>178</v>
       </c>
       <c r="I3" s="39" t="s">
         <v>184</v>
@@ -8174,7 +8181,7 @@
       <c r="C7" t="s">
         <v>167</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="39" t="s">
         <v>211</v>
       </c>
       <c r="F7" s="6">
@@ -8196,7 +8203,9 @@
       <c r="C8" s="43" t="s">
         <v>162</v>
       </c>
-      <c r="D8" s="43"/>
+      <c r="D8" s="53" t="s">
+        <v>178</v>
+      </c>
       <c r="E8" s="43"/>
       <c r="F8" s="43"/>
       <c r="G8" s="43"/>
@@ -8210,6 +8219,9 @@
       </c>
       <c r="C9" t="s">
         <v>168</v>
+      </c>
+      <c r="D9" s="53" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
